--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -8,27 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDD83DF-7895-435A-8070-4930C4D62B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83512C81-352D-42B1-8102-1253EAB38F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1474" yWindow="840" windowWidth="19689" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="パターン一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="メソッド新規のものを追加するには" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$6:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">パターン一覧!$B$6:$B$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -233,6 +242,174 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ソンギリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①は形の判断のときに　：Is_pattern
+②はエントリー条件成立の時に、判断する。:hyouka_zig_kakutei
+ case1のエントリーのところで確認</t>
+    <rPh sb="2" eb="3">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OOOOO.mq5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUM_OF_TMBs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増加</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMBｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に追加</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意、歯抜けにはできない。０から詰めておくこと</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハヌ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeMethodFW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>classTradeMethod_Xn_nn.mqh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記からclassと拡張子をとったものとする</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カクチョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1-5</t>
+  </si>
+  <si>
+    <t>A1-4に対して、Exit条件をCEの延長線の５％以内になったら利確。
+ddは線分CEとDの距離とする。→CとDから５％移動した点から、線分CGを移動させる。
+Ｔｐｓｌの計算も、５％以内の時に変更して、１．１倍以上なら入る。</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>エンチョウセン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -308,6 +485,2274 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260386</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>321997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>737026</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>451957</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="インク 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB034E0-CD8A-4C16-98A5-F7BD58C80711}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2445902" y="6150041"/>
+            <a:ext cx="476640" cy="129960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="インク 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB034E0-CD8A-4C16-98A5-F7BD58C80711}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2436902" y="6141041"/>
+              <a:ext cx="494280" cy="147600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91546</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>460957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447586</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>739957</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="インク 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BCFE84-3ECE-4A11-8B67-D6C0EC3A0BE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2277062" y="6289001"/>
+            <a:ext cx="356040" cy="279000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="インク 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BCFE84-3ECE-4A11-8B67-D6C0EC3A0BE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2268422" y="6280001"/>
+              <a:ext cx="373680" cy="296640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1840426</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>193477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2438386</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>449437</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="48" name="インク 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA8285F-D11D-4925-A60C-BB468663D55B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4025942" y="6021521"/>
+            <a:ext cx="597960" cy="255960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="48" name="インク 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA8285F-D11D-4925-A60C-BB468663D55B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4017297" y="6012534"/>
+              <a:ext cx="615611" cy="273575"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>825997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>794986</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1334317</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="49" name="インク 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30F2317-D09B-4DFE-906B-DB463E92EC1B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2509622" y="6654041"/>
+            <a:ext cx="470880" cy="508320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="49" name="インク 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30F2317-D09B-4DFE-906B-DB463E92EC1B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2500982" y="6645401"/>
+              <a:ext cx="488520" cy="525960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>459106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1356637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1438717</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="57" name="インク 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0093FEE-5C02-4076-94BA-63F95011B9B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2644622" y="7184681"/>
+            <a:ext cx="45720" cy="82080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="インク 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0093FEE-5C02-4076-94BA-63F95011B9B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2635982" y="7175681"/>
+              <a:ext cx="63360" cy="99720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>217906</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>622237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1289986</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1217677</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="73" name="インク 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0CBCEBA-30CC-4DBB-BD80-B1510DA1C410}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2403422" y="6450281"/>
+            <a:ext cx="1072080" cy="595440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="73" name="インク 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0CBCEBA-30CC-4DBB-BD80-B1510DA1C410}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2394785" y="6441641"/>
+              <a:ext cx="1089714" cy="613080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1463866</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>891157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2174866</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1076917</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="91" name="インク 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50ACB342-73B8-4665-960E-D616FDD0682A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3649382" y="6719201"/>
+            <a:ext cx="711000" cy="185760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="91" name="インク 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50ACB342-73B8-4665-960E-D616FDD0682A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3640742" y="6710561"/>
+              <a:ext cx="728640" cy="203400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26026</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>250357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167506</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>396157</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="94" name="インク 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A7F183-F372-4A0D-9990-8CBA771637E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2211542" y="6078401"/>
+            <a:ext cx="141480" cy="145800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="94" name="インク 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A7F183-F372-4A0D-9990-8CBA771637E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2202542" y="6069401"/>
+              <a:ext cx="159120" cy="163440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50506</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1524037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>386026</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1869997</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="101" name="インク 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0AFF3C-22AF-4B05-8B04-F6A8B7C2B163}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2236022" y="7352081"/>
+            <a:ext cx="335520" cy="345960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="101" name="インク 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0AFF3C-22AF-4B05-8B04-F6A8B7C2B163}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2227032" y="7343081"/>
+              <a:ext cx="353141" cy="363600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>728746</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1712266</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1024357</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="119" name="インク 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DCE22A-8643-4113-B20F-3985B09D54A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2914262" y="6046001"/>
+            <a:ext cx="983520" cy="806400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="119" name="インク 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DCE22A-8643-4113-B20F-3985B09D54A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2905265" y="6037001"/>
+              <a:ext cx="1001154" cy="824040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>293506</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2025157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>649546</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2197237</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="159" name="インク 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19621138-CE24-4575-978F-1B70F3B6F7DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2479022" y="7853201"/>
+            <a:ext cx="356040" cy="172080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="159" name="インク 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19621138-CE24-4575-978F-1B70F3B6F7DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2470022" y="7844201"/>
+              <a:ext cx="373680" cy="189720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>328066</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2331517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>656746</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2474077</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="164" name="インク 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18642DB9-976E-4483-B4BD-D5BF48E98FC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2513582" y="8159561"/>
+            <a:ext cx="328680" cy="142560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="164" name="インク 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18642DB9-976E-4483-B4BD-D5BF48E98FC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2504933" y="8150921"/>
+              <a:ext cx="346339" cy="160200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>943306</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2300197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1564666</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2468677</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="177" name="インク 176">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4A7D5E-5DDB-4804-B993-1C479E5579FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3128822" y="8128241"/>
+            <a:ext cx="621360" cy="168480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="177" name="インク 176">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4A7D5E-5DDB-4804-B993-1C479E5579FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3120177" y="8119241"/>
+              <a:ext cx="639010" cy="186120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1713706</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2325037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1849786</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2484517</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="179" name="インク 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CA2372-D969-4991-B0F8-A3FEFACDAED6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3899222" y="8153081"/>
+            <a:ext cx="136080" cy="159480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="179" name="インク 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CA2372-D969-4991-B0F8-A3FEFACDAED6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3890222" y="8144441"/>
+              <a:ext cx="153720" cy="177120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408786</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1418197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2929786</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2016877</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="185" name="インク 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F9359-751B-4690-AE7A-31D5FB61B353}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3594302" y="7246241"/>
+            <a:ext cx="1521000" cy="598680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="185" name="インク 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F9359-751B-4690-AE7A-31D5FB61B353}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3585302" y="7237601"/>
+              <a:ext cx="1538640" cy="616320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549826</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1671997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1939786</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2190037</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="197" name="インク 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDA87ED-826E-4079-B64C-1FB28ADBA2D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2735342" y="7500041"/>
+            <a:ext cx="1389960" cy="518040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="197" name="インク 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDA87ED-826E-4079-B64C-1FB28ADBA2D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2726700" y="7491401"/>
+              <a:ext cx="1407605" cy="535680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>588346</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2612677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1149226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2931997</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="206" name="インク 205">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E3A05A-DA08-4507-B392-3703AF7E7D28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2773862" y="8440721"/>
+            <a:ext cx="560880" cy="319320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="206" name="インク 205">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E3A05A-DA08-4507-B392-3703AF7E7D28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2765222" y="8431721"/>
+              <a:ext cx="578520" cy="336960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1556746</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2664877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1680946</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2773597</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="207" name="インク 206">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C1C38C-A218-4635-8235-8B241BEA808F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3742262" y="8492921"/>
+            <a:ext cx="124200" cy="108720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="207" name="インク 206">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C1C38C-A218-4635-8235-8B241BEA808F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3733622" y="8483921"/>
+              <a:ext cx="141840" cy="126360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1888666</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2913997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2147146</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3013357</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="216" name="インク 215">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3259BD65-BBB4-4916-B35D-287E75F96FD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4074182" y="8742041"/>
+            <a:ext cx="258480" cy="99360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="216" name="インク 215">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3259BD65-BBB4-4916-B35D-287E75F96FD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4065542" y="8733370"/>
+              <a:ext cx="276120" cy="117064"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1926826</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2647237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2216626</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2822557</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="217" name="インク 216">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB0F652-B219-4286-83E4-7EE907F7508A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4112342" y="8475281"/>
+            <a:ext cx="289800" cy="175320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="217" name="インク 216">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB0F652-B219-4286-83E4-7EE907F7508A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4103342" y="8466281"/>
+              <a:ext cx="307440" cy="192960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1518226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2850637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1616146</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2911837</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="218" name="インク 217">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5458A72-6000-4089-A874-F6CF23BCBBAE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3703742" y="8678681"/>
+            <a:ext cx="97920" cy="61200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="218" name="インク 217">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5458A72-6000-4089-A874-F6CF23BCBBAE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3695102" y="8669990"/>
+              <a:ext cx="115560" cy="78944"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2500306</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2648677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2962186</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3106957</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="228" name="インク 227">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABE6A99-C96D-48C2-A688-05081D221EDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4685822" y="8476721"/>
+            <a:ext cx="461880" cy="458280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="228" name="インク 227">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABE6A99-C96D-48C2-A688-05081D221EDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4676822" y="8468081"/>
+              <a:ext cx="479520" cy="475920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:02:19.513"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">99 333 9359 0 0,'0'0'3188'0'0,"-5"-8"3357"0"0,2 5-6114 0 0,2 2-365 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 2 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,-2 2-1 0 0,-7 1-65 0 0,10-4 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-7 17 34 0 0,6-15-76 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 4-1 0 0,0-5 141 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,3 1 1 0 0,6 0-49 0 0,-9 0-35 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,4 2 1 0 0,-7-3-109 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="398.23">215 158 8143 0 0,'0'0'7288'0'0,"-3"7"-5758"0"0,-1-2-1239 0 0,3-5-244 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 5 194 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-3 8-1 0 0,-2 11 568 0 0,-4 35 504 0 0,10-53-1164 0 0,0 0 0 0 0,1-1 0 0 0,-1 12 0 0 0,1 7 282 0 0,4 27 107 0 0,-1-16-160 0 0,-3-36-388 0 0,3 12 72 0 0,-2-11-328 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,6 4-4820 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="785.22">435 331 7343 0 0,'0'0'2291'0'0,"-17"2"4092"0"0,-16 14-2469 0 0,27-14-3808 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,-6 8 0 0 0,1-1-106 0 0,9-10 11 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 2 0 0 0,-4 14 271 0 0,4-16-243 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 4 0 0 0,2 2 68 0 0,-4-7 86 0 0,1 0-97 0 0,5 0-170 0 0,4 2 339 0 0,0 0 0 0 0,19 1 1 0 0,-27-4-393 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,4-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1122.72">495 153 10999 0 0,'-1'18'1168'0'0,"2"30"2714"0"0,-3-32-2470 0 0,1 1 0 0 0,1 1 1 0 0,1 16-1 0 0,8 49-72 0 0,-8-56-3379 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2720.26">1081 244 9359 0 0,'-8'-7'9176'0'0,"3"8"-9077"0"0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-6 6 1 0 0,-24 15 316 0 0,-1 0-415 0 0,14-2 376 0 0,20-22-323 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,4 4 107 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-2-1 0 0,8 4 0 0 0,-12-5-155 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,5 1 0 0 0,3 0 155 0 0,0 2 110 0 0,-6-1-746 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,11 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3111.45">1323 227 17191 0 0,'0'0'1792'0'0,"-4"8"-1642"0"0,0 0 44 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,-14 11 1 0 0,-5 4-106 0 0,-20 18 347 0 0,38-31-213 0 0,5-7-123 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 3 0 0 0,-1-3 348 0 0,5 7-95 0 0,-3-5-290 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,3 1-1 0 0,-4-2 2 0 0,4 6 67 0 0,2-1 16 0 0,6 2-2666 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:02:50.173"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">416 2 10159 0 0,'0'0'1768'0'0,"2"17"2314"0"0,-4 2-2143 0 0,3-15-1755 0 0,-2 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 5 1 0 0,-1 13 410 0 0,-2 5-117 0 0,1-15-202 0 0,0 0 0 0 0,1 0 0 0 0,1 1 1 0 0,-2 13-1 0 0,3-16-133 0 0,1-10-210 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415.05">414 14 6535 0 0,'0'0'500'0'0,"15"-3"3712"0"0,-12 4-3779 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 6 0 0 0,13 16 1100 0 0,9 2 389 0 0,-25-26-1878 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-1 1 0 0,0 0 19 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-4 0 0 0,8-5 82 0 0,-12 9-129 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-2 0 0 0,-1-2-5 0 0,-4 67 896 0 0,8-25-569 0 0,-2-19-507 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="832.8">731 202 14687 0 0,'0'0'1646'0'0,"7"-12"804"0"0,-3-7-1492 0 0,2 0 0 0 0,0 1 0 0 0,1 0 0 0 0,17-31-1 0 0,-19 41-854 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,11-10 0 0 0,-14 16-106 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,-5 2 25 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 2 0 0 0,-1-2-65 0 0,0 2-55 0 0,3 7 78 0 0,1-1 0 0 0,-2 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-3 19 0 0 0,2-28 20 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-3 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 2-1 0 0,-6 8-196 0 0,4-8 69 0 0,2-1-150 0 0,-1 4 258 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.66">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.06">996 33 15199 0 0,'0'0'6352'0'0,"18"10"-4313"0"0,-7-3-1877 0 0,4 2 66 0 0,-1 1 0 0 0,0 0-1 0 0,17 17 1 0 0,-26-21-244 0 0,-4-5-63 0 0,1 4 1894 0 0,0-2-3438 0 0,22-14-18182 0 0,-23 9 20155 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1-2 0 0 0,-1 3-173 0 0,-1 0-25 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-4-3 2903 0 0,-37 9 5076 0 0,31-3-8017 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-14 11 0 0 0,8-5-67 0 0,1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-13 18-1 0 0,13-21-43 0 0,12-9-4 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 0-367 0 0,5-1 174 0 0,1-1 97 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12192.16">1415 5 6535 0 0,'-3'1'5160'0'0,"-11"3"-1348"0"0,13-3-3604 0 0,-2-1-29 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 3 0 0 0,-10 11 142 0 0,1 0-1 0 0,0 0 1 0 0,2 1 0 0 0,-18 33 0 0 0,16-21 392 0 0,1 0 0 0 0,2 1 0 0 0,-10 44 0 0 0,17-61-586 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,2 0 0 0 0,6 19 0 0 0,-6-24-76 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,12 9 0 0 0,-17-14-168 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0-324 0 0,4-4-1364 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14506.99">1537 566 11743 0 0,'0'0'1338'0'0,"22"-34"3115"0"0,-17 25-3954 0 0,0 1 0 0 0,0 0 0 0 0,11-14 0 0 0,-1 3-199 0 0,42-62 463 0 0,-45 62-287 0 0,2 2 1 0 0,0 0-1 0 0,19-18 1 0 0,-30 32-398 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,4-4-1 0 0,-3 3 8 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 0 0 0,-9 8-61 0 0,-3 3-18 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1-4 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,3 12 66 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-5 22 0 0 0,1-14-43 0 0,1-4 26 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 32 0 0 0,3-30 20 0 0,-1 0-69 0 0,1-15-2737 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14888.16">1698 401 15119 0 0,'4'1'358'0'0,"0"-1"0"0"0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,5-3 0 0 0,-5 3-202 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,4 1 0 0 0,23 3-6470 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15572.38">2066 195 18367 0 0,'0'0'3243'0'0,"2"10"-1946"0"0,-1 7-981 0 0,0 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,-7 22-1 0 0,2-2-247 0 0,7-36-72 0 0,-1 8 53 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 1 0 0,0 0-1 0 0,-8 10 0 0 0,12-17-302 0 0,-6-18-2426 0 0,5 16 2531 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,9-88-6099 0 0,-8 87 6279 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,3-3 1 0 0,2-5 1491 0 0,6 0 461 0 0,-13 11-1852 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-2 0 0 0,-1 3-48 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,16 3 528 0 0,-5 1-261 0 0,0 1-1 0 0,19 12 1 0 0,7 2-158 0 0,-28-15-134 0 0,0 0-1 0 0,0 1 0 0 0,-1 1 1 0 0,14 9-1 0 0,-22-14-40 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 2 1 0 0,0 1 36 0 0,-1 1-19 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,-5 3 0 0 0,-32 27-32 0 0,37-32 1 0 0,1 0-3 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-4 0 0 0 0,-8-4 197 0 0,19 4-659 0 0,13 2 359 0 0,-5 1 142 0 0,-9-1-35 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,3 4-1 0 0,-2-3 24 0 0,-2-3-17 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 2 1 0 0,0-1 16 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,-3 3 0 0 0,-5 1-22 0 0,0 0 0 0 0,0-1 0 0 0,-14 3 0 0 0,25-6-8 0 0,-16 2-3 0 0,1 0 0 0 0,-1-1 0 0 0,-18 0 0 0 0,18-1 238 0 0,0 1-1 0 0,-19 4 1 0 0,33-6-545 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17073.41">1482 193 17191 0 0,'-8'9'1886'0'0,"7"-7"-1850"0"0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 4 0 0 0,2 33 677 0 0,-1-31-556 0 0,-1 9 64 0 0,0 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,0-1-1 0 0,-9 25 1 0 0,1 9-50 0 0,1-1-107 0 0,9-44-59 0 0,-9 25 74 0 0,1 0 0 0 0,-8 46 0 0 0,17-73-70 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,1 3 1 0 0,-2-5-6 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,1-1 2 0 0,6 3-5 0 0,-6-2 13 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,4-2 0 0 0,5-1 41 0 0,29-9 270 0 0,-30 11-232 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,10 1 0 0 0,43 9 247 0 0,-39-6-494 0 0,48 2-1 0 0,-41-4 111 0 0,-21-1 36 0 0,1-1 0 0 0,-1 0 1 0 0,17-3-1 0 0,-16 2 9 0 0,1 0 0 0 0,-1 1 0 0 0,19 2 0 0 0,7 0 0 0 0,-15-1 25 0 0,-1 1 1 0 0,1 1-1 0 0,24 8 0 0 0,33 4-13 0 0,-12-3-67 0 0,-51-9 57 0 0,0 1 1 0 0,1-2 0 0 0,-1 0-1 0 0,0-1 1 0 0,29-2-1 0 0,-13-4 148 0 0,35-11-1 0 0,-60 14-153 0 0,-5 2 4 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-3 0 0 0,8-8-48 0 0,-9 12 59 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-2 0 0 0,1 0 10 0 0,0 2-18 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-2 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1-3 0 0 0,6-18 0 0 0,7-30 0 0 0,-14 51 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-3 0 0 0,0 2 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-6 0 0 0,3-8 0 0 0,1-9 0 0 0,-5 20 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,2-13 0 0 0,-1 13 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-14 0 0 0,0-4 0 0 0,-6-51 0 0 0,6 68 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-5-10 0 0 0,-1-6 0 0 0,7 21 12 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-5-1-1 0 0,2 1-9 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,0-1-1 0 0,0 0 1 0 0,-7 5 0 0 0,7-4 1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-9-1-1 0 0,-13 0 60 0 0,1 0 0 0 0,-1 2 0 0 0,-50 10 0 0 0,-8 1-106 0 0,50-10 95 0 0,-168 23-188 0 0,94-13 220 0 0,10-2-12 0 0,89-9-91 0 0,0-2-1 0 0,-1 0 0 0 0,1 0 1 0 0,-15-3-1 0 0,17 2 7 0 0,26-11-273 0 0,7 0-1770 0 0,-13 8-6197 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18284.83">2712 620 21679 0 0,'1'1'133'0'0,"1"0"-1"0"0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 4 1 0 0,-1 0-51 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3 4 0 0 0,3-3-83 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,2 8 1 0 0,6 9-1310 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81245.74">0 1639 12815 0 0,'0'0'8211'0'0,"2"2"-7711"0"0,7 5-82 0 0,-7-5-304 0 0,16 3 146 0 0,-13-5-291 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,10-4 1 0 0,19-14-3558 0 0,-22 12-3212 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81671.11">539 1451 9183 0 0,'0'0'831'0'0,"20"-3"1474"0"0,7-5 284 0 0,33-4-1 0 0,-21 4-2341 0 0,-25 5-344 0 0,-1-1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0-1-1 0 0,21-14 1 0 0,-30 19-2 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,6-1-1 0 0,-5 2-102 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,7-4-1 0 0,2-3-83 0 0,1 0-1 0 0,0 1 1 0 0,0 1 0 0 0,18-7-1 0 0,-25 12 271 0 0,-5 2-56 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,5-2 0 0 0,-6 3 97 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,2 0 0 0 0,-1 1-20 0 0,33-8 610 0 0,-16-2 3284 0 0,0 4-2167 0 0,-10 6-3377 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="82688.99">1445 1154 8663 0 0,'2'0'667'0'0,"7"-3"-888"0"0,0 1-1 0 0,-1-1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1-1 1 0 0,14-9-1 0 0,-15 10 416 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,6-2 0 0 0,10-5 1581 0 0,58-17 677 0 0,-32 4-1982 0 0,2 2 0 0 0,65-16-1 0 0,-40 10-618 0 0,-55 21 66 0 0,61-16 3127 0 0,-78 20-2639 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5 1 0 0 0,-3 0-280 0 0,-3-1 588 0 0,20 0 1883 0 0,-21 0-2805 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,2-1 1 0 0,2 0-69 0 0,-4 1-483 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83770.42">2434 986 12207 0 0,'0'0'943'0'0,"-8"5"652"0"0,-13-2 834 0 0,19-3-2204 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-10 5 608 0 0,1 0-94 0 0,1 1-1 0 0,-13 9 0 0 0,22-14-697 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 8-1 0 0,0-10-8 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 0 0 0 0,3 3 207 0 0,-5-2-220 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,7-2-1 0 0,-10 3-299 0 0,20-8 770 0 0,-9 0-3823 0 0,-8 1-2158 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84115">2411 1083 18023 0 0,'0'0'1387'0'0,"-3"-2"-896"0"0,-2-6-215 0 0,9 4-77 0 0,10 4 140 0 0,-13 0-252 0 0,31-6 2809 0 0,-25 4-2757 0 0,1 0 0 0 0,0 1 1 0 0,11-1-1 0 0,34-3-466 0 0,-37 6-2975 0 0,-11-1 114 0 0,7 2-4307 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84459.46">2555 1076 6535 0 0,'-15'21'850'0'0,"0"0"3459"0"0,8-10-224 0 0,-3 13 650 0 0,3-4-3347 0 0,-1-2-228 0 0,8-16-1033 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-2 3 1 0 0,2-3-65 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,4 38 274 0 0,3-26-2331 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85459.64">1257 1618 7199 0 0,'0'0'768'0'0,"1"5"-768"0"0,21 5 64 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85803.69">1361 1852 5063 0 0,'0'0'544'0'0,"6"8"-544"0"0,0-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86144.96">1499 2004 8375 0 0,'1'1'37'0'0,"-1"-1"0"0"0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0 9 94 0 0,1 4 103 0 0,-1-13-213 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 3 0 0 0,9 30-654 0 0,-10-32 227 0 0,17 22-2554 0 0,-17-23 3035 0 0,13 25 1838 0 0,1 25 210 0 0,-14-49-1722 0 0,-1-2-364 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-6 5 2941 0 0,-2 6-118 0 0,3-7 1016 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86527.67">1711 2193 20815 0 0,'5'-9'2175'0'0,"3"-2"-2054"0"0,-6 8-28 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-5 0 0 0,-1 2-61 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,6-4 0 0 0,7-11-254 0 0,-11 13 326 0 0,20-30-2525 0 0,-4-2-6016 0 0,-16 28 4919 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86898.33">2259 1147 8231 0 0,'16'-9'880'0'0,"-10"6"-785"0"0,-3 1-111 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,2-5-1 0 0,-2 2-292 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,4-5-1 0 0,-5 7 459 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1-6 0 0 0,-3 10 665 0 0,17-19 4326 0 0,-16 18-5000 0 0,0-2-82 0 0,11-2 765 0 0,24 0-928 0 0,-34 6 27 0 0,-4 1-717 0 0,0 1 922 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-4 2 0 0 0,-15 12 1233 0 0,-2 0-1429 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="87439.99">1934 1767 19119 0 0,'17'4'1994'0'0,"-11"-26"1617"0"0,-5 21-3587 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 0 0 0,0 4-84 0 0,0 1 43 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1-190 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-2 1 0 0,0-4-1127 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="87785.51">2053 1557 18543 0 0,'0'0'5016'0'0,"2"-5"-4896"0"0,-3-2 72 0 0,5 1-320 0 0,1 1-56 0 0,0 0-8 0 0,2-2 0 0 0,2-1-1352 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="88209.39">2204 1380 18543 0 0,'0'0'1932'0'0,"-2"-17"-225"0"0,3 15-1720 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,3-3 1 0 0,5-11-352 0 0,1-12-227 0 0,-10 26 549 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,4-2 0 0 0,-4 3-176 0 0,8-23 978 0 0,-1 13 701 0 0,-7 8-1322 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,4-4 0 0 0,-5 5-137 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,9-7-907 0 0,-9 8 693 0 0,-2 8-2034 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:04:51.520"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 32 17423 0 0,'0'0'1339'0'0,"7"1"-768"0"0,-2 0-179 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-3 0 0 0,-5 2-15 0 0,0 1 0 0 0,1-1 1 0 0,13 1-1 0 0,-9 1-240 0 0,-1-1 1 0 0,0 0 0 0 0,15-4-1 0 0,17-1 74 0 0,61-3 47 0 0,-62 8 34 0 0,-23 2-2873 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.48">273 82 20815 0 0,'0'0'1608'0'0,"1"10"-932"0"0,4 10-348 0 0,-1 1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 0 1 0 0,-3 35-1 0 0,1-24 83 0 0,4 44 1 0 0,-1-52-218 0 0,-1 44 0 0 0,0-57-141 0 0,0-3-42 0 0,-5-3-87 0 0,3-5-313 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="728.45">500 169 17735 0 0,'-4'15'1950'0'0,"-5"36"558"0"0,-3 58 1 0 0,12-101-2379 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3 13 0 0 0,2 14 183 0 0,-6-28-427 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1089.31">488 108 21511 0 0,'13'5'2395'0'0,"-12"-4"-2185"0"0,5-1-109 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 7 0 0 0,12 27 235 0 0,-20-36-313 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,-2 4-1 0 0,3-6-17 0 0,-1 4 15 0 0,-2 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-6 1-1 0 0,-2 0-211 0 0,0 0 1 0 0,-1-1-1 0 0,1-1 0 0 0,-22 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3926.64">916 77 22143 0 0,'0'0'2308'0'0,"4"1"-2189"0"0,10 4-73 0 0,-11-4 1561 0 0,6 3-1303 0 0,15 4-3 0 0,-24-8-384 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1 4-316 0 0,3 8-2572 0 0,-3-4-4823 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4278.91">951 313 21311 0 0,'0'0'4605'0'0,"9"3"-4322"0"0,-1 0-202 0 0,-7-3-181 0 0,7 2-67 0 0,-4 1-2900 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:04:57.172"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">183 16 21567 0 0,'0'0'2407'0'0,"-16"-4"-1582"0"0,10 2-550 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-13-1 1 0 0,14 2-239 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-3 2 0 0 0,-1 0 93 0 0,6-3-86 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 2 0 0 0,-6 6-439 0 0,8-9 344 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 4-1 0 0,1-3 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 3 0 0 0,-1-1 26 0 0,5 5 78 0 0,1 0-1 0 0,-1-1 1 0 0,11 7 0 0 0,-11-9-14 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,6 9 1 0 0,-11-11-29 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 8 0 0 0,-1-10-23 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-2 0-1 0 0,-43 45-19 0 0,39-41 39 0 0,-1 0-34 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-10 4 0 0 0,18-8-205 0 0,16 0-8953 0 0,-9-1 8591 0 0,5-2-1788 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1425.78">343 96 19495 0 0,'0'0'2032'0'0,"2"0"-1930"0"0,-2 1-88 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-2 17 647 0 0,1-15-625 0 0,-6 40 316 0 0,3-29-237 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,1 1-1 0 0,1-1 1 0 0,3 22-1 0 0,-1-20 34 0 0,-3-13-40 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,4 5 1 0 0,-5-8 67 0 0,16 11 1175 0 0,-13-10-1272 0 0,22 3 221 0 0,-12-3-472 0 0,0-2 0 0 0,0 0 0 0 0,26-3 0 0 0,-39 3-266 0 0,8-3-2252 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1791.06">837 96 21767 0 0,'0'0'2763'0'0,"8"-2"-1941"0"0,21 4 401 0 0,-28-1-1158 0 0,18 7 6 0 0,-1-1-2167 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2143.28">847 320 21567 0 0,'0'0'2669'0'0,"7"6"-2018"0"0,8 9-166 0 0,-14-14-487 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-13 0 0,4 1-53 0 0,-1-1-45 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:05:01.322"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">79 97 16783 0 0,'0'0'1522'0'0,"-1"0"-1250"0"0,-26 13 1808 0 0,25-13-1964 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,-4 7 20 0 0,4-12-125 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-2 22 0 0,0 4 58 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,3 5 1 0 0,-5-7-64 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,5 12 191 0 0,32 32 538 0 0,-30-39-739 0 0,-6-7-16 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,4 1 0 0 0,7-3-7 0 0,-4 0-95 0 0,-8-2 385 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="453.56">74 45 20559 0 0,'0'0'1581'0'0,"7"-3"-910"0"0,11-5-311 0 0,0 1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,35 1 0 0 0,-30 0-3274 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="820.85">105 174 19807 0 0,'0'0'2066'0'0,"2"1"-1960"0"0,8 1-9 0 0,-8-1 343 0 0,17-4 2642 0 0,-7 0-2970 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 1-1 0 0,22 1 0 0 0,-8-8-2560 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1154.44">130 276 21767 0 0,'22'3'2785'0'0,"8"-10"-2314"0"0,-8 2-1372 0 0,30-10-1 0 0,-52 15 777 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1-366 0 0,4-5-1194 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1545.34">341 271 21943 0 0,'1'0'75'0'0,"-1"1"0"0"0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 2 0 0 0,0-2-69 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 3 0 0 0,1-2 174 0 0,-6 21 737 0 0,69-117-1393 0 0,-62 92 459 0 0,4-5 56 0 0,0 0-1 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,7-6 1 0 0,-13 12 202 0 0,6 4 398 0 0,-5 0-599 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 6 0 0 0,2-6-30 0 0,-1 3 0 0 0,5 13-125 0 0,7-29-1099 0 0,-1-2-1117 0 0,-2 0-6277 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1546.34">597 159 22231 0 0,'0'0'1712'0'0,"0"9"-989"0"0,4-2-716 0 0,-4-6 35 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-2 9 328 0 0,-1-1-86 0 0,0-1 0 0 0,-10 20 1 0 0,-7 6-407 0 0,20-34 15 0 0,-2 4-641 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1925.1">482 178 22631 0 0,'11'-10'2532'0'0,"-1"6"-2242"0"0,51-18 1018 0 0,-18 11-3555 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2256.88">655 167 21479 0 0,'0'0'1657'0'0,"2"9"-958"0"0,1 6-623 0 0,-3-12 23 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3 3 0 0 0,-3-5-301 0 0,8 0-416 0 0,-7-2 434 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1-1 0 0,2-4-1335 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2635.67">825 113 22543 0 0,'-4'16'2475'0'0,"-22"40"-1011"0"0,18-38-1208 0 0,0 0 1 0 0,-1-1-1 0 0,-1 1 1 0 0,-18 22-1 0 0,24-36-208 0 0,3-3-29 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 2-1 0 0,1-3 21 0 0,-1 0-98 0 0,-1 3-9 0 0,0-2 53 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 4 0 0 0,1-6-71 0 0,-21 12 132 0 0,21-12-105 0 0,9-19-4270 0 0,-6 7-4 0 0,-2 4 2103 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2973.39">827 159 22631 0 0,'0'0'3108'0'0,"0"9"-2376"0"0,15 11-364 0 0,-14-17-432 0 0,-2 1 60 0 0,1-3 368 0 0,-1 0-284 0 0,-2 2-80 0 0,2-2 33 0 0,1-1-9 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,3 27 32 0 0,-2-24-57 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 6 1 0 0,0-9 1 0 0,0 3 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-2 6 0 0 0,1-2 0 0 0,-2-2 15 0 0,2-5 122 0 0,7-16-282 0 0,33-67-448 0 0,-24 54 794 0 0,-2 12-104 0 0,3-1-166 0 0,-15 17 113 0 0,12 5 373 0 0,-10-2-409 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,3 4-1 0 0,0 2-95 0 0,-2-7-29 0 0,2 5-49 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3322.72">1036 178 21679 0 0,'0'0'1671'0'0,"10"4"-206"0"0,-6-2-1307 0 0,-4-2-155 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,2-1 1 0 0,6-1 18 0 0,8-3 85 0 0,-14 4 175 0 0,-1 1-147 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,3 0 0 0 0,-3 3-87 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-4 5-1 0 0,-2 5 125 0 0,-1-1-1 0 0,-14 19 0 0 0,6-10-1 0 0,2-4-89 0 0,-1 0 1 0 0,0-2 0 0 0,-22 19-1 0 0,1 0-73 0 0,13-19-97 0 0,22-16-59 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5097.69">1470 270 20471 0 0,'0'0'2136'0'0,"3"-1"-2028"0"0,-1 1 4 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 1 19 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,4 1-1 0 0,11 2 285 0 0,27 7 0 0 0,-32-6-291 0 0,0 0-1 0 0,0-1 1 0 0,0-1-1 0 0,0 1 1 0 0,17-2-1 0 0,11 0-23 0 0,-38 0-41 0 0,1 0-5 0 0,5 0-43 0 0,-2-1 0 0 0,-4 1 94 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:05:24.818"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">38 1 24383 0 0,'0'0'545'0'0,"4"7"-406"0"0,-1-4-187 0 0,-3-3 67 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-19 136 315 0 0,3-12-140 0 0,13-85-9 0 0,2-30-106 0 0,1 0-1 0 0,-2 0 1 0 0,-4 19 0 0 0,4-25-15 0 0,1-4 24 0 0,2 6 249 0 0,0-5-325 0 0,0 0-19 0 0,17 5 157 0 0,-9-4-115 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,18-1-1 0 0,7 0 25 0 0,35 0 119 0 0,-40-1-11 0 0,57 5 0 0 0,-49 5-376 0 0,-35-7-41 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:04:31.725"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">322 603 20127 0 0,'0'0'2097'0'0,"3"1"-1990"0"0,14 2 2840 0 0,-17-1-2795 0 0,4 7-60 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,2 18 0 0 0,1 46 277 0 0,-5-63-285 0 0,-2 115 429 0 0,2-125-513 0 0,-1 4 19 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-3 5 1 0 0,5-10 29 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="451.3">312 629 17679 0 0,'0'0'1846'0'0,"3"-6"-1013"0"0,-3 3-621 0 0,-1 3-128 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 364 0 0,10-6 364 0 0,-6 6-743 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,6 2 0 0 0,3 3 350 0 0,0 0-1 0 0,18 12 1 0 0,16 7 49 0 0,-40-21-428 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,4 9-1 0 0,-8-14-29 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 2 0 0 0,-16 29 247 0 0,9-18-198 0 0,2-3-42 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,-13 10 0 0 0,0-4 26 0 0,0-1 0 0 0,0-1 0 0 0,-49 17 0 0 0,67-27-59 0 0,4-2-75 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="838.72">883 1061 20559 0 0,'0'0'1824'0'0,"2"7"-1456"0"0,-2 0-296 0 0,0-1 216 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6762.37">845 923 17791 0 0,'0'0'2290'0'0,"-16"16"-133"0"0,14-13-2071 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 6 1 0 0,-1-7-40 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,3 2-1 0 0,-4-3-13 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,2 0 0 0 0,2-1 44 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-5-1 0 0,-2 1-49 0 0,-8 6-9 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0-2-1 0 0,1-3 70 0 0,0 7-72 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-2 1 0 0,2 3 2 0 0,-1-1 69 0 0,-8-14 128 0 0,8 15-215 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 2 1 0 0,-2-1-78 0 0,4-1-74 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7346.21">1156 872 22847 0 0,'0'0'547'0'0,"1"2"-238"0"0,2 7-65 0 0,-1 1-1 0 0,1-1 0 0 0,-2 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 19-1 0 0,1-12-123 0 0,-1-14-105 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1 1-1 0 0,2-1 73 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 3-1 0 0,-1 1 178 0 0,0-3-402 0 0,8-17-944 0 0,-1-5 1168 0 0,-4 12-56 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,8-12 0 0 0,-10 17 14 0 0,-2 1-28 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1-13 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,12 5 104 0 0,-11-5-87 0 0,2 4 29 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,3 6 1 0 0,6 8-36 0 0,-11-17-343 0 0,4 3-1652 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8751.5">1460 1039 18199 0 0,'0'0'1894'0'0,"11"1"149"0"0,-10-1-1993 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1-1-1 0 0,-5-12 477 0 0,4 11-488 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2-2 1 0 0,9-12 338 0 0,32-68 300 0 0,81-115 0 0 0,-108 168-676 0 0,-13 21 0 0 0,1 1 0 0 0,10-14 0 0 0,-4 8-178 0 0,-3 3 676 0 0,2 0 0 0 0,17-17 0 0 0,-26 27-815 0 0,0 1 303 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 1 0 0,1 3 34 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 8 0 0 0,2 0 3 0 0,-2 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-2 14 0 0 0,-9 55-73 0 0,6-54 43 0 0,3-18-61 0 0,-2-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-10 17-1 0 0,11-22-250 0 0,3-3-66 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-4 2 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9134.42">1648 822 20471 0 0,'0'0'3363'0'0,"9"-1"-1431"0"0,-4 1-1846 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 2 0 0 0,-3-1 12 0 0,-1-1 0 0 0,1 1 1 0 0,13 0-1 0 0,-3 0 258 0 0,8-1-2668 0 0,-12-2-6596 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10373.29">2198 849 17191 0 0,'0'0'5895'0'0,"2"2"-5543"0"0,6 6-11 0 0,-7-6-17 0 0,-1 17 597 0 0,0-16-903 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 2 0 0 0,3-2 12 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 4 1 0 0,1-4-13 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 2 0 0 0,-19 9-17 0 0,23-13 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-2-2 1 0 0,2 2-5 0 0,1-1-11 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-2 0 0 0,0 2-4 0 0,2-12-62 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,7-17 0 0 0,-8 21 98 0 0,10-11-15 0 0,-1 3 0 0 0,-11 17 26 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 11 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,3 3-1 0 0,-3-3 67 0 0,0 1 21 0 0,17 29 518 0 0,-11-20-623 0 0,0 0 0 0 0,-2 1 0 0 0,6 14 0 0 0,-4 9-2460 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11851.82">2652 593 12983 0 0,'0'0'4126'0'0,"0"15"-150"0"0,-10 19-1530 0 0,5-22-2127 0 0,2 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 20-1 0 0,2-18-316 0 0,0 0-1 0 0,-2-1 1 0 0,1 1-1 0 0,-2-1 1 0 0,0 0-1 0 0,-11 22 1 0 0,6-13-1 0 0,-4-5 3 0 0,7-10-64 0 0,6-7-228 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12240.63">2620 618 17679 0 0,'0'1'142'0'0,"1"1"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-3-32 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 3 0 0 0,-2-3-38 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1-2-1 0 0,139-88 654 0 0,-134 87-716 0 0,-9 4 3 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,3 10 330 0 0,-4-10-347 0 0,2 6 123 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-2 7-1 0 0,-11 54-2 0 0,7-46 46 0 0,4-13-134 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-9 15-1 0 0,11-21-123 0 0,2-4-417 0 0,3-6-1688 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12579.49">2936 793 23495 0 0,'0'0'1809'0'0,"2"7"-1041"0"0,-1-6-755 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,-1 17 143 0 0,8-36-2167 0 0,-8 4 967 0 0,1 2-10 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12580.49">2981 607 23695 0 0,'0'0'2528'0'0,"6"5"-2280"0"0,3-2-184 0 0,2 1-64 0 0,-3-2 0 0 0,1-2-96 0 0,2 0 96 0 0,4-2-1504 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12993.05">3166 746 22631 0 0,'-21'44'2624'0'0,"20"-43"-2605"0"0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-3 2-1 0 0,3-1-5 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 2 0 0 0,0 7 153 0 0,3-8 17 0 0,4-7-128 0 0,-5 5-114 0 0,10-10-54 0 0,-6 7 92 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,3-5 0 0 0,5-7-17 0 0,17-17 0 0 0,-17 20 34 0 0,-5 6 29 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,19-10-1 0 0,-20 11 99 0 0,-6 5-95 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,2 4 36 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 7 0 0 0,7-12 17 0 0,-11 13-200 0 0,10-14 35 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15301.65">40 501 15119 0 0,'0'0'1164'0'0,"1"8"-720"0"0,0-3-420 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 5 1 0 0,0 19 311 0 0,1-20 165 0 0,0 1 1 0 0,-3 16-1 0 0,0 1-28 0 0,-11 73 377 0 0,6-15-242 0 0,-2 69-102 0 0,8-94-298 0 0,1-44-263 0 0,0-1 0 0 0,1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,5 23 0 0 0,-5-33 37 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 4 0 0 0,0-6 9 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 4-1 0 0,4 9 8 0 0,-6-14 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,2 2 0 0 0,-2-3 87 0 0,5 16 83 0 0,-3-12-146 0 0,-1-3 47 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,7 0-1 0 0,-1 2 173 0 0,51 12-70 0 0,0-2 0 0 0,72 6-1 0 0,8-12-420 0 0,33 3 310 0 0,227 0 1099 0 0,-335-11-1120 0 0,92 0 0 0 0,95-7-44 0 0,-89-1 0 0 0,-150 9 0 0 0,263-15 0 0 0,-9 3 0 0 0,-129 10 0 0 0,-35-2 52 0 0,257-3 304 0 0,-301 8-356 0 0,37 2 0 0 0,134 11 0 0 0,-223-13 4 0 0,96 6-252 0 0,-88-7 255 0 0,0 0 1 0 0,0-2-1 0 0,0 0 1 0 0,26-6-1 0 0,24-8 280 0 0,-40 10-81 0 0,1-1 0 0 0,-2 0 0 0 0,26-13 0 0 0,-43 17-170 0 0,6-3 73 0 0,-1 1 0 0 0,0-2-1 0 0,-1 0 1 0 0,0-1-1 0 0,14-11 1 0 0,-22 16-99 0 0,17-18 417 0 0,-19 20-430 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,-14-56 1310 0 0,11 47-1480 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-24 0 0 0,0-23-210 0 0,2 57 383 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-3 0 0 0,1 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-3 0 0 0,1-4 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-9 0 0 0,-1 9 0 0 0,0-1 0 0 0,1 1 0 0 0,2-11 0 0 0,13-13 312 0 0,-15 32-356 0 0,0 0-128 0 0,1-2 149 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,4-4 0 0 0,9-9 531 0 0,-15 14-452 0 0,13-19 453 0 0,-13 18-480 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-5 1 0 0,-9-39-56 0 0,5 22 46 0 0,4 24 70 0 0,1 0-22 0 0,-2-3-55 0 0,-12-18-13 0 0,9 16 0 0 0,-16-15 0 0 0,8 8-2 0 0,5 9 4 0 0,-7-1 9 0 0,6 3-4 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-17 0 0 0 0,25 1-83 0 0,0 2 22 0 0,-2 4 31 0 0,2-5-41 0 0,7 10-1373 0 0,0-3 183 0 0,0-1-4869 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51820.37">3954 1236 16559 0 0,'0'0'8752'0'0,"0"3"-8769"0"0,-1 7 9 0 0,0 0 0 0 0,-4 18 0 0 0,2-17 101 0 0,1 0 1 0 0,-1 20-1 0 0,-3 109 284 0 0,3-88-377 0 0,1-35-4 0 0,-3 4 24 0 0,2-9 94 0 0,2-11-50 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,1 2 0 0 0,12 4 224 0 0,2 0-162 0 0,-11-9-101 0 0,0 2-45 0 0,11 7 14 0 0,-10-4 28 0 0,-1-1-4 0 0,1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,10 0-1 0 0,7 2 80 0 0,0-1 0 0 0,0-1-1 0 0,39-3 1 0 0,-23-10 167 0 0,-34 11-257 0 0,10 2-62 0 0,-13-1-198 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54656.9">100 427 9359 0 0,'0'0'992'0'0,"1"-5"-992"0"0,7 0 1488 0 0,-2 0 264 0 0,-4-2 48 0 0,3-1 16 0 0,4 2-1168 0 0,-3-1-232 0 0,1-4-40 0 0,2 2-16 0 0,3 4-288 0 0,24-20-72 0 0,4-15 0 0 0,-15 23-7624 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55186.83">742 194 12207 0 0,'16'2'1304'0'0,"-6"-2"-79"0"0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,12-4-1 0 0,-3 1-235 0 0,52-15-1323 0 0,25-5-1430 0 0,-55 19 141 0 0,99-16-11289 0 0,-59 13 7091 0 0,57-10 7810 0 0,-127 17-1666 0 0,158-27 4805 0 0,-112 22-3564 0 0,72-20 0 0 0,-103 22-766 0 0,-10 2-176 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 1 0 0 0,29 3 0 0 0,-7-3 355 0 0,4 1-304 0 0,48 7-298 0 0,-55-6-485 0 0,42 9-1 0 0,13 0-753 0 0,-34-6 856 0 0,140 8 310 0 0,-118-5-1230 0 0,86-2 1 0 0,-110-6-692 0 0,39-1-2826 0 0,30-5 2057 0 0,-96 5 2368 0 0,0 0 0 0 0,49 7 1 0 0,55 16 1669 0 0,-105-15-496 0 0,-1 0-1 0 0,25 12 1 0 0,4 1 1086 0 0,89 34 3205 0 0,-136-51-5198 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,6 7 1 0 0,-4-3-21 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,5 18 0 0 0,2 26 73 0 0,1 2-1008 0 0,2-21-5506 0 0,-9-25-1224 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56276.67">3456 1480 18023 0 0,'0'0'4865'0'0,"4"-9"-1942"0"0,-2 8-2877 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,5 2 0 0 0,30 15-62 0 0,-35-17-60 0 0,1 18-6083 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56661.39">3396 1584 15199 0 0,'0'0'1172'0'0,"-4"5"-32"0"0,4-5-701 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 2-1 0 0,10 1-252 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,22-1-1 0 0,18 0-472 0 0,-42 2 1534 0 0,0-3-5474 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:04:23.855"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 339 5695 0 0,'-5'0'18114'0'0,"-6"1"-15165"0"0,4 12-2752 0 0,5-9-233 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 8 0 0 0,5-12-215 0 0,7 4-522 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.86">405 9 19871 0 0,'0'0'2065'0'0,"19"0"-767"0"0,-10-1-609 0 0,2-2-554 0 0,0 1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,18 4 0 0 0,-28-5-492 0 0,8 2-2183 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="692.92">368 95 21167 0 0,'0'0'1629'0'0,"0"2"-1053"0"0,-2 51 294 0 0,0-36-651 0 0,1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,4 20-1 0 0,-3-21-78 0 0,-1-13-129 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,2 3 0 0 0,-2-3-234 0 0,4 4-606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1103.35">400 225 20815 0 0,'0'0'1608'0'0,"13"-6"-849"0"0,-4 5-519 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,12 3-1 0 0,2 0-141 0 0,-21-5-274 0 0,7 5-328 0 0,-7-3 446 0 0,8 6-599 0 0,-10-7 556 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1104.35">424 350 19607 0 0,'0'0'4831'0'0,"10"-1"-4369"0"0,2 1-699 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,21-7-1 0 0,-21 6-8149 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1513.4">726 250 21479 0 0,'-1'16'2356'0'0,"1"-11"-2254"0"0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-4 5 0 0 0,6-8 26 0 0,-2 0 44 0 0,3-2-152 0 0,-1-2-20 0 0,2-1-38 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,4-5-1 0 0,2-5-84 0 0,-3 4 105 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,14-9 0 0 0,-20 15 511 0 0,15 21 28 0 0,-15-18-452 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-2 6 0 0 0,0-5 11 0 0,0 0-52 0 0,2-4 31 0 0,-4 1-63 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2243.31">1122 18 21479 0 0,'0'0'2244'0'0,"1"2"-2132"0"0,1 2-39 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-3 6-1 0 0,0 17 235 0 0,0-4-102 0 0,-1 1-1 0 0,-1-1 1 0 0,-9 26-1 0 0,6-24 5 0 0,2 1 0 0 0,-4 30 0 0 0,0-21-279 0 0,10-33-23 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2607.54">948 198 22231 0 0,'0'0'2368'0'0,"8"3"-2288"0"0,1-1-80 0 0,1-1 384 0 0,0 0-176 0 0,1-1 0 0 0,1 0-208 0 0,-4 0-72 0 0,1-1-72 0 0,4 0 144 0 0,-4 0 152 0 0,3 0-10312 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3610.06">1243 167 19207 0 0,'2'4'605'0'0,"-1"0"-343"0"0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 8 1 0 0,1 1 302 0 0,-2-8-377 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-4 11 970 0 0,5-25-1139 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,8-19 0 0 0,-4 13 161 0 0,1 1-1 0 0,0 0 1 0 0,16-21-1 0 0,-22 33-127 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,4-1-1 0 0,-5 2-24 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,2 2-1 0 0,-3-2 47 0 0,1 1-42 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 3 0 0 0,-1-4 50 0 0,-1 5-64 0 0,2 0-55 0 0,-2-6-165 0 0,3-1-84 0 0,8-2-67 0 0,-5 1-383 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,8-4 0 0 0,-4 0-7048 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3941.64">1499 103 21767 0 0,'11'18'1842'0'0,"-7"-9"-1657"0"0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,13 10 1 0 0,-17-17-183 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,2-1 0 0 0,6-4-99 0 0,-2 1-1 0 0,1-1 1 0 0,8-10-1 0 0,4-1-816 0 0,-12 10 613 0 0,4-2 306 0 0,-10 9 179 0 0,-5 8 116 0 0,-2 3 2 0 0,-1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1-1-1 0 0,-12 13 1 0 0,-61 48 258 0 0,35-32-248 0 0,28-22-258 0 0,-2 0 0 0 0,-33 20 0 0 0,31-17-59 0 0,20-16-84 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-5 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4893.68">2169 256 22631 0 0,'0'0'2363'0'0,"3"1"-2243"0"0,19 16-92 0 0,-18-7 18 0 0,-2-2-35 0 0,18 29-40 0 0,-18-36-130 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="68196.07">1337 905 21135 0 0,'-70'-10'4319'0'0,"64"10"-4237"0"0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 1-1 0 0,-8 3 0 0 0,1 0 138 0 0,0 1 0 0 0,-17 14 0 0 0,21-13-220 0 0,0-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-9 18 0 0 0,13-23 6 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,5 6-1 0 0,2 1 13 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-2 0 0 0,17 11 0 0 0,-12-8 7 0 0,-11-6-25 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,10 3 0 0 0,3-2-781 0 0,-20-3 329 0 0,2-2-76 0 0,5 1-1591 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="68581.38">1293 1062 19751 0 0,'0'0'1526'0'0,"8"-2"-887"0"0,-7 2-655 0 0,1 0 127 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,5-1 170 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,11 1 0 0 0,44 4 1090 0 0,-45-2-1354 0 0,-1 0 0 0 0,32-2 1 0 0,-10 2-415 0 0,-26-1 352 0 0,9 3-456 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="68921.03">1422 1122 22231 0 0,'0'0'2316'0'0,"8"6"-2056"0"0,-6-4-213 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,2 4-1 0 0,2 35 554 0 0,-4-36-517 0 0,-3 55 618 0 0,1-3-298 0 0,0-35-327 0 0,2-20-50 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,2 4 1 0 0,0-2-26 0 0,-2-5-22 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-2-1 0 0,15-12-664 0 0,-14 13 534 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-3 0 0 0,2-4-704 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="69275.74">1852 1229 22343 0 0,'0'0'3712'0'0,"7"-5"-3336"0"0,7 2-268 0 0,0 1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,20 4-1 0 0,-12 1-58 0 0,-17-5-26 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,6 0 0 0 0,2-2-390 0 0,-11 2 162 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,2-2-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="69766.66">2547 982 20847 0 0,'0'0'1608'0'0,"8"-2"-932"0"0,100-4 2508 0 0,-74 7-4145 0 0,37 5 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70152.92">2649 1030 21511 0 0,'0'2'201'0'0,"1"1"0"0"0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 3 0 0 0,-3 12 47 0 0,-26 128 2148 0 0,29-132-2300 0 0,1 1 0 0 0,2 23-1 0 0,-3 13-108 0 0,4-34-7 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70506.06">2647 1212 19751 0 0,'55'-37'4354'0'0,"-42"29"-3535"0"0,-5 3-525 0 0,-6 3-214 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,5 1 0 0 0,-6-1-352 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,4 1-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70507.06">2705 1322 21479 0 0,'0'0'1657'0'0,"17"3"-659"0"0,-7-2-930 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,10-2 1 0 0,-12 1-710 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,7-4 1 0 0,-1-8-4659 0 0,-9 9 2573 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70850.62">2970 1256 21855 0 0,'1'2'171'0'0,"-1"0"-1"0"0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 3-1 0 0,-14 31 217 0 0,2-5 306 0 0,14-29-642 0 0,0-1-33 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,2-2-17 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,4-16-14 0 0,-1 8-33 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,8-7-1 0 0,0 1-14 0 0,0 0-1 0 0,25-15 0 0 0,-21 20 358 0 0,-16 7 370 0 0,8 5-133 0 0,-7-3-482 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 5 0 0 0,-1-2-7 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 9 0 0 0,-3-6-7 0 0,3-8-32 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0-107 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70851.62">3382 953 23671 0 0,'0'0'1823'0'0,"-1"9"-1053"0"0,-17 107 613 0 0,12-92-1253 0 0,-14 43 0 0 0,-2 6 58 0 0,12-30-120 0 0,1-6-91 0 0,-4 37-1 0 0,12-72-229 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71220.18">3243 1144 22719 0 0,'0'0'2543'0'0,"19"-1"-1550"0"0,33 3-59 0 0,-29 0-1888 0 0,39-3-1 0 0,-46 0-8110 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71600.02">3542 1100 16559 0 0,'0'0'1275'0'0,"-1"1"-827"0"0,-4 22 1494 0 0,5-22-1741 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-2 1-1 0 0,-5 12 1642 0 0,6-13-1793 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 1-1 0 0,-2 0 24 0 0,4-2-55 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 2 1 0 0,2 10 17 0 0,-2-7-23 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 12-1 0 0,0-12-14 0 0,0-6 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,5 4-30 0 0,-4-4-34 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,2-2 1 0 0,19-38-111 0 0,-21 38 160 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-5 1 0 0,-2 4 5 0 0,1 4 10 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 1 8 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 2 31 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1-1 37 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,3 1 0 0 0,30 25 259 0 0,-31-23-311 0 0,13 8 38 0 0,-14-10-102 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,4 0 0 0 0,6-5-2644 0 0,0-2-3584 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71947.3">3802 1073 5695 0 0,'2'1'133'0'0,"0"1"0"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 6-1 0 0,-3-5 711 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-3 3-1 0 0,2-3-527 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 7 1 0 0,2-10-321 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 42 0 0,23-7-164 0 0,-17 1 142 0 0,-2 1-20 0 0,3 2 6 0 0,-1 5 17 0 0,-7 0-2 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 2 0 0 0,1 1 48 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-2 6-1 0 0,-5 6 42 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,-12 13 0 0 0,-3-1-1145 0 0,-37 30-1 0 0,46-40-8238 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:05:37.774"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 154 20815 0 0,'5'1'289'0'0,"1"0"0"0"0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,7-2 0 0 0,16-3 553 0 0,2 0-544 0 0,12-2-60 0 0,-16 7-128 0 0,-13 0-117 0 0,1 1-1 0 0,22 1 1 0 0,-34 0-229 0 0,6 1 453 0 0,0 0-3217 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="331.75">173 264 22255 0 0,'3'6'366'0'0,"-1"0"-1"0"0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 11-1 0 0,-5 47 172 0 0,1-29-30 0 0,2-21-408 0 0,0 1 0 0 0,1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,7 21 1 0 0,-9-35-296 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="911.07">451 359 20559 0 0,'0'0'3652'0'0,"7"16"-1849"0"0,-5-8-1720 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-2 12 0 0 0,0 2 14 0 0,3-22-96 0 0,-2 19 105 0 0,0-1 1 0 0,-6 20-1 0 0,1-7 24 0 0,4-19-50 0 0,0 0-1 0 0,-6 17 0 0 0,8-27-77 0 0,-7 7-19 0 0,7-8-52 0 0,9-51-1480 0 0,-6-107-3466 0 0,-2 152 5064 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,7-6-1 0 0,-7 9 162 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5 2 0 0 0,7 5 35 0 0,-15-8-239 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 3-1 0 0,1 0 11 0 0,1 1 8 0 0,-1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-4 6 0 0 0,1-1-24 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-10 9 0 0 0,9-11-222 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,-9 5-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2806.04">1170 0 19807 0 0,'0'0'2275'0'0,"-10"8"-277"0"0,-74 110 1339 0 0,-8 9-3075 0 0,-263 334 666 0 0,338-436-874 0 0,0 1 0 0 0,1 1 0 0 0,-15 34 0 0 0,19-39-213 0 0,12-22 157 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 2-1 0 0,4-2-379 0 0,20-18-2058 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3148.23">1348 279 21479 0 0,'0'0'3376'0'0,"-7"3"-2824"0"0,0 1 8 0 0,-1 1-336 0 0,-1 1-64 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3493.93">1170 410 26975 0 0,'-52'71'488'0'0,"52"-69"-424"0"0,0 0-65 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,2 0 1 0 0,2 2 22 0 0,20 12 198 0 0,-17-11-142 0 0,-1 0 1 0 0,0 0-1 0 0,10 10 1 0 0,-15-13-80 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 4-1 0 0,0-2 54 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-5 7 1 0 0,2-4-38 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-9 7 1 0 0,9-9-25 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-9 2 0 0 0,13-2-44 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,-1-2-1 0 0,-1 0-1789 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3912.21">1409 352 22231 0 0,'-2'15'2435'0'0,"3"-11"-2356"0"0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 7 0 0 0,-1 8 280 0 0,2-14-270 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-2 5 0 0 0,-24 54 464 0 0,23-52-475 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 19 0 0 0,2-29-77 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,2 4 11 0 0,-3-4 234 0 0,23 7 112 0 0,-15-8-307 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,15-3 1 0 0,40-13-48 0 0,-21 2-2779 0 0,-32 10-6510 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:05:43.555"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 12 12439 0 0,'0'0'1410'0'0,"-15"-6"2354"0"0,11 5-4625 0 0,-17-4 10248 0 0,34 7-8624 0 0,0 2-712 0 0,1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 1 0 0,15 9-1 0 0,16 8 83 0 0,-18-11-170 0 0,120 58 247 0 0,-126-61 517 0 0,-54 5-375 0 0,31-13-360 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-4 4-1 0 0,-13 7 89 0 0,5-6-74 0 0,1 0-1 0 0,-16 12 0 0 0,-23 13 46 0 0,50-30-57 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-5 0 0 0 0,-13 5-57 0 0,4-2 155 0 0,13-5-93 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-9 5 1 0 0,10-6-56 0 0,-1 1 14 0 0,2-1-89 0 0,14-3-1158 0 0,-5 2 663 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,8 1 0 0 0,-13-1-431 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:05:46.398"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">117 3 22663 0 0,'-1'2'317'0'0,"0"1"0"0"0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-2 2 0 0 0,-9 15-96 0 0,-11 31 883 0 0,-4 19-408 0 0,15-40-206 0 0,-11 38-1 0 0,23-57-217 0 0,5-12-1795 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.81">258 233 24047 0 0,'0'0'2648'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="714.29">581 10 24823 0 0,'6'-8'2589'0'0,"-2"7"-2639"0"0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,4 1-1 0 0,2 1-108 0 0,-6-2 205 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,3 4-1 0 0,0 0-22 0 0,-4-5-25 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 2 0 0 0,-5 5-4 0 0,-5 6-37 0 0,-2-1 0 0 0,-24 21 0 0 0,-1-3 85 0 0,39-31 300 0 0,-7 12 786 0 0,17-2-986 0 0,-3-5-78 0 0,-4-5-61 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,4 1 1 0 0,0-1-2 0 0,31 4-2145 0 0,3-4-3783 0 0,-36 0 5176 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:02:55.710"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">480 0 11951 0 0,'0'0'7863'0'0,"0"0"-7854"0"0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 3 28 0 0,0-3-6 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,-26 20 619 0 0,23-15-632 0 0,-1-1-1 0 0,1 0 1 0 0,-13 6-1 0 0,-21 16 687 0 0,0-1-136 0 0,33-22-499 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-7 7 0 0 0,11-12 9 0 0,-2 3-5 0 0,3-2-64 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,21 11-8388 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="874.04">157 630 7343 0 0,'1'-3'8171'0'0,"4"-9"-6807"0"0,49-72 2180 0 0,34-37-2871 0 0,-47 82-509 0 0,-39 38 40 0 0,2-1 23 0 0,-1 1-249 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,4 0 0 0 0,-6 0 42 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 4 1 0 0,2 5 223 0 0,-1 1 0 0 0,1 16 0 0 0,-2-15-125 0 0,0 0 16 0 0,2 11-38 0 0,-2-1 0 0 0,-1 0-1 0 0,-3 25 1 0 0,3-44-445 0 0,0 6 786 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1382.17">336 493 17911 0 0,'0'0'1870'0'0,"8"-3"-1304"0"0,-5 1-414 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,5 2 0 0 0,-6-2-175 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,6-3-4020 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1720.27">593 393 15407 0 0,'0'0'1186'0'0,"2"20"700"0"0,-2-14-1694 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-3 8 0 0 0,2-1 124 0 0,-1 1 0 0 0,2-1 1 0 0,0 0-1 0 0,1 0 0 0 0,2 22 0 0 0,-5-24-158 0 0,3-11-157 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,0 2-169 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2053.61">631 351 13823 0 0,'0'0'1062'0'0,"8"1"-652"0"0,1 1 115 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,8 7-1 0 0,-15-7-292 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 8-1 0 0,0-3 239 0 0,-2-7-419 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2 3-1 0 0,-1-1 15 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,-6 7 1 0 0,9-10-65 0 0,-2 1 55 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,-6 2 0 0 0,-8 4 241 0 0,5-5-5088 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3656.2">1 392 15287 0 0,'0'0'4322'0'0,"6"7"-4278"0"0,4 1-110 0 0,-7-6 832 0 0,0 16-224 0 0,3 17 74 0 0,-5-14-508 0 0,0-17-88 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 9 0 0 0,-14 101-20 0 0,13-91-5 0 0,1-19 10 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-2 5 1 0 0,2-5 78 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 7-1 0 0,0-9-181 0 0,2 5 384 0 0,11-13 306 0 0,-1-1-513 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,1 2-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,19-1 1 0 0,-11 3-133 0 0,0 1 0 0 0,0 0 0 0 0,-1 2 0 0 0,31 6 0 0 0,24 2-60 0 0,-56-8 98 0 0,1 2 0 0 0,-1 0 0 0 0,27 10 0 0 0,-27-8-11 0 0,1 0 0 0 0,0-1 0 0 0,25 2 0 0 0,-38-6 91 0 0,23 2 12 0 0,1-1 0 0 0,-1-2 0 0 0,1-1 0 0 0,35-5 0 0 0,-53 2-63 0 0,1-1 0 0 0,-1 1 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,12-12-1 0 0,-5 1 229 0 0,-1-1-176 0 0,-14 16-105 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 1 0 0,3-7-1 0 0,9-19-159 0 0,-9 21 176 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0-11 0 0 0,2-11 26 0 0,-6-14 160 0 0,2 42-180 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-3-8-1 0 0,2 9 20 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-5-1 0 0,2 9 7 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-3 0 1 0 0,1 0 56 0 0,-18-1-67 0 0,-27 3 0 0 0,38-2 1 0 0,-57-1 203 0 0,-57 12 487 0 0,65-11-391 0 0,34 0-278 0 0,-28 3 0 0 0,-24 5 97 0 0,-129-1 0 0 0,199-7-108 0 0,-15-1 136 0 0,-1 0 0 0 0,-25-6 0 0 0,-4-3-80 0 0,48 9-107 0 0,6 2-205 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,4-1-1 0 0,-1-1-974 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:05:45.328"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">102 0 21743 0 0,'0'0'4815'0'0,"-1"0"-4789"0"0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 9 248 0 0,0 8-150 0 0,-6 0-9 0 0,2-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-2 23-1 0 0,4-22-71 0 0,-1 1 0 0 0,-2-1 0 0 0,-7 28 0 0 0,6-29 17 0 0,0 0 0 0 0,-3 35 0 0 0,5-31 7 0 0,-7 29 1 0 0,5-29-62 0 0,-5 14 72 0 0,9-29-30 0 0,0-1-52 0 0,-4-4-95 0 0,4-2-87 0 0,9-6-2621 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="356.32">295 436 24359 0 0,'0'0'2600'0'0,"-2"6"-2272"0"0,1-1-248 0 0,-3-1-80 0 0,-1-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="729.21">802 32 23959 0 0,'0'0'1844'0'0,"2"19"-884"0"0,-2-12-822 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-2 1 1 0 0,1-1-1 0 0,-4 9 0 0 0,-22 52 425 0 0,7-19-364 0 0,7-13-116 0 0,-34 108-463 0 0,44-137 98 0 0,2-4 127 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 6 0 0 0,0-8 53 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 2 1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:05:44.459"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 9 18199 0 0,'0'0'1400'0'0,"8"1"-810"0"0,19 4 1621 0 0,30 1 1 0 0,-35-5-1984 0 0,0 0 0 0 0,0-2-1 0 0,40-7 1 0 0,-16-5-29 0 0,-45 13-378 0 0,-7 7-5911 0 0,5-6 5533 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,-6 1-2066 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="351.29">1 153 20559 0 0,'0'0'1581'0'0,"6"3"-910"0"0,5 0-579 0 0,-9-2 323 0 0,30 6 2702 0 0,-8-5-2677 0 0,40-4-1 0 0,-54 1-905 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,15-8 0 0 0,-14 5-8218 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:05:48.532"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">89 1 21247 0 0,'0'0'1637'0'0,"0"2"-1054"0"0,-1 1-416 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,-1 3 0 0 0,-6 13 859 0 0,0 9-398 0 0,-2 9 233 0 0,8-23-813 0 0,0 0-1 0 0,-6 15 0 0 0,5-19-18 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 18 0 0 0,-3-2-137 0 0,1-5-51 0 0,1-4-2035 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="389.09">141 420 23351 0 0,'0'0'2080'0'0,"4"12"-1664"0"0,-5 0-336 0 0,2-4-80 0 0,4-2 752 0 0,-5 1 240 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="731.84">565 24 20327 0 0,'0'0'3388'0'0,"10"2"-1459"0"0,25 4-1147 0 0,-1 2 0 0 0,37 14 0 0 0,-69-21-750 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 2 0 0 0,-2-2-13 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 4 0 0 0,-1-2-34 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-5 3 0 0 0,-12 9-241 0 0,4-5-146 0 0,-18 9-223 0 0,35-19 770 0 0,5 1-51 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,3 2 1 0 0,4 2 45 0 0,-9-6-122 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 2 0 0 0,1 5 39 0 0,-1-6-49 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-3 3 0 0 0,-21 31 38 0 0,20-27-32 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-12 12 1 0 0,8-11-257 0 0,0 0 1 0 0,-1-1 0 0 0,-18 9-1 0 0,-1-1-8138 0 0,22-11-155 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1079.58">114 784 23551 0 0,'0'0'2457'0'0,"0"19"-1305"0"0,0-8-981 0 0,-1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,-8 16 0 0 0,6-14-126 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-3 21 0 0 0,4-22 639 0 0,1-7-2426 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1438.52">282 932 21943 0 0,'0'0'1691'0'0,"2"10"-979"0"0,0-2 19 0 0,0 0 0 0 0,0 0-1 0 0,6 10 1 0 0,-5-10-596 0 0,-1-3-113 0 0,-2-4 58 0 0,1-2-705 0 0,0 0 136 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,2 0 0 0 0,9-6-9936 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1782.67">731 671 6535 0 0,'1'2'12464'0'0,"5"8"-4548"0"0,-7-8-7902 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-3 3 1 0 0,3-2-11 0 0,-8 3 41 0 0,1 1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,-11 14 0 0 0,5-5 1 0 0,11-14-31 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 4 0 0 0,1-6 82 0 0,2 0 0 0 0,0 1-84 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,3 2 0 0 0,-1 0 76 0 0,21 4 287 0 0,-22-6-354 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,4 3 0 0 0,10 8 63 0 0,-11-8-101 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,5 5 0 0 0,-6-5 102 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,9 6 0 0 0,6-1-1690 0 0,-19-8 874 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,3-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2188.91">922 770 22863 0 0,'-5'15'2507'0'0,"-2"-1"-2179"0"0,-1 3 1143 0 0,-12 35 0 0 0,17-43-1278 0 0,-1 0-1 0 0,0 0 1 0 0,-9 13-1 0 0,-6 15 53 0 0,12-23-222 0 0,0 0 0 0 0,-19 25 0 0 0,-1 1-12 0 0,7-10-83 0 0,16-25 30 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-2 13 1 0 0,4-18-309 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3739.24">995 1156 23759 0 0,'0'0'1829'0'0,"4"5"-1057"0"0,7 3-741 0 0,-9-6 49 0 0,0-2 0 0 0,4 0-112 0 0,17-9-1505 0 0,-20 8 485 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,5 3-1 0 0,18 11 8005 0 0,-16-11-1166 0 0,6 7-3039 0 0,-13-8-2333 0 0,21 17-112 0 0,-24-19-732 0 0,7 10-1570 0 0,-4-6 2207 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,8 3-1 0 0,-10-5-306 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,3 0 0 0 0,14-4-5791 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:03:16.806"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">432 330 15807 0 0,'0'0'5355'0'0,"-8"-1"-4161"0"0,-9-3-195 0 0,15 3-634 0 0,-14 3 499 0 0,10-1-859 0 0,-1 1-1 0 0,1-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,-9 7 0 0 0,-5 2 4 0 0,10-4 19 0 0,9-8-25 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,-1 0-1 0 0,1 0 17 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 3 1 0 0,0 0 16 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,4 4 1 0 0,10 9-118 0 0,-10-10 101 0 0,-1-1 0 0 0,1 0 0 0 0,10 7 0 0 0,-1-3 152 0 0,-6-3-143 0 0,0 0 0 0 0,0-1 1 0 0,12 5-1 0 0,-20-11-123 0 0,3 2 674 0 0,-1-1-3024 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="446.91">818 279 19319 0 0,'0'0'4980'0'0,"-5"-3"-4345"0"0,6 6-574 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 6 0 0 0,-17 45 312 0 0,15-42-136 0 0,-8 23-59 0 0,-14 62-1 0 0,16-74-177 0 0,11-23-97 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,2 2 1 0 0,-2-3 35 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1-2-333 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-5 0 0 0,1 1-404 0 0,1-2-1023 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="829.43">789 301 15663 0 0,'7'-2'668'0'0,"1"0"-1"0"0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,12 2 0 0 0,-17-2-272 0 0,0 0-40 0 0,63 63 1022 0 0,-63-62-1352 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 2 1 0 0,-2 2 9 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-10 6 0 0 0,-2 1-49 0 0,-2-2 0 0 0,1 0 0 0 0,-1-2 0 0 0,-1 0 0 0 0,-24 7 0 0 0,-15 10-922 0 0,18-12-2405 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2151.84">18 224 16239 0 0,'0'0'1819'0'0,"-3"6"-1366"0"0,4 39 482 0 0,1-11-118 0 0,-13 174 1040 0 0,11-205-1858 0 0,-6 83 969 0 0,6-84-961 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,2 2 0 0 0,-1 6-32 0 0,0-8 7 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,3 3-1 0 0,-3-3 584 0 0,28 0 22 0 0,8-1-304 0 0,1-1-1 0 0,58-11 1 0 0,-67 9-334 0 0,0 1-1 0 0,0 2 0 0 0,1 1 1 0 0,-1 1-1 0 0,33 6 1 0 0,-11-1 212 0 0,56 6 111 0 0,111 10-164 0 0,-162-21-108 0 0,187 6 0 0 0,-226-9-24 0 0,1-1 0 0 0,19-4 0 0 0,0-1 27 0 0,-3 0 577 0 0,-39-15-288 0 0,-14-15-112 0 0,12 26-118 0 0,2 0 0 0 0,-1 0 1 0 0,-4-14-1 0 0,5 1-86 0 0,1 0 0 0 0,0-1-1 0 0,2 1 1 0 0,1-1 0 0 0,2-34 0 0 0,0 56 22 0 0,5-85-64 0 0,-5 49 52 0 0,1 15-44 0 0,-2 0 1 0 0,-4-38-1 0 0,7 37-31 0 0,-4 24 101 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-15 1 275 0 0,-19 8-249 0 0,-1-2 1 0 0,0-1-1 0 0,0-2 0 0 0,0-2 0 0 0,-51-2 0 0 0,-16 2 61 0 0,-112 16 0 0 0,34-1-22 0 0,155-15-77 0 0,-14 1 0 0 0,-50-3 0 0 0,60-2 9 0 0,13 2 8 0 0,-1-2-1 0 0,1 0 0 0 0,-18-4 1 0 0,38 6-124 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-3 1 0 0,4 0-1980 0 0,2 2-6643 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2750.98">1563 22 16559 0 0,'0'0'1723'0'0,"16"-11"2443"0"0,-14 1-2108 0 0,5 9-630 0 0,-6 2-1383 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 3 1 0 0,7 12 2 0 0,-2 1 0 0 0,0 0 0 0 0,5 23 0 0 0,-1 3-16 0 0,-5-25-10 0 0,-1 1 1 0 0,2 22-1 0 0,-5-21-13 0 0,2 51 22 0 0,-3-62-28 0 0,-1-1 1 0 0,1 1-1 0 0,-2-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-4 9 0 0 0,4-11 34 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-10 11 0 0 0,2-3 29 0 0,10-11-62 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-6 4 0 0 0,-4 1-2 0 0,-27 17 0 0 0,31-19 24 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,-20 7-1 0 0,-48 11-450 0 0,66-20 85 0 0,-23 7-644 0 0,2-1-1268 0 0,11-3-4131 0 0,9-3-899 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:03:26.120"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 841 10159 0 0,'0'0'2003'0'0,"18"-3"7872"0"0,-18 2-9823 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,3-2 112 0 0,-3 1-268 0 0,1 0 20 0 0,3 1 154 0 0,-2 0-11 0 0,1 0-72 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,4 6 0 0 0,17 29 24 0 0,-12-20 10 0 0,10 22-1 0 0,1 7-61 0 0,30 51 0 0 0,10 13 40 0 0,-50-84 27 0 0,-9-19-27 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,5 7-1 0 0,-5-9-47 0 0,0-1 190 0 0,0 0-20 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,4 5 0 0 0,-8-8 490 0 0,0-1-537 0 0,4 0-83 0 0,0-2-158 0 0,-5 2 164 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 7 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 1-77 0 0,0-3 109 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 1 0 0 0,-3-3-94 0 0,2 0 55 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0-1-50 0 0,1 0-73 0 0,14-7 54 0 0,-8 7 71 0 0,-2-1-12 0 0,-2-1-53 0 0,-1 2-17 0 0,-1 1 84 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1-1 0 0,3-6 114 0 0,-2 6-101 0 0,-1 2-15 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-3-1 0 0,-1 2-60 0 0,2 0 58 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-6 0 0 0,1 0 43 0 0,0 4-55 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,4-4-1 0 0,-4 4 41 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,2-5-1 0 0,2-4-38 0 0,-5 12-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-2-1 0 0,0 2 13 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 12 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-2 22 0 0,0 2-14 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,1-4-1 0 0,6-22-32 0 0,-7 23-7 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,4-7 0 0 0,5-9-186 0 0,11-34 0 0 0,0 2-137 0 0,11-21-38 0 0,27-55 113 0 0,-53 114 272 0 0,-1 1 0 0 0,5-16 0 0 0,2-8 0 0 0,26-74 250 0 0,-25 68-333 0 0,2 0 0 0 0,24-47-1 0 0,22-43 84 0 0,-46 100 88 0 0,-10 21 117 0 0,0 0 1 0 0,10-16-1 0 0,-14 27-227 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 1 18 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-7 0 0,0-1 1 0 0,0 1 16 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,2-3 1 0 0,-2 3 71 0 0,1-1-75 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,2-1 0 0 0,8-3 296 0 0,-10 6-301 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-10-8-112 0 0,10 9 122 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,10-2 241 0 0,-4 2-232 0 0,-6 0-14 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1-1-3 0 0,-2 1 90 0 0,2-1-51 0 0,-2 1 57 0 0,3-5 74 0 0,-5 4-306 0 0,6 4 55 0 0,3 3 84 0 0,-7-4 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1-15 0 0,5 16-347 0 0,-3-15 352 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 4 0 0 0,1-5 10 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 2 0 0 0,-2-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-4 10 0 0 0,3-11 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 7 0 0 0,4 12 0 0 0,-1 1 0 0 0,4 30 0 0 0,-8-44 0 0 0,0 0 0 0 0,0-1 0 0 0,5 10 0 0 0,1 6 0 0 0,32 94-7 0 0,-11-35 87 0 0,-26-69 93 0 0,-3-13-151 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 2 0 0 0,12 15 217 0 0,-7-8-203 0 0,1 0 0 0 0,13 13 0 0 0,-21-23 21 0 0,12 11 411 0 0,1-5-376 0 0,-12-5 245 0 0,0-1-461 0 0,0 1 128 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,4 5-22 0 0,-4-6 455 0 0,1 0-356 0 0,3 2-25 0 0,-3-2-57 0 0,0 0-6 0 0,4 7 19 0 0,-3-6-9 0 0,4 2 9 0 0,-5-3 32 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:03:32.766"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 13 12439 0 0,'0'0'5124'0'0,"2"9"-4304"0"0,-1-8-810 0 0,0 1 104 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 4 1 0 0,0 18 1032 0 0,2 29 0 0 0,0-29-748 0 0,-1-13-270 0 0,0-8-114 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2 7 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="372.1">17 26 17135 0 0,'0'0'1784'0'0,"16"-17"906"0"0,-13 16-2524 0 0,-1 0 1 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,5 2 0 0 0,35 5 426 0 0,-41-6-561 0 0,0 0-29 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 12 0 0,0 1 8 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 3 0 0 0,-3 6-154 0 0,5-9 50 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-4 0-1 0 0,11 1 241 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,5 5 0 0 0,-7-6-5 0 0,19 17 392 0 0,-20-18-359 0 0,0 15 101 0 0,-1-13-265 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-2 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-4 3 1 0 0,-1 0-17 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-15 5 0 0 0,-5-3-554 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:03:29.545"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1709 1246 9935 0 0,'0'0'5464'0'0,"7"-19"-2793"0"0,7-7-840 0 0,-6 13-1485 0 0,3 3-106 0 0,-10 9-212 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-2 1-24 0 0,2-3 92 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,4-3 0 0 0,14-18-43 0 0,-13 17-21 0 0,0 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,5-12 0 0 0,16-21 412 0 0,39-59 132 0 0,-15 21-806 0 0,2-12 535 0 0,-31 50 6 0 0,33-86 0 0 0,-36 78-50 0 0,29-52 0 0 0,-20 49-265 0 0,21-35 129 0 0,-41 65 197 0 0,-8 20-284 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,2-3-1 0 0,23-35 144 0 0,-17 22-30 0 0,-10 18-149 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-3-1 166 0 0,4-4-98 0 0,1 1-20 0 0,-4 4-46 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 0 0 0 0,-2 0 93 0 0,0 1-296 0 0,3 2 197 0 0,-3-2 135 0 0,0-1-185 0 0,2 2 19 0 0,3 4-56 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2000.38">1 1371 8519 0 0,'0'0'2155'0'0,"5"-3"692"0"0,-3 3-2603 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1-1 1 0 0,5-10 54 0 0,0-1 0 0 0,0 1 1 0 0,1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,12-10-1 0 0,-12 10-145 0 0,-7 8-90 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,8-4 1 0 0,-11 6 15 0 0,10-6 230 0 0,-9 6-309 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1 0 1 0 0,2 6-13 0 0,-1 1 1 0 0,1 0-1 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 13-1 0 0,3 26 254 0 0,3-5-1626 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2353.76">139 1244 18167 0 0,'0'0'1400'0'0,"16"-4"-308"0"0,76 13 1280 0 0,-60-4-3908 0 0,-23-4-6144 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4209.93">1267 249 17191 0 0,'0'0'2018'0'0,"3"0"-406"0"0,-32 20 555 0 0,22-16-2008 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,-7 11-1 0 0,9-10-90 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0 13 1 0 0,1-19-66 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,5 1 0 0 0,0 0-251 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,12-3-1 0 0,-8 0-7891 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4833.8">1665 1434 20127 0 0,'0'0'3833'0'0,"0"2"-3518"0"0,-3 40 553 0 0,2-32-788 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 11 1 0 0,0 7 162 0 0,1 25-18 0 0,-2-47-300 0 0,0-4-16 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5162.07">1677 1437 17423 0 0,'0'0'1339'0'0,"14"6"1048"0"0,-9-5-2135 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2 6 0 0 0,-4-8-208 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-2 2 1 0 0,-12 25 121 0 0,8-21-204 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,-11 3 1 0 0,4-1-894 0 0,15-5 717 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-3-1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6620.31">2543 14 14279 0 0,'4'2'185'0'0,"0"0"-1"0"0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,6 1 0 0 0,8 2 61 0 0,-16-4 84 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,3-1-1 0 0,7-4 745 0 0,33-3 1065 0 0,-15 4-1756 0 0,-21 7-2228 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6948.96">2595 123 17071 0 0,'1'4'376'0'0,"0"0"0"0"0,-1 1 0 0 0,0-1 0 0 0,0 9 0 0 0,3 16 202 0 0,-2-21-61 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 9 0 0 0,0-10-397 0 0,8 21-252 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7290.19">2661 198 16007 0 0,'0'0'1712'0'0,"9"0"-1712"0"0,0 0 0 0 0,2 2 0 0 0,-1 6-1544 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7291.19">2652 291 12207 0 0,'0'0'9819'0'0,"17"9"-7442"0"0,-13-5-2290 0 0,-3-3-74 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,3 0-1 0 0,-4-1-286 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,2-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17058.7">360 1326 6879 0 0,'12'3'608'0'0,"-2"1"-480"0"0,-3 0-40 0 0,-1-4-88 0 0,3 1 80 0 0,2 1-80 0 0,-3 0 0 0 0,0-2-80 0 0,0 0 80 0 0,2 0 0 0 0,-2-2 0 0 0,-1 1 64 0 0,1 1-64 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17453.42">706 1372 9183 0 0,'0'0'1567'0'0,"17"6"554"0"0,-10-6-2272 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 0 0 0,11 1 0 0 0,19 0-2627 0 0,-24-2-738 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17874.91">1027 1355 7567 0 0,'9'-1'786'0'0,"24"-10"-126"0"0,-20 7-315 0 0,1-1 1 0 0,26-3-1 0 0,-31 7-68 0 0,1 1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,11 3 0 0 0,-7-1 1302 0 0,2-1-295 0 0,-1-1 0 0 0,17-1 1 0 0,-16 0-849 0 0,28 4 1 0 0,44 5-1806 0 0,-74-9 199 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 1 0 0,14-6-1 0 0,2-2 985 0 0,25-11 928 0 0,-49 20-706 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,11 0 1 0 0,-5 3 3757 0 0,1 7-2257 0 0,-11-8-1434 0 0,-1-1 348 0 0,8 13 1154 0 0,-5-12-1469 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,8 1 0 0 0,42-4 923 0 0,-32 1-1288 0 0,32 0-216 0 0,-27 0-1429 0 0,-23 1 731 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,6 1 0 0 0,14-2 2660 0 0,-17 3-2358 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20149.83">2334 1284 15807 0 0,'0'0'7783'0'0,"6"-2"-7522"0"0,5 1-50 0 0,0 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,15 1 1 0 0,13 0 176 0 0,-29-2-342 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,14-6-1 0 0,-22 8-105 0 0,18-4-2057 0 0,-11 3-191 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20506.15">2370 1358 17423 0 0,'0'0'7139'0'0,"11"5"-6382"0"0,1-3-741 0 0,-9-1-19 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,4 0 0 0 0,23-4 22 0 0,22-4 103 0 0,-50 8 8 0 0,6-1-9 0 0,11-2-2958 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21034.42">2978 1190 21135 0 0,'0'0'3869'0'0,"-15"6"-3442"0"0,11-3-301 0 0,-56 42 556 0 0,27-26-1330 0 0,33-19 464 0 0,-15 3-2865 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21400.79">2769 1211 12583 0 0,'-5'14'1344'0'0,"5"-6"-1334"0"0,0-6 25 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,0-3 322 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2 2-1 0 0,-1-2-173 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,3 2-1 0 0,4 0-317 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,10-2 0 0 0,-12 0-1755 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:03:52.332"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">45 320 8143 0 0,'0'0'6235'0'0,"1"15"-1487"0"0,-3 2-3052 0 0,0 3-311 0 0,-3-7-1006 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 18 0 0 0,-3-8-43 0 0,5-21-287 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 4-1 0 0,3 8-416 0 0,3-23-2985 0 0,3-21-3452 0 0,-6 21 3694 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="378.55">38 340 11831 0 0,'0'0'4295'0'0,"6"4"-1072"0"0,-1-1-2492 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,7 3 1 0 0,-7-3-438 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,5 3 1 0 0,-7-3-287 0 0,0-3 8 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 3 0 0 0,-1-1 14 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-2 2 0 0 0,1-1-7 0 0,-4 3 56 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-1-1 0 0,-10 3 1 0 0,19-5-556 0 0,-2 1 242 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2714.83">147 226 18111 0 0,'0'0'3002'0'0,"2"3"-2451"0"0,0 0-446 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 6-1 0 0,-3 45 862 0 0,0-24-473 0 0,2-14-213 0 0,0-10-166 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,3 11 1 0 0,-4-16-26 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3324.35">356 325 21023 0 0,'-2'-1'1616'0'0,"-5"-5"-1043"0"0,5 5 161 0 0,-14-2 164 0 0,12 3-837 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-3 3-1 0 0,1-2-49 0 0,1 0-8 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 7-1 0 0,4-10 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,3 0 0 0 0,1 0-51 0 0,1 1 0 0 0,-1-2 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,8-2 0 0 0,5-11-659 0 0,-15 12 64 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1-3 0 0 0,0-4-1595 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3685.13">388 128 20239 0 0,'0'0'1839'0'0,"9"19"-1425"0"0,-9-16-301 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-3 6 0 0 0,-2 7 235 0 0,-10 31 651 0 0,10-31-772 0 0,0 1-1 0 0,1-1 0 0 0,1 1 1 0 0,-2 19-1 0 0,5-24-225 0 0,0-5 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 9 0 0 0,1-5-3264 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4753.34">584 292 19007 0 0,'5'2'384'0'0,"-1"0"0"0"0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,7-1 0 0 0,11 0-119 0 0,11 2 29 0 0,-27-4-1187 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5083.11">583 400 20239 0 0,'0'0'928'0'0,"14"-7"344"0"0,-11 6-1201 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,6 0 1 0 0,-3 1 50 0 0,0-2 0 0 0,-1 1 1 0 0,12-3-1 0 0,11-4-677 0 0,-27 7 273 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,3-1-1 0 0,2-2-869 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5470.57">890 282 21479 0 0,'0'0'1657'0'0,"2"0"-1425"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,3 1 0 0 0,1 5-565 0 0,-5-1-3033 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5471.57">859 369 19607 0 0,'0'0'2160'0'0,"7"-1"-2160"0"0,4 1 936 0 0,-3-2-424 0 0,1 0 8 0 0,1 1-168 0 0,-3 0-272 0 0,3 2-80 0 0,-3-3-176 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6066.33">1277 380 18543 0 0,'9'-13'2030'0'0,"-2"1"-1356"0"0,1 1 1 0 0,9-11 0 0 0,6-8-433 0 0,-10 11-134 0 0,1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,1 2 1 0 0,30-25-1 0 0,-40 33-134 0 0,-5 7 61 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,3-1 0 0 0,7 14 204 0 0,-9-10-195 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 3 0 0 0,4 13 179 0 0,5 22 114 0 0,-9-22-336 0 0,-1-17 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 3 0 0 0,-1-1 5 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-3 3-1 0 0,-2 4-725 0 0,5-10-74 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6408.78">1362 264 21135 0 0,'0'0'2205'0'0,"18"2"-1529"0"0,-13-3-529 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,8 1 0 0 0,18 0 214 0 0,6-9-2052 0 0,-25 6-6869 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6813.98">1660 194 19951 0 0,'0'0'2463'0'0,"-1"0"-2450"0"0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,2 5 88 0 0,-2-3-15 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 4-1 0 0,-1 2 155 0 0,1-5-143 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 6-1 0 0,0-8-87 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,2 5 0 0 0,2 7-37 0 0,-4-13-242 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7161.78">1701 160 20559 0 0,'0'0'2300'0'0,"2"1"-2043"0"0,6 8 343 0 0,0 0 0 0 0,14 19 0 0 0,-21-26-576 0 0,0-1 204 0 0,0 1 11 0 0,1 1-157 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 4 1 0 0,0-6-49 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-4 4 0 0 0,-3 0-89 0 0,4-1 91 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-10 5 0 0 0,13-7-312 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-4 0 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8249.75">1146 70 16471 0 0,'0'0'1715'0'0,"6"18"-871"0"0,-6-2-13 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-6 20-1 0 0,-9 36-842 0 0,-8 97-1 0 0,25-159 11 0 0,-6 27 20 0 0,6-37 543 0 0,5 0-422 0 0,0-2-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,7-5 0 0 0,-3 4-138 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,14 0 0 0 0,-20 0 0 0 0,14 0 0 0 0,49 2 0 0 0,27 1 0 0 0,-32-2 0 0 0,100 2 0 0 0,-73-7 0 0 0,-73 4-8 0 0,0-1 0 0 0,24-5 0 0 0,-27 4 12 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,15 1 0 0 0,-23 0-4 0 0,14 0-11 0 0,36-5 102 0 0,-45 4 318 0 0,-7 0 1098 0 0,-2-14-2039 0 0,-7-9 623 0 0,4 12-78 0 0,1 3-13 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-12 0 0 0,-2 18 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-3 0 0 0,1 3 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,2-17-13 0 0,-3 18 8 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2-4 0 0 0,-3 5 10 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2-1 0 0,0 1 66 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-4-1 0 0,0 5-92 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-9-25-328 0 0,10 26 406 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0-2 1 0 0,-1-5-626 0 0,0 8 251 0 0,2-9-197 0 0,-2 10 516 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,-2-1 1 0 0,-17 5 4 0 0,21-5-4 0 0,-35 8-3 0 0,26-6 30 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-17-1-1 0 0,2-2 196 0 0,-132-7 25 0 0,-109-3 533 0 0,185 12-769 0 0,79 0-311 0 0,2-1 168 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 0 0 0 0,-2 1 21 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,2 0 1 0 0,5-3-605 0 0,-1-1-3 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:04:04.949"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">177 22 7343 0 0,'0'0'6603'0'0,"-7"13"-2540"0"0,3-6-3490 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 11 1 0 0,-6 16 690 0 0,7-27-1241 0 0,1-1 0 0 0,-1 0-1 0 0,0 13 1 0 0,-3 16 291 0 0,5-27 198 0 0,0-3-2072 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="450.81">254 236 9271 0 0,'0'0'423'0'0,"-14"15"154"0"0,7-8 572 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-16 7 1 0 0,19-11-1049 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-7-2 0 0 0,4 1-96 0 0,-1-1 9 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 1 0 0,-15-7-1 0 0,21 10-47 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-3-1 0 0,1-6-174 0 0,-2 7 148 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,2-5 0 0 0,27-44-202 0 0,-9 20 125 0 0,-19 27 154 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,7-6-1 0 0,-2 4 563 0 0,0 0-1 0 0,1 1 0 0 0,23-9 1 0 0,-30 13-366 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,9 3 0 0 0,-3 1-110 0 0,-1-1 0 0 0,1 1-1 0 0,-1 1 1 0 0,0 0 0 0 0,16 13-1 0 0,-22-16-12 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,1 7 1 0 0,-3-9-83 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 5 0 0 0,-5 11 145 0 0,4-5-72 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-10 15 0 0 0,-8 14-90 0 0,20-32 4 0 0,-2 0-1 0 0,-10 14 0 0 0,-1-1-402 0 0,-5 2-2096 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-27T02:04:06.466"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">147 87 20327 0 0,'10'2'4244'0'0,"20"10"-2985"0"0,1 1-1183 0 0,-18-9-36 0 0,-5-2-50 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,7 5 0 0 0,-13-8 15 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0 1 3 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-4 5 0 0 0,-1 1-80 0 0,5-5-6 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-5 2 0 0 0,-11 6-412 0 0,16-8 383 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,-6 0 1 0 0,-3-1 628 0 0,17 1 1159 0 0,21-4-956 0 0,-12 2-974 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,15 5-1 0 0,-19-6-6904 0 0,1 1 71 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="406.42">321 423 14767 0 0,'-3'3'228'0'0,"0"0"-1"0"0,0 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-4-1 1 0 0,-6-1 349 0 0,1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,-23-7-1 0 0,28 7-418 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-12-9 0 0 0,17 11-83 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-4-11 0 0 0,6 12-36 0 0,-1-1-1 0 0,1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,1-8 1 0 0,4-1 71 0 0,-1 0 1 0 0,2 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,1 1-1 0 0,0-1 0 0 0,1 2 1 0 0,21-18-1 0 0,-8 7 133 0 0,-17 15-163 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,11-5 1 0 0,-2 2 53 0 0,1 2 0 0 0,26-8-1 0 0,-34 13-106 0 0,-6 0-26 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,5 3 0 0 0,-4-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 8 1 0 0,0 0 3 0 0,0-6 30 0 0,1-1-1 0 0,-2 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 10-1 0 0,-4 7 18 0 0,4-9-29 0 0,-2 0-1 0 0,-11 21 1 0 0,9-22-16 0 0,3-3 10 0 0,0 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,-15 16 1 0 0,-14 9 129 0 0,21-20-113 0 0,-25 21-1 0 0,29-27-194 0 0,6-4-124 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-9 3 1 0 0,13-7-2029 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1642.16">738 338 12207 0 0,'-11'4'1679'0'0,"0"-1"0"0"0,0 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-18 12 0 0 0,0 9-717 0 0,11-9-654 0 0,12-11-169 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,-9 13 0 0 0,9-13-8 0 0,1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-3 13 1 0 0,5-15-74 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,5 8-1 0 0,-4-7-31 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,7 1 0 0 0,-10-2-22 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,4-1 0 0 0,2-1 25 0 0,2 0-137 0 0,0-1 1 0 0,14-8-1 0 0,-13 6-401 0 0,-11 6 438 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,-5-9-816 0 0,5 8-287 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1990.53">609 565 20815 0 0,'0'0'1608'0'0,"9"-3"-932"0"0,33-1-201 0 0,-25 4-237 0 0,57 3 186 0 0,-57-2-393 0 0,1 0 1 0 0,-1 0-1 0 0,0-2 0 0 0,24-3 0 0 0,18-7-1445 0 0,-47 8-6789 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2344.01">813 662 22231 0 0,'-6'13'2131'0'0,"-1"3"-1827"0"0,3 1-26 0 0,0 0 1 0 0,-1 0 0 0 0,-9 20-1 0 0,7-20 5 0 0,1 1-1 0 0,-7 29 0 0 0,10-33-168 0 0,-2 0 0 0 0,1 0 0 0 0,-12 21 0 0 0,15-33-110 0 0,1-2 2 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,9 0-2233 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,15 +3020,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="41.35546875" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" customWidth="1"/>
     <col min="6" max="6" width="40.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.92578125" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
@@ -671,23 +3116,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="1"/>
+    <row r="10" spans="2:9" ht="249" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="1"/>
+    <row r="11" spans="2:9" ht="139.75" customHeight="1">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1438,5 +3891,69 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D91097-99FC-490D-BAAE-6384373920EA}">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AB4AA4-A7B8-4B53-97F0-3062EC743D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE02B872-9859-460F-BAF7-4F52FE0E281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -607,10 +607,6 @@
     <t xml:space="preserve">   dd_F_B_sl</t>
   </si>
   <si>
-    <t>2020.01.02-2020.12.31　★TimeFrame=PERIOD_M15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1年2020</t>
     <rPh sb="1" eb="2">
       <t>ネン</t>
@@ -695,6 +691,254 @@
     </rPh>
     <rPh sb="124" eb="126">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★結果</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>2020.01.02-2020.12.31　★TimeFrame=PERIOD_M1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年2019</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019.01.02-2019.12.31　★TimeFrame=PERIOD_M1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">method_A1_6 </t>
+  </si>
+  <si>
+    <t>A2_*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り替わりし、一つ続伸後、
+１Entry：C、利確；E、損切：D未満
+２Entry：A、利確；E、損切：D未満
+３Entry：Ｄ、利確；E、損切：D起点かＣＤ分下へ
+４Entry：Ｄ、利確；E、損切：B未満
+５_1Entry：Ｄ、利確；G※１、損切：B未満
+５_2Entry：Ｄ、利確；上チャネル※2、損切：B未満
+６Entry：Ｄより下に髭があるが、実体はＤ以上、利確；E、損切：D起点かＣＤ分下へ
+※１：Ｅ起点でＣＤＥのＥを移動Ｇまで。（過去のCDEと同じように伸びる想定）
+※2：CEのライン以上になった場合
+切り替わり後、目線再度変えて、前回起点切り替わりまで試す
+Entry：B、利確；E、損切：B起点からＢＣ分したへ
+Entry：B、利確；E、損切：B起点からＡＢ分したへ
+Entry：B、利確；Ｃ、損切：B起点からＢＣ分したへ
+Entry：B、利確；Ｃ、損切：B起点からＡＢ分したへ</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゾクシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リカク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソンギリ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>リカク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>メセン</t>
+    </rPh>
+    <rPh sb="267" eb="270">
+      <t>サイドカ</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="275" eb="278">
+      <t>キテンキ</t>
+    </rPh>
+    <rPh sb="279" eb="280">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="284" eb="285">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今までの頂点のとり方が、ハラミを含まないようにとっていたので、これをやめるとどう変わるかを確認したい。
+数と結果
+→既存パターンにT付きにする。
+今まで、get_mesen_Cn_kirikawari_zokusin
+T付きは、</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019.11.01-2019.12.30 ★TimeFrame=PERIOD_M1 USDJPY
+★結果:name=method_A2_1   ; 数=84 ; 勝数=63 ; 負数=21 ; 勝Pips=122.0 ; 負Pips=72.2 ; 勝率=0.750 ; 期待値=0.6 ; Pf=1.69 ; タープ期待値=0.00821132
+★結果:name=method_A2_2   ; 数=53 ; 勝数=22 ; 負数=31 ; 勝Pips=114.4 ; 負Pips=97.7 ; 勝率=0.415 ; 期待値=0.3 ; Pf=1.17 ; タープ期待値=0.00322512
+★結果:name=method_A2_3   ; 数=79 ; 勝数=37 ; 負数=42 ; 勝Pips=327.3 ; 負Pips=215.7 ; 勝率=0.468 ; 期待値=1.4 ; Pf=1.52 ; タープ期待値=0.00654918
+★結果:name=method_A2_4   ; 数=79 ; 勝数=42 ; 負数=37 ; 勝Pips=326.2 ; 負Pips=224.4 ; 勝率=0.532 ; 期待値=1.3 ; Pf=1.45 ; タープ期待値=0.00574246
+★結果:name=method_A2_5_1 ; 数=79 ; 勝数=32 ; 負数=47 ; 勝Pips=324.8 ; 負Pips=293.2 ; 勝率=0.405 ; 期待値=0.4 ; Pf=1.11 ; タープ期待値=0.00136426
+★結果:name=method_A2_5_2 ; 数=78 ; 勝数=13 ; 負数=65 ; 勝Pips=124.5 ; 負Pips=463.7 ; 勝率=0.167 ; 期待値=-4.3 ; Pf=0.27 ; タープ期待値=-0.00937830
+★結果:name=method_A2_6   ; 数=79 ; 勝数=44 ; 負数=35 ; 勝Pips=340.0 ; 負Pips=184.7 ; 勝率=0.557 ; 期待値=2.0 ; Pf=1.84 ; タープ期待値=0.01064333
+2021.01.04-2021.12.31 ★TimeFrame=PERIOD_M1 USDJPY
+★結果:name=method_A2_1 ; 数=630 ; 勝数=446 ; 負数=184 ; 勝Pips=1297.8 ; 負Pips=1089.0 ; 勝率=0.708 ; 期待値=0.3 ; Pf=1.19 ; タープ期待値=0.00030434
+★結果:name=method_A2_2 ; 数=423 ; 勝数=179 ; 負数=244 ; 勝Pips=1101.4 ; 負Pips=962.3 ; 勝率=0.423 ; 期待値=0.3 ; Pf=1.14 ; タープ期待値=0.00034172
+★結果:name=method_A2_3 ; 数=576 ; 勝数=214 ; 負数=362 ; 勝Pips=2439.3 ; 負Pips=2323.6 ; 勝率=0.372 ; 期待値=0.2 ; Pf=1.05 ; タープ期待値=0.00008645
+★結果:name=method_A2_4 ; 数=557 ; 勝数=236 ; 負数=321 ; 勝Pips=2474.4 ; 負Pips=2654.8 ; 勝率=0.424 ; 期待値=-0.3 ; Pf=0.93 ; タープ期待値=-0.00012200
+★結果:name=method_A2_5_1 ; 数=557 ; 勝数=214 ; 負数=343 ; 勝Pips=2764.5 ; 負Pips=2816.9 ; 勝率=0.384 ; 期待値=-0.1 ; Pf=0.98 ; タープ期待値=-0.00003340
+★結果:name=method_A2_5_2 ; 数=543 ; 勝数=95 ; 負数=448 ; 勝Pips=2777.1 ; 負Pips=4142.8 ; 勝率=0.175 ; 期待値=-2.5 ; Pf=0.67 ; タープ期待値=-0.00060710
+★結果:name=method_A2_6 ; 数=557 ; 勝数=256 ; 負数=301 ; 勝Pips=2394.4 ; 負Pips=2275.0 ; 勝率=0.460 ; 期待値=0.2 ; Pf=1.05 ; タープ期待値=0.00009423</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A2_3_T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A2_3_T  で実験→4倍異なる。ハラミ含む方がZigそのままよりパターン数が4倍多い。→BCが切り替わりの１であるものが少ない可能性あり？
+2019.11.01-2019.12.30 ★M5　USJP
+★結果:name=method_A2_3 ; 数=88 ; 勝数=40 ; 負数=48 ; 勝Pips=997.3 ; 負Pips=737.2 ; 勝率=0.455 ; 期待値=3.0 ; Pf=1.35 ; タープ期待値=0.00400934
+★結果:name=method_A2_3_T ; 数=19 ; 勝数=6 ; 負数=13 ; 勝Pips=188.9 ; 負Pips=200.8 ; 勝率=0.316 ; 期待値=-0.6 ; Pf=0.94 ; タープ期待値=-0.00311910</t>
+    <rPh sb="9" eb="11">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン成立から、ある期間内でパターンが不成立とするとどうなるか？
+例：D点からCDEの期間（CDEと同じような期間で、Gまで到達する。</t>
+    <rPh sb="4" eb="6">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キカンナイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>フセイリツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>トウタツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2232,8 +2476,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>866784</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="インク 1">
@@ -2252,7 +2496,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="インク 1">
@@ -2297,8 +2541,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1236864</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="インク 42">
@@ -2317,7 +2561,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="インク 42">
@@ -2362,8 +2606,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1372742</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="インク 110">
@@ -2382,7 +2626,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="インク 110">
@@ -2427,8 +2671,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1158762</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="112" name="インク 111">
@@ -2447,7 +2691,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="112" name="インク 111">
@@ -2492,8 +2736,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1391682</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="122" name="インク 121">
@@ -2512,7 +2756,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="122" name="インク 121">
@@ -2557,8 +2801,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1151922</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="インク 124">
@@ -2577,7 +2821,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="インク 124">
@@ -2622,8 +2866,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1032840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="150" name="インク 149">
@@ -2642,7 +2886,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="150" name="インク 149">
@@ -2687,8 +2931,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1108080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="195" name="インク 194">
@@ -2707,7 +2951,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="195" name="インク 194">
@@ -2752,8 +2996,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1093381</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="201" name="インク 200">
@@ -2772,7 +3016,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="201" name="インク 200">
@@ -2817,8 +3061,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1150621</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="215" name="インク 214">
@@ -2837,7 +3081,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="215" name="インク 214">
@@ -2859,6 +3103,266 @@
             <a:xfrm>
               <a:off x="3907086" y="15804912"/>
               <a:ext cx="582469" cy="214888"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601344</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1074496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790704</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1155856</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="インク 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F32079-E24A-4641-9025-13778B71709D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2791293" y="17166143"/>
+            <a:ext cx="189360" cy="81360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="インク 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F32079-E24A-4641-9025-13778B71709D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2782293" y="17157503"/>
+              <a:ext cx="207000" cy="99000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2040479</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1066681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2365919</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1179361</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="インク 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FF7FFA-A54C-4155-AAD0-6BF6D8C24D0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4225398" y="17092007"/>
+            <a:ext cx="325440" cy="112680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="インク 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FF7FFA-A54C-4155-AAD0-6BF6D8C24D0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4216408" y="17083367"/>
+              <a:ext cx="343061" cy="130320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21937</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>474841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1812599</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1361521</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="インク 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A85EB5-E937-46FF-9920-008DFE2A003C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2206856" y="16500167"/>
+            <a:ext cx="1790662" cy="886680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="インク 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A85EB5-E937-46FF-9920-008DFE2A003C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2198216" y="16491167"/>
+              <a:ext cx="1808302" cy="904320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>782977</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>393841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1338457</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>867241</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="インク 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807DE54E-2C7E-4437-859B-D828C1267706}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2967896" y="16419167"/>
+            <a:ext cx="555480" cy="473400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="インク 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807DE54E-2C7E-4437-859B-D828C1267706}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2958896" y="16410160"/>
+              <a:ext cx="573120" cy="491053"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2938,7 +3442,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">416 2 10159 0 0,'0'0'1768'0'0,"2"17"2314"0"0,-4 2-2143 0 0,3-15-1755 0 0,-2 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 5 1 0 0,-1 13 410 0 0,-2 5-117 0 0,1-15-202 0 0,0 0 0 0 0,1 0 0 0 0,1 1 1 0 0,-2 13-1 0 0,3-16-133 0 0,1-10-210 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415.05">414 14 6535 0 0,'0'0'500'0'0,"15"-3"3712"0"0,-12 4-3779 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 6 0 0 0,13 16 1100 0 0,9 2 389 0 0,-25-26-1878 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-1 1 0 0,0 0 19 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-4 0 0 0,8-5 82 0 0,-12 9-129 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-2 0 0 0,-1-2-5 0 0,-4 67 896 0 0,8-25-569 0 0,-2-19-507 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="832.8">731 202 14687 0 0,'0'0'1646'0'0,"7"-12"804"0"0,-3-7-1492 0 0,2 0 0 0 0,0 1 0 0 0,1 0 0 0 0,17-31-1 0 0,-19 41-854 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,11-10 0 0 0,-14 16-106 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,-5 2 25 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 2 0 0 0,-1-2-65 0 0,0 2-55 0 0,3 7 78 0 0,1-1 0 0 0,-2 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-3 19 0 0 0,2-28 20 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-3 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 2-1 0 0,-6 8-196 0 0,4-8 69 0 0,2-1-150 0 0,-1 4 258 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.65">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.63">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.06">996 33 15199 0 0,'0'0'6352'0'0,"18"10"-4313"0"0,-7-3-1877 0 0,4 2 66 0 0,-1 1 0 0 0,0 0-1 0 0,17 17 1 0 0,-26-21-244 0 0,-4-5-63 0 0,1 4 1894 0 0,0-2-3438 0 0,22-14-18182 0 0,-23 9 20155 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1-2 0 0 0,-1 3-173 0 0,-1 0-25 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-4-3 2903 0 0,-37 9 5076 0 0,31-3-8017 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-14 11 0 0 0,8-5-67 0 0,1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-13 18-1 0 0,13-21-43 0 0,12-9-4 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 0-367 0 0,5-1 174 0 0,1-1 97 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12192.16">1415 5 6535 0 0,'-3'1'5160'0'0,"-11"3"-1348"0"0,13-3-3604 0 0,-2-1-29 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 3 0 0 0,-10 11 142 0 0,1 0-1 0 0,0 0 1 0 0,2 1 0 0 0,-18 33 0 0 0,16-21 392 0 0,1 0 0 0 0,2 1 0 0 0,-10 44 0 0 0,17-61-586 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,2 0 0 0 0,6 19 0 0 0,-6-24-76 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,12 9 0 0 0,-17-14-168 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0-324 0 0,4-4-1364 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14506.99">1537 566 11743 0 0,'0'0'1338'0'0,"22"-34"3115"0"0,-17 25-3954 0 0,0 1 0 0 0,0 0 0 0 0,11-14 0 0 0,-1 3-199 0 0,42-62 463 0 0,-45 62-287 0 0,2 2 1 0 0,0 0-1 0 0,19-18 1 0 0,-30 32-398 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,4-4-1 0 0,-3 3 8 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 0 0 0,-9 8-61 0 0,-3 3-18 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1-4 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,3 12 66 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-5 22 0 0 0,1-14-43 0 0,1-4 26 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 32 0 0 0,3-30 20 0 0,-1 0-69 0 0,1-15-2737 0 0</inkml:trace>
@@ -3062,7 +3566,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">79 97 16783 0 0,'0'0'1522'0'0,"-1"0"-1250"0"0,-26 13 1808 0 0,25-13-1964 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,-4 7 20 0 0,4-12-125 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-2 22 0 0,0 4 58 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,3 5 1 0 0,-5-7-64 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,5 12 191 0 0,32 32 538 0 0,-30-39-739 0 0,-6-7-16 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,4 1 0 0 0,7-3-7 0 0,-4 0-95 0 0,-8-2 385 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="453.56">74 45 20559 0 0,'0'0'1581'0'0,"7"-3"-910"0"0,11-5-311 0 0,0 1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,35 1 0 0 0,-30 0-3274 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="820.84">105 174 19807 0 0,'0'0'2066'0'0,"2"1"-1960"0"0,8 1-9 0 0,-8-1 343 0 0,17-4 2642 0 0,-7 0-2970 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 1-1 0 0,22 1 0 0 0,-8-8-2560 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="820.83">105 174 19807 0 0,'0'0'2066'0'0,"2"1"-1960"0"0,8 1-9 0 0,-8-1 343 0 0,17-4 2642 0 0,-7 0-2970 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 1-1 0 0,22 1 0 0 0,-8-8-2560 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1154.44">130 276 21767 0 0,'22'3'2785'0'0,"8"-10"-2314"0"0,-8 2-1372 0 0,30-10-1 0 0,-52 15 777 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1-366 0 0,4-5-1194 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1545.34">341 271 21943 0 0,'1'0'75'0'0,"-1"1"0"0"0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 2 0 0 0,0-2-69 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 3 0 0 0,1-2 174 0 0,-6 21 737 0 0,69-117-1393 0 0,-62 92 459 0 0,4-5 56 0 0,0 0-1 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,7-6 1 0 0,-13 12 202 0 0,6 4 398 0 0,-5 0-599 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 6 0 0 0,2-6-30 0 0,-1 3 0 0 0,5 13-125 0 0,7-29-1099 0 0,-1-2-1117 0 0,-2 0-6277 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1546.34">597 159 22231 0 0,'0'0'1712'0'0,"0"9"-989"0"0,4-2-716 0 0,-4-6 35 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-2 9 328 0 0,-1-1-86 0 0,0-1 0 0 0,-10 20 1 0 0,-7 6-407 0 0,20-34 15 0 0,-2 4-641 0 0</inkml:trace>
@@ -3185,8 +3689,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">40 339 5695 0 0,'-5'0'18114'0'0,"-6"1"-15165"0"0,4 12-2752 0 0,5-9-233 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 8 0 0 0,5-12-215 0 0,7 4-522 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.86">405 9 19871 0 0,'0'0'2065'0'0,"19"0"-767"0"0,-10-1-609 0 0,2-2-554 0 0,0 1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,18 4 0 0 0,-28-5-492 0 0,8 2-2183 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="692.92">368 95 21167 0 0,'0'0'1629'0'0,"0"2"-1053"0"0,-2 51 294 0 0,0-36-651 0 0,1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,4 20-1 0 0,-3-21-78 0 0,-1-13-129 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,2 3 0 0 0,-2-3-234 0 0,4 4-606 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1103.34">400 225 20815 0 0,'0'0'1608'0'0,"13"-6"-849"0"0,-4 5-519 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,12 3-1 0 0,2 0-141 0 0,-21-5-274 0 0,7 5-328 0 0,-7-3 446 0 0,8 6-599 0 0,-10-7 556 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1104.34">424 350 19607 0 0,'0'0'4831'0'0,"10"-1"-4369"0"0,2 1-699 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,21-7-1 0 0,-21 6-8149 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1103.33">400 225 20815 0 0,'0'0'1608'0'0,"13"-6"-849"0"0,-4 5-519 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,12 3-1 0 0,2 0-141 0 0,-21-5-274 0 0,7 5-328 0 0,-7-3 446 0 0,8 6-599 0 0,-10-7 556 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1104.33">424 350 19607 0 0,'0'0'4831'0'0,"10"-1"-4369"0"0,2 1-699 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,21-7-1 0 0,-21 6-8149 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1513.4">726 250 21479 0 0,'-1'16'2356'0'0,"1"-11"-2254"0"0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-4 5 0 0 0,6-8 26 0 0,-2 0 44 0 0,3-2-152 0 0,-1-2-20 0 0,2-1-38 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,4-5-1 0 0,2-5-84 0 0,-3 4 105 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,14-9 0 0 0,-20 15 511 0 0,15 21 28 0 0,-15-18-452 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-2 6 0 0 0,0-5 11 0 0,0 0-52 0 0,2-4 31 0 0,-4 1-63 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2243.31">1122 18 21479 0 0,'0'0'2244'0'0,"1"2"-2132"0"0,1 2-39 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-3 6-1 0 0,0 17 235 0 0,0-4-102 0 0,-1 1-1 0 0,-1-1 1 0 0,-9 26-1 0 0,6-24 5 0 0,2 1 0 0 0,-4 30 0 0 0,0-21-279 0 0,10-33-23 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2607.54">948 198 22231 0 0,'0'0'2368'0'0,"8"3"-2288"0"0,1-1-80 0 0,1-1 384 0 0,0 0-176 0 0,1-1 0 0 0,1 0-208 0 0,-4 0-72 0 0,1-1-72 0 0,4 0 144 0 0,-4 0 152 0 0,3 0-10312 0 0</inkml:trace>
@@ -3608,10 +4112,10 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3982.07">2228 1962 6535 0 0,'0'0'500'0'0,"3"1"-153"0"0,12 10 5576 0 0,1 11-2597 0 0,-4-4-2264 0 0,-9-15-438 0 0,-2 0-31 0 0,0 1-479 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,3 4 1 0 0,-3-4 51 0 0,-1 0-26 0 0,0 0-111 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,2 2 1 0 0,-1-2 521 0 0,0 0-468 0 0,4 3-78 0 0,6 3-79 0 0,-6-2-5382 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4423.99">2314 2082 5695 0 0,'0'0'2144'0'0,"3"0"-2032"0"0,22 0 120 0 0,-23 0 8 0 0,2-11-333 0 0,-4 8 232 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,5-2 1 0 0,4-3 913 0 0,1 2 0 0 0,23-8 1 0 0,-20 7-437 0 0,43-11 803 0 0,-55 15-1267 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,4-3-1 0 0,-4 4-71 0 0,1 0 216 0 0,-1-1-30 0 0,7-10-1240 0 0,-3 5-3009 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5037.51">979 2320 5695 0 0,'0'0'1784'0'0,"2"2"-1300"0"0,9 5 4999 0 0,-11-4-4875 0 0,0 1-383 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-2 6-1 0 0,-4 21 684 0 0,0 70 1398 0 0,7-23-1650 0 0,4-48-584 0 0,-3-25-62 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 5 1 0 0,-3 16 344 0 0,3-22-186 0 0,1 6 62 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4693.11">1056 2283 5695 0 0,'0'0'443'0'0,"3"1"-240"0"0,11 5 87 0 0,-11-4 1257 0 0,-1-2-1462 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 2 1 0 0,20 30 532 0 0,-19-27-476 0 0,37 43 1086 0 0,-35-41-871 0 0,0 0 0 0 0,-1 0 0 0 0,5 13 0 0 0,-8-18-273 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 7 1 0 0,0 0 332 0 0,-1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-6 9 0 0 0,-17 31 688 0 0,26-47-1077 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-4 3 1 0 0,3-2-27 0 0,-2 1-11 0 0,0 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 0 0 0 0,-11-2-1 0 0,13 2-751 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-3-2 0 0 0,-4-4-5327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4693.13">1056 2283 5695 0 0,'0'0'443'0'0,"3"1"-240"0"0,11 5 87 0 0,-11-4 1257 0 0,-1-2-1462 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 2 1 0 0,20 30 532 0 0,-19-27-476 0 0,37 43 1086 0 0,-35-41-871 0 0,0 0 0 0 0,-1 0 0 0 0,5 13 0 0 0,-8-18-273 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 7 1 0 0,0 0 332 0 0,-1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-6 9 0 0 0,-17 31 688 0 0,26-47-1077 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-4 3 1 0 0,3-2-27 0 0,-2 1-11 0 0,0 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 0 0 0 0,-11-2-1 0 0,13 2-751 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-3-2 0 0 0,-4-4-5327 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2883.78">1082 735 6535 0 0,'0'0'5435'0'0,"3"0"-5108"0"0,26 0 878 0 0,-27 0-1112 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,2 0 0 0 0,12-5 966 0 0,29-9 801 0 0,-15 4-538 0 0,20-8-1170 0 0,-46 18-46 0 0,4-4 600 0 0,-4 3-3307 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2534.9">1174 829 5695 0 0,'0'0'646'0'0,"0"3"-358"0"0,1 11 270 0 0,0-1 0 0 0,-1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,-5 18 1 0 0,-5 1 790 0 0,10-29-1201 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 7 0 0 0,1 4-49 0 0,-5-6-666 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2199.41">1175 887 6535 0 0,'0'0'3178'0'0,"3"0"-2644"0"0,22-7 2066 0 0,-23 6-2308 0 0,1 0-32 0 0,26-9 210 0 0,-2-2-4264 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2199.42">1175 887 6535 0 0,'0'0'3178'0'0,"3"0"-2644"0"0,22-7 2066 0 0,-23 6-2308 0 0,1 0-32 0 0,26-9 210 0 0,-2-2-4264 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1845.38">1147 1104 6535 0 0,'0'0'1256'0'0,"3"0"-630"0"0,42-1 1183 0 0,-43 0-1710 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,3-2 0 0 0,6-3 218 0 0,-2 2-72 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,9-9 0 0 0,3-4-3781 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5397.78">1 1653 9359 0 0,'0'0'720'0'0,"2"0"-474"0"0,11 0 681 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,15 5 0 0 0,-18-4-807 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,10 7 0 0 0,9 10-62 0 0,-1 1 0 0 0,-1 1 0 0 0,40 50 0 0 0,-55-62-36 0 0,0-1 0 0 0,23 19 0 0 0,2 2 36 0 0,-13-13-30 0 0,0-1 0 0 0,51 31 0 0 0,-53-38 84 0 0,-1 2 0 0 0,0 0 1 0 0,0 1-1 0 0,-2 1 0 0 0,24 25 1 0 0,-12-8 231 0 0,-21-24-524 0 0,0 0 0 0 0,-1 0 0 0 0,7 11 0 0 0,16 30-2654 0 0,-29-48 2466 0 0,-1 0 147 0 0,5 11-127 0 0,5 1 252 0 0,-5-11 55 0 0,-3-3 5 0 0,0 2-102 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6001.6">894 2090 10159 0 0,'0'-8'437'0'0,"-1"0"0"0"0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-7-12 0 0 0,6 1 1911 0 0,1 6-1554 0 0,1 5-220 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-12-1 0 0,1 11-662 0 0,0 6 94 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-3 0 0 0,5-11-118 0 0,-3 0 53 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,11-13 1 0 0,-15 19 54 0 0,0 1 1 0 0,0 0-1 0 0,5-15 0 0 0,-6 14 25 0 0,0 0 0 0 0,1 0 0 0 0,5-8 1 0 0,-5 9 3 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,3-15 0 0 0,-4 16-2 0 0,1 1 1 0 0,0-1-1 0 0,6-10 0 0 0,-6 12-5 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-6 0 0 0,0-7 23 0 0,6-42 64 0 0,-6 47-80 0 0,0 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,-2-16-1 0 0,1 13 38 0 0,3-32 0 0 0,15-31 19 0 0,6 22-334 0 0,-20 48 189 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 2 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,14-11 0 0 0,1 5-1312 0 0,-8 8-3566 0 0</inkml:trace>
@@ -3649,15 +4153,15 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="69811.13">302 2684 8431 0 0,'0'0'632'0'0,"6"0"-384"0"0,-1 0-248 0 0,0 0 0 0 0,1-1 184 0 0,-1 0 424 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70159.88">453 2663 7199 0 0,'0'0'352'0'0,"2"-3"40"0"0,2 3-136 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70160.88">640 2479 4287 0 0,'0'0'208'0'0,"4"-2"-88"0"0,1 1 0 0 0,-1-1-120 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71297.54">691 2464 9559 0 0,'0'0'723'0'0,"22"0"-791"0"0,-17-5-1 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,9-2 1 0 0,-8 3 571 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,10-6 0 0 0,84-74 4496 0 0,-100 84-4919 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,16 4 547 0 0,-17-5-689 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,11-18-5547 0 0,-12 19 5664 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,7 9 1653 0 0,-6-10-1712 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 0 0 0 0,4-2-469 0 0,6-18-184 0 0,-11 18 606 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,4-2 0 0 0,-4 2 41 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,2-2-1 0 0,11-13 590 0 0,-6 12 146 0 0,-1 0 0 0 0,0 0-1 0 0,7-9 1 0 0,-9 9-502 0 0,-2 2-120 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,3-2 1 0 0,-3 1 59 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-6 0 0 0,-4 6-21 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,4 0-1 0 0,-6 1-50 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,3-1 1 0 0,-3 2 10 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,3-2 1 0 0,-5 2-99 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 2 116 0 0,2-5-20 0 0,-3 3-96 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,10 5 231 0 0,-9-5-234 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,6-8 26 0 0,-6 9-25 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,12-18-40 0 0,-12 16 36 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3-2 0 0 0,-3 3-16 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-5 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,22-8-2048 0 0,-22 9 2035 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 1 0 0 0,-1-1 44 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,3 1 0 0 0,2-3-259 0 0,0-1-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,8-9-1 0 0,-12 11 233 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,3-1 1 0 0,-4 2 19 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,2-2 0 0 0,0 0 22 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,6 0 0 0 0,-8 1 95 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,4-2 0 0 0,-4 3 24 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,4-1-1 0 0,-5 2-174 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,2-2 0 0 0,-2 2 89 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,5 0-1 0 0,-3 0 84 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,3-3-1 0 0,22-11 1005 0 0,-15 10-1029 0 0,0 0 1 0 0,15-10-1 0 0,21-11 68 0 0,10 1-477 0 0,-36 12 308 0 0,-20 12-46 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,4-1 0 0 0,-3 1-53 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,4-3 0 0 0,-4 3-52 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,7-2 0 0 0,-3 2 345 0 0,-7 2-126 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,6 0 0 0 0,10-2 539 0 0,0 0-118 0 0,-18 2-751 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71297.53">691 2464 9559 0 0,'0'0'723'0'0,"22"0"-791"0"0,-17-5-1 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,9-2 1 0 0,-8 3 571 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,10-6 0 0 0,84-74 4496 0 0,-100 84-4919 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,16 4 547 0 0,-17-5-689 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,11-18-5547 0 0,-12 19 5664 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,7 9 1653 0 0,-6-10-1712 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 0 0 0 0,4-2-469 0 0,6-18-184 0 0,-11 18 606 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,4-2 0 0 0,-4 2 41 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,2-2-1 0 0,11-13 590 0 0,-6 12 146 0 0,-1 0 0 0 0,0 0-1 0 0,7-9 1 0 0,-9 9-502 0 0,-2 2-120 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,3-2 1 0 0,-3 1 59 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-6 0 0 0,-4 6-21 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,4 0-1 0 0,-6 1-50 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,3-1 1 0 0,-3 2 10 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,3-2 1 0 0,-5 2-99 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 2 116 0 0,2-5-20 0 0,-3 3-96 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,10 5 231 0 0,-9-5-234 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,6-8 26 0 0,-6 9-25 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,12-18-40 0 0,-12 16 36 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3-2 0 0 0,-3 3-16 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-5 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,22-8-2048 0 0,-22 9 2035 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 1 0 0 0,-1-1 44 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,3 1 0 0 0,2-3-259 0 0,0-1-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,8-9-1 0 0,-12 11 233 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,3-1 1 0 0,-4 2 19 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,2-2 0 0 0,0 0 22 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,6 0 0 0 0,-8 1 95 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,4-2 0 0 0,-4 3 24 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,4-1-1 0 0,-5 2-174 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,2-2 0 0 0,-2 2 89 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,5 0-1 0 0,-3 0 84 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,3-3-1 0 0,22-11 1005 0 0,-15 10-1029 0 0,0 0 1 0 0,15-10-1 0 0,21-11 68 0 0,10 1-477 0 0,-36 12 308 0 0,-20 12-46 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,4-1 0 0 0,-3 1-53 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,4-3 0 0 0,-4 3-52 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,7-2 0 0 0,-3 2 345 0 0,-7 2-126 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,6 0 0 0 0,10-2 539 0 0,0 0-118 0 0,-18 2-751 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="72915.35">473 2880 6823 0 0,'0'0'150'0'0,"21"-5"404"0"0,0-5-494 0 0,-20 9-45 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,2-1-1 0 0,0 0 83 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,4-6-1 0 0,20-15 1813 0 0,60-26 2714 0 0,-5 4-4654 0 0,62-53 1580 0 0,-81 57-1479 0 0,42-25-68 0 0,-48 38-200 0 0,34-21 140 0 0,73-38 2785 0 0,-161 86-2712 0 0,25-14-1 0 0,18-12-162 0 0,-5 9 76 0 0,15-8 807 0 0,16-9 410 0 0,-49 22-831 0 0,101-62-314 0 0,-107 65-126 0 0,10-9-94 0 0,-13 8 85 0 0,22-13 0 0 0,1-1-3 0 0,34-33 138 0 0,9-3-400 0 0,-72 55 411 0 0,1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,14-4-1 0 0,23-12 5 0 0,36-22 576 0 0,0 5-224 0 0,-68 32-369 0 0,27-9-19 0 0,56-17-271 0 0,-38 12 899 0 0,39-10-608 0 0,-92 28 0 0 0,-1-1 0 0 0,1 0 0 0 0,9-6 0 0 0,17-8 0 0 0,-3 5 21 0 0,51-28-1 0 0,-48 22-1 0 0,21-10 198 0 0,48-25-118 0 0,-93 49-624 0 0,34-14 1456 0 0,-14 10-7425 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="73667.28">2577 1407 5695 0 0,'144'-60'2221'0'0,"-19"6"3841"0"0,81-9-3265 0 0,-89 26-3252 0 0,-9 2-1551 0 0,-46 13 2038 0 0,-41 17-420 0 0,30-12 1 0 0,-22 4-3733 0 0,-17 8 44 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76767.24">2283 1536 14767 0 0,'-3'2'5673'0'0,"-10"6"-4218"0"0,12-8-1365 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1-3-118 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-9-1 0 0,0 14 37 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 149 0 0,5 2 117 0 0,-5-1-282 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-1 54 0 0,0 0 202 0 0,-1-2-188 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0-49 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,-1 1 16 0 0,2-1-27 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2-1 0 0,2 2-9 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1-2 0 0 0,15-11-617 0 0,-10 9 678 0 0,-4 3 55 0 0,14-5-162 0 0,-17 6 58 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 2 65 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,-2 3 0 0 0,2-1-57 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-5 2 1 0 0,4-2-39 0 0,0 2-2185 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76767.23">2283 1536 14767 0 0,'-3'2'5673'0'0,"-10"6"-4218"0"0,12-8-1365 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1-3-118 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-9-1 0 0,0 14 37 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 149 0 0,5 2 117 0 0,-5-1-282 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-1 54 0 0,0 0 202 0 0,-1-2-188 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0-49 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,-1 1 16 0 0,2-1-27 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2-1 0 0,2 2-9 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1-2 0 0 0,15-11-617 0 0,-10 9 678 0 0,-4 3 55 0 0,14-5-162 0 0,-17 6 58 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 2 65 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,-2 3 0 0 0,2-1-57 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-5 2 1 0 0,4-2-39 0 0,0 2-2185 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78082.42">2267 1507 10679 0 0,'0'0'242'0'0,"13"0"692"0"0,-12 0-946 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 113 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,2-1 0 0 0,57-6 6136 0 0,-42 4-5637 0 0,32 0 0 0 0,-32 2-649 0 0,32-5-1 0 0,222-27-284 0 0,24 24 304 0 0,-101 3 948 0 0,123 3 964 0 0,-213 4-1728 0 0,163-17 0 0 0,-211 10-136 0 0,27-5-16 0 0,-40 4 0 0 0,62 0 0 0 0,-75 5 128 0 0,40-6-1 0 0,-43 4-94 0 0,34-9 20 0 0,-28 10-45 0 0,-21 0-9 0 0,1 1-1 0 0,13 1 0 0 0,-21 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,7 4 0 0 0,4 7-1496 0 0,-8 4-3400 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80073.36">4628 188 19927 0 0,'-18'6'2644'0'0,"-21"26"15"0"0,32-24-2500 0 0,-1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-15 9-1 0 0,16-11-146 0 0,0 0 0 0 0,-13 11-1 0 0,-13 9-525 0 0,32-24 393 0 0,4-2-1217 0 0,-1 0 1049 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0-107 0 0,4-2-457 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,11-2 0 0 0,-9 2 1237 0 0,1 1-1 0 0,0 0 1 0 0,15 2-1 0 0,3 2 2134 0 0,0 2-1 0 0,30 8 1 0 0,-21-4-2910 0 0,-20-3 396 0 0,-15-5 11 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,5 0 0 0 0,-7-1 132 0 0,-8 1-5601 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80484.34">4586 308 15319 0 0,'0'0'1535'0'0,"1"23"-1162"0"0,-1-14 423 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,-1 1 1 0 0,-4 15 0 0 0,-2 17 162 0 0,-7 143 99 0 0,-4 20-472 0 0,12-156-377 0 0,-1 4 445 0 0,-3 79-1 0 0,11-124-642 0 0,1-4 15 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-2 4 0 0 0,2-8 70 0 0,-10 3-2167 0 0,9-4 1726 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-2-2-1 0 0,0-2-780 0 0,-2-1-890 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81056.2">4370 980 12207 0 0,'0'0'1224'0'0,"10"9"7328"0"0,-8-7-8546 0 0,4 12 405 0 0,-1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,3 21 0 0 0,-4-18 33 0 0,1 1 1 0 0,8 25-1 0 0,-5-21-346 0 0,-6-20-68 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,3 4 0 0 0,-4-5 33 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,5 0 1 0 0,-6-1-50 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,4-3 0 0 0,3-5 40 0 0,0-1-1 0 0,-1 1 1 0 0,0-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,8-22 1 0 0,-6 15-257 0 0,1 0 0 0 0,13-20-1 0 0,-19 34-104 0 0,-2 2 20 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-2 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83871.49">4975 547 14655 0 0,'4'-10'467'0'0,"-1"9"221"0"0,8 2-235 0 0,15-10 1192 0 0,-22 7-1177 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,5 0-1 0 0,-3 0-226 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 1 0 0,8-3-1 0 0,-8 2-235 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,8 0 0 0 0,-12 1 38 0 0,-1 0 232 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83871.48">4975 547 14655 0 0,'4'-10'467'0'0,"-1"9"221"0"0,8 2-235 0 0,15-10 1192 0 0,-22 7-1177 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,5 0-1 0 0,-3 0-226 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 1 0 0,8-3-1 0 0,-8 2-235 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,8 0 0 0 0,-12 1 38 0 0,-1 0 232 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84201.65">5134 529 17647 0 0,'3'-10'883'0'0,"-2"24"147"0"0,-1-14-1023 0 0,-1 8 890 0 0,1 0-1 0 0,-1 0 1 0 0,-4 14-1 0 0,-1 2 158 0 0,1 27 466 0 0,3-30-722 0 0,-8 39 0 0 0,8-46-743 0 0,0 0 1 0 0,-1 24-1 0 0,3-28-13 0 0,-8 26-59 0 0,8-35-98 0 0,0-1 114 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 2 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,3-11-1631 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84606.74">5273 449 11831 0 0,'-1'16'1264'0'0,"-9"52"1538"0"0,-15 79 6332 0 0,23-139-9154 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 12-1 0 0,2-9-147 0 0,0-10 8 0 0,2-10-8 0 0,12-29-6258 0 0,-14 27 4236 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85041.34">5265 539 19951 0 0,'-1'-17'1225'0'0,"0"5"1739"0"0,25 22-1281 0 0,-21-10-1669 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,6-1 1 0 0,14-1 206 0 0,-18 3-182 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,6 3 0 0 0,-2-3-39 0 0,-6-1 0 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 2 0 0 0,0-2 68 0 0,-1 4-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-7 3 0 0 0,-3 2 33 0 0,0-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-17 3 1 0 0,15-4-195 0 0,6 0 82 0 0,0-2-1 0 0,-16 2 1 0 0,24-3-55 0 0</inkml:trace>
@@ -3736,12 +4240,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7859.7">399 956 5695 0 0,'0'0'10928'0'0,"18"-2"-8777"0"0,69-55-954 0 0,-68 44-1249 0 0,-9 6-155 0 0,-9 6 320 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-2 0 82 0 0,1 1-106 0 0,3 0-16 0 0,-4 0-65 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 2 0 0 0,0-2 2 0 0,1-1-6 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1-2 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 2 1 0 0,-2 1 3 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-6 8-1 0 0,4-6 19 0 0,4-5-22 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 2 1 0 0,0 2-3 0 0,-5 9-331 0 0,0 0 0 0 0,-7 13-1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8238.62">436 959 18023 0 0,'0'0'1959'0'0,"18"10"-1451"0"0,-15-9-370 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,4 0-1 0 0,1-1-107 0 0,28-2-7375 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8899.25">814 1878 10159 0 0,'0'0'2704'0'0,"-2"10"2694"0"0,-24 76-4212 0 0,-14 0-1908 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9271.3">821 1875 13039 0 0,'0'0'1006'0'0,"2"0"-658"0"0,3 2-139 0 0,-4-2 670 0 0,1 1-444 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-2 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,-2-3-408 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 2 0 0 0,1 0-176 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-7 2-1 0 0,9-5 11 0 0,-9 4 1043 0 0,12 1-425 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,8 7 1 0 0,11 18 187 0 0,-23-29-668 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,0-1-9 0 0,-1 1-61 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,-10-1-1764 0 0,-24-7-1 0 0,17 4-160 0 0,-2-2-3863 0 0,14 3 843 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9271.29">821 1875 13039 0 0,'0'0'1006'0'0,"2"0"-658"0"0,3 2-139 0 0,-4-2 670 0 0,1 1-444 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-2 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,-2-3-408 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 2 0 0 0,1 0-176 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-7 2-1 0 0,9-5 11 0 0,-9 4 1043 0 0,12 1-425 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,8 7 1 0 0,11 18 187 0 0,-23-29-668 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,0-1-9 0 0,-1 1-61 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,-10-1-1764 0 0,-24-7-1 0 0,17 4-160 0 0,-2-2-3863 0 0,14 3 843 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10764.14">1270 457 13039 0 0,'0'0'4074'0'0,"-8"13"-3434"0"0,3-7-706 0 0,-2 5-45 0 0,1-1-1 0 0,-10 21 1 0 0,14-28 331 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,3 7 1 0 0,-3-5 71 0 0,0-3-251 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,3 2 0 0 0,-1-1-56 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,4 2 0 0 0,12 3-6822 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13694.32">1483 911 8663 0 0,'0'2'198'0'0,"39"134"3400"0"0,-31-107-2550 0 0,-1 2-1 0 0,5 58 1 0 0,0 75 5260 0 0,-10-135-5452 0 0,-2-28-1052 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16499.91">1655 1394 6535 0 0,'0'0'3980'0'0,"16"-10"1287"0"0,3-2-2697 0 0,-15 11-2263 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,3-4-1 0 0,15-15 944 0 0,-17 19-1150 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,3-5-1 0 0,52-75 881 0 0,-4 9-891 0 0,-41 54 45 0 0,16-26 143 0 0,17-39 225 0 0,-30 56-346 0 0,1 1 0 0 0,30-38-1 0 0,48-47 107 0 0,-29 36-66 0 0,19-37 259 0 0,-32 41-318 0 0,-28 39-65 0 0,41-50 41 0 0,-38 45 108 0 0,-21 28-170 0 0,0 1 0 0 0,15-16-1 0 0,-9 11 12 0 0,14-11-61 0 0,-23 23-18 0 0,-3 2-57 0 0,-3-1 26 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18778.1">1771 1508 5695 0 0,'0'0'16740'0'0,"-2"10"-16389"0"0,-8 18-115 0 0,5-17 62 0 0,1 1 1 0 0,1-1-1 0 0,-2 13 0 0 0,-1-3-301 0 0,5-18-13 0 0,0-2-76 0 0,0 5-521 0 0,5-25-13299 0 0,-3 15 13655 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,2-6 0 0 0,-2 0 1217 0 0,-2 9-754 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-2-1 0 0,12-15 2680 0 0,-11 15-2769 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 1-171 0 0,2-1 368 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,6-1-1 0 0,-10 2 186 0 0,15 6 1469 0 0,-14-4-1932 0 0,1-1-3 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 7 0 0 0,-1-6-43 0 0,-1-3 26 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-2 3 74 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-8 3 0 0 0,10-5-220 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,-5-1 0 0 0,9 1-346 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19429.13">2154 0 18023 0 0,'17'4'1974'0'0,"15"3"-1101"0"0,-20-4-406 0 0,-1 0 0 0 0,19 1 0 0 0,26 3-331 0 0,-52-6-216 0 0,1-1-164 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,9-4-1 0 0,3-4-1839 0 0,-5 4-3125 0 0,-3 3-122 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18778.09">1771 1508 5695 0 0,'0'0'16740'0'0,"-2"10"-16389"0"0,-8 18-115 0 0,5-17 62 0 0,1 1 1 0 0,1-1-1 0 0,-2 13 0 0 0,-1-3-301 0 0,5-18-13 0 0,0-2-76 0 0,0 5-521 0 0,5-25-13299 0 0,-3 15 13655 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,2-6 0 0 0,-2 0 1217 0 0,-2 9-754 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-2-1 0 0,12-15 2680 0 0,-11 15-2769 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 1-171 0 0,2-1 368 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,6-1-1 0 0,-10 2 186 0 0,15 6 1469 0 0,-14-4-1932 0 0,1-1-3 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 7 0 0 0,-1-6-43 0 0,-1-3 26 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-2 3 74 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-8 3 0 0 0,10-5-220 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,-5-1 0 0 0,9 1-346 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19429.12">2154 0 18023 0 0,'17'4'1974'0'0,"15"3"-1101"0"0,-20-4-406 0 0,-1 0 0 0 0,19 1 0 0 0,26 3-331 0 0,-52-6-216 0 0,1-1-164 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,9-4-1 0 0,3-4-1839 0 0,-5 4-3125 0 0,-3 3-122 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19770.44">2196 100 18023 0 0,'0'0'1387'0'0,"0"16"-751"0"0,1-7-358 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 9 0 0 0,0 23 356 0 0,-1-24-624 0 0,2-15-53 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 2 1 0 0,1 6-2036 0 0,-2-10 1960 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 1-1 0 0,1 1-432 0 0,4-2-4481 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20122.37">2272 183 6535 0 0,'0'0'919'0'0,"31"-4"9357"0"0,-29 3-9816 0 0,6 2 127 0 0,29 0-333 0 0,-7-1-779 0 0,-18 2-4831 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20460.36">2255 285 18719 0 0,'0'0'1944'0'0,"7"4"-1840"0"0,1 0-104 0 0,-2 0 0 0 0,1-1 0 0 0,4 0-96 0 0,-1-3 24 0 0,0 0 0 0 0,0 2-728 0 0,0-3-152 0 0,-2-4-24 0 0,0 2-3904 0 0,0 0-784 0 0</inkml:trace>
@@ -3818,19 +4322,19 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2435.63">1445 572 20559 0 0,'7'2'643'0'0,"0"0"-1"0"0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,12 7-1 0 0,5 2-3244 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2786.04">1417 696 20327 0 0,'0'0'2168'0'0,"6"4"-2096"0"0,1 0-72 0 0,2 2 2000 0 0,0-1-1896 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4138.57">1758 597 12207 0 0,'0'0'1304'0'0,"4"-2"-1304"0"0,1 0 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="256387.05">2058 313 6535 0 0,'0'0'759'0'0,"-10"-4"7532"0"0,2 2-6221 0 0,-23 6-4203 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="258077.5">2019 266 13039 0 0,'0'0'1006'0'0,"-1"0"-658"0"0,0 1 83 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-2 1 1 0 0,-3 3 2540 0 0,-16 7 1032 0 0,-8 6-3087 0 0,13-8-769 0 0,12-7-92 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-6 8 0 0 0,3-6-42 0 0,4-5-6 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-3 6-1 0 0,5 1 104 0 0,0 0-1 0 0,1-1 0 0 0,3 11 1 0 0,-3-11-26 0 0,-2-5-5 0 0,1 1-61 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,5 3 1 0 0,-6-6-102 0 0,1-2-414 0 0,0-1 320 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-3 0 0 0,2-4-1902 0 0,-2 7 329 0 0,14-18 6580 0 0,-48 44-4086 0 0,17-16-688 0 0,12-7-47 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-2 2 1 0 0,-4 4 16 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-14 9 0 0 0,9-7-17 0 0,7-4-12 0 0,-27 22-72 0 0,29-23 92 0 0,3-2 384 0 0,2-1-336 0 0,2 1-54 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,4 0 0 0 0,14-1 10 0 0,14 1-20 0 0,65-2 0 0 0,-73-3-449 0 0,-26 5 239 0 0,9-11-674 0 0,-5 4-2441 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="258418.2">1986 522 6535 0 0,'0'0'16495'0'0,"-2"6"-14525"0"0,1 0-1655 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 0 0 0,-4 17 39 0 0,-2 12-135 0 0,7-19-154 0 0,2-16-50 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 8 1 0 0,-1-12-118 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="258783.41">1866 624 18543 0 0,'-6'12'2030'0'0,"3"16"1149"0"0,-8 6-805 0 0,1 7-1525 0 0,6-24-593 0 0,4-16-226 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,-1 4-1 0 0,-2 5 118 0 0,4-7-138 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3 4 0 0 0,4-6-93 0 0,1 0 17 0 0,-1 3 64 0 0,0-3 30 0 0,-1 4-545 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="259202.06">1787 676 20559 0 0,'-11'11'2252'0'0,"-18"11"249"0"0,25-20-2290 0 0,0 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-2 4 1 0 0,-12 12 96 0 0,3-4-232 0 0,24-27-2845 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="259203.06">1884 713 15199 0 0,'12'14'1624'0'0,"7"30"7164"0"0,-15-33-8737 0 0,-3-10 254 0 0,1 3 97 0 0,-2-4-388 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,11-8-1787 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="259787.31">2155 261 18543 0 0,'0'0'5715'0'0,"-10"13"-3047"0"0,-4-3-2108 0 0,11-8-534 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-5-2 1 0 0,7 1-128 0 0,-7 31-207 0 0,-14 122 301 0 0,21-143 1 0 0,-1 0 0 0 0,-4 17 0 0 0,-4 11-24 0 0,10-36-64 0 0,7-22-294 0 0,11-28-2032 0 0,-13 31 414 0 0,-1 5-4093 0 0,-1 3-988 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="260200.45">2067 390 10159 0 0,'0'0'14275'0'0,"16"-2"-12503"0"0,-3 3-1382 0 0,0 0-226 0 0,0 1 0 0 0,-1 0-1 0 0,14 4 1 0 0,-11-3-87 0 0,-12-3-56 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,5 3 1 0 0,5 7 454 0 0,-7-6-378 0 0,-5-4-71 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2 0 0 0,2 13 157 0 0,-8 16-26 0 0,6-30-157 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 2 0 0 0,-7 11 0 0 0,9-8 0 0 0,1-5 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 3-12 0 0,-6-32-3369 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="260571.86">2080 462 12207 0 0,'0'0'9336'0'0,"2"7"-6192"0"0,-1-5-2975 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,2 1 1 0 0,29 9 253 0 0,-26-9-299 0 0,30 0-363 0 0,-36-2 327 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="260929.79">2058 557 7343 0 0,'2'1'14347'0'0,"9"3"-12649"0"0,-4-2-1068 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,14 1-1 0 0,-9-1-545 0 0,40 5 626 0 0,-50-6-784 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="261259.83">2130 606 20559 0 0,'-4'21'2759'0'0,"-6"7"-693"0"0,2 13-739 0 0,5-30-1139 0 0,1 0 1 0 0,0 0 0 0 0,0 14 0 0 0,0 7 103 0 0,0-20-260 0 0,1 0 0 0 0,1 20 0 0 0,1-20-1656 0 0,-1-20-4724 0 0,0 3 2453 0 0,0-3-1877 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="261651.25">2035 669 18023 0 0,'0'0'6213'0'0,"14"16"-3843"0"0,8 8-1056 0 0,-4-2-1278 0 0,-17-21 103 0 0,-1 0-79 0 0,-2 2-59 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-3 2 0 0 0,-35 11-1 0 0,11-4-60 0 0,30-11 45 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,4-7-321 0 0,4-1-1687 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="261992.41">2233 658 18543 0 0,'-7'8'842'0'0,"-1"0"0"0"0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-19 10 0 0 0,-12 10 1275 0 0,38-26-1797 0 0,1 0-215 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-2-91 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,2 1-1 0 0,15 6 171 0 0,50 30 194 0 0,-61-34-395 0 0,-5-2-64 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-173109.68">2058 313 6535 0 0,'0'0'759'0'0,"-10"-4"7532"0"0,2 2-6221 0 0,-23 6-4203 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-171419.23">2019 266 13039 0 0,'0'0'1006'0'0,"-1"0"-658"0"0,0 1 83 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-2 1 1 0 0,-3 3 2540 0 0,-16 7 1032 0 0,-8 6-3087 0 0,13-8-769 0 0,12-7-92 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-6 8 0 0 0,3-6-42 0 0,4-5-6 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-3 6-1 0 0,5 1 104 0 0,0 0-1 0 0,1-1 0 0 0,3 11 1 0 0,-3-11-26 0 0,-2-5-5 0 0,1 1-61 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,5 3 1 0 0,-6-6-102 0 0,1-2-414 0 0,0-1 320 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-3 0 0 0,2-4-1902 0 0,-2 7 329 0 0,14-18 6580 0 0,-48 44-4086 0 0,17-16-688 0 0,12-7-47 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-2 2 1 0 0,-4 4 16 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-14 9 0 0 0,9-7-17 0 0,7-4-12 0 0,-27 22-72 0 0,29-23 92 0 0,3-2 384 0 0,2-1-336 0 0,2 1-54 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,4 0 0 0 0,14-1 10 0 0,14 1-20 0 0,65-2 0 0 0,-73-3-449 0 0,-26 5 239 0 0,9-11-674 0 0,-5 4-2441 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-171078.53">1986 522 6535 0 0,'0'0'16495'0'0,"-2"6"-14525"0"0,1 0-1655 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 0 0 0,-4 17 39 0 0,-2 12-135 0 0,7-19-154 0 0,2-16-50 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 8 1 0 0,-1-12-118 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-170713.32">1866 624 18543 0 0,'-6'12'2030'0'0,"3"16"1149"0"0,-8 6-805 0 0,1 7-1525 0 0,6-24-593 0 0,4-16-226 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,-1 4-1 0 0,-2 5 118 0 0,4-7-138 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3 4 0 0 0,4-6-93 0 0,1 0 17 0 0,-1 3 64 0 0,0-3 30 0 0,-1 4-545 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-170294.67">1787 676 20559 0 0,'-11'11'2252'0'0,"-18"11"249"0"0,25-20-2290 0 0,0 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-2 4 1 0 0,-12 12 96 0 0,3-4-232 0 0,24-27-2845 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-170293.67">1884 713 15199 0 0,'12'14'1624'0'0,"7"30"7164"0"0,-15-33-8737 0 0,-3-10 254 0 0,1 3 97 0 0,-2-4-388 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,11-8-1787 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-169709.42">2155 261 18543 0 0,'0'0'5715'0'0,"-10"13"-3047"0"0,-4-3-2108 0 0,11-8-534 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-5-2 1 0 0,7 1-128 0 0,-7 31-207 0 0,-14 122 301 0 0,21-143 1 0 0,-1 0 0 0 0,-4 17 0 0 0,-4 11-24 0 0,10-36-64 0 0,7-22-294 0 0,11-28-2032 0 0,-13 31 414 0 0,-1 5-4093 0 0,-1 3-988 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-169296.28">2067 390 10159 0 0,'0'0'14275'0'0,"16"-2"-12503"0"0,-3 3-1382 0 0,0 0-226 0 0,0 1 0 0 0,-1 0-1 0 0,14 4 1 0 0,-11-3-87 0 0,-12-3-56 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,5 3 1 0 0,5 7 454 0 0,-7-6-378 0 0,-5-4-71 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2 0 0 0,2 13 157 0 0,-8 16-26 0 0,6-30-157 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 2 0 0 0,-7 11 0 0 0,9-8 0 0 0,1-5 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 3-12 0 0,-6-32-3369 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-168924.87">2080 462 12207 0 0,'0'0'9336'0'0,"2"7"-6192"0"0,-1-5-2975 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,2 1 1 0 0,29 9 253 0 0,-26-9-299 0 0,30 0-363 0 0,-36-2 327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-168566.94">2058 557 7343 0 0,'2'1'14347'0'0,"9"3"-12649"0"0,-4-2-1068 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,14 1-1 0 0,-9-1-545 0 0,40 5 626 0 0,-50-6-784 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-168236.9">2130 606 20559 0 0,'-4'21'2759'0'0,"-6"7"-693"0"0,2 13-739 0 0,5-30-1139 0 0,1 0 1 0 0,0 0 0 0 0,0 14 0 0 0,0 7 103 0 0,0-20-260 0 0,1 0 0 0 0,1 20 0 0 0,1-20-1656 0 0,-1-20-4724 0 0,0 3 2453 0 0,0-3-1877 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-167845.48">2035 669 18023 0 0,'0'0'6213'0'0,"14"16"-3843"0"0,8 8-1056 0 0,-4-2-1278 0 0,-17-21 103 0 0,-1 0-79 0 0,-2 2-59 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-3 2 0 0 0,-35 11-1 0 0,11-4-60 0 0,30-11 45 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,4-7-321 0 0,4-1-1687 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-167504.32">2233 658 18543 0 0,'-7'8'842'0'0,"-1"0"0"0"0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-19 10 0 0 0,-12 10 1275 0 0,38-26-1797 0 0,1 0-215 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-2-91 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,2 1-1 0 0,15 6 171 0 0,50 30 194 0 0,-61-34-395 0 0,-5-2-64 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3864,7 +4368,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 102 18543 0 0,'0'0'6988'0'0,"11"-1"-5760"0"0,6 0-994 0 0,0 1 0 0 0,0 0 0 0 0,0 2 1 0 0,32 6-1 0 0,-3 8-189 0 0,-37-12-82 0 0,-7-3 90 0 0,3-1-880 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="418.72">132 0 14767 0 0,'0'0'1138'0'0,"-5"16"458"0"0,2-10-368 0 0,-7 17 1123 0 0,-10 31 0 0 0,3-15-1991 0 0,6-18-125 0 0,-1 5 128 0 0,5-13-144 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-5 29 0 0 0,9-39-161 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,5 4-1 0 0,-5-3 9 0 0,2-1-42 0 0,10 2 57 0 0,-8-2-20 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,6-2 0 0 0,3 0 201 0 0,29-9 0 0 0,-42 10-586 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,4-3-1 0 0,-5 3-394 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,2-5 0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="903.81">292 108 18543 0 0,'0'0'1428'0'0,"10"-1"-826"0"0,3 0-201 0 0,10-3 2353 0 0,-16 2-2469 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,8 2 0 0 0,32-1 27 0 0,-38-2-240 0 0,-7 0 26 0 0,0 0 13 0 0,2 0-81 0 0,-2 0-27 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,3 2 0 0 0,-2 1 35 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 7-1 0 0,-3-7-12 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 5 1 0 0,0-6-10 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,2 6-1 0 0,-1-7-14 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 4 0 0 0,1-3 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2 5 0 0 0,-1-5 5 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 5-1 0 0,-2 2 5 0 0,0-1 0 0 0,0 1 0 0 0,-5 10 0 0 0,7-19-15 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 2 1 0 0,-12 8-86 0 0,13-9 22 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-3 0-1 0 0,5-1-18 0 0,-6-7-3125 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1283.84">444 138 5695 0 0,'0'1'443'0'0,"-4"15"5207"0"0,-1 0 0 0 0,-10 25 0 0 0,-1-10-2118 0 0,-1-1-3484 0 0,-3-1 567 0 0,-1 0 0 0 0,-44 45-1 0 0,60-70-595 0 0,0 5-617 0 0,12-9 310 0 0,11-9-182 0 0,5-8-1046 0 0,-13 8-2360 0 0,-6 5 476 0 0,6-4-4520 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1283.83">444 138 5695 0 0,'0'1'443'0'0,"-4"15"5207"0"0,-1 0 0 0 0,-10 25 0 0 0,-1-10-2118 0 0,-1-1-3484 0 0,-3-1 567 0 0,-1 0 0 0 0,-44 45-1 0 0,60-70-595 0 0,0 5-617 0 0,12-9 310 0 0,11-9-182 0 0,5-8-1046 0 0,-13 8-2360 0 0,-6 5 476 0 0,6-4-4520 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3897,13 +4401,180 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">64 0 10999 0 0,'0'0'846'0'0,"-22"5"9785"0"0,6 4-6038 0 0,6 3-3481 0 0,8-8-1129 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 6 0 0 0,0 3 44 0 0,0 1-1 0 0,1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,5 28 1 0 0,-5-30-78 0 0,19-22-585 0 0,-15 5 68 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5-6 1 0 0,1-2-6379 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="356.54">172 68 21479 0 0,'0'0'1628'0'0,"-4"12"-896"0"0,-1 1 281 0 0,1-9-223 0 0,3-3-801 0 0,0 0 80 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 1-1 0 0,5 23 281 0 0,-4-23-335 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,-2 7 1 0 0,-1 13 10 0 0,4-20-19 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-1 2 1 0 0,-15 30 296 0 0,14-26-211 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,-10 11-1 0 0,-4 6 85 0 0,12-16-90 0 0,0-1 0 0 0,0 0 0 0 0,-14 12 0 0 0,-6 4-328 0 0,27-24 179 0 0,-1 0-87 0 0,1 0 70 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1670.17">450 169 18543 0 0,'-6'4'458'0'0,"-1"3"4639"0"0,7-6-4936 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,33 1 35 0 0,0 1-1 0 0,0 1 0 0 0,0 2 0 0 0,0 2 0 0 0,35 10 0 0 0,-68-15-189 0 0,0-1 19 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,3 3-1 0 0,0 2-29 0 0,-4 0 77 0 0,-1-3-46 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-2 5-1 0 0,3-9-25 0 0,-8 18 20 0 0,0 0 1 0 0,-20 31-1 0 0,-12 5 96 0 0,38-52-111 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3 1-1 0 0,5-2-91 0 0,-3 1-4 0 0,0-1 37 0 0,4-1-14 0 0,-3-7-838 0 0,6-12-447 0 0,-1 10-5794 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2065.72">682 18 20327 0 0,'0'0'1567'0'0,"-3"13"-786"0"0,-17 34 2439 0 0,14-30-2928 0 0,0-1-1 0 0,-1 0 0 0 0,-14 22 1 0 0,10-18-141 0 0,-40 59 245 0 0,8-5 94 0 0,32-55-469 0 0,6-10-13 0 0,0 0 0 0 0,0 1 0 0 0,-4 15 0 0 0,8-25-8 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,3-1-40 0 0,-2 1-124 0 0,6-6-264 0 0,-2 0-112 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,5-8-1 0 0,-2 3-4547 0 0,2-3-2946 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2398.2">761 122 18543 0 0,'0'0'2998'0'0,"7"8"872"0"0,0 0-3609 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,4 18 0 0 0,-7-21-109 0 0,0 20 173 0 0,-4-14-191 0 0,2-12-209 0 0,0 2 26 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1670.16">450 169 18543 0 0,'-6'4'458'0'0,"-1"3"4639"0"0,7-6-4936 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,33 1 35 0 0,0 1-1 0 0,0 1 0 0 0,0 2 0 0 0,0 2 0 0 0,35 10 0 0 0,-68-15-189 0 0,0-1 19 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,3 3-1 0 0,0 2-29 0 0,-4 0 77 0 0,-1-3-46 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-2 5-1 0 0,3-9-25 0 0,-8 18 20 0 0,0 0 1 0 0,-20 31-1 0 0,-12 5 96 0 0,38-52-111 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3 1-1 0 0,5-2-91 0 0,-3 1-4 0 0,0-1 37 0 0,4-1-14 0 0,-3-7-838 0 0,6-12-447 0 0,-1 10-5794 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2065.71">682 18 20327 0 0,'0'0'1567'0'0,"-3"13"-786"0"0,-17 34 2439 0 0,14-30-2928 0 0,0-1-1 0 0,-1 0 0 0 0,-14 22 1 0 0,10-18-141 0 0,-40 59 245 0 0,8-5 94 0 0,32-55-469 0 0,6-10-13 0 0,0 0 0 0 0,0 1 0 0 0,-4 15 0 0 0,8-25-8 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,3-1-40 0 0,-2 1-124 0 0,6-6-264 0 0,-2 0-112 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,5-8-1 0 0,-2 3-4547 0 0,2-3-2946 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2398.19">761 122 18543 0 0,'0'0'2998'0'0,"7"8"872"0"0,0 0-3609 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,4 18 0 0 0,-7-21-109 0 0,0 20 173 0 0,-4-14-191 0 0,2-12-209 0 0,0 2 26 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2903.74">1014 35 18023 0 0,'0'0'6517'0'0,"11"31"-3571"0"0,-10-27-2868 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 4 1 0 0,-1 11 146 0 0,2 5-60 0 0,-1 0-1 0 0,-1 0 1 0 0,-5 23 0 0 0,5-34-77 0 0,1-1 1 0 0,0 21-1 0 0,-1 7-12 0 0,1 27-177 0 0,1-60 31 0 0,0-6-28 0 0,-3 10-1729 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3728.25">852 150 16559 0 0,'0'0'1723'0'0,"18"-6"3771"0"0,-8 2-5180 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,18 5-1 0 0,-22-6-313 0 0,-3 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,3 4 0 0 0,6 4 80 0 0,-10-7-13 0 0,-2 5-54 0 0,0-4 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-5 4-1 0 0,-3 5-139 0 0,-2 0-114 0 0,-1 0 1 0 0,-27 16-1 0 0,2-1-204 0 0,36-23 426 0 0,0-2-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-7 0 0 0 0,-13 7-42 0 0,22-8 0 0 0,1-2-71 0 0,0 0 140 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,2-1-1 0 0,-1 0 43 0 0,3-5 14 0 0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,2 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0 1 1 0 0,15-6-1 0 0,-12 6-22 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,18 2 0 0 0,-4 2 186 0 0,44 13-1 0 0,-44-10-195 0 0,-15-4-33 0 0,-9-3 4 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,3 4 25 0 0,-4-5-32 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 2 0 0 0,0 1 14 0 0,1 0 2 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-3 4-1 0 0,-7 12 38 0 0,11-17-51 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1-1 0 0,0 0 3 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-3 4 0 0 0,2-2 51 0 0,2-3 0 0 0,-1 2-58 0 0,2-3-80 0 0,3-15-479 0 0,3-1-697 0 0,-1 5-5677 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4117.13">1377 78 22375 0 0,'0'0'1720'0'0,"-5"17"-907"0"0,-2 22 1031 0 0,-1 9-418 0 0,8-43-1363 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-3 4 1 0 0,4-7 20 0 0,3 17 128 0 0,-2-18-291 0 0,16-2-562 0 0,-12-2 137 0 0,15-8-159 0 0,-7 1-7324 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4527.41">1520 116 5695 0 0,'11'7'20913'0'0,"-9"-4"-21862"0"0,6 16 2371 0 0,6 25-1 0 0,-10-33-1004 0 0,-2-1-353 0 0,1 0-1 0 0,-1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 0 1 0 0,-4 12-1 0 0,-1-3-28 0 0,-1-1-1 0 0,0 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,-22 26 0 0 0,-14 12 206 0 0,38-48-227 0 0,2-5-36 0 0,6-2-77 0 0,3-4-303 0 0,0 0 273 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0-1-1 0 0,5-4 1 0 0,11-14-865 0 0,-11 6-3380 0 0,-5 10 753 0 0,3-8-4860 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-09T23:30:18.985"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">246 6 10159 0 0,'0'0'8640'0'0,"-2"0"-8234"0"0,-49-2 412 0 0,50 2-746 0 0,-18 0-336 0 0,10-1 248 0 0,5 0-48 0 0,-2 0 36 0 0,3 1-20 0 0,-2 0 24 0 0,4 0-36 0 0,-3 1-105 0 0,-4 9 147 0 0,4-6-33 0 0,3-2 421 0 0,0-2-256 0 0,-6 5-92 0 0,-2-4-11 0 0,1-2 58 0 0,7 1 453 0 0,-21 0-540 0 0,19 0-62 0 0,-13 0 56 0 0,11-1 40 0 0,-6 4-133 0 0,-1 0 106 0 0,6 0 214 0 0,-19 2 1050 0 0,25-4-1267 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,4 15-422 0 0,3-2 396 0 0,-7-12 15 0 0,15 18 10 0 0,3 8 15 0 0,-16-23 0 0 0,7 7 0 0 0,0-1 0 0 0,13 13-16 0 0,-21-22-64 0 0,9 7-112 0 0,-8-7 157 0 0,10 12-524 0 0,-12-13 457 0 0,3 7 553 0 0,-3-2-2102 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="375.7">164 119 5695 0 0,'0'0'608'0'0,"18"-6"-4296"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="706.84">255 109 10159 0 0,'0'0'784'0'0,"3"0"-510"0"0,46 5 5187 0 0,29 12-2828 0 0,-35-7-2063 0 0,-33-9-424 0 0,-5 0-82 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,9 6 0 0 0,0-1-39 0 0,-10-6 35 0 0,0 1 46 0 0,13 13-8 0 0,-7-8-139 0 0,-7-6-240 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-09T23:30:42.807"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 30 23239 0 0,'0'0'2328'0'0,"-8"17"-540"0"0,4 12-1557 0 0,1 0 0 0 0,1 33-1 0 0,0 7 26 0 0,2-68-337 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 2 1 0 0,-1-2-35 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,7-4-3112 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.81">185 99 21855 0 0,'0'0'1672'0'0,"-6"7"-903"0"0,-10 10-126 0 0,0-1-1 0 0,-27 21 0 0 0,6-6-2 0 0,36-31-640 0 0,0 1 15 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 4 1 0 0,1-5 42 0 0,15 12 281 0 0,-9-8-318 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,13 4 0 0 0,-5-7-5363 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525.81">250 191 22231 0 0,'0'0'505'0'0,"0"21"2391"0"0,-4-3-2092 0 0,-2 11 55 0 0,2-4-8441 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="875.95">272 107 23383 0 0,'0'0'2828'0'0,"6"8"-1731"0"0,3-2-2226 0 0,-3-5-3455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1211.21">412 129 23263 0 0,'0'0'531'0'0,"-1"11"715"0"0,1 1-1051 0 0,-1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-5 12 0 0 0,4-16 53 0 0,4-14 67 0 0,5-15-146 0 0,-2 11-254 0 0,-2 7 59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,2-3 0 0 0,-3 4 42 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0-6 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,1 1 21 0 0,1 0 19 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 5 0 0 0,2-10 99 0 0,1-2-1533 0 0,1-1 1038 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,2-4 1 0 0,-1 1-673 0 0,4-4-2058 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.21">621 145 22319 0 0,'0'0'2475'0'0,"-3"2"-1309"0"0,-7 3-899 0 0,3 0-157 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-4 14 1 0 0,8-21-112 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,2 0 1 0 0,1-1-232 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,4-2 0 0 0,1-4-5954 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1607.33">626 19 22375 0 0,'0'0'4001'0'0,"-3"14"-3037"0"0,-4 3-603 0 0,-9 35 0 0 0,5-13-88 0 0,3-2 47 0 0,8-35-602 0 0,-1 9-447 0 0,1-6-1565 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1972.71">904 1 18543 0 0,'0'0'5553'0'0,"-6"24"-2466"0"0,0 2-2788 0 0,1 1-1 0 0,1-1 1 0 0,1 1-1 0 0,1 52 1 0 0,1-16-96 0 0,1-30-135 0 0,-2-26-215 0 0,1-11-233 0 0,0-11-60 0 0,3 2-105 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-3-18 0 0 0,1-3-911 0 0,2 19 208 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-09T23:30:34.472"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2413 1711 15807 0 0,'0'0'2760'0'0,"-15"6"2523"0"0,6 64-3289 0 0,5-33-1931 0 0,2-26 129 0 0,1 0 1 0 0,0 20-1 0 0,-1 5 184 0 0,14-57-505 0 0,7-42 149 0 0,-19 62 13 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,3 0 1 0 0,-2 1-11 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 2 0 0 0,-4-2-18 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 2 1 0 0,1 5 32 0 0,-1 1 1 0 0,-1 20-1 0 0,-1 1 3 0 0,2-31 142 0 0,0-14-117 0 0,0 6-79 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,6-9 0 0 0,-7 12 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,0 0-1 0 0,7 3 1 0 0,-10-3 25 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,2 2-1 0 0,-2-1 11 0 0,0-1 70 0 0,1 2-49 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 4 0 0 0,-1-7-35 0 0,3 12 24 0 0,-3-8-6 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 10-1 0 0,0-14 198 0 0,14-16-2363 0 0,-12 13 520 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="555.91">2862 1823 17911 0 0,'0'0'1796'0'0,"9"16"-1082"0"0,-7-13-491 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,4 0-1 0 0,-2 0-168 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,6-3 0 0 0,-10 5-41 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-3 0 0 0,2-8 14 0 0,-2 11-40 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 41 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-2 1 0 0 0,0 0-5 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 4 0 0 0,1-6-21 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,3 0 0 0 0,4 2 16 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,9 1 0 0 0,-16-3-281 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,4-1 1 0 0,10-7-5810 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="940.64">3227 1729 19031 0 0,'0'0'1912'0'0,"8"0"2533"0"0,-10 7-4168 0 0,0 0-1 0 0,0 0 1 0 0,-5 10-1 0 0,-6 20 589 0 0,5 2-852 0 0,8-36-6 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,4 4 0 0 0,0-2-5 0 0,-3-1 5 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 4 0 0 0,-3-6 14 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-2 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-20 13-144 0 0,21-13-28 0 0,2-6-1384 0 0,0-1 846 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,4-6 1 0 0,1-3-1374 0 0,-1 6-113 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1312.34">3337 1807 16095 0 0,'0'0'1620'0'0,"8"-2"751"0"0,27 6 1957 0 0,-27-2-3953 0 0,0 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,13-1-1 0 0,-20 1-285 0 0,14-13 291 0 0,-16 12-357 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-2 1 0 0,-1 3-17 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-3 1-7 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 4 0 0 0,1-4-3 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,4 2 0 0 0,-6-3-81 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1-2 1 0 0,0-3-835 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1733.25">3618 1755 23151 0 0,'0'0'1125'0'0,"-3"16"265"0"0,3-1-1207 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-4 16-1 0 0,2-16 118 0 0,-1 1 0 0 0,-13 25-1 0 0,18-40-222 0 0,12-15-23 0 0,10-23-362 0 0,-15 23 300 0 0,16-21 1 0 0,-20 31 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,6-3 0 0 0,-9 4 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 4-1 0 0,1 3 86 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-2 16 0 0 0,0-1 50 0 0,2-22-86 0 0,-1 0 0 0 0,-1 2-63 0 0,1-2-93 0 0,6-3-614 0 0,-4 1 166 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2776.67">4175 1933 18543 0 0,'0'0'5576'0'0,"9"-13"-3176"0"0,-6-7-2121 0 0,0-1 0 0 0,-2-35 0 0 0,5-54-268 0 0,-5 99-40 0 0,1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,2 0-1 0 0,7-16 1 0 0,2 0 116 0 0,-13 26-27 0 0,-1-3-1813 0 0,0 4 822 0 0,1 0 838 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4833.27">4880 1904 6823 0 0,'0'0'507'0'0,"-2"5"-310"0"0,-17 17 16604 0 0,17-16-14562 0 0,3-12-2142 0 0,0 3-84 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-4-1 0 0,-1-6-23 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,2-14 0 0 0,1-14 240 0 0,-3 22-202 0 0,1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,2 1-1 0 0,8-26 1 0 0,-10 37-46 0 0,-2 3 12 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-6 0 0 0,-2 8-94 0 0,-3-3 5 0 0,2 3 102 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-2 0 1 0 0,-1 0 32 0 0,1 1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 1 15 0 0,-13 9-65 0 0,13-9 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-14 5 0 0 0,15-7 57 0 0,10-5-69 0 0,27 6 205 0 0,-9-4-183 0 0,0 1-1 0 0,-1 1 1 0 0,1 1 0 0 0,-1 1 0 0 0,0 0-1 0 0,18 10 1 0 0,-30-14-17 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 0 19 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,4-4 0 0 0,-6 6 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,-8-10 10 0 0,-3 0 224 0 0,-1 1 0 0 0,-14-8 0 0 0,26 17-124 0 0,-1-2-101 0 0,2 3-76 0 0,-3-15-414 0 0,3 13 408 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,4-3 1 0 0,4-4-7978 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-20476.66">628 1625 6535 0 0,'0'0'2911'0'0,"2"-1"-2646"0"0,4-2-65 0 0,31-17 1815 0 0,-34 18-1982 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,3-5 1 0 0,0 0 1 0 0,21-26 430 0 0,-9 10 62 0 0,5-11 447 0 0,-19 28-635 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,9-9 1 0 0,-11 13-249 0 0,12-15 16 0 0,-7 8-69 0 0,-7 7 390 0 0,0 1-182 0 0,4-6-14 0 0,-5 6-68 0 0,1-1-32 0 0,-2 1-122 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,12 0 11 0 0,0 5-21 0 0,-10-3 60 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,3 6 0 0 0,-3-7-52 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,2 2 0 0 0,10 13 68 0 0,-9-10-51 0 0,10 15 215 0 0,-1 0-1 0 0,0 1 1 0 0,16 42 0 0 0,-29-61-229 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,5 7 1 0 0,7 14 176 0 0,-11-18-149 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,9 10-1 0 0,-13-15-30 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 3 0 0 0,1 1 18 0 0,5 11 42 0 0,1 0-54 0 0,-6-11 6 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,3 3 0 0 0,2 6 90 0 0,12 22 257 0 0,-17-32-366 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 2 0 0 0,3 8 201 0 0,14 26 662 0 0,-18-39-861 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-2 5 79 0 0,9 15-46 0 0,8 12-36 0 0,-10-24 0 0 0,-2-4 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 5 0 0 0,2 5 0 0 0,2-1 0 0 0,-1-1 0 0 0,-2-2 16 0 0,-4-8 160 0 0,22 5 60 0 0,-19-6-7 0 0,-2-2-143 0 0,7-6-69 0 0,2-1-17 0 0,0-3 0 0 0,-4-1 0 0 0,0-2 0 0 0,3-6 1 0 0,-8 17-1 0 0,19-24-12 0 0,-15 17-16 0 0,7-8-98 0 0,-3 9 36 0 0,11-5 3 0 0,-16 10 94 0 0,30-37-8 0 0,-27 33 1 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,5-12 0 0 0,9-17 0 0 0,3-5 0 0 0,-7 11 0 0 0,-4 6 0 0 0,-9 21 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,5-9 0 0 0,-3 2 0 0 0,-4 8 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,3-5 0 0 0,7-17 0 0 0,7-11 0 0 0,7-17 0 0 0,-2 1-16 0 0,-16 37-60 0 0,1-1 1 0 0,1 2-1 0 0,0-1 0 0 0,21-23 0 0 0,11-17-41 0 0,-32 40 117 0 0,-9 13 1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,-2 3 3 0 0,0 1 11 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-2 1 0 0,-1 0 70 0 0,0 3-84 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,7-9 6 0 0,0-5-8 0 0,-10 10 0 0 0,1 4 0 0 0,-3-10 0 0 0,12 1 0 0 0,2 0 0 0 0,2-5-1 0 0,-8 13-6 0 0,-1 1-6 0 0,0-1-90 0 0,-1 1-85 0 0,4-7 172 0 0,3 2 37 0 0,12-6 302 0 0,-19 11 389 0 0,0 0-1359 0 0,8-3 598 0 0,-7 3-31 0 0,17 7-85 0 0,-16-6 111 0 0,5 0 57 0 0,-7 0 77 0 0,0 1 16 0 0,15 8 3 0 0,-15-7-101 0 0,9 7-22 0 0,-9-7-84 0 0,0 0 0 0 0,7 9 27 0 0,4 2 65 0 0,-1 0 16 0 0,2 0 0 0 0,2 7 0 0 0,1 2 0 0 0,2 1 0 0 0,0 2 0 0 0,26 48 0 0 0,-37-60 0 0 0,34 56-153 0 0,-35-57 234 0 0,3 0-65 0 0,-9-11-16 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,0 1 0 0 0,10 10 0 0 0,-2-6 16 0 0,-7-6 640 0 0,0-1-576 0 0,4 4-51 0 0,-5-4 301 0 0,-5-8-1565 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19103.78">2363 1466 6535 0 0,'0'0'4726'0'0,"1"-2"-4453"0"0,4-5-17 0 0,-4 5 1019 0 0,1 0-869 0 0,14-17 354 0 0,-15 18 664 0 0,5-7-648 0 0,12-6-176 0 0,-16 13-746 0 0,9-12 452 0 0,-6 5-175 0 0,-4 7-48 0 0,1-1-9 0 0,26-23 481 0 0,-26 23-338 0 0,1 1-132 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1-3 0 0 0,-1 3 6 0 0,-1 1 54 0 0,12-8 106 0 0,-2 0-223 0 0,0 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,16-23 0 0 0,27-22 561 0 0,-50 51-523 0 0,1 0 1 0 0,0 1-1 0 0,9-9 0 0 0,-9 10-10 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,6-9-1 0 0,45-58 992 0 0,-29 37-703 0 0,43-42 0 0 0,17-23 101 0 0,-77 87-405 0 0,2 1 0 0 0,-1 0 0 0 0,15-12 0 0 0,-17 15 59 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,6-10 1 0 0,6-8 67 0 0,29-40 181 0 0,28-32 275 0 0,-16 24-383 0 0,-44 58-240 0 0,-11 12 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-7 0 0 0,-5 8 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,8-4 0 0 0,-7 4-23 0 0,1 0 1 0 0,-1 0-1 0 0,9-10 1 0 0,25-29 161 0 0,-28 33-128 0 0,-7-2-12 0 0,2 4 16 0 0,-4 6 129 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16200.05">726 1126 10159 0 0,'0'0'14719'0'0,"-2"-3"-14449"0"0,-1 0-248 0 0,3 1 6 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,2-3-1 0 0,-1-1 148 0 0,8-30-48 0 0,-7 33-128 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5-6 0 0 0,7-13 0 0 0,-5 11-9 0 0,-8 11-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,2-3 1 0 0,-2 3 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,4 0 1 0 0,3 0 12 0 0,-1 2 0 0 0,3 0 0 0 0,-3 1 0 0 0,1 3 0 0 0,-3-3-36 0 0,-4-3 57 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 2-1 0 0,18 60 321 0 0,-9-34-209 0 0,-9-26-104 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 6 1 0 0,0 0 103 0 0,-2-9-195 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16543.13">764 1045 10159 0 0,'0'0'784'0'0,"-1"0"-510"0"0,0-1 603 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-5 2 4095 0 0,6-2-4908 0 0,10 5 79 0 0,-5-4-34 0 0,1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,8-1 1 0 0,17-6-3157 0 0,-12 4-1952 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17415.96">1259 2250 10999 0 0,'0'0'846'0'0,"-1"8"926"0"0,1 6 1276 0 0,0 0 1 0 0,-3 19-1 0 0,3-27-3059 0 0,-1 2 309 0 0,0 0 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,3 10 0 0 0,-3-16-237 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,-2 5 26 0 0,3-8-34 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17869.48">1236 2253 17191 0 0,'13'-3'388'0'0,"-10"3"523"0"0,12-15-236 0 0,-11 13-425 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,6 0 0 0 0,1 1 124 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,11 3-1 0 0,-21-5-149 0 0,-1 14 40 0 0,-1-11-224 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-5 5 0 0 0,2-3-95 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-14 9 0 0 0,19-13-57 0 0,-3 0 104 0 0,4-1 88 0 0,-2-1 439 0 0,7 2-220 0 0,5 0-101 0 0,0 1-1 0 0,15 6 0 0 0,-21-7-173 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,2 4 0 0 0,-4-4-10 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-3 2 1 0 0,-1 1-27 0 0,-2-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-9 1-1 0 0,-11 5-164 0 0,9-8 79 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18827.38">1946 735 19119 0 0,'0'0'1994'0'0,"-5"-20"1425"0"0,4 19-3361 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 1 0 0 0,-3 1-66 0 0,4-2 5 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-2 2-1 0 0,-3 7 5 0 0,4-9 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 6 0 0 0,3-6-14 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,5 6-1 0 0,-5-8 15 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 0 0 0 0,-2 1 0 0 0,4 0 11 0 0,1 0-36 0 0,0 1-1 0 0,0 0 1 0 0,11 6-1 0 0,-20-8-507 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20040.54">2636 1416 11831 0 0,'-2'4'8176'0'0,"-5"11"-3576"0"0,1 0-3767 0 0,2-9-710 0 0,2 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 10 0 0 0,-3 12 218 0 0,1-9-1747 0 0,4-19 852 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20691.65">2611 1400 9359 0 0,'0'0'11904'0'0,"26"1"-7889"0"0,21 17-3418 0 0,-45-17-561 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 5 0 0 0,-1-2-7 0 0,2-4-3 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 2 0 0 0,-13 10 123 0 0,14-11-113 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-5-1 1 0 0,7 1-133 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91792.05">1 0 19551 0 0,'0'0'2793'0'0,"4"10"-1662"0"0,-4-7-1464 0 0,-1 6-558 0 0,0-2-5586 0 0,0 3-322 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="92134.16">136 223 18543 0 0,'0'0'1976'0'0,"7"5"-1912"0"0,0-1 184 0 0,-2 2-120 0 0,2 1-5704 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="92469.43">227 472 18543 0 0,'0'0'1976'0'0,"-1"9"-1912"0"0,0 0-64 0 0,2 2 248 0 0,-4-2-120 0 0,0 0 0 0 0,3 1-400 0 0,-1-1-808 0 0,1 1-2472 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="92915.31">258 965 13039 0 0,'0'0'1392'0'0,"5"9"-1392"0"0,1-1-3816 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="92916.31">405 1150 13039 0 0,'0'0'1160'0'0,"4"11"-928"0"0,-3 0-232 0 0,1-1-3816 0 0,1 0-816 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="93255.72">544 1538 13039 0 0,'0'0'1160'0'0,"11"9"-928"0"0,-6-1-232 0 0,1-1 0 0 0,2 0 1408 0 0,-1-2-640 0 0,0 0-5096 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="93256.72">660 1590 12207 0 0,'0'0'1088'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-09T23:32:16.615"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1314 9359 0 0,'0'0'11575'0'0,"2"-1"-11494"0"0,5 0-14 0 0,1-2-80 0 0,-7 2-117 0 0,27-10-3901 0 0,-18 7-1464 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.07">338 1270 12207 0 0,'0'0'3328'0'0,"10"4"-2216"0"0,-1-1 232 0 0,1-2-1344 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="693.15">441 1292 7343 0 0,'0'0'776'0'0,"6"8"792"0"0,4-1-4168 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="694.15">738 1293 10159 0 0,'0'0'4211'0'0,"2"2"-4783"0"0,2 2 510 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1111.49">888 1284 5695 0 0,'0'0'608'0'0,"7"7"-2272"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1112.49">1120 1314 5695 0 0,'0'0'608'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1442.15">1297 1288 6535 0 0,'0'0'696'0'0,"9"1"-888"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1794.52">1423 1248 10159 0 0,'0'0'1664'0'0,"3"9"-8592"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1795.52">1426 1282 13039 0 0,'0'0'3568'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4518.92">1251 67 12207 0 0,'0'0'1144'0'0,"12"-5"-3149"0"0,39-17 9668 0 0,-49 22-7155 0 0,-1 0-404 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,25-5 1128 0 0,124-19-289 0 0,-148 24-856 0 0,5-1-27 0 0,1 0-111 0 0,-3 2-360 0 0,0-1-75 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4919.39">1372 52 6535 0 0,'0'0'3207'0'0,"0"2"-2250"0"0,-1 17 1359 0 0,-1-1 0 0 0,-4 19 0 0 0,-4 30-244 0 0,8-41-1879 0 0,1-17 116 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,1 1-1 0 0,2 10 1 0 0,-3-18-467 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5261.32">1321 204 9359 0 0,'0'0'976'0'0,"1"0"-896"0"0,7 1 59 0 0,27 1 2076 0 0,-33-2-1650 0 0,0 0-12 0 0,7-1 172 0 0,-1 0 0 0 0,1-1-1 0 0,13-5 1 0 0,5 0-45 0 0,-25 7-799 0 0,20-4-1745 0 0,-17 3 71 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5605.72">1388 311 8143 0 0,'0'0'631'0'0,"2"0"-414"0"0,30 2 3257 0 0,-30-2-2325 0 0,15 0 247 0 0,-8 1-879 0 0,20-1-545 0 0,-5-6-5021 0 0,-12-1 550 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4391,16 +5062,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:BT92"/>
+  <dimension ref="B4:BJ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18.45" outlineLevelCol="1"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.5" customWidth="1"/>
@@ -4412,29 +5083,34 @@
     <col min="10" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.92578125" customWidth="1"/>
     <col min="13" max="13" width="31.640625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="5"/>
-    <col min="18" max="18" width="9.140625" style="5"/>
-    <col min="20" max="20" width="9.140625" style="5"/>
-    <col min="22" max="22" width="9.140625" style="5"/>
-    <col min="24" max="24" width="9.140625" style="5"/>
-    <col min="26" max="26" width="9.140625" style="5"/>
-    <col min="28" max="28" width="9.140625" style="5"/>
-    <col min="30" max="30" width="9.140625" style="5"/>
-    <col min="33" max="33" width="9.140625" style="5"/>
+    <col min="14" max="24" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9.140625" style="5"/>
+    <col min="27" max="30" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="36" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="38" max="48" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="9.140625" collapsed="1"/>
+    <col min="53" max="53" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:72">
+    <row r="4" spans="2:62">
       <c r="M4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG4" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="Y4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>83</v>
+      </c>
       <c r="BA4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:72">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:62">
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -4450,14 +5126,17 @@
       <c r="M5" t="s">
         <v>70</v>
       </c>
-      <c r="AG5" s="7" t="s">
+      <c r="Y5" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="AK5" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="BA5" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:72">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:62">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -4488,111 +5167,114 @@
       <c r="O6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="Q6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="AA6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="4"/>
-      <c r="AI6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4" t="s">
+      <c r="AN6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AP6" s="4"/>
       <c r="AQ6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AR6" s="4"/>
+      <c r="AR6" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="AS6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4" t="s">
+      <c r="BH6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4" t="s">
+      <c r="BI6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BC6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL6" s="4"/>
-      <c r="BM6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP6" s="4"/>
-      <c r="BQ6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BR6" s="4"/>
-      <c r="BS6" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:72" ht="311.14999999999998" customHeight="1">
+    </row>
+    <row r="7" spans="2:62" ht="311.14999999999998" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4629,187 +5311,159 @@
       <c r="O7" s="4">
         <v>981</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>54</v>
+      <c r="P7" s="4">
+        <v>297</v>
       </c>
       <c r="Q7" s="4">
-        <v>297</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>55</v>
+        <v>684</v>
+      </c>
+      <c r="R7" s="4">
+        <v>7999.5</v>
       </c>
       <c r="S7" s="4">
-        <v>684</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>56</v>
+        <v>5487.5</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0.30299999999999999</v>
       </c>
       <c r="U7" s="4">
-        <v>7999.5</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>57</v>
+        <v>2.6</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1.46</v>
       </c>
       <c r="W7" s="4">
-        <v>5487.5</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>59</v>
+        <v>4.6663E-4</v>
+      </c>
+      <c r="X7" s="6">
+        <f>R7-S7</f>
+        <v>2512</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="AA7" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>60</v>
+        <v>266</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>75</v>
       </c>
       <c r="AC7" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>61</v>
+        <v>191</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>2723.6</v>
       </c>
       <c r="AE7" s="4">
-        <v>4.6663E-4</v>
-      </c>
-      <c r="AF7" s="6">
-        <f>U7-W7</f>
-        <v>2512</v>
-      </c>
-      <c r="AG7" s="6" t="s">
+        <v>5904.4</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>-2.0252500000000001E-3</v>
+      </c>
+      <c r="AJ7" s="6">
+        <f>AD7-AE7</f>
+        <v>-3180.7999999999997</v>
+      </c>
+      <c r="AK7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AL7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI7" s="4">
-        <v>266</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK7" s="4">
-        <v>75</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="AM7" s="4">
-        <v>191</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>56</v>
+        <v>856</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>159</v>
       </c>
       <c r="AO7" s="4">
-        <v>2723.6</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>57</v>
+        <v>697</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>3753.3</v>
       </c>
       <c r="AQ7" s="4">
-        <v>5904.4</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>58</v>
+        <v>8805.6</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>0.186</v>
       </c>
       <c r="AS7" s="4">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>59</v>
+        <v>-5.9</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>0.43</v>
       </c>
       <c r="AU7" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW7" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY7" s="4">
-        <v>-2.0252500000000001E-3</v>
-      </c>
-      <c r="AZ7" s="6">
-        <f>AO7-AQ7</f>
-        <v>-3180.7999999999997</v>
-      </c>
-      <c r="BA7" s="4" t="s">
+        <v>-6.7027999999999999E-4</v>
+      </c>
+      <c r="AV7" s="6">
+        <f>AP7-AQ7</f>
+        <v>-5052.3</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA7" t="s">
         <v>52</v>
       </c>
-      <c r="BB7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC7" s="4">
-        <v>856</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE7" s="4">
-        <v>159</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG7" s="4">
-        <v>697</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI7" s="4">
-        <v>3753.3</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK7" s="4">
-        <v>8805.6</v>
-      </c>
-      <c r="BL7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM7" s="4">
-        <v>0.186</v>
-      </c>
-      <c r="BN7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO7" s="4">
-        <v>-5.9</v>
-      </c>
-      <c r="BP7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ7" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="BR7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS7" s="4">
-        <v>-6.7027999999999999E-4</v>
-      </c>
-      <c r="BT7" s="6">
-        <f>BI7-BK7</f>
-        <v>-5052.3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:72">
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
+      <c r="BB7">
+        <v>751</v>
+      </c>
+      <c r="BC7">
+        <v>168</v>
+      </c>
+      <c r="BD7">
+        <v>583</v>
+      </c>
+      <c r="BE7">
+        <v>3247.1</v>
+      </c>
+      <c r="BF7">
+        <v>4972</v>
+      </c>
+      <c r="BG7">
+        <v>0.224</v>
+      </c>
+      <c r="BH7">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="BI7">
+        <v>0.65</v>
+      </c>
+      <c r="BJ7">
+        <v>-4.6194999999999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:62">
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
+      <c r="AJ8" s="6"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
@@ -4821,33 +5475,9 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
-      <c r="BL8" s="4"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
-      <c r="BO8" s="4"/>
-      <c r="BP8" s="4"/>
-      <c r="BQ8" s="4"/>
-      <c r="BR8" s="4"/>
-      <c r="BS8" s="4"/>
-      <c r="BT8" s="6"/>
-    </row>
-    <row r="9" spans="2:72">
+      <c r="AV8" s="6"/>
+    </row>
+    <row r="9" spans="2:62">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -4871,182 +5501,146 @@
       <c r="O9" s="4">
         <v>1314</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>54</v>
+      <c r="P9" s="4">
+        <v>568</v>
       </c>
       <c r="Q9" s="4">
-        <v>568</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>55</v>
+        <v>746</v>
+      </c>
+      <c r="R9" s="4">
+        <v>15195.7</v>
       </c>
       <c r="S9" s="4">
-        <v>746</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>56</v>
+        <v>10250.200000000001</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.432</v>
       </c>
       <c r="U9" s="4">
-        <v>15195.7</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>57</v>
+        <v>3.8</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1.48</v>
       </c>
       <c r="W9" s="4">
-        <v>10250.200000000001</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0.432</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>59</v>
+        <v>3.6717999999999999E-4</v>
+      </c>
+      <c r="X9" s="6">
+        <f>R9-S9</f>
+        <v>4945.5</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="AA9" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>60</v>
+        <v>351</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>138</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>61</v>
+        <v>213</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>5114.7</v>
       </c>
       <c r="AE9" s="4">
-        <v>3.6717999999999999E-4</v>
-      </c>
-      <c r="AF9" s="6">
-        <f>U9-W9</f>
-        <v>4945.5</v>
-      </c>
-      <c r="AG9" s="6" t="s">
+        <v>10292.299999999999</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>-14.8</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>-1.4332100000000001E-3</v>
+      </c>
+      <c r="AJ9" s="6">
+        <f>AD9-AE9</f>
+        <v>-5177.5999999999995</v>
+      </c>
+      <c r="AK9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI9" s="4">
-        <v>351</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK9" s="4">
-        <v>138</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="AM9" s="4">
-        <v>213</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>56</v>
+        <v>1187</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>369</v>
       </c>
       <c r="AO9" s="4">
-        <v>5114.7</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>57</v>
+        <v>818</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>7343.1</v>
       </c>
       <c r="AQ9" s="4">
-        <v>10292.299999999999</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>58</v>
+        <v>16821.900000000001</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>0.311</v>
       </c>
       <c r="AS9" s="4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>59</v>
+        <v>-8</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>0.44</v>
       </c>
       <c r="AU9" s="4">
-        <v>-14.8</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY9" s="4">
-        <v>-1.4332100000000001E-3</v>
-      </c>
-      <c r="AZ9" s="6">
-        <f>AO9-AQ9</f>
-        <v>-5177.5999999999995</v>
-      </c>
-      <c r="BA9" s="4" t="s">
+        <v>-4.7470999999999999E-4</v>
+      </c>
+      <c r="AV9" s="6">
+        <f>AP9-AQ9</f>
+        <v>-9478.8000000000011</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA9" t="s">
         <v>62</v>
       </c>
-      <c r="BB9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC9" s="4">
-        <v>1187</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE9" s="4">
-        <v>369</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG9" s="4">
-        <v>818</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI9" s="4">
-        <v>7343.1</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK9" s="4">
-        <v>16821.900000000001</v>
-      </c>
-      <c r="BL9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM9" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="BN9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO9" s="4">
-        <v>-8</v>
-      </c>
-      <c r="BP9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ9" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="BR9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS9" s="4">
-        <v>-4.7470999999999999E-4</v>
-      </c>
-      <c r="BT9" s="6">
-        <f>BI9-BK9</f>
-        <v>-9478.8000000000011</v>
-      </c>
-    </row>
-    <row r="10" spans="2:72">
+      <c r="BB9">
+        <v>1035</v>
+      </c>
+      <c r="BC9">
+        <v>394</v>
+      </c>
+      <c r="BD9">
+        <v>641</v>
+      </c>
+      <c r="BE9">
+        <v>7374</v>
+      </c>
+      <c r="BF9">
+        <v>9037.5</v>
+      </c>
+      <c r="BG9">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BH9">
+        <v>-1.6</v>
+      </c>
+      <c r="BI9">
+        <v>0.82</v>
+      </c>
+      <c r="BJ9">
+        <v>-1.7783999999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:62">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -5070,182 +5664,146 @@
       <c r="O10" s="4">
         <v>1321</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>54</v>
+      <c r="P10" s="4">
+        <v>366</v>
       </c>
       <c r="Q10" s="4">
-        <v>366</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>55</v>
+        <v>955</v>
+      </c>
+      <c r="R10" s="4">
+        <v>9651</v>
       </c>
       <c r="S10" s="4">
-        <v>955</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>56</v>
+        <v>6290.5</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.27700000000000002</v>
       </c>
       <c r="U10" s="4">
-        <v>9651</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>57</v>
+        <v>2.5</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1.53</v>
       </c>
       <c r="W10" s="4">
-        <v>6290.5</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>59</v>
+        <v>4.0440000000000002E-4</v>
+      </c>
+      <c r="X10" s="6">
+        <f>R10-S10</f>
+        <v>3360.5</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="AA10" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>60</v>
+        <v>351</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>92</v>
       </c>
       <c r="AC10" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>61</v>
+        <v>259</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>3438.2</v>
       </c>
       <c r="AE10" s="4">
-        <v>4.0440000000000002E-4</v>
-      </c>
-      <c r="AF10" s="6">
-        <f>U10-W10</f>
-        <v>3360.5</v>
-      </c>
-      <c r="AG10" s="6" t="s">
+        <v>6958.5</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>-10</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>-1.4413099999999999E-3</v>
+      </c>
+      <c r="AJ10" s="6">
+        <f>AD10-AE10</f>
+        <v>-3520.3</v>
+      </c>
+      <c r="AK10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI10" s="4">
-        <v>351</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>92</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="AM10" s="4">
-        <v>259</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>56</v>
+        <v>1182</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>214</v>
       </c>
       <c r="AO10" s="4">
-        <v>3438.2</v>
-      </c>
-      <c r="AP10" s="4" t="s">
-        <v>57</v>
+        <v>968</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>4203.3999999999996</v>
       </c>
       <c r="AQ10" s="4">
-        <v>6958.5</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>58</v>
+        <v>10437.799999999999</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>0.18099999999999999</v>
       </c>
       <c r="AS10" s="4">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>59</v>
+        <v>-5.3</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>0.4</v>
       </c>
       <c r="AU10" s="4">
-        <v>-10</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW10" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY10" s="4">
-        <v>-1.4413099999999999E-3</v>
-      </c>
-      <c r="AZ10" s="6">
-        <f>AO10-AQ10</f>
-        <v>-3520.3</v>
-      </c>
-      <c r="BA10" s="4" t="s">
+        <v>-5.0531999999999997E-4</v>
+      </c>
+      <c r="AV10" s="6">
+        <f>AP10-AQ10</f>
+        <v>-6234.4</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA10" t="s">
         <v>63</v>
       </c>
-      <c r="BB10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC10" s="4">
-        <v>1182</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE10" s="4">
-        <v>214</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG10" s="4">
-        <v>968</v>
-      </c>
-      <c r="BH10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI10" s="4">
-        <v>4203.3999999999996</v>
-      </c>
-      <c r="BJ10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK10" s="4">
-        <v>10437.799999999999</v>
-      </c>
-      <c r="BL10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM10" s="4">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="BN10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO10" s="4">
-        <v>-5.3</v>
-      </c>
-      <c r="BP10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ10" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="BR10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS10" s="4">
-        <v>-5.0531999999999997E-4</v>
-      </c>
-      <c r="BT10" s="6">
-        <f>BI10-BK10</f>
-        <v>-6234.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:72">
+      <c r="BB10">
+        <v>1035</v>
+      </c>
+      <c r="BC10">
+        <v>234</v>
+      </c>
+      <c r="BD10">
+        <v>801</v>
+      </c>
+      <c r="BE10">
+        <v>4160</v>
+      </c>
+      <c r="BF10">
+        <v>5783.2</v>
+      </c>
+      <c r="BG10">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="BH10">
+        <v>-1.6</v>
+      </c>
+      <c r="BI10">
+        <v>0.72</v>
+      </c>
+      <c r="BJ10">
+        <v>-2.7117999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:62">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -5268,182 +5826,146 @@
       <c r="O11" s="4">
         <v>1314</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>54</v>
+      <c r="P11" s="4">
+        <v>568</v>
       </c>
       <c r="Q11" s="4">
-        <v>568</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>55</v>
+        <v>746</v>
+      </c>
+      <c r="R11" s="4">
+        <v>15195.7</v>
       </c>
       <c r="S11" s="4">
-        <v>746</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>56</v>
+        <v>10250.200000000001</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.432</v>
       </c>
       <c r="U11" s="4">
-        <v>15195.7</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>57</v>
+        <v>3.8</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1.48</v>
       </c>
       <c r="W11" s="4">
-        <v>10250.200000000001</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>0.432</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>59</v>
+        <v>3.6717999999999999E-4</v>
+      </c>
+      <c r="X11" s="6">
+        <f>R11-S11</f>
+        <v>4945.5</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="AA11" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>60</v>
+        <v>351</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>138</v>
       </c>
       <c r="AC11" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>61</v>
+        <v>213</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>5114.7</v>
       </c>
       <c r="AE11" s="4">
-        <v>3.6717999999999999E-4</v>
-      </c>
-      <c r="AF11" s="6">
-        <f>U11-W11</f>
-        <v>4945.5</v>
-      </c>
-      <c r="AG11" s="6" t="s">
+        <v>10292.299999999999</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>-14.8</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>-1.4332100000000001E-3</v>
+      </c>
+      <c r="AJ11" s="6">
+        <f>AD11-AE11</f>
+        <v>-5177.5999999999995</v>
+      </c>
+      <c r="AK11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI11" s="4">
-        <v>351</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK11" s="4">
-        <v>138</v>
-      </c>
-      <c r="AL11" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="AM11" s="4">
-        <v>213</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>56</v>
+        <v>1187</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>369</v>
       </c>
       <c r="AO11" s="4">
-        <v>5114.7</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>57</v>
+        <v>818</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>7343.1</v>
       </c>
       <c r="AQ11" s="4">
-        <v>10292.299999999999</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>58</v>
+        <v>16821.900000000001</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>0.311</v>
       </c>
       <c r="AS11" s="4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="AT11" s="4" t="s">
-        <v>59</v>
+        <v>-8</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>0.44</v>
       </c>
       <c r="AU11" s="4">
-        <v>-14.8</v>
-      </c>
-      <c r="AV11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY11" s="4">
-        <v>-1.4332100000000001E-3</v>
-      </c>
-      <c r="AZ11" s="6">
-        <f>AO11-AQ11</f>
-        <v>-5177.5999999999995</v>
-      </c>
-      <c r="BA11" s="4" t="s">
+        <v>-4.7470999999999999E-4</v>
+      </c>
+      <c r="AV11" s="6">
+        <f>AP11-AQ11</f>
+        <v>-9478.8000000000011</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA11" t="s">
         <v>64</v>
       </c>
-      <c r="BB11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC11" s="4">
-        <v>1187</v>
-      </c>
-      <c r="BD11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE11" s="4">
-        <v>369</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG11" s="4">
-        <v>818</v>
-      </c>
-      <c r="BH11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI11" s="4">
-        <v>7343.1</v>
-      </c>
-      <c r="BJ11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK11" s="4">
-        <v>16821.900000000001</v>
-      </c>
-      <c r="BL11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM11" s="4">
-        <v>0.311</v>
-      </c>
-      <c r="BN11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO11" s="4">
-        <v>-8</v>
-      </c>
-      <c r="BP11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ11" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="BR11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS11" s="4">
-        <v>-4.7470999999999999E-4</v>
-      </c>
-      <c r="BT11" s="6">
-        <f>BI11-BK11</f>
-        <v>-9478.8000000000011</v>
-      </c>
-    </row>
-    <row r="12" spans="2:72" ht="150" customHeight="1">
+      <c r="BB11">
+        <v>1035</v>
+      </c>
+      <c r="BC11">
+        <v>394</v>
+      </c>
+      <c r="BD11">
+        <v>641</v>
+      </c>
+      <c r="BE11">
+        <v>7374</v>
+      </c>
+      <c r="BF11">
+        <v>9037.5</v>
+      </c>
+      <c r="BG11">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BH11">
+        <v>-1.6</v>
+      </c>
+      <c r="BI11">
+        <v>0.82</v>
+      </c>
+      <c r="BJ11">
+        <v>-1.7783999999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:62" ht="150" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5455,7 +5977,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -5464,11 +5986,19 @@
       <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
+      <c r="AJ12" s="6"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
@@ -5480,33 +6010,9 @@
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
-      <c r="BL12" s="4"/>
-      <c r="BM12" s="4"/>
-      <c r="BN12" s="4"/>
-      <c r="BO12" s="4"/>
-      <c r="BP12" s="4"/>
-      <c r="BQ12" s="4"/>
-      <c r="BR12" s="4"/>
-      <c r="BS12" s="4"/>
-      <c r="BT12" s="6"/>
-    </row>
-    <row r="13" spans="2:72">
+      <c r="AV12" s="6"/>
+    </row>
+    <row r="13" spans="2:62">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
@@ -5528,182 +6034,146 @@
       <c r="O13" s="4">
         <v>539</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>54</v>
+      <c r="P13" s="4">
+        <v>78</v>
       </c>
       <c r="Q13" s="4">
-        <v>78</v>
-      </c>
-      <c r="R13" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1262.5999999999999</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2511.1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="U13" s="4">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W13" s="4">
+        <v>-9.2243999999999996E-4</v>
+      </c>
+      <c r="X13" s="6">
+        <f>R13-S13</f>
+        <v>-1248.5</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>175</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>151</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>819.6</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>2797.3</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>-11.3</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>-4.0400200000000001E-3</v>
+      </c>
+      <c r="AJ13" s="6">
+        <f>AD13-AE13</f>
+        <v>-1977.7000000000003</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>500</v>
+      </c>
+      <c r="AN13" s="4">
         <v>55</v>
       </c>
-      <c r="S13" s="4">
-        <v>461</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U13" s="4">
-        <v>1262.5999999999999</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" s="4">
-        <v>2511.1</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>-9.2243999999999996E-4</v>
-      </c>
-      <c r="AF13" s="6">
-        <f>U13-W13</f>
-        <v>-1248.5</v>
-      </c>
-      <c r="AG13" s="6" t="s">
+      <c r="AO13" s="4">
+        <v>445</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>873.7</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>3357</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>-1.47948E-3</v>
+      </c>
+      <c r="AV13" s="6">
+        <f>AP13-AQ13</f>
+        <v>-2483.3000000000002</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA13" t="s">
         <v>65</v>
       </c>
-      <c r="AH13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>175</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK13" s="4">
-        <v>24</v>
-      </c>
-      <c r="AL13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM13" s="4">
-        <v>151</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO13" s="4">
-        <v>819.6</v>
-      </c>
-      <c r="AP13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ13" s="4">
-        <v>2797.3</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS13" s="4">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="AT13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU13" s="4">
-        <v>-11.3</v>
-      </c>
-      <c r="AV13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW13" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AX13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY13" s="4">
-        <v>-4.0400200000000001E-3</v>
-      </c>
-      <c r="AZ13" s="6">
-        <f>AO13-AQ13</f>
-        <v>-1977.7000000000003</v>
-      </c>
-      <c r="BA13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BB13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC13" s="4">
-        <v>500</v>
-      </c>
-      <c r="BD13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE13" s="4">
-        <v>55</v>
-      </c>
-      <c r="BF13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG13" s="4">
-        <v>445</v>
-      </c>
-      <c r="BH13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI13" s="4">
-        <v>873.7</v>
-      </c>
-      <c r="BJ13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK13" s="4">
-        <v>3357</v>
-      </c>
-      <c r="BL13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM13" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="BN13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO13" s="4">
-        <v>-5</v>
-      </c>
-      <c r="BP13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ13" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="BR13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS13" s="4">
-        <v>-1.47948E-3</v>
-      </c>
-      <c r="BT13" s="6">
-        <f>BI13-BK13</f>
-        <v>-2483.3000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:72">
+      <c r="BB13">
+        <v>457</v>
+      </c>
+      <c r="BC13">
+        <v>63</v>
+      </c>
+      <c r="BD13">
+        <v>394</v>
+      </c>
+      <c r="BE13">
+        <v>677.4</v>
+      </c>
+      <c r="BF13">
+        <v>2419.8000000000002</v>
+      </c>
+      <c r="BG13">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="BH13">
+        <v>-3.8</v>
+      </c>
+      <c r="BI13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BJ13">
+        <v>-1.57562E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:62">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5723,182 +6193,146 @@
       <c r="O14" s="4">
         <v>863</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>54</v>
+      <c r="P14" s="4">
+        <v>257</v>
       </c>
       <c r="Q14" s="4">
-        <v>257</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>55</v>
+        <v>606</v>
+      </c>
+      <c r="R14" s="4">
+        <v>4351.3</v>
       </c>
       <c r="S14" s="4">
-        <v>606</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>56</v>
+        <v>6870.6</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0.29799999999999999</v>
       </c>
       <c r="U14" s="4">
-        <v>4351.3</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>57</v>
+        <v>-2.9</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.63</v>
       </c>
       <c r="W14" s="4">
-        <v>6870.6</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="Z14" s="6" t="s">
-        <v>59</v>
+        <v>-4.2488999999999998E-4</v>
+      </c>
+      <c r="X14" s="6">
+        <f>R14-S14</f>
+        <v>-2519.3000000000002</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="AA14" s="4">
-        <v>-2.9</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>60</v>
+        <v>281</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>85</v>
       </c>
       <c r="AC14" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>61</v>
+        <v>196</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>2734.5</v>
       </c>
       <c r="AE14" s="4">
-        <v>-4.2488999999999998E-4</v>
-      </c>
-      <c r="AF14" s="6">
-        <f>U14-W14</f>
-        <v>-2519.3000000000002</v>
-      </c>
-      <c r="AG14" s="6" t="s">
+        <v>7183.4</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>-15.8</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>-2.2040200000000001E-3</v>
+      </c>
+      <c r="AJ14" s="6">
+        <f>AD14-AE14</f>
+        <v>-4448.8999999999996</v>
+      </c>
+      <c r="AK14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AL14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI14" s="4">
-        <v>281</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK14" s="4">
-        <v>85</v>
-      </c>
-      <c r="AL14" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="AM14" s="4">
-        <v>196</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>56</v>
+        <v>828</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>218</v>
       </c>
       <c r="AO14" s="4">
-        <v>2734.5</v>
-      </c>
-      <c r="AP14" s="4" t="s">
-        <v>57</v>
+        <v>610</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>3250.3</v>
       </c>
       <c r="AQ14" s="4">
-        <v>7183.4</v>
-      </c>
-      <c r="AR14" s="4" t="s">
-        <v>58</v>
+        <v>9761.1</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>0.26300000000000001</v>
       </c>
       <c r="AS14" s="4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="AT14" s="4" t="s">
-        <v>59</v>
+        <v>-7.9</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>0.33</v>
       </c>
       <c r="AU14" s="4">
-        <v>-15.8</v>
-      </c>
-      <c r="AV14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW14" s="4">
+        <v>-8.0557000000000003E-4</v>
+      </c>
+      <c r="AV14" s="6">
+        <f>AP14-AQ14</f>
+        <v>-6510.8</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB14">
+        <v>730</v>
+      </c>
+      <c r="BC14">
+        <v>216</v>
+      </c>
+      <c r="BD14">
+        <v>514</v>
+      </c>
+      <c r="BE14">
+        <v>2272.6999999999998</v>
+      </c>
+      <c r="BF14">
+        <v>5978.7</v>
+      </c>
+      <c r="BG14">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="BH14">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="BI14">
         <v>0.38</v>
       </c>
-      <c r="AX14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY14" s="4">
-        <v>-2.2040200000000001E-3</v>
-      </c>
-      <c r="AZ14" s="6">
-        <f>AO14-AQ14</f>
-        <v>-4448.8999999999996</v>
-      </c>
-      <c r="BA14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC14" s="4">
-        <v>828</v>
-      </c>
-      <c r="BD14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE14" s="4">
-        <v>218</v>
-      </c>
-      <c r="BF14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG14" s="4">
-        <v>610</v>
-      </c>
-      <c r="BH14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI14" s="4">
-        <v>3250.3</v>
-      </c>
-      <c r="BJ14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK14" s="4">
-        <v>9761.1</v>
-      </c>
-      <c r="BL14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM14" s="4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="BN14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO14" s="4">
-        <v>-7.9</v>
-      </c>
-      <c r="BP14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ14" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="BR14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS14" s="4">
-        <v>-8.0557000000000003E-4</v>
-      </c>
-      <c r="BT14" s="6">
-        <f>BI14-BK14</f>
-        <v>-6510.8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:72" ht="249" customHeight="1">
+      <c r="BJ14">
+        <v>-8.4913000000000002E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:62" ht="249" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -5926,182 +6360,146 @@
       <c r="O15" s="4">
         <v>121</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>54</v>
+      <c r="P15" s="4">
+        <v>46</v>
       </c>
       <c r="Q15" s="4">
-        <v>46</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="R15" s="4">
+        <v>692.4</v>
       </c>
       <c r="S15" s="4">
-        <v>75</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>56</v>
+        <v>1032</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0.38</v>
       </c>
       <c r="U15" s="4">
-        <v>692.4</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>57</v>
+        <v>-2.8</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0.67</v>
       </c>
       <c r="W15" s="4">
-        <v>1032</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>59</v>
+        <v>-2.7195800000000001E-3</v>
+      </c>
+      <c r="X15" s="6">
+        <f>R15-S15</f>
+        <v>-339.6</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="AA15" s="4">
-        <v>-2.8</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>60</v>
+        <v>33</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>15</v>
       </c>
       <c r="AC15" s="4">
+        <v>18</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>483.9</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>717.2</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AH15" s="4">
         <v>0.67</v>
       </c>
-      <c r="AD15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>-2.7195800000000001E-3</v>
-      </c>
-      <c r="AF15" s="6">
-        <f>U15-W15</f>
-        <v>-339.6</v>
-      </c>
-      <c r="AG15" s="6" t="s">
+      <c r="AI15" s="4">
+        <v>-9.8573600000000008E-3</v>
+      </c>
+      <c r="AJ15" s="6">
+        <f>AD15-AE15</f>
+        <v>-233.30000000000007</v>
+      </c>
+      <c r="AK15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI15" s="4">
-        <v>33</v>
-      </c>
-      <c r="AJ15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK15" s="4">
-        <v>15</v>
-      </c>
-      <c r="AL15" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="AM15" s="4">
-        <v>18</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>36</v>
       </c>
       <c r="AO15" s="4">
-        <v>483.9</v>
-      </c>
-      <c r="AP15" s="4" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>751.6</v>
       </c>
       <c r="AQ15" s="4">
-        <v>717.2</v>
-      </c>
-      <c r="AR15" s="4" t="s">
-        <v>58</v>
+        <v>1920.2</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>0.28599999999999998</v>
       </c>
       <c r="AS15" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="AT15" s="4" t="s">
-        <v>59</v>
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>0.39</v>
       </c>
       <c r="AU15" s="4">
-        <v>-7.1</v>
-      </c>
-      <c r="AV15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW15" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="AX15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY15" s="4">
-        <v>-9.8573600000000008E-3</v>
-      </c>
-      <c r="AZ15" s="6">
-        <f>AO15-AQ15</f>
-        <v>-233.30000000000007</v>
-      </c>
-      <c r="BA15" s="4" t="s">
+        <v>-4.83002E-3</v>
+      </c>
+      <c r="AV15" s="6">
+        <f>AP15-AQ15</f>
+        <v>-1168.5999999999999</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA15" t="s">
         <v>67</v>
       </c>
-      <c r="BB15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC15" s="4">
-        <v>126</v>
-      </c>
-      <c r="BD15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE15" s="4">
-        <v>36</v>
-      </c>
-      <c r="BF15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG15" s="4">
-        <v>90</v>
-      </c>
-      <c r="BH15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI15" s="4">
-        <v>751.6</v>
-      </c>
-      <c r="BJ15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK15" s="4">
-        <v>1920.2</v>
-      </c>
-      <c r="BL15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM15" s="4">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="BN15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO15" s="4">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="BP15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ15" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="BR15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS15" s="4">
-        <v>-4.83002E-3</v>
-      </c>
-      <c r="BT15" s="6">
-        <f>BI15-BK15</f>
-        <v>-1168.5999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:72">
+      <c r="BB15">
+        <v>96</v>
+      </c>
+      <c r="BC15">
+        <v>27</v>
+      </c>
+      <c r="BD15">
+        <v>69</v>
+      </c>
+      <c r="BE15">
+        <v>302.5</v>
+      </c>
+      <c r="BF15">
+        <v>1030.4000000000001</v>
+      </c>
+      <c r="BG15">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="BH15">
+        <v>-7.6</v>
+      </c>
+      <c r="BI15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BJ15">
+        <v>-7.3585899999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:62">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -6116,11 +6514,19 @@
       <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
+      <c r="AJ16" s="6"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
@@ -6132,32 +6538,8 @@
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
-      <c r="BI16" s="4"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="4"/>
-      <c r="BL16" s="4"/>
-      <c r="BM16" s="4"/>
-      <c r="BN16" s="4"/>
-      <c r="BO16" s="4"/>
-      <c r="BP16" s="4"/>
-      <c r="BQ16" s="4"/>
-      <c r="BR16" s="4"/>
-      <c r="BS16" s="4"/>
-    </row>
-    <row r="17" spans="2:72">
+    </row>
+    <row r="17" spans="2:62">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
@@ -6172,11 +6554,19 @@
       <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
+      <c r="AJ17" s="6"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
@@ -6188,32 +6578,8 @@
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
-      <c r="BP17" s="4"/>
-      <c r="BQ17" s="4"/>
-      <c r="BR17" s="4"/>
-      <c r="BS17" s="4"/>
-    </row>
-    <row r="18" spans="2:72" ht="165.9">
+    </row>
+    <row r="18" spans="2:62" ht="165.9">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -6239,182 +6605,146 @@
       <c r="O18" s="4">
         <v>121</v>
       </c>
-      <c r="P18" s="6" t="s">
-        <v>54</v>
+      <c r="P18" s="4">
+        <v>72</v>
       </c>
       <c r="Q18" s="4">
-        <v>72</v>
-      </c>
-      <c r="R18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="4">
+        <v>466.9</v>
+      </c>
+      <c r="S18" s="4">
+        <v>717.7</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="U18" s="4">
+        <v>-2.1</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="W18" s="4">
+        <v>-2.8880099999999999E-3</v>
+      </c>
+      <c r="X18" s="6">
+        <f>R18-S18</f>
+        <v>-250.80000000000007</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>32</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>21</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>321.89999999999998</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>530.9</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>-1.2302220000000001E-2</v>
+      </c>
+      <c r="AJ18" s="6">
+        <f>AD18-AE18</f>
+        <v>-209</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>125</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>52</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>73</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>588.9</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>1642.7</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>-8.4</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>-5.13204E-3</v>
+      </c>
+      <c r="AV18" s="6">
+        <f>AP18-AQ18</f>
+        <v>-1053.8000000000002</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB18">
+        <v>94</v>
+      </c>
+      <c r="BC18">
+        <v>39</v>
+      </c>
+      <c r="BD18">
         <v>55</v>
       </c>
-      <c r="S18" s="4">
-        <v>49</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U18" s="4">
-        <v>466.9</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="W18" s="4">
-        <v>717.7</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA18" s="4">
-        <v>-2.1</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC18" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE18" s="4">
-        <v>-2.8880099999999999E-3</v>
-      </c>
-      <c r="AF18" s="6">
-        <f>U18-W18</f>
-        <v>-250.80000000000007</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI18" s="4">
-        <v>32</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK18" s="4">
-        <v>21</v>
-      </c>
-      <c r="AL18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM18" s="4">
-        <v>11</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO18" s="4">
-        <v>321.89999999999998</v>
-      </c>
-      <c r="AP18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ18" s="4">
-        <v>530.9</v>
-      </c>
-      <c r="AR18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS18" s="4">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="AT18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU18" s="4">
-        <v>-6.5</v>
-      </c>
-      <c r="AV18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW18" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="AX18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY18" s="4">
-        <v>-1.2302220000000001E-2</v>
-      </c>
-      <c r="AZ18" s="6">
-        <f>AO18-AQ18</f>
-        <v>-209</v>
-      </c>
-      <c r="BA18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC18" s="4">
-        <v>125</v>
-      </c>
-      <c r="BD18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE18" s="4">
-        <v>52</v>
-      </c>
-      <c r="BF18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG18" s="4">
-        <v>73</v>
-      </c>
-      <c r="BH18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI18" s="4">
-        <v>588.9</v>
-      </c>
-      <c r="BJ18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK18" s="4">
-        <v>1642.7</v>
-      </c>
-      <c r="BL18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM18" s="4">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="BN18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO18" s="4">
-        <v>-8.4</v>
-      </c>
-      <c r="BP18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ18" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="BR18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS18" s="4">
-        <v>-5.13204E-3</v>
-      </c>
-      <c r="BT18" s="6">
-        <f>BI18-BK18</f>
-        <v>-1053.8000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:72">
+      <c r="BE18">
+        <v>192.7</v>
+      </c>
+      <c r="BF18">
+        <v>880.2</v>
+      </c>
+      <c r="BG18">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="BH18">
+        <v>-7.3</v>
+      </c>
+      <c r="BI18">
+        <v>0.22</v>
+      </c>
+      <c r="BJ18">
+        <v>-8.3092800000000005E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:62">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6427,7 +6757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:72">
+    <row r="20" spans="2:62">
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -6441,16 +6771,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:72" ht="92.15">
+    <row r="21" spans="2:62" ht="92.15">
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -6458,38 +6788,89 @@
       <c r="I21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="2:72">
-      <c r="B22" s="1"/>
+      <c r="AY21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB21">
+        <v>310</v>
+      </c>
+      <c r="BC21">
+        <v>59</v>
+      </c>
+      <c r="BD21">
+        <v>251</v>
+      </c>
+      <c r="BE21">
+        <v>1256.2</v>
+      </c>
+      <c r="BF21">
+        <v>2235</v>
+      </c>
+      <c r="BG21">
+        <v>0.19</v>
+      </c>
+      <c r="BH21">
+        <v>-3.2</v>
+      </c>
+      <c r="BI21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BJ21">
+        <v>-1.4127199999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:62" ht="297.89999999999998" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:72">
-      <c r="B23" s="1"/>
+      <c r="L22" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:62" ht="118.75" customHeight="1">
+      <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:72">
+    <row r="24" spans="2:62" ht="115.3" customHeight="1">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:72">
+    <row r="25" spans="2:62">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -6499,7 +6880,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:72">
+    <row r="26" spans="2:62">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -6509,7 +6890,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:72">
+    <row r="27" spans="2:62">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -6519,7 +6900,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:72">
+    <row r="28" spans="2:62">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6529,7 +6910,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:72">
+    <row r="29" spans="2:62">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6539,7 +6920,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:72">
+    <row r="30" spans="2:62">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -6549,7 +6930,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:72">
+    <row r="31" spans="2:62">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -6559,7 +6940,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:72">
+    <row r="32" spans="2:62">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -7168,6 +7549,16 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:B19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE02B872-9859-460F-BAF7-4F52FE0E281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A17C1-3464-45A8-8EB2-7067C3110789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -940,6 +940,422 @@
     <rPh sb="63" eb="65">
       <t>トウタツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M1などの小さな足のZigzag切り替わりと大きな足の流れを見たい。</t>
+    <rPh sb="5" eb="6">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern成立のところで、Zigがkindが１orー１の時にその時の点を描画
+UPとDNを表示</t>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z1_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M1とH1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目線切り替わりの時にエントリーを実施。</t>
+    <rPh sb="0" eb="2">
+      <t>メセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーフェクトーオーダーの時の方向のみ</t>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA200との乖離が大きいとき、逆方向に行ったとき</t>
+    <rPh sb="7" eb="9">
+      <t>カイリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ギャクホウコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上位足の前回高値と安値の両端で反発狙いのみでエントリー。
+H・・Lの上と下の10％の範囲の時に反対側期待でエントリー
+上下の％は何が良いか
+ベース、上位足*
+M1→上位H1、M15,M5
+M5→上位H1、M15,M5
+</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウイアシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤスネ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウハジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ハンパツネラ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="47" eb="52">
+      <t>ハンタイガワキタイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ジョウイアシ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">押し戻り：
+上位足A-Dが目線が下、かつ
+BDの上位X％以内で、下位足の目線が下
+利確はBDの下位X％以内になったとき。
+</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジョウイアシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メセン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>メセン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>リカク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C以上で損切</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソンギリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D以下で利確
+（別途確認（時間的に勢い内）↓
+D以下で利確
+Dから時間がBCD＊１．５倍たったら抜ける。）</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ジカンテキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イキオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>リカク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位足
+A.v&gt;C.v &amp;&amp; B.v&gt;D.v
+下位足で目線が下
+　値がBDの上位X％だったら、下へエントリー
+・AorCを超えたら、パターン不成立とする
+・Dの値を更新
+（別途確認
+エントリー時にTP,SLを確認
+Now,C（損切幅）
+Now.D（利確幅）
+利確が多いときエントリ
+）</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウイアシ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カイアシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>メセン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>ベットカクニン</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>ソンギリハバ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>リカク</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>リカク</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B1_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Base*M1,UpperFrame 2up(M15)
+Base*M1,UpperFrame 3up(M30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改造、baseと上位時間を変えて、テストしたいため、複数のパターンでテストしたい。
+上位のX％も変えたい。
+パラメータ：Base,上位時間、X％が変えられるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジョウイジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ
+Inp_para_double1//x％の指定
+Inp_para_int1//baseからどれだけずらすか１で一つ上</t>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20190101-20191231
+MO	0	20:44:08.577	ooooo (USDJPY,M1)	2019.12.30 23:59:59   ★TimeFrame=PERIOD_M1
+EJ	0	20:44:08.577	ooooo (USDJPY,M1)	2019.12.30 23:59:59   ★結果:name=Method_B1_1 ; 数=121 ; 勝数=80 ; 負数=41 ; 勝Pips=981.7 ; 負Pips=853.5 ; 勝率=0.661 ; 期待値=1.1 ; Pf=1.15 ; タープ期待値=0.00124136
+NS	0	20:44:08.577	ooooo (USDJPY,M1)	2019.12.30 23:59:59   instant_B1_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M1＿H5(base1）：20190101＿20191231
+2022.03.25 16:36:56.749	2019.12.30 23:59:59   ★結果:name=Method_B1_1 ; 数=270 ; 勝数=163 ; 負数=107 ; 勝Pips=1076.8 ; 負Pips=1089.5 ; 勝率=0.604 ; 期待値=-0.0 ; Pf=0.99 ; タープ期待値=-0.00004317
+M1＿H15(base2）：20190101＿20191231
+2022.03.25 15:30:32.912	2019.12.30 23:59:59   ★結果:name=Method_B1_1 ; 数=121 ; 勝数=80 ; 負数=41 ; 勝Pips=981.7 ; 負Pips=853.5 ; 勝率=0.661 ; 期待値=1.1 ; Pf=1.15 ; タープ期待値=0.00124136
+M1＿H30(base3）：20190101＿20191231
+2022.03.25 15:14:25.394	2019.12.30 23:59:59   ★結果:name=Method_B1_1 ; 数=64 ; 勝数=42 ; 負数=22 ; 勝Pips=719.7 ; 負Pips=675.9 ; 勝率=0.656 ; 期待値=0.7 ; Pf=1.06 ; タープ期待値=0.00101254
+M1＿H1：20190101＿20191231
+2022.03.25 15:05:13.147	2019.12.30 23:59:59   ★結果:name=Method_B1_1 ; 数=37 ; 勝数=22 ; 負数=15 ; 勝Pips=314.9 ; 負Pips=551.3 ; 勝率=0.595 ; 期待値=-6.4 ; Pf=0.57 ; タープ期待値=-0.01158931
+M1＿H4(base５）：
+2022.03.25 15:36:54.608	2019.12.30 23:59:59   ★結果:name=Method_B1_1 ; 数=7 ; 勝数=4 ; 負数=3 ; 勝Pips=153.2 ; 負Pips=300.9 ; 勝率=0.571 ; 期待値=-21.1 ; Pf=0.51 ; タープ期待値=-0.07012296</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3373,6 +3789,1371 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>494104</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1652775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2458624</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2010615</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="77" name="インク 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8158981-C622-404B-8175-DD86BB941FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5690849" y="25345769"/>
+            <a:ext cx="1964520" cy="357840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="インク 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8158981-C622-404B-8175-DD86BB941FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5681849" y="25337129"/>
+              <a:ext cx="1982160" cy="375480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2041744</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>912615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2440264</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1134375</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="83" name="インク 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09ED1EB-E1D6-4955-9347-21EE20AB2072}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7238489" y="24605609"/>
+            <a:ext cx="398520" cy="221760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="インク 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09ED1EB-E1D6-4955-9347-21EE20AB2072}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7229849" y="24596609"/>
+              <a:ext cx="416160" cy="239400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1764184</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1236615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1929784</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1633695</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="84" name="インク 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDD555E-F5AD-4032-B313-1C3F00CD9D57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6960929" y="24929609"/>
+            <a:ext cx="165600" cy="397080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="84" name="インク 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDD555E-F5AD-4032-B313-1C3F00CD9D57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6952289" y="24920609"/>
+              <a:ext cx="183240" cy="414720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4413064</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1344975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4778464</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1531095</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="106" name="インク 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19ACA1B4-7515-4183-8846-C484EC925F26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9609809" y="25037969"/>
+            <a:ext cx="365400" cy="186120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="106" name="インク 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19ACA1B4-7515-4183-8846-C484EC925F26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9601169" y="25029312"/>
+              <a:ext cx="383040" cy="203794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3310384</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>641895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3792784</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>826935</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="110" name="インク 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E9F5B8-2238-4819-8E59-7E91F40943A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8507129" y="24334889"/>
+            <a:ext cx="482400" cy="185040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="110" name="インク 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E9F5B8-2238-4819-8E59-7E91F40943A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8498129" y="24325906"/>
+              <a:ext cx="500040" cy="202646"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1914861</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>526426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2292501</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1139146</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="345" name="インク 344">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2FB8F1-7C15-4AA7-B6A7-4EFA392188CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7114390" y="24314913"/>
+            <a:ext cx="377640" cy="612720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="345" name="インク 344">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2FB8F1-7C15-4AA7-B6A7-4EFA392188CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7105750" y="24306273"/>
+              <a:ext cx="395280" cy="630360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2623701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>564226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2982261</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1076866</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="366" name="インク 365">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41846A65-DFBF-44BB-9927-7C79E09D6BAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7823230" y="24352713"/>
+            <a:ext cx="358560" cy="512640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="366" name="インク 365">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41846A65-DFBF-44BB-9927-7C79E09D6BAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7814230" y="24344073"/>
+              <a:ext cx="376200" cy="530280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>575784</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1183066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2826864</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2431186</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="427" name="インク 426">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DCBFA7-2FCC-4408-BC7E-62EF620CD683}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2765733" y="24971553"/>
+            <a:ext cx="2251080" cy="1248120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="427" name="インク 426">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DCBFA7-2FCC-4408-BC7E-62EF620CD683}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2756733" y="24962911"/>
+              <a:ext cx="2268720" cy="1265765"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>451584</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2599666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2342664</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3190066</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="444" name="インク 443">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAD9459-E0DC-4487-9D6B-EA5F703B90D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2641533" y="26388153"/>
+            <a:ext cx="1891080" cy="590400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="444" name="インク 443">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAD9459-E0DC-4487-9D6B-EA5F703B90D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2632893" y="26379153"/>
+              <a:ext cx="1908720" cy="608040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168984</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3275386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2394504</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4407226</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="509" name="インク 508">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B68B70-03C3-41CD-BDEA-839CF334D95C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2358933" y="27063873"/>
+            <a:ext cx="2225520" cy="1131840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="509" name="インク 508">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B68B70-03C3-41CD-BDEA-839CF334D95C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2350293" y="27054873"/>
+              <a:ext cx="2243160" cy="1149480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>878544</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3716386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>998064</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3830866</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="514" name="インク 513">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33398822-B050-4D97-A435-EB6593661111}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3068493" y="27504873"/>
+            <a:ext cx="119520" cy="114480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="514" name="インク 513">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33398822-B050-4D97-A435-EB6593661111}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3059520" y="27496233"/>
+              <a:ext cx="137107" cy="132120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858384</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3623506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1068984</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3889906</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="515" name="インク 514">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C788DB26-C0D6-4E2E-8569-C5857093B92F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3048333" y="27411993"/>
+            <a:ext cx="210600" cy="266400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="515" name="インク 514">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C788DB26-C0D6-4E2E-8569-C5857093B92F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3039333" y="27402993"/>
+              <a:ext cx="228240" cy="284040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1390464</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4216426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1613304</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4410106</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="518" name="インク 517">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763BDD39-9C10-4B2B-A4D6-BB3E7EB3C71C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3580413" y="28004913"/>
+            <a:ext cx="222840" cy="193680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="518" name="インク 517">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763BDD39-9C10-4B2B-A4D6-BB3E7EB3C71C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3571773" y="27995913"/>
+              <a:ext cx="240480" cy="211320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2976624</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>531826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4888101</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2421826</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="529" name="インク 528">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF071538-3A50-4CD1-AB20-769D1FF62F58}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5166573" y="24320313"/>
+            <a:ext cx="4921057" cy="1890000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="529" name="インク 528">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF071538-3A50-4CD1-AB20-769D1FF62F58}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5157573" y="24311673"/>
+              <a:ext cx="4938696" cy="1907640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17084</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1985146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89084</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2142106</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="530" name="インク 529">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82D9415-6084-47C7-B72B-421763968DFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5216613" y="25773633"/>
+            <a:ext cx="72000" cy="156960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="530" name="インク 529">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82D9415-6084-47C7-B72B-421763968DFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5207613" y="25764993"/>
+              <a:ext cx="89640" cy="174600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211844</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2792266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2727164</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3099346</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="549" name="インク 548">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DF5975-0CA3-453A-9C78-F5CD3ED7B15A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5411373" y="26580753"/>
+            <a:ext cx="2515320" cy="307080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="549" name="インク 548">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DF5975-0CA3-453A-9C78-F5CD3ED7B15A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5402373" y="26572113"/>
+              <a:ext cx="2532960" cy="324720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>237404</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3253066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2365724</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3537466</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="567" name="インク 566">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB223023-4E0B-44F4-B91F-EF789632E6C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5436933" y="27041553"/>
+            <a:ext cx="2128320" cy="284400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="567" name="インク 566">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB223023-4E0B-44F4-B91F-EF789632E6C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5428293" y="27032913"/>
+              <a:ext cx="2145960" cy="302040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2564084</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3377986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3519524</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3573826</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="574" name="インク 573">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC072CB-3840-4B59-8046-EE2BFDB55918}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7763613" y="27166473"/>
+            <a:ext cx="955440" cy="195840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="574" name="インク 573">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC072CB-3840-4B59-8046-EE2BFDB55918}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7754973" y="27157473"/>
+              <a:ext cx="973080" cy="213480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>150284</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3703786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2968004</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3999706</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="604" name="インク 603">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D04B35D-7858-48AC-825F-82FC1B6F6FE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5349813" y="27492273"/>
+            <a:ext cx="2817720" cy="295920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="604" name="インク 603">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D04B35D-7858-48AC-825F-82FC1B6F6FE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5341172" y="27483273"/>
+              <a:ext cx="2835362" cy="313560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72164</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4121746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624044</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4464106</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="613" name="インク 612">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E213B333-BE28-40FE-B528-D1CF6BE90830}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5271693" y="27910233"/>
+            <a:ext cx="551880" cy="342360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="613" name="インク 612">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E213B333-BE28-40FE-B528-D1CF6BE90830}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5262699" y="27901593"/>
+              <a:ext cx="569509" cy="360000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>859484</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4131106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2567324</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4417306</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="632" name="インク 631">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA9556A-3717-49EE-B0AD-85AEADBEC3E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6059013" y="27919593"/>
+            <a:ext cx="1707840" cy="286200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="632" name="インク 631">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA9556A-3717-49EE-B0AD-85AEADBEC3E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6050373" y="27910593"/>
+              <a:ext cx="1725480" cy="303840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4578,6 +6359,109 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:35:25.853"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3268 170 6535 0 0,'0'0'13110'0'0,"18"-1"-11556"0"0,-13 1-1400 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,5 5-1 0 0,41 23 136 0 0,-2-2-421 0 0,-19-3 332 0 0,-1 0 0 0 0,47 58 0 0 0,-65-73-239 0 0,-1 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,3 15-1 0 0,-6-23-10 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-3 5-1 0 0,-21 41 135 0 0,12-25 75 0 0,5-14-84 0 0,0 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-17 13 0 0 0,-8 8 136 0 0,-121 111 418 0 0,108-96-932 0 0,48-44 166 0 0,-10 4 266 0 0,7-3-1930 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="946.26">0 195 10159 0 0,'0'0'1910'0'0,"11"-3"1872"0"0,20-6-2539 0 0,1 2-1 0 0,-1 1 0 0 0,1 2 1 0 0,34-1-1 0 0,291-19-162 0 0,-251 11-1080 0 0,224-18 0 0 0,230 35 256 0 0,-459-1-136 0 0,0-5 0 0 0,-1-4 0 0 0,127-25 0 0 0,-181 22-126 0 0,177-30-117 0 0,-169 32 129 0 0,0 3 1 0 0,62 3 0 0 0,-88 3 201 0 0,0 1-1 0 0,0 2 1 0 0,0 1 0 0 0,52 18-1 0 0,-66-17-43 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,12 12 1 0 0,-25-20-151 0 0,23 20-1012 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1885.02">4445 470 6535 0 0,'0'0'500'0'0,"2"1"-324"0"0,2 2 461 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-4-513 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,-3 7 1 0 0,-20 32 3236 0 0,-57 76-1 0 0,78-115-3318 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-11 3-1 0 0,-13 7-162 0 0,27-12-32 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-3-1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2256.6">4807 536 6535 0 0,'0'0'991'0'0,"-15"11"7274"0"0,-14 3-5327 0 0,0 1-1445 0 0,9-1-858 0 0,1 0 1 0 0,1 2-1 0 0,1 0 1 0 0,-17 19-1 0 0,25-24-446 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-8 25-1 0 0,13-36-124 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,3 4-1 0 0,10 11 127 0 0,-8-14-182 0 0,-2-1 13 0 0,4 1-11 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,11-5 0 0 0,-10 2-141 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,10-9 0 0 0,-18 14-99 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-2 0 0 0,2-8-4871 0 0,1-1-2435 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2864.54">5063 482 22375 0 0,'-5'7'2451'0'0,"-3"2"-2624"0"0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-7 12 1 0 0,14-21-107 0 0,-6 17-21 0 0,6-16 468 0 0,1-1-100 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,3-2-54 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,3-4 1 0 0,1-1-114 0 0,0 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,-1 1 0 0 0,11-17-1 0 0,-15 21 142 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-7 1 0 0,-1 9 9 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,-5-2-119 0 0,-1 1 1 0 0,1 1-1 0 0,-12-1 0 0 0,-5 10-3422 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3228.97">5434 521 23327 0 0,'0'0'2337'0'0,"-1"2"-2143"0"0,-2 4-192 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-7 5-1 0 0,-50 51-1122 0 0,-64 48 1364 0 0,83-66 749 0 0,-67 86-1 0 0,60-68-1582 0 0,49-60 215 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3579.54">5248 857 10159 0 0,'10'7'571'0'0,"-1"-1"-1"0"0,1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,21 4-1 0 0,-28-8-196 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,4-2-1 0 0,-1 0 24 0 0,-4 2-159 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,4-4 0 0 0,-5 5-138 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-2-3 0 0 0,1 4 194 0 0,0 1-7 0 0,-3-3-127 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,-10-3 1 0 0,1 2-407 0 0,1 0 0 0 0,-21 0-1 0 0,-3-1-6949 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:35:31.247"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 114 19607 0 0,'0'0'447'0'0,"11"-8"1240"0"0,15-2-1642 0 0,-24 10 91 0 0,0-1 37 0 0,5 0-50 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,7 10 0 0 0,-7-9-61 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,2 9 0 0 0,-3-11-44 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3 6 0 0 0,-2 2-27 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,-12 11 1 0 0,14-16 20 0 0,-16 7-302 0 0,22-12 98 0 0,-8-1 58 0 0,-2 1-1368 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.82">411 170 10999 0 0,'0'0'846'0'0,"9"6"5012"0"0,-11 0-5402 0 0,1-1 0 0 0,-1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-6 5-1 0 0,4-4-335 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-6 10-1 0 0,9-14-87 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,5 3 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,9 0-1 0 0,10-2-33 0 0,-17-4-53 0 0,-6 3-11 0 0,-2 1-87 0 0,5-9-7044 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="708.23">632 87 22719 0 0,'0'0'2460'0'0,"0"3"-2519"0"0,2 54-1281 0 0,-1-31-1931 0 0,-1-25 2336 0 0,1 1 67 0 0,9 4-534 0 0,5-3 3464 0 0,-13-4-1562 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,5-4 0 0 0,-5 4 144 0 0,5-5-294 0 0,-6 5-340 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1-2 1 0 0,0 2 39 0 0,1-1 86 0 0,-10-13-192 0 0,10 14 32 0 0,-1-1-10 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,-3-2-1 0 0,4 2-390 0 0,-1-1 598 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1062.41">1107 0 22719 0 0,'0'0'2497'0'0,"-1"2"-2361"0"0,-4 7-82 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-15 11-1 0 0,-11 12-53 0 0,-48 39 11 0 0,12-12 137 0 0,42-37 209 0 0,-33 33-1 0 0,28-20-105 0 0,1-2-71 0 0,2 1-1 0 0,-44 60 0 0 0,63-78-243 0 0,-24 26 0 0 0,14-19-61 0 0,-11 10-133 0 0,28-29 167 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-4 0 0 0 0,5-1-366 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1407.13">847 425 15199 0 0,'0'0'1172'0'0,"2"2"-765"0"0,37 40 2169 0 0,-31-33-1995 0 0,-1 0 0 0 0,1-1 1 0 0,1 1-1 0 0,0-2 0 0 0,0 1 1 0 0,17 10-1 0 0,-23-16-585 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3-3 0 0 0,0 0 159 0 0,-1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,4-13 1 0 0,-6 15-62 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1 5-37 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,-2 0-147 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-7 0-1 0 0,-12 3-7224 0 0,9 1-846 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:35:41.546"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 18543 0 0,'0'0'2008'0'0,"2"0"-2440"0"0,17 4 975 0 0,0 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2 1 1 0 0,26 14-1 0 0,-27-12-470 0 0,-1 1 1 0 0,0 0-1 0 0,0 2 1 0 0,-1-1-1 0 0,0 2 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,19 30 1 0 0,6 16-247 0 0,39 68 112 0 0,-69-111 73 0 0,1 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,2 21 0 0 0,-2-8 159 0 0,-2-16-208 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3 18 0 0 0,-3 1 168 0 0,-1 0 0 0 0,-2 0 0 0 0,-1-1 0 0 0,-17 37 0 0 0,20-55-28 0 0,2-6-151 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-9 9-1 0 0,-3 2 242 0 0,0-2 0 0 0,-2 1-1 0 0,-42 31 1 0 0,58-50-193 0 0,-18 18-12 0 0,19-16-1470 0 0,4-4 647 0 0,8-9-486 0 0,3-4-4645 0 0,-6 5-738 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -4606,6 +6490,410 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 841 10159 0 0,'0'0'2003'0'0,"18"-3"7872"0"0,-18 2-9823 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,3-2 112 0 0,-3 1-268 0 0,1 0 20 0 0,3 1 154 0 0,-2 0-11 0 0,1 0-72 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,4 6 0 0 0,17 29 24 0 0,-12-20 10 0 0,10 22-1 0 0,1 7-61 0 0,30 51 0 0 0,10 13 40 0 0,-50-84 27 0 0,-9-19-27 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,5 7-1 0 0,-5-9-47 0 0,0-1 190 0 0,0 0-20 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,4 5 0 0 0,-8-8 490 0 0,0-1-537 0 0,4 0-83 0 0,0-2-158 0 0,-5 2 164 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 7 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 1-77 0 0,0-3 109 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 1 0 0 0,-3-3-94 0 0,2 0 55 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0-1-50 0 0,1 0-73 0 0,14-7 54 0 0,-8 7 71 0 0,-2-1-12 0 0,-2-1-53 0 0,-1 2-17 0 0,-1 1 84 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1-1 0 0,3-6 114 0 0,-2 6-101 0 0,-1 2-15 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-3-1 0 0,-1 2-60 0 0,2 0 58 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-6 0 0 0,1 0 43 0 0,0 4-55 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,4-4-1 0 0,-4 4 41 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,2-5-1 0 0,2-4-38 0 0,-5 12-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-2-1 0 0,0 2 13 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 12 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-2 22 0 0,0 2-14 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,1-4-1 0 0,6-22-32 0 0,-7 23-7 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,4-7 0 0 0,5-9-186 0 0,11-34 0 0 0,0 2-137 0 0,11-21-38 0 0,27-55 113 0 0,-53 114 272 0 0,-1 1 0 0 0,5-16 0 0 0,2-8 0 0 0,26-74 250 0 0,-25 68-333 0 0,2 0 0 0 0,24-47-1 0 0,22-43 84 0 0,-46 100 88 0 0,-10 21 117 0 0,0 0 1 0 0,10-16-1 0 0,-14 27-227 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 1 18 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-7 0 0,0-1 1 0 0,0 1 16 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,2-3 1 0 0,-2 3 71 0 0,1-1-75 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,2-1 0 0 0,8-3 296 0 0,-10 6-301 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-10-8-112 0 0,10 9 122 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,10-2 241 0 0,-4 2-232 0 0,-6 0-14 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1-1-3 0 0,-2 1 90 0 0,2-1-51 0 0,-2 1 57 0 0,3-5 74 0 0,-5 4-306 0 0,6 4 55 0 0,3 3 84 0 0,-7-4 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1-15 0 0,5 16-347 0 0,-3-15 352 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 4 0 0 0,1-5 10 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 2 0 0 0,-2-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-4 10 0 0 0,3-11 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 7 0 0 0,4 12 0 0 0,-1 1 0 0 0,4 30 0 0 0,-8-44 0 0 0,0 0 0 0 0,0-1 0 0 0,5 10 0 0 0,1 6 0 0 0,32 94-7 0 0,-11-35 87 0 0,-26-69 93 0 0,-3-13-151 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 2 0 0 0,12 15 217 0 0,-7-8-203 0 0,1 0 0 0 0,13 13 0 0 0,-21-23 21 0 0,12 11 411 0 0,1-5-376 0 0,-12-5 245 0 0,0-1-461 0 0,0 1 128 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,4 5-22 0 0,-4-6 455 0 0,1 0-356 0 0,3 2-25 0 0,-3-2-57 0 0,0 0-6 0 0,4 7 19 0 0,-3-6-9 0 0,4 2 9 0 0,-5-3 32 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:35:54.332"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 138 15199 0 0,'0'0'1172'0'0,"1"0"-765"0"0,7 0-223 0 0,-6 0 529 0 0,0 0 222 0 0,13 1 2067 0 0,4 4-2702 0 0,-8-2 148 0 0,-9-2-142 0 0,0-1-261 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,3 1-1 0 0,13 4 376 0 0,34 2 516 0 0,-9-5 357 0 0,-22-3-3334 0 0,-3 0-6574 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344.72">34 269 18543 0 0,'0'0'1428'0'0,"2"1"-924"0"0,10-1-45 0 0,-1 0-1 0 0,1-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,16-6-1 0 0,30-3-4181 0 0,-54 10 2321 0 0,-1-1-166 0 0,25-2-1584 0 0,-25 3 1821 0 0,1-1 98 0 0,19 0-2757 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.99">485 27 21943 0 0,'0'0'2365'0'0,"2"1"-2829"0"0,46 14-224 0 0,-45-14 598 0 0,0-1-9 0 0,24 7-56 0 0,-24-6 242 0 0,0 0 20 0 0,9 2-26 0 0,2 1-49 0 0,-11-4 48 0 0,0 1 16 0 0,0 0-64 0 0,23 2 100 0 0,-11-2-773 0 0,1 0-5223 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1094.91">503 182 21511 0 0,'-2'5'214'0'0,"0"0"1"0"0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,2 9 1 0 0,0 19 114 0 0,-5 185-2169 0 0,2-217 2021 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1427.15">747 1 18023 0 0,'0'0'1878'0'0,"7"4"-1730"0"0,2 0-7365 0 0,5 3 14340 0 0,-13-5-6248 0 0,3 4-402 0 0,-2-3-199 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 3 1 0 0,0-4-239 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-2 4 1 0 0,1 2-19 0 0,-3 13 15 0 0,-12 50 880 0 0,-9 28-848 0 0,1-25-128 0 0,-18 18-801 0 0,42-93 658 0 0,-4 6-97 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1823.17">809 45 12207 0 0,'0'0'943'0'0,"10"3"5373"0"0,8-1-2329 0 0,55 7-3440 0 0,-64-7-313 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 1-1 0 0,0 0 1 0 0,10 7 0 0 0,-11-5-234 0 0,2 6 0 0 0,-9-6 0 0 0,-1-3 0 0 0,1 0-24 0 0,0-2 51 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-6 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0-1 0 0,-2 2 17 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-6 1 0 0 0,-6 0-12 0 0,-28 3-1 0 0,21-3-109 0 0,11 0-518 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3105.89">301 88 12207 0 0,'0'0'943'0'0,"-17"-4"1100"0"0,14 3-1970 0 0,-13-7 667 0 0,6-1 3275 0 0,8 1-1281 0 0,2 7-2747 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,2-2-1 0 0,-2 1 12 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,3-1-1 0 0,0 1 16 0 0,-3 0 85 0 0,2-1 46 0 0,101-6 1316 0 0,-69 4-1349 0 0,-22 1-60 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 1 1 0 0,18 3-1 0 0,-25-4-24 0 0,32 11 401 0 0,-37-11-429 0 0,22 7 19 0 0,-21-6-20 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,2-1-25 0 0,-3 2-127 0 0,19-11-1103 0 0,-17 4-58 0 0,0-2-4974 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:36:06.044"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 72 13039 0 0,'0'0'1006'0'0,"2"0"-658"0"0,17-1-192 0 0,-17 1 1234 0 0,0 0-570 0 0,8-1-38 0 0,-7 0-181 0 0,0 1-80 0 0,28 3 465 0 0,-28-3-641 0 0,0 2-52 0 0,13 8 119 0 0,0 1-1 0 0,0 0 1 0 0,-2 2-1 0 0,19 18 1 0 0,-29-27-390 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-2 8-1 0 0,0-8-47 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-5 4 0 0 0,-4 4 118 0 0,0 0 0 0 0,-15 11 0 0 0,-63 43-1546 0 0,59-40 989 0 0,21-20 1570 0 0,9-6-1012 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,4 1-57 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,8-1 1 0 0,-1 1 45 0 0,50 2 365 0 0,-16-1-447 0 0,-24-2-24 0 0,-19 0-93 0 0,12 0-215 0 0,-4 0-378 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,15-5 1 0 0,20-10-7251 0 0,-44 16 7827 0 0,17-6-5202 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547.81">841 0 9359 0 0,'0'0'720'0'0,"2"1"-474"0"0,5 0 893 0 0,-2 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,10 7-1 0 0,8 8-572 0 0,-17-12-573 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,5 14-1 0 0,-8-15-27 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-4 8 0 0 0,1-3 316 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-9 10 1 0 0,-61 48 2003 0 0,49-44-2280 0 0,-27 17-1695 0 0,53-38 1321 0 0,0 0-114 0 0,-2 2-224 0 0,-4 2-36 0 0,-8 0-11896 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="883.11">1190 129 13039 0 0,'0'0'1006'0'0,"-1"2"-658"0"0,-11 19-707 0 0,-40 65-532 0 0,42-71 2258 0 0,0 1 0 0 0,1 1 0 0 0,-8 22 0 0 0,16-38-1187 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,2 2 1 0 0,-2-1 45 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,4 2 0 0 0,-5-3-179 0 0,5 2-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 1 0 0,10-2-1 0 0,-10 1-302 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,12-7 0 0 0,21-21-8101 0 0,-28 22 2326 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:43:36.411"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">136 1 13039 0 0,'0'0'1398'0'0,"-7"6"-278"0"0,-13 0 4981 0 0,31-5-5264 0 0,40-1-293 0 0,-46 0-535 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,9 3 0 0 0,1 0-1 0 0,36-1-12 0 0,-28-2 14 0 0,23 3 0 0 0,120 9 441 0 0,-60-7-181 0 0,-34-1-61 0 0,100 13-11 0 0,-132-14-214 0 0,-31-3 98 0 0,0 1 0 0 0,-1-1 0 0 0,16 5 0 0 0,-15-3-9 0 0,-6-1-38 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,7-2 0 0 0,9-2-1473 0 0,-7 2-4020 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2027.23">181 1694 13039 0 0,'0'0'1006'0'0,"-15"8"-2944"0"0,13-8 2172 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,-2-2 1 0 0,3 1 547 0 0,-3-8 318 0 0,3-1-850 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,4-13 0 0 0,13-53 2221 0 0,0 4-1249 0 0,0-12-1221 0 0,6-42 0 0 0,-19 92 0 0 0,-1 14 0 0 0,1-27 0 0 0,2-76 0 0 0,-3 56 445 0 0,4 1 1 0 0,25-111-1 0 0,-25 140-462 0 0,22-88 346 0 0,12-57 323 0 0,-32 135-440 0 0,-5 18-71 0 0,-3 21-95 0 0,0 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,7-14 0 0 0,-1-6-149 0 0,-10 32 189 0 0,-3 7-50 0 0,5-9-18 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,-17 5-44 0 0,-17 5 26 0 0,24-8-1 0 0,2 1-1 0 0,1-1-1 0 0,-1 1 1 0 0,-13 8-1 0 0,0-1-144 0 0,0-1 0 0 0,-1-1-1 0 0,-33 9 1 0 0,25-12-61 0 0,31-6 208 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-3 1 0 0 0,-27 7-17 0 0,30-8-70 0 0,1 3 118 0 0,4 9-38 0 0,-2-9-22 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,7 4 0 0 0,34 16 180 0 0,-26-13-33 0 0,15 5-203 0 0,1-2 1 0 0,0 0-1 0 0,54 9 1 0 0,-74-18 79 0 0,5 0 3 0 0,30 2 0 0 0,2 0 23 0 0,-40-3 29 0 0,-5-1-22 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,7-2 0 0 0,0-1 56 0 0,-10 2 103 0 0,28-2 452 0 0,-29 3-310 0 0,0-1-175 0 0,1 0-122 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-5 0 0 0,-3-14 165 0 0,4 18-196 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-3-6-1 0 0,-7-10-2 0 0,7 12 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-11-10 0 0 0,-63-43-834 0 0,77 57 557 0 0,0-2-45 0 0,-22-20-771 0 0,23 21-466 0 0,-3-15-11323 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:44:08.576"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">165 1419 6535 0 0,'0'0'12271'0'0,"3"1"-11280"0"0,0-1-409 0 0,12 3 2110 0 0,-15-3-2634 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 539 0 0,0 0-500 0 0,3-15-23 0 0,2-17-338 0 0,-5 32 214 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,-1-1 0 0 0,1 2 32 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2-10 0 0,-1 0 26 0 0,0-1 0 0 0,1 1 1 0 0,-2-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,-1-5-1 0 0,1 3 7 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,1-11 0 0 0,-1 9 45 0 0,2-5 180 0 0,-1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1-18-1 0 0,-1 27-253 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,3-5-1 0 0,-3 8 5 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1-9-109 0 0,1 8 87 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,3-6-1 0 0,-2 3 44 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-2-6 1 0 0,1-14 237 0 0,1 24-216 0 0,-1-7 138 0 0,2 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,3-8-1 0 0,1-13-192 0 0,-1 1-526 0 0,5-17-142 0 0,-8 29 689 0 0,-2-13 11 0 0,5 20 0 0 0,0-1 0 0 0,13-86 1048 0 0,-10 70-1636 0 0,17-43 0 0 0,-23 67 588 0 0,0-1 0 0 0,-2-23 0 0 0,6 7-40 0 0,-4 17 31 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1-2 0 0 0,-2 4 2 0 0,1-7-71 0 0,6-12 96 0 0,-5 13 31 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,-1-9-1 0 0,1 14-35 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0-2 1 0 0,2-2 8 0 0,-3 4 53 0 0,1-1-17 0 0,-1 0-56 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-3-1 0 0,-2-14-1 0 0,5 15 0 0 0,-1-1 0 0 0,-5-17 0 0 0,0 3 0 0 0,3 14 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-4-8 0 0 0,0 0 0 0 0,6 11 0 0 0,0-1 0 0 0,-9-19 0 0 0,1 4-13 0 0,6 3-41 0 0,2 7 54 0 0,2-6 77 0 0,10-28-154 0 0,-8 30 131 0 0,2 0-41 0 0,-5 4-28 0 0,-2 7-54 0 0,2-1-115 0 0,3-8 207 0 0,-5 10-22 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,-2 2 38 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-3 3 0 0 0,2-1 147 0 0,1-2 149 0 0,-13 8-184 0 0,-16 1-941 0 0,-33 9 674 0 0,63-19 115 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-3 0 1 0 0,1 0-4 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-5 1 0 0 0,-27 15 57 0 0,20-12-53 0 0,3 4 0 0 0,-7 3-245 0 0,19-11 237 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,10 6 242 0 0,-8-5-229 0 0,-2-1 4 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,4 2-1 0 0,41 0 65 0 0,-43-2-68 0 0,2-1 4 0 0,0 2 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,12 5 1 0 0,-6-3 39 0 0,14 5-76 0 0,-1 2 0 0 0,36 19 0 0 0,-31-14 54 0 0,-10-5-22 0 0,20 16 1 0 0,-29-19-8 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,16 5 0 0 0,-14-9 14 0 0,-12-1-7 0 0,17 0 51 0 0,-3-4-44 0 0,-14 3 231 0 0,-2 0-163 0 0,1-1-75 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-2-3 0 0 0,0-2 2 0 0,-7-15 146 0 0,-1 1 0 0 0,-21-31 0 0 0,29 48-95 0 0,-2-2-35 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-5-8 1 0 0,1 1 44 0 0,6 10-3 0 0,2 1-11 0 0,-7-12-10 0 0,6 10-33 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-6 1 0 0,2-4-11 0 0,4 6-16 0 0,-4 7-61 0 0,13-1-208 0 0,-13 1 245 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,4 2 0 0 0,8 6-238 0 0,-11-6-46 0 0,-1-1-11 0 0,3 1 260 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,5 7-1 0 0,9 11-1483 0 0,-2 0-4244 0 0,-15-19 5206 0 0,12 15-7023 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.12">606 746 18023 0 0,'0'0'1878'0'0,"0"-1"-1599"0"0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0-293 0 0,0 0 251 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-4-1 0 0 0,-2 1-162 0 0,5 0-24 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,0 0-1 0 0,-7 2 1 0 0,-16 0-62 0 0,22-2-28 0 0,2 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-3 3 0 0 0,-5 4 39 0 0,10-7 18 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 1 1 0 0,8 25 245 0 0,2-3-238 0 0,-5-15-23 0 0,10 21-4 0 0,-11-22 22 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 12 1 0 0,-3-9 29 0 0,-1-9 16 0 0,-11 24 136 0 0,9-26-195 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 17 0 0,-10 3 76 0 0,1-2 0 0 0,-1 1 0 0 0,0-2 0 0 0,-12 0-1 0 0,-17 1-141 0 0,31 1-39 0 0,5-2 91 0 0,-24-2 88 0 0,24 2-91 0 0,-15-1-17 0 0,17 1-63 0 0,-1-2-53 0 0,-2 1-217 0 0,19-1-8941 0 0,7 1 1613 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1653.83">845 709 18543 0 0,'0'0'8080'0'0,"-1"1"-8020"0"0,-2 2-10 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 4 0 0 0,-3 5-50 0 0,0 5 0 0 0,2-7 0 0 0,-3 1 0 0 0,6-11 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 3 0 0 0,-4 10 0 0 0,3-3 0 0 0,1-5 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7 7 0 0 0,0 2-42 0 0,-20 22 0 0 0,23-25-6 0 0,-2 1 47 0 0,0-2 43 0 0,1-2-42 0 0,5-5-42 0 0,-1 7 31 0 0,-1 0 22 0 0,4-9 242 0 0,11 6-82 0 0,10-5-95 0 0,3 4-156 0 0,9-3 65 0 0,-11 1 15 0 0,-13-3 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,12-1 0 0 0,67-6 153 0 0,-86 5-71 0 0,1 1-6 0 0,1 1-54 0 0,25 9 74 0 0,-17-8-85 0 0,-7-2-9 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,7 4-1 0 0,-9-5 142 0 0,-14-1-892 0 0,-2 0-1696 0 0,4-1-2960 0 0,0 0-2992 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:48:38.792"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2124 13039 0 0,'0'0'1006'0'0,"3"2"-658"0"0,5 6 419 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,6 12 1 0 0,-6-11-163 0 0,0 1 0 0 0,1-1 0 0 0,9 9 0 0 0,-2-1-348 0 0,-13-16-94 0 0,1 1-3 0 0,19 24 164 0 0,-19-25-144 0 0,0 2 4 0 0,8 13 141 0 0,14 32 1 0 0,1 4-177 0 0,28 40 346 0 0,15 45 610 0 0,-60-125-1105 0 0,-8-12-2 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,12-3-132 0 0,-10 2-33 0 0,-1-1-201 0 0,11-8-889 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1781.34">555 2557 12207 0 0,'0'0'943'0'0,"2"-1"-618"0"0,2-1-602 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,2-3 0 0 0,18-25 3164 0 0,27-48 0 0 0,-8 12 224 0 0,-25 36-2101 0 0,-13 24-719 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,9-11 1 0 0,3-3 235 0 0,-1 0 1 0 0,21-35-1 0 0,2-4-299 0 0,-5 15-99 0 0,3 1 0 0 0,1 2-1 0 0,59-51 1 0 0,-69 67-21 0 0,28-21 101 0 0,-33 28-28 0 0,41-41 0 0 0,-12 9 90 0 0,60-52 220 0 0,-69 63-473 0 0,-3-1 1 0 0,51-68-1 0 0,-12 13-16 0 0,-47 60-1 0 0,45-68 0 0 0,-71 95 48 0 0,1 1 0 0 0,-1 0 0 0 0,15-12 0 0 0,-14 13 30 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 1 0 0,9-13-1 0 0,6-5 114 0 0,-18 23-172 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,4-5 0 0 0,-2 0 46 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,11-11-1 0 0,-15 18-154 0 0,-1-1-70 0 0,2-9 146 0 0,-3-11 13 0 0,1 21 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,31-25-60 0 0,-27 24 46 0 0,-2 2 14 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,17-17 0 0 0,-1 0 0 0 0,-10 12 0 0 0,11-10 0 0 0,-17 17-2 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,2-2-1 0 0,-2 2 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,5-2-16 0 0,-2 2 16 0 0,29-15 4 0 0,-24 12-3 0 0,-5 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,3-3 0 0 0,14-10 0 0 0,-10 6 0 0 0,-7 6 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,9-4 0 0 0,2-2 0 0 0,-13 9 0 0 0,11-12 0 0 0,-4 2 0 0 0,7-20 80 0 0,-12 26-81 0 0,-3 4-1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,2-2-1 0 0,3 0-18 0 0,4-4 8 0 0,-5 5 14 0 0,6 1-15 0 0,-8 0-53 0 0,18-15-626 0 0,-15 15 662 0 0,-4 0-28 0 0,1 0 15 0 0,5-3 87 0 0,-5 3 64 0 0,4-5-2569 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3616.38">2381 504 13039 0 0,'0'0'3846'0'0,"2"3"-3833"0"0,7 14-153 0 0,4 8-11 0 0,-12-18 155 0 0,-1 0-8 0 0,21 73 1404 0 0,-4-13 1232 0 0,15 16-523 0 0,-31-80-1967 0 0,21 36 98 0 0,3 13-415 0 0,-14-27 172 0 0,13 35 1009 0 0,2 32-867 0 0,-7-19-272 0 0,-14-53 221 0 0,0 1-1 0 0,1 23 0 0 0,5 19-58 0 0,45 147-29 0 0,-41-147 0 0 0,-9-36 0 0 0,11 31 0 0 0,-8-33-85 0 0,0 2 0 0 0,4 31 0 0 0,8 25 74 0 0,-5-26 174 0 0,2 3-60 0 0,-11-37-103 0 0,0-1 0 0 0,3 25 0 0 0,16 64 0 0 0,-16-75 0 0 0,28 102 312 0 0,4-19-207 0 0,-20-61 118 0 0,33 83 561 0 0,-51-128-585 0 0,-2-5-73 0 0,0-1 0 0 0,1 1 0 0 0,5 9 0 0 0,0 13 187 0 0,4-7-166 0 0,-9-20-132 0 0,5 16-17 0 0,-1 2 2 0 0,1 8 0 0 0,-6-24 0 0 0,3 16 0 0 0,-2 10 0 0 0,-1-19 0 0 0,2 24 0 0 0,-4-9 0 0 0,-1-23 0 0 0,1-3 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,11 63 140 0 0,-12-64-313 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5504.71">712 2725 6535 0 0,'0'0'1912'0'0,"-18"3"4215"0"0,-4-2-5211 0 0,14 0-687 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-12-8 0 0 0,-32-26 803 0 0,50 35-1028 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-2 0 0 0,2 3 20 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1-1 0 0,7-7-64 0 0,-5 5-14 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,9-5 0 0 0,-5 4 0 0 0,0 1 1 0 0,0-1 0 0 0,11-8-1 0 0,-12 8 206 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,9-3 0 0 0,47-5 1327 0 0,-56 10-1365 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,10 4-1 0 0,-17-5-100 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,2 3 0 0 0,0 0 60 0 0,3 8 8 0 0,-5-8-66 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-4 5 1 0 0,0-2-86 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-12 6 0 0 0,17-9-1222 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6177.46">780 2635 19007 0 0,'0'0'1906'0'0,"3"0"-1749"0"0,144-20 377 0 0,93-7-1309 0 0,48 37 1065 0 0,130 12 654 0 0,-29-9-1304 0 0,-1 24 339 0 0,-222-20 390 0 0,129 33 1247 0 0,4 0-1371 0 0,-122-32-254 0 0,199 16-359 0 0,-43-42 858 0 0,-86-2-276 0 0,-190 13-214 0 0,-1 3 0 0 0,0 2 0 0 0,62 17 0 0 0,-40-7 0 0 0,-34-12 0 0 0,-9 2 20 0 0,-32-7 77 0 0,1-1 10 0 0,30-2-1010 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6887.8">2565 661 18543 0 0,'-39'-12'2061'0'0,"32"10"-1951"0"0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,-10-6 1 0 0,4-1 147 0 0,0-1-1 0 0,1 0 1 0 0,1-1 0 0 0,-11-12 0 0 0,-36-55-565 0 0,57 78 302 0 0,-7-13 2985 0 0,-3 48-2724 0 0,4-9-208 0 0,-2 0 0 0 0,0-1 0 0 0,-19 33 0 0 0,8-30-31 0 0,15-22-117 0 0,1 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,-3 5 0 0 0,6-8-433 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7422.53">2404 635 13039 0 0,'0'0'1006'0'0,"2"-2"-658"0"0,0 0-325 0 0,1-1-9 0 0,19-1-23 0 0,97-8 2506 0 0,-21 4-353 0 0,-56 4-1491 0 0,0 3 1 0 0,58 5-1 0 0,-20 0 44 0 0,184 17 628 0 0,16 0-730 0 0,34 5 301 0 0,-208-14-760 0 0,50-6-117 0 0,82 8 384 0 0,-20-3-377 0 0,-100-11-26 0 0,-50-1 0 0 0,101 0 53 0 0,-148 1-48 0 0,39-7-1 0 0,-3 0 71 0 0,69-5 36 0 0,-74 7-2214 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8694.75">3904 2431 18543 0 0,'0'0'2370'0'0,"2"3"-1726"0"0,0 5-472 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 14 0 0 0,-6 53 473 0 0,5-69-580 0 0,1-3 127 0 0,0 1 40 0 0,0-4-269 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,12-1-1555 0 0,2-4-3767 0 0,-5-6-1507 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9224">4140 2302 13039 0 0,'0'0'1006'0'0,"3"-1"-658"0"0,13 0 392 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 2 0 0 0,0 0 1 0 0,21 5-1 0 0,5 0-704 0 0,6 0-32 0 0,0-2 0 0 0,53-2 0 0 0,14-2 201 0 0,41-2 118 0 0,-8-4-323 0 0,-116 4 630 0 0,55 5 0 0 0,-2 1 263 0 0,25 0 58 0 0,41-2 9 0 0,-90-5-1239 0 0,-59 2 1125 0 0,13 6-597 0 0,-6-1-138 0 0,-5-3-49 0 0,2 5-51 0 0,-5 6-11 0 0,-1-8 0 0 0,-9 23 0 0 0,-2 3 0 0 0,1 1 0 0 0,1 0 0 0 0,-5 43 0 0 0,14-69 0 0 0,1-2 0 0 0,-4 18 0 0 0,-3 11 0 0 0,6-28-2 0 0,0 1 11 0 0,-9 18-143 0 0,-7 10-1832 0 0,0-27-12045 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9606.67">4236 2255 20327 0 0,'0'0'2120'0'0,"-1"3"-2012"0"0,0 4-6 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,-6 7 1 0 0,-151 181 649 0 0,137-172-1185 0 0,22-21 157 0 0,-4 5-281 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9994.8">4699 2420 18023 0 0,'-2'3'1387'0'0,"-44"70"-130"0"0,32-54-348 0 0,0-2 0 0 0,-31 29-1 0 0,13-13-367 0 0,-2-6-497 0 0,25-20-251 0 0,6-5-77 0 0,-8 9-979 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9995.8">4762 2495 5695 0 0,'0'0'443'0'0,"3"2"-294"0"0,0 1-94 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,3 7 1 0 0,-3-6 381 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-3 4 1 0 0,1-3 97 0 0,-6 16 1503 0 0,-1 0-1 0 0,-21 33 1 0 0,28-51-2180 0 0,0 1 838 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10393.24">5184 2647 20559 0 0,'0'0'2192'0'0,"-2"18"-2120"0"0,0 1-72 0 0,0-2 496 0 0,-1-2 680 0 0,-3 0-512 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11085.97">3996 839 18543 0 0,'0'0'2072'0'0,"-11"-5"-976"0"0,10 5-1173 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-2-66 0 0,-4 8 83 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-3 15 1 0 0,-4 54 3251 0 0,7-55-3057 0 0,2-20-98 0 0,-4 45-72 0 0,2 90 0 0 0,3-134-237 0 0,2 21-679 0 0,-3-22 645 0 0,2-1-301 0 0,6 3 382 0 0,-7-4 236 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,3 0 0 0 0,0 0 28 0 0,102-35 2280 0 0,-74 24-1812 0 0,-26 10-378 0 0,0 1-28 0 0,17-3-72 0 0,-16 3-28 0 0,26-3 0 0 0,-19 3 2 0 0,-6 1-4 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,9 1 1 0 0,26 2-125 0 0,47-3 1 0 0,-20-1 114 0 0,13 0-179 0 0,-17 1 140 0 0,69 8-1 0 0,-8 5 988 0 0,41 6-331 0 0,121 30-530 0 0,43 25 122 0 0,-269-66 403 0 0,25 2 300 0 0,-87-11-899 0 0,18 2 430 0 0,-18-2-379 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0-24 113 0 0,0 12-106 0 0,0 8-48 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-4-6 1 0 0,-1-8-11 0 0,2 9 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2-19 0 0 0,5 24 0 0 0,-1 0 0 0 0,-4-15 0 0 0,1 5 68 0 0,-2-27 0 0 0,6 40-68 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,1-5 1 0 0,-1-3-16 0 0,-2-25-165 0 0,6 7 3 0 0,-4 27 181 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0-6 63 0 0,2 4-72 0 0,-3-16 7 0 0,0 16-2 0 0,-3-9 0 0 0,0 3 0 0 0,3 6-4 0 0,-9-13-208 0 0,9 16 115 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-3-1 0 0 0,-10-2-7942 0 0,1 2 493 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11448.5">4255 809 20559 0 0,'0'0'2143'0'0,"-2"2"-1951"0"0,-9 9 381 0 0,0-1 1 0 0,-13 9-1 0 0,-7 6 128 0 0,-46 40-180 0 0,-1 3-414 0 0,54-47-199 0 0,21-19 8 0 0,7-3-1357 0 0,-1 0 1434 0 0,43-11-7117 0 0,-16 0-280 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11864.73">4459 871 13039 0 0,'4'1'1006'0'0,"51"8"-440"0"0,-52-8 362 0 0,0 0 298 0 0,23 13 1242 0 0,-23-12-1640 0 0,-2 1-164 0 0,1 1-488 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,-2 6 0 0 0,0-3-6 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-6 7 0 0 0,6-10-97 0 0,-9 17 131 0 0,13-21-203 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0-18 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,18-2-510 0 0,-19 2 531 0 0,135-28-2392 0 0,-105 19 2216 0 0,0 1 0 0 0,1 2-1 0 0,-1 2 1 0 0,54-2 0 0 0,-76 7 598 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 0 0 0 0,11 6-1 0 0,-9-3-369 0 0,1-1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0-1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,26-3 0 0 0,-35 3-76 0 0,185-39-2493 0 0,-166 33 1758 0 0,1 1 0 0 0,0 1 0 0 0,42-2 0 0 0,26 8 2111 0 0,-91-2-1238 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 2 0 0 0,-2 6 14 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-5 11 0 0 0,8-20-124 0 0,-5 14 14 0 0,5 0-32 0 0,0-13-34 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,0 0-163 0 0,0-2-31 0 0,0 0 150 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-5-1 0 0,3-14-4628 0 0,-6 15 2125 0 0,3-6-4753 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13219.83">3977 33 17191 0 0,'0'0'1719'0'0,"1"3"-1574"0"0,-1 2-37 0 0,0 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-3 10-1 0 0,-2 5-67 0 0,4-13-40 0 0,0 0 0 0 0,-1-1 0 0 0,-5 10 0 0 0,-5 14 290 0 0,-2 14 411 0 0,10-31-549 0 0,0 0 1 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,1 1-1 0 0,-1 14 1 0 0,3-11-908 0 0,-2-1-4899 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13727.95">4243 39 5695 0 0,'92'-6'901'0'0,"133"-6"3720"0"0,-157 13-3207 0 0,-37 0-522 0 0,40-3 0 0 0,375-17 138 0 0,-362 23-1045 0 0,-44-2 16 0 0,38-2-1 0 0,16 0 0 0 0,-22 1 0 0 0,-63-1-37 0 0,154-7 2754 0 0,-132 6-1901 0 0,36 2 1 0 0,5 1 5 0 0,-32-3-390 0 0,-1 2 0 0 0,0 1 0 0 0,68 14 0 0 0,-100-14-368 0 0,0 0 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,10 8 0 0 0,-3 0 260 0 0,0 1 0 0 0,14 18 0 0 0,-25-29-297 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 4 0 0 0,0-5-5 0 0,0 1-13 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 6 0 0 0,-1-2-4 0 0,1-2 14 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-5 7 0 0 0,-2 0 50 0 0,0-1 1 0 0,-16 14-1 0 0,12-14-410 0 0,1 0-1 0 0,-2-1 1 0 0,1-1 0 0 0,-26 12-1 0 0,12-10-2303 0 0,-51 13 0 0 0,55-17-4950 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14109.39">4406 277 5695 0 0,'0'0'1002'0'0,"4"0"-796"0"0,23 4 1126 0 0,-14-2-232 0 0,1 0 1 0 0,-1-1 0 0 0,0-1 0 0 0,0 0-1 0 0,20-3 1 0 0,-8 0-109 0 0,-1 2 0 0 0,0 0 0 0 0,1 1 0 0 0,43 7 0 0 0,-35-4-648 0 0,197 29 1227 0 0,-24-20-240 0 0,-39-5-237 0 0,89 9-1195 0 0,-135-15-564 0 0,-42-2 168 0 0,-10 0-403 0 0,-23-1-5025 0 0,-14 0-983 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15485.71">4030 3092 21943 0 0,'0'0'2331'0'0,"1"4"-3217"0"0,1 0 791 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 5 0 0 0,0 1 107 0 0,-2 1 1 0 0,1-1 0 0 0,-9 21 0 0 0,5-17 53 0 0,2-6 112 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 13-1 0 0,4-22-69 0 0,8 3-45 0 0,0 0 1 0 0,19 3-1 0 0,-27-6-178 0 0,1-2-60 0 0,158-19-330 0 0,-105 11 883 0 0,93-1-1 0 0,-75 7-310 0 0,-38 2-74 0 0,0 1-1 0 0,61 10 1 0 0,73 22-298 0 0,31 5 326 0 0,-46-24 13 0 0,31 4-83 0 0,-54-2-233 0 0,50 8-201 0 0,-181-23 482 0 0,15 3-19 0 0,-1-1 1 0 0,1-1 0 0 0,27-2-1 0 0,-44 1 21 0 0,12 1 18 0 0,0-1 0 0 0,23-4 0 0 0,-21 2 243 0 0,-12 2-202 0 0,-1-1-87 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,2-2 1 0 0,-1 2 53 0 0,1-2-11 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-4 0 0 0,-1 3-7 0 0,-1-12-8 0 0,0 14 0 0 0,-3-16 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 1 0 0 0,0 0 0 0 0,-15-27 0 0 0,20 40-2 0 0,0 2 1 0 0,-18-16 20 0 0,-20-19 225 0 0,39 36-351 0 0,-5-3 10 0 0,5 3 105 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-3-1 0 0 0,-11-2-31 0 0,-1 1 0 0 0,-24 0 0 0 0,36 2 23 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-4 2 0 0 0,-3 1 0 0 0,-110 26 0 0 0,62-17 0 0 0,28-8 66 0 0,-1-1 0 0 0,1-2 0 0 0,-46-2-1 0 0,39 0-40 0 0,-27-1 173 0 0,0-2 0 0 0,0-3-1 0 0,1-3 1 0 0,0-3 0 0 0,0-3-1 0 0,-118-43 1 0 0,-35-24 141 0 0,155 63-271 0 0,-102-19 0 0 0,76 22 211 0 0,44 6-265 0 0,-1 3 0 0 0,0 1 0 0 0,-52 1-1 0 0,84 6-91 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-16 6 0 0 0,15-6-751 0 0,1 1-1 0 0,-22 3 1 0 0,15-1-12198 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:49:02.493"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 581 13039 0 0,'0'0'2070'0'0,"2"0"-1336"0"0,5-3-280 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,6-9 0 0 0,17-14 737 0 0,-10 13-686 0 0,27-37 237 0 0,13-14-692 0 0,3 7-71 0 0,-51 49-43 0 0,-6 7 30 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,7-4-1 0 0,-9 6 34 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,4 1-1 0 0,-1 0 11 0 0,-2 0 60 0 0,15 2-49 0 0,50 27 147 0 0,-65-28-111 0 0,17 15-354 0 0,-10-6 297 0 0,-1-2 21 0 0,-7-7 82 0 0,3 0 61 0 0,-2 2-149 0 0,13 0-655 0 0,-13-2 709 0 0,0-1 39 0 0,5 0-43 0 0,0-1-196 0 0,-7 1 131 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,32-3-134 0 0,-19 2 119 0 0,-11 0-64 0 0,5 0-62 0 0,-2-1 123 0 0,17 1 16 0 0,-20 1 225 0 0,4 0-872 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="898.87">580 253 10159 0 0,'0'0'784'0'0,"2"1"-510"0"0,10 0-182 0 0,-10-1 221 0 0,3 2 248 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,5 5 0 0 0,-2 0-350 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,4 18 1 0 0,0-1-119 0 0,1-1 0 0 0,2 0 0 0 0,0-1 0 0 0,16 25 0 0 0,-10-18 664 0 0,75 132 1276 0 0,-46-59-1728 0 0,0-9-16 0 0,-28-65-289 0 0,55 89 18 0 0,-60-100 116 0 0,10 23-1 0 0,2 3 59 0 0,-5-9-41 0 0,-15-26-33 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,12 13 1 0 0,42 44 533 0 0,-29-34-983 0 0,-31-31 380 0 0,1 0 58 0 0,3 4-122 0 0,0 0 0 0 0,-1 0-1 0 0,8 9 1 0 0,-12-12-33 0 0,7 9 351 0 0,-3-3-283 0 0,1 0-44 0 0,-5-7-110 0 0,32-8-11774 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2379.45">1505 1428 18543 0 0,'0'0'4104'0'0,"2"-2"-4016"0"0,4-6-4 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,13-9 0 0 0,0 2-113 0 0,26-12 0 0 0,-39 20 87 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,8-8 1 0 0,2-2 82 0 0,158-133 434 0 0,-161 138-575 0 0,73-67 86 0 0,15-12 245 0 0,-40 38-309 0 0,9-7-25 0 0,47-34 4 0 0,-51 41 0 0 0,19-18 0 0 0,-64 50 17 0 0,128-120 426 0 0,-114 111-514 0 0,1 3 0 0 0,1 0 0 0 0,51-25 0 0 0,-12 19 255 0 0,7-5-64 0 0,47-22 604 0 0,-127 58-587 0 0,-2 1-105 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,2-2 0 0 0,1 1 329 0 0,5-6-347 0 0,-2-2-25 0 0,1-1-36 0 0,19-30 36 0 0,-12 25 12 0 0,-3 5 0 0 0,-6 6 0 0 0,-3 1 0 0 0,18-7 0 0 0,7-2-28 0 0,-8 4-35 0 0,23-14-1 0 0,-36 19 62 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,5 0 0 0 0,12-5 2 0 0,33-14 0 0 0,-34 16 3 0 0,8 2-37 0 0,-28 2-116 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10142.36">535 330 6535 0 0,'0'0'500'0'0,"3"0"-324"0"0,25-7 48 0 0,-26 7 834 0 0,2-2 360 0 0,101-43 4941 0 0,-77 35-5219 0 0,57-12 0 0 0,-51 13-585 0 0,-23 6-324 0 0,0 1-1 0 0,14-3 1 0 0,121-2 1203 0 0,-145 7-1419 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1 2 32 0 0,10 6 80 0 0,-6 0-71 0 0,-6-7 99 0 0,-2 1 35 0 0,-2 3-153 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-10-1-1 0 0,-6-3-36 0 0,19 0 0 0 0,2 1 0 0 0,-21-9-6 0 0,20 12 19 0 0,0-1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-5-3-1 0 0,3 0 38 0 0,-4-2 34 0 0,1 1 0 0 0,-1-1 0 0 0,-9-5 0 0 0,14 11 24 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3 1 0 0 0,0-1 19 0 0,5 0-123 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-9 9 78 0 0,8-9 489 0 0,1 2-505 0 0,4 12-55 0 0,6 0-11 0 0,13 8 0 0 0,-21-19 0 0 0,16 11 0 0 0,-2 0 2 0 0,-16-11 9 0 0,0-3 3 0 0,0 1 247 0 0,0 1-133 0 0,-2 9-21 0 0,-1 5-84 0 0,0-14-25 0 0,-2 2 79 0 0,-3 5-21 0 0,7-9-61 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-3 2-1 0 0,0-2-12 0 0,5-1 12 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 75 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,2-2-1 0 0,4-14-443 0 0,-8 18 336 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,2-3 1 0 0,5-3 33 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,18-5-1 0 0,-6 4 6 0 0,-15 7 0 0 0,-3-1 0 0 0,25 6 53 0 0,-9 0-40 0 0,-17-4-13 0 0,-1 0-2 0 0,8 7 2 0 0,-3 4 0 0 0,-7 2 13 0 0,-1-11 0 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-10 4-1 0 0,1 0 20 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-15-2-1 0 0,28 1-30 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3-1-1 0 0,-2-6 46 0 0,6 5-51 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,3-3 1 0 0,22-27-106 0 0,-22 27 116 0 0,8-8 11 0 0,0 1 0 0 0,26-21-1 0 0,-35 30-59 0 0,3-3 43 0 0,-4 4 99 0 0,-22 19 76 0 0,18-15-83 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-4 5 0 0 0,1 0-1987 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11087.39">1497 1477 18543 0 0,'0'0'2008'0'0,"-12"4"-2517"0"0,7-1 766 0 0,0-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-7 2 0 0 0,-13 3 538 0 0,16-4-591 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-17-2-1 0 0,-1-1 26 0 0,14 3-14 0 0,-1-1-1 0 0,1-1 0 0 0,0-1 1 0 0,-16-4-1 0 0,5-2 145 0 0,-41-21 0 0 0,55 23-349 0 0,3-2-11 0 0,7-2 0 0 0,8 6 0 0 0,-6 4-19 0 0,0 1 28 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 1 0 0,2 2 108 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,7 6 1 0 0,-9-7-106 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 6 0 0 0,1-7-6 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 2 0 0 0,-1 0 12 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-5 2 0 0 0,6-3-16 0 0,2 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 2-3 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,11-17 0 0 0,6-6 23 0 0,35-37-1 0 0,-44 54-14 0 0,0-1 0 0 0,0 1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,13-6 0 0 0,-9 7 45 0 0,-10 4 12 0 0,6 3 7 0 0,-10-2-69 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 5 5 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,-4 12 1 0 0,3-10-1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-14 12 1 0 0,4-5-28 0 0,11-9 12 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-9 1-1 0 0,12-2 85 0 0,1-1-55 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,10-15-99 0 0,0 0-1 0 0,17-23 0 0 0,-18 30 76 0 0,-6 9 80 0 0,-14 1-114 0 0,0 1 0 0 0,0 1-1 0 0,-20 5 1 0 0,29-6-149 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-5-1 0 0 0,-8-5-7094 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11611.79">876 222 20559 0 0,'0'0'464'0'0,"2"-1"68"0"0,33-14 1168 0 0,-32 14-1582 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,3 2 1 0 0,41 3 215 0 0,-20-1-2857 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12503.28">1269 261 5695 0 0,'0'0'443'0'0,"4"1"-306"0"0,6 1-84 0 0,0 1 48 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,21 0-1 0 0,118-12 7383 0 0,-118 11-7431 0 0,-1 2 1 0 0,0 1-1 0 0,58 14 0 0 0,68 28-245 0 0,-130-39 268 0 0,0 0 1 0 0,0-2-1 0 0,0-1 1 0 0,51-1-1 0 0,111-16 1787 0 0,-126 7-1814 0 0,-29 4-126 0 0,196-14 118 0 0,-185 16-880 0 0,0 2 0 0 0,1 3 0 0 0,48 9 0 0 0,43 19-266 0 0,18 3 3034 0 0,-118-28-687 0 0,0-2-1 0 0,47 0 1 0 0,303-13 2558 0 0,-181 16-3774 0 0,-159-7 543 0 0,55 8-1 0 0,-41-2 74 0 0,19 4-686 0 0,-1 4 0 0 0,79 26-1 0 0,29 5-106 0 0,-48-10-1094 0 0,-22-4-3173 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13523.12">1113 1606 12207 0 0,'0'0'1367'0'0,"4"0"-824"0"0,97-14 2514 0 0,29-4-376 0 0,-50 4-1256 0 0,116-4-1 0 0,-54 19-1074 0 0,-71 1-374 0 0,135-14 0 0 0,73-15 101 0 0,-102 13 203 0 0,12 0 704 0 0,-78 10-783 0 0,-8 1-78 0 0,134 0-123 0 0,0 21 0 0 0,-154-10 0 0 0,223 32 336 0 0,-95-18-225 0 0,-146-17-57 0 0,381 25 1153 0 0,-163 5-627 0 0,-199-24-500 0 0,-68-9-415 0 0,1-1 0 0 0,19-2 0 0 0,-3 0-211 0 0,-26-4-509 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16031.37">4015 1449 12207 0 0,'0'0'5726'0'0,"-8"-3"-4277"0"0,-2-3-817 0 0,8 5 452 0 0,0 0-648 0 0,-2-1-192 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3-4 0 0 0,5 4-177 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-7-2-1 0 0,-19-8 126 0 0,24 9-176 0 0,5 3-3 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,7-10 23 0 0,-9 10-46 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-2-1 0 0,0 3 10 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,4 0-16 0 0,1-1 16 0 0,17-11 5 0 0,4-3-52 0 0,0 1 1 0 0,1 1-1 0 0,1 1 0 0 0,0 1 1 0 0,49-11-1 0 0,-70 20 84 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,11 1 1 0 0,1-3-258 0 0,-6 1 175 0 0,17 2 160 0 0,-20 0-45 0 0,0 0-1 0 0,17 3 0 0 0,39 4-501 0 0,-3 2 51 0 0,-54-8 412 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,15 8-1 0 0,-10-3 49 0 0,-2-1-89 0 0,6 2-91 0 0,9 3 81 0 0,43 25 23 0 0,-16-6 0 0 0,-5 2-274 0 0,-26-16 185 0 0,-17-12 202 0 0,-6-5-111 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,27 24 62 0 0,-5-5-64 0 0,-19-17-3 0 0,11 13 22 0 0,-13-14 157 0 0,-1 2-147 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-4 1-1 0 0,-6 4-54 0 0,0-1-1 0 0,-25 8 1 0 0,32-12 54 0 0,-33 11-28 0 0,-1-2 0 0 0,-1-1 0 0 0,-48 6 0 0 0,59-13 31 0 0,-68 5 305 0 0,-3-1-458 0 0,97-6 6 0 0,-9-3 11 0 0,3 2 37 0 0,8 0-285 0 0,1-2-922 0 0,1 1 878 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 0-1187 0 0,12-13-5406 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17308.97">3985 504 10999 0 0,'0'0'846'0'0,"-1"2"-370"0"0,-13 13 3100 0 0,13-13-2412 0 0,-1-1-1130 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-2 0 0 0 0,2-1 38 0 0,-27 20 1544 0 0,28-19-1299 0 0,-6 3-543 0 0,5 0 3506 0 0,3 7-3264 0 0,2 1-1 0 0,-1-9-15 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,2 3 1 0 0,-2 1 0 0 0,0-2 0 0 0,14 14 0 0 0,-5-8-17 0 0,-2-3-116 0 0,13 7 10 0 0,-6-2 217 0 0,2-1 0 0 0,24 13 0 0 0,-37-22-92 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,4 0 0 0 0,3 2 9 0 0,96 28 481 0 0,-80-24-263 0 0,-26-6-89 0 0,3 0 11 0 0,199 13-111 0 0,-178-14 3 0 0,-13 1 31 0 0,1-1-1 0 0,19-3 1 0 0,34 1 30 0 0,4 5-104 0 0,-39-2 0 0 0,1 2 0 0 0,44 8 0 0 0,73 12 416 0 0,-73-18-416 0 0,-70-4 0 0 0,-4-1 0 0 0,47-4 0 0 0,-14 4 112 0 0,-36 0-105 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,7-4 137 0 0,1 3-126 0 0,30-12-17 0 0,-34 12-1 0 0,18-10 0 0 0,-20 11 1 0 0,9-10 9 0 0,-10 8-5 0 0,-1 3 11 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-2 0 0 0,0 1 5 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-4-4 0 0 0,-4-7 80 0 0,4 6-108 0 0,-23-14 69 0 0,5 4-50 0 0,-33-21-12 0 0,13 17 0 0 0,36 17 0 0 0,-33-13 0 0 0,-41-12 0 0 0,68 26 0 0 0,0-1 0 0 0,-20-1 0 0 0,7 0 0 0 0,4 1 56 0 0,0 1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1 1 0 0 0,1 1 0 0 0,-26 4 0 0 0,-67 4-290 0 0,76-9 422 0 0,27 0-102 0 0,1 0 1 0 0,-23 3 0 0 0,1-1 44 0 0,27-2-111 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-6 2-1 0 0,3-1 48 0 0,5-3 0 0 0,-2-3-83 0 0,5 4-139 0 0,10-12-1432 0 0,3 0-4532 0 0,2 2-2039 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:51:53.891"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">482 257 6535 0 0,'0'0'12120'0'0,"1"3"-11906"0"0,9 29-89 0 0,-9-30-114 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-2 3 1 0 0,1 10 115 0 0,1-16-122 0 0,1 17-40 0 0,1 0-1 0 0,1 0 0 0 0,6 19 1 0 0,-8-34 52 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 3 1 0 0,2 7 15 0 0,4 28-127 0 0,-2-16 215 0 0,7 32 0 0 0,-9-54-115 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,3 4 1 0 0,0 1-33 0 0,37 94-313 0 0,-38-94 323 0 0,0 0 0 0 0,0 0 0 0 0,6 7-1 0 0,-7-9 17 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2 4 0 0 0,-2-5 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 6 0 0 0,-2-7 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 10 0 0 0,8 31 0 0 0,-2-13 0 0 0,1-2 7 0 0,-8-24 29 0 0,0 0 1 0 0,0 0-1 0 0,1 11 0 0 0,17 34 620 0 0,-2 7-97 0 0,-18-57-486 0 0,0 1-1 0 0,3 8-46 0 0,-1-3 86 0 0,1 0 1 0 0,0-1 0 0 0,8 14-1 0 0,-10-19 190 0 0,-1 1-122 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 3 0 0 0,-4-4-327 0 0,-1-1 150 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-5 7 88 0 0,4 2-64 0 0,0-7 148 0 0,2 0-80 0 0,0 9-16 0 0,-3 13 32 0 0,2-22 80 0 0,1 1-112 0 0,2 7-64 0 0,-1 1 4 0 0,-2-8 167 0 0,2-2-119 0 0,7 7-43 0 0,-7-6 6 0 0,1-3-341 0 0,11 0 313 0 0,-10 1 74 0 0,11-9 66 0 0,1 0-131 0 0,-12 7-12 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-5 0 0 0,1 0 0 0 0,-1 3 0 0 0,-5 4 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-4 0 0 0,3-1 13 0 0,0 0 1 0 0,0 1-1 0 0,13-9 0 0 0,-19 14-11 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,2-4-1 0 0,11-11 37 0 0,-7 11-52 0 0,-4 3-11 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-4-1 0 0,-1 2 10 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,6-5 0 0 0,2-1 7 0 0,24-20-41 0 0,-28 24 22 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,12-14-1 0 0,13-13-217 0 0,-5 7 28 0 0,-25 24 209 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,7-3 0 0 0,-7 5 7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-4 0 0 0,1-4-18 0 0,-3 8-5 0 0,1-3-809 0 0,16-4 721 0 0,-6 6 113 0 0,2 5 0 0 0,-1 1 21 0 0,-11-3 874 0 0,0 2-1027 0 0,7 14 46 0 0,3 0 111 0 0,-10-14 64 0 0,-1 1 2 0 0,13 29-246 0 0,-3 0-189 0 0,61 188 412 0 0,-60-186 17 0 0,-9-27-96 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 7-1 0 0,-2 1-15 0 0,1-1-1 0 0,0 1 1 0 0,2 0 0 0 0,6 22-1 0 0,18 92-118 0 0,-21-89 43 0 0,18 58 0 0 0,-13-61-7 0 0,8 46-1 0 0,-3-27 42 0 0,-11-42 67 0 0,-1 0 0 0 0,3 21-1 0 0,-3-7 2 0 0,13 53 0 0 0,-15-74 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 9 1 0 0,0-9-10 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 16 0 0 0,8 13-3 0 0,-5-15 14 0 0,5 22 0 0 0,8 38 72 0 0,12 59 249 0 0,-29-124-34 0 0,10 31 0 0 0,-9-33-201 0 0,0 1 0 0 0,3 23 0 0 0,-6-29 4 0 0,0 0-1 0 0,7 18 0 0 0,1 4 239 0 0,4 18 1066 0 0,-14-47-1245 0 0,0 0-39 0 0,1 0-66 0 0,-1-1-27 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,2 0 52 0 0,2 6-76 0 0,-3-5-89 0 0,2-8-2598 0 0,0 1 2132 0 0,7-14-12630 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1260.36">1958 2543 10159 0 0,'0'0'5450'0'0,"-6"0"-598"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1605.21">2018 2443 6535 0 0,'0'0'1296'0'0,"10"-9"-5880"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941.46">2144 2211 6535 0 0,'0'0'1296'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1942.46">2166 2138 6535 0 0,'0'0'576'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4031.98">2226 2061 10999 0 0,'0'0'8311'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5628.95">2262 1947 13039 0 0,'0'0'10736'0'0,"3"-1"-10656"0"0,9-1-119 0 0,-8 1-249 0 0,8-8-1498 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6009.24">2333 1859 13039 0 0,'0'0'1343'0'0,"-1"1"-2076"0"0,0 1 624 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-3 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7758.74">2507 1760 10159 0 0,'0'0'6083'0'0,"-7"3"-5666"0"0,-4-2-359 0 0,0 3-13 0 0,9-3 9 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-4-1-1 0 0,0 0-35 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,-11-3 1 0 0,16 4-105 0 0,1-1 116 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,-1-2 0 0 0,-1-1-45 0 0,2 4 5 0 0,1 1 6 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-2 1 0 0,2-13-100 0 0,1 12 80 0 0,-2 3 14 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-3-85 0 0,1-6-97 0 0,13-13-1 0 0,-6 14 349 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,14-9 0 0 0,-6 4-57 0 0,-15 11 109 0 0,20-15 554 0 0,-19 16-693 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,2 5 1 0 0,-3-5 58 0 0,3 12 173 0 0,-3-9-178 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 4 0 0 0,0-6-82 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-2-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-2 2-1 0 0,-7 2-39 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-17-1 0 0 0,26 1-21 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-3-1 1 0 0,-2-2-111 0 0,1 3 44 0 0,4 1 51 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-3-1-1 0 0,4 1 17 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 55 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,2 0 1 0 0,15-2 700 0 0,36-1 1 0 0,-4 1 55 0 0,-48 3-664 0 0,2 0-28 0 0,27 6 76 0 0,-31-6-159 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-7 13 228 0 0,7-13-216 0 0,-3 5 546 0 0,3-1-2666 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11464.98">3011 1769 6535 0 0,'0'0'13356'0'0,"1"3"-13229"0"0,7 25 326 0 0,-7-25 391 0 0,-2-1-592 0 0,0 3-131 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1 10 0 0 0,0-12-32 0 0,0 0-16 0 0,5 9-79 0 0,-3-5-109 0 0,-4-6 79 0 0,-2 4 17 0 0,7 15-102 0 0,-2-7 110 0 0,-1-11 51 0 0,0 0 42 0 0,2 6-33 0 0,-2-6-102 0 0,1-2-333 0 0,-1 0 396 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,1-1 3 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,2-3 1 0 0,7-3-20 0 0,-3 6-2 0 0,-7 2-12 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,3-2-1 0 0,-1 0 8 0 0,4-2 12 0 0,16 4-16 0 0,-13 2-36 0 0,-8 0 1354 0 0,4 10-1229 0 0,-5-10-53 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,2 8 190 0 0,0-9-200 0 0,-2-1-4 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,0 10 11 0 0,-2 1 3 0 0,0-11 73 0 0,1 1 13 0 0,-2 0-70 0 0,5 21 138 0 0,-2-9-173 0 0,-2 0 0 0 0,0-4-17 0 0,1-9-67 0 0,1 1 112 0 0,1 7 40 0 0,-1-10-68 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,10-6 0 0 0,6-7 0 0 0,-16 12 0 0 0,10-12 0 0 0,-7 7 0 0 0,2 1 0 0 0,17-5 0 0 0,-10 3 0 0 0,-3-2 0 0 0,-8 7-16 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,6-3 1 0 0,-6 3-15 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,3-4-1 0 0,8-6 29 0 0,-13 11 318 0 0,4 12-530 0 0,-3-5 137 0 0,-3-4 1273 0 0,1-4-2079 0 0,1-7 847 0 0,-1 7-36 0 0,0 0-156 0 0,7-8 187 0 0,-7 9 57 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,2 0-30 0 0,-2 4-593 0 0,0 8 553 0 0,0 5 37 0 0,1-3 0 0 0,-1-9-64 0 0,0 9-112 0 0,2-3 123 0 0,7 10 42 0 0,-4-5 27 0 0,1 1 0 0 0,8 27 0 0 0,-9-26 0 0 0,-1-2 21 0 0,1 20 270 0 0,-6-28-279 0 0,1-4-13 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 3 1 0 0,3 28-290 0 0,-1-18 275 0 0,-1 0 16 0 0,0-4 21 0 0,-2-9 354 0 0,0 0-306 0 0,0 6-70 0 0,0-6-24 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12933.05">2211 2041 6535 0 0,'0'0'5922'0'0,"3"-1"-5445"0"0,14-5 98 0 0,29-4-1 0 0,-42 10-466 0 0,-2-1-4 0 0,3-1-92 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,8 1 0 0 0,26-1-9 0 0,21-1-19 0 0,98-1-239 0 0,-127 0 238 0 0,-5 1-733 0 0,-1 1 0 0 0,33 3 0 0 0,-7 3-349 0 0,81-2 0 0 0,-126-4 1100 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,9 2 0 0 0,38 5 0 0 0,-40-7 0 0 0,41 7 0 0 0,-23-2-513 0 0,0-2 0 0 0,0-1-1 0 0,0-2 1 0 0,0-1 0 0 0,41-6-1 0 0,-18-2 1014 0 0,91-25 0 0 0,-63 14-485 0 0,-73 17 38 0 0,-7 1-45 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,6 1 1 0 0,11 0 24 0 0,53 8-157 0 0,-70-9-49 0 0,0 0-19 0 0,31 2-7 0 0,57-9 550 0 0,1 1 2 0 0,-76 6-353 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13631.42">2393 1655 8143 0 0,'0'0'631'0'0,"3"-2"-356"0"0,83-31 4103 0 0,-75 30-3612 0 0,-3 0-394 0 0,1 0 0 0 0,0 1 1 0 0,13-1-1 0 0,181 1 2105 0 0,-59 8-2235 0 0,-103-4 301 0 0,61 11 0 0 0,-21-2-340 0 0,-10 4 220 0 0,-69-15-249 0 0,2 1-27 0 0,46 7-102 0 0,-47-8 31 0 0,-1 0 0 0 0,40-8-2284 0 0,-34 7-1622 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14282.32">2661 1750 10159 0 0,'0'0'784'0'0,"-4"9"-40"0"0,-2-1-195 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-2 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-15 7 1 0 0,21-13-530 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 2 1 0 0,0 1 20 0 0,-2 1-26 0 0,1-2 6 0 0,-14 16 38 0 0,5-1-212 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14621.09">2801 1731 6535 0 0,'-1'4'177'0'0,"-11"12"322"0"0,-34 29 4329 0 0,6 5-797 0 0,24-31-3052 0 0,11-12-833 0 0,4-5 18 0 0,0-1-30 0 0,-3 6-882 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14998.23">2893 1763 9359 0 0,'0'25'832'0'0,"-5"-12"-672"0"0,-10-4-160 0 0,3 4 0 0 0,7 4 0 0 0,-5-2 0 0 0,-3-2 0 0 0,6-2 0 0 0,-1-1 360 0 0,3-3 504 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15867.25">2007 2805 5695 0 0,'0'0'12504'0'0,"3"0"-13218"0"0,29-5 100 0 0,12-2 516 0 0,6-4-51 0 0,-22 3 5 0 0,57-6-1 0 0,-35 10 145 0 0,-32 4 0 0 0,-7 0 0 0 0,-1 0 0 0 0,21-4 0 0 0,6 1-222 0 0,64 3-1 0 0,-34 2 27 0 0,13 1 98 0 0,33-1 960 0 0,-5 0 389 0 0,-87-2-964 0 0,-1 1 1 0 0,31 6-1 0 0,-25-3 645 0 0,-6-2-893 0 0,-17-1-56 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,6-2 0 0 0,3-1 97 0 0,59-7 604 0 0,-68 9-398 0 0,16-2 229 0 0,8-4 585 0 0,-24 6-2107 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16573.35">2198 2528 5695 0 0,'0'0'443'0'0,"3"0"-294"0"0,132-6 1883 0 0,-129 6-1834 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,9-4 0 0 0,-9 2 295 0 0,-1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,12-1 0 0 0,70 2 3594 0 0,-29 7-2503 0 0,-43-4-1247 0 0,0-1 1 0 0,0-1 0 0 0,0 0 0 0 0,26-3-1 0 0,-10-1 105 0 0,17-4 134 0 0,-21 3-324 0 0,0 0 0 0 0,45 1 0 0 0,-28 1 100 0 0,-30 3-172 0 0,1 0 0 0 0,29 6 0 0 0,-19-2-172 0 0,18 5-4 0 0,-31-7 55 0 0,-1 0-1 0 0,24 2 1 0 0,18 1 118 0 0,-36-6-176 0 0,-4-1 16 0 0,7-1 160 0 0,-1 3-119 0 0,-16 3-25 0 0,-1-2-25 0 0,8 4-7344 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16935.27">2449 2597 6535 0 0,'0'1'500'0'0,"-1"1"-363"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 2 0 0 0,-11 5 1211 0 0,-10 13 4347 0 0,23-18-5315 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-3 4-1 0 0,-4 7 185 0 0,7-12-540 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 2-1 0 0,0-1-73 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,2 1-649 0 0,-1 0 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,7-2 0 0 0,-3 1-1322 0 0,15-5-4169 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17279.54">2708 2606 12207 0 0,'0'0'943'0'0,"0"2"-618"0"0,0 64 5821 0 0,0-65-6218 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,2 0-1 0 0,2 1 2706 0 0,-2 0-2182 0 0,30 10 393 0 0,-30-10-593 0 0,1 0-69 0 0,20 2 5 0 0,0 0 1 0 0,0-2-1 0 0,0 0 1 0 0,24-4-1 0 0,-44 3-97 0 0,30-2 197 0 0,-31 2 384 0 0,0 1-592 0 0,10 2-100 0 0,-10-2-169 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19021.46">1 205 7343 0 0,'24'0'883'0'0,"-23"-1"-784"0"0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-2 1 0 0,0 1 215 0 0,2-3 39 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,4-5 0 0 0,4-6 734 0 0,-7 11-791 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,4-3 0 0 0,-4 3 161 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,5-6 1 0 0,-6 7-237 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,4-2-1 0 0,7-6 189 0 0,-10 6-296 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,6-2-1 0 0,2-1 272 0 0,-4 1-259 0 0,-1 1-63 0 0,5 3-40 0 0,-13 1-3 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0-15 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 4-1 0 0,2 2 53 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-2 14 1 0 0,0 3 112 0 0,5 44-1 0 0,-2-63-167 0 0,-1 21 0 0 0,0-23 25 0 0,0 1-25 0 0,5 17-198 0 0,-5-14 443 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19398.58">169 156 5695 0 0,'0'0'824'0'0,"-2"1"395"0"0,-1 0-1625 0 0,-18 13 14363 0 0,31-14-13663 0 0,19 0 330 0 0,-25 1-464 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,8-1 0 0 0,76-22 1016 0 0,-58 18-1024 0 0,-22 5-459 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,8-3 0 0 0,-3 0-5347 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19914.2">463 1527 12207 0 0,'0'0'1478'0'0,"1"3"-360"0"0,2 8 422 0 0,-2-1 0 0 0,2 18 1 0 0,-3-20-1049 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,3 11 0 0 0,-5-19-462 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-2 3 86 0 0,6 26 358 0 0,-3-27-371 0 0,-1 0-8 0 0,-7 36 194 0 0,7-38-166 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20335.96">552 1467 10159 0 0,'0'0'784'0'0,"2"0"-510"0"0,60-16 2540 0 0,-59 15-879 0 0,0 2-914 0 0,3 0-593 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,3 3 1 0 0,-8-5-406 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 42 0 0,-2 5 76 0 0,1-3-106 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-4 3 0 0 0,5-5-30 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-1-7 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-2 0 0 0 0,2 1-154 0 0,-1 1-150 0 0,2-3 315 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,57 33 691 0 0,-56-32-508 0 0,10 13 172 0 0,-3-1-268 0 0,-12-4 12 0 0,3-9-92 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1 3 40 0 0,-2 0 65 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-4 9 1 0 0,4-12-110 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,-2 2 0 0 0,-25 10 50 0 0,23-9-62 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-14 2 1 0 0,9-1 2 0 0,9-3-8 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-7 1-1 0 0,8 0-72 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-4-3 1 0 0,5 3-302 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20822.24">1387 529 13039 0 0,'-7'1'1354'0'0,"-1"0"-652"0"0,-1 0 1 0 0,1-1-1 0 0,-11-1 1 0 0,7 1 503 0 0,11 0-1015 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-2 2 0 0 0,-8 4 378 0 0,9-6-359 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-3 3 0 0 0,3-3-153 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 5-1 0 0,-1-2-97 0 0,1-5 42 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,2 0-1 0 0,0 1 1 0 0,2 5 28 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,9 4 0 0 0,-9-4 17 0 0,25 7-20 0 0,-15-6-73 0 0,31 12 0 0 0,-44-14-389 0 0,-1-1-173 0 0,13 2-1169 0 0,1 0-3758 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21553.34">1295 2818 18543 0 0,'0'0'5487'0'0,"0"3"-4990"0"0,-15 100 824 0 0,6-30-1026 0 0,8-52-145 0 0,1-13-105 0 0,-1 1-1 0 0,0-1 0 0 0,-2 12 0 0 0,0-5 10 0 0,1 0-43 0 0,0-4-26 0 0,2-9-103 0 0,31-35-5709 0 0,-23 24 1802 0 0,3-5-3102 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21918.61">1327 2910 10159 0 0,'1'-2'5955'0'0,"5"-5"-4424"0"0,0 1 0 0 0,0 0 0 0 0,9-8 0 0 0,-13 13-814 0 0,4-2-325 0 0,-5 3-346 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,39 9 648 0 0,-38-8-667 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,3 3 0 0 0,-2-1 5 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,4 3 0 0 0,-5-2 33 0 0,-3-1-44 0 0,1 1-5 0 0,5 17 75 0 0,-4-15-50 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-4 9 1 0 0,0 11 33 0 0,5-26-68 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-3 0 0 0 0,-1 3-3 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-7 2-1 0 0,-6 0-12 0 0,-28 5 0 0 0,36-8 9 0 0,6-1 0 0 0,-16 3 0 0 0,-36-6-272 0 0,55 2 79 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26159.55">3006 894 10159 0 0,'-3'1'303'0'0,"2"-1"-251"0"0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,-2 1 191 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-9 1 1 0 0,12-2-106 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-11 8 1750 0 0,-42 20 1029 0 0,52-27-2752 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-6 6 0 0 0,4-4 26 0 0,3-2 148 0 0,0 0-266 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1-1 0 0,-1 2 1 0 0,-7 8 135 0 0,-4 17-177 0 0,-16 36 363 0 0,30-64-373 0 0,-14 37-28 0 0,14-36-108 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26502.34">2672 1055 6535 0 0,'0'3'500'0'0,"-1"4"-367"0"0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-4 6 0 0 0,-8 25 1342 0 0,-12 25 4845 0 0,27-60-5307 0 0,1 5-6 0 0,-1-5-38 0 0,1-2-10 0 0,3 2-626 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,11 1-1 0 0,-14-2-34 0 0,0 0-10 0 0,60-1 340 0 0,-52-1-617 0 0,-7 1-18 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 1 0 0,6-1-1 0 0,-1 0-108 0 0,10 0-7675 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27284.4">3448 649 8143 0 0,'0'0'631'0'0,"2"-1"-414"0"0,14-3 2321 0 0,-1-3 3494 0 0,-6 5-5237 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,9 0 1 0 0,-13 0-610 0 0,-2 0 126 0 0,4-1-15 0 0,19 6-23 0 0,-8-1-347 0 0,-14-3-482 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28134.19">3639 538 5695 0 0,'0'0'5182'0'0,"-15"-11"3391"0"0,16 12-8099 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 2 0 0 0,-4 18-2617 0 0,0-9-4073 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28575.04">3391 632 13039 0 0,'0'0'6342'0'0,"3"0"-5606"0"0,91-18 2279 0 0,10 6-2052 0 0,-95 11-828 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,11 2-1 0 0,47 3 107 0 0,-59-5-234 0 0,30 5 6 0 0,-33-5 160 0 0,-1 0-47 0 0,8 1-42 0 0,-1 0-42 0 0,-1 0 0 0 0,1-1-1 0 0,12-1 1 0 0,-7 0-32 0 0,-12 0-160 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-4 1 0 0,-6 3-87 0 0,-1 1-397 0 0,0-11-6521 0 0,-2 2-98 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28914.13">3654 495 12207 0 0,'0'0'8363'0'0,"1"2"-7815"0"0,-1 2-299 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 6 0 0 0,2-8 232 0 0,1-2-455 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-10 11-330 0 0,10-7 244 0 0,0-2 9 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-4 3 0 0 0,4-4-263 0 0,0 0-96 0 0,0 1 120 0 0,-1 2-166 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29346.1">3566 694 12207 0 0,'0'0'2711'0'0,"-4"14"1986"0"0,6 20-1529 0 0,0-35-2935 0 0,5-2-198 0 0,-5 2-58 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,12-15-599 0 0,11-10-930 0 0,-24 26 1479 0 0,2 1-86 0 0,-1-1 135 0 0,-1 1 17 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 1 0 0,0 0 25 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,4 0-1 0 0,-3 0 1926 0 0,-1 1-1685 0 0,9 10-11 0 0,-2 1-42 0 0,-9-11-189 0 0,0 4 4 0 0,-9 13-34 0 0,7-18-4 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-4 0 0 0 0,4 0-72 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,-1 2 1 0 0,-6 3-722 0 0,-25 3 1808 0 0,36-7-803 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-1 0 0 0,-3 1 32 0 0,2 0-26 0 0,6-1-165 0 0,28-7 243 0 0,-36 8-253 0 0,-7-17-14758 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29867.57">3517 888 18023 0 0,'0'3'1387'0'0,"0"40"-618"0"0,0-40-389 0 0,1 0-182 0 0,1 10 20 0 0,-1-10 510 0 0,2-4-852 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,5-3-1 0 0,-3 1 20 0 0,1 0-475 0 0,0 0 1 0 0,0 0 0 0 0,10-10-1 0 0,3-3-5829 0 0,-17 15 5912 0 0,-1 0 354 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-5 1 0 0,4-7 2852 0 0,-4 12-2574 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,8-8 2056 0 0,15-2-859 0 0,-22 11-798 0 0,0-2-50 0 0,3-1-200 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,12 0-1 0 0,-16 1 108 0 0,2 0-244 0 0,1 0 171 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,9 3 0 0 0,-10-2-152 0 0,-3-2-163 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,7 3 303 0 0,4 10-39 0 0,-9-11-260 0 0,-1-1 17 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 4 0 0 0,-2-2 17 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 8 1 0 0,0 2-42 0 0,-4-3 0 0 0,5 3 0 0 0,-1-14-10 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,1-1-120 0 0,-9 5-327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30211.25">3635 920 10999 0 0,'0'0'846'0'0,"-1"3"-370"0"0,-12 26 5358 0 0,12-27-4962 0 0,1-1-748 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-1 0 0 0,0 1-13 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,2 0 0 0 0,1-1 43 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,6-6-1 0 0,5-2-106 0 0,-12 10-28 0 0,0 0-59 0 0,4-13 460 0 0,-7 12-302 0 0,-1 2-109 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,-4-1-17 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-7 3 0 0 0,-31 11-3494 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32104.04">4264 512 6535 0 0,'0'0'18565'0'0,"0"2"-18314"0"0,-2 3-158 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-6 5 1 0 0,-32 30 132 0 0,39-37-192 0 0,-6 4 26 0 0,0-1 1 0 0,-16 9-1 0 0,0 0 0 0 0,18-11-103 0 0,0 0-1 0 0,0 0 1 0 0,-14 4 0 0 0,-24 12-176 0 0,44-20 19 0 0,49-3-12403 0 0,-23 1 12304 0 0,1 2 3911 0 0,-22 2-2926 0 0,-1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,3 7 0 0 0,-3-4-522 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 8 0 0 0,-7 75 348 0 0,9-72-1044 0 0,1-4-7095 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32478.43">4253 664 6535 0 0,'0'0'2198'0'0,"2"-2"-508"0"0,50-27 6849 0 0,-14 15-6519 0 0,-4 3-291 0 0,42-9-2554 0 0,-70 18 765 0 0,0 0-847 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32845.89">4422 596 13039 0 0,'0'0'1006'0'0,"-1"3"-658"0"0,-38 81 7754 0 0,37-82-7957 0 0,0 1 7 0 0,1 17 143 0 0,1-8-450 0 0,0-10-740 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33199.27">4377 724 6535 0 0,'0'0'500'0'0,"-1"2"-324"0"0,-7 19 820 0 0,5-8 3259 0 0,0 0 0 0 0,0 18 0 0 0,2-13-4592 0 0,-2 3 1600 0 0,2-18-2142 0 0,3-11 386 0 0,0 3-54 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,7-7 1 0 0,-9 9 771 0 0,-1 2-188 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,11-3 354 0 0,-10 2 146 0 0,25-13 1702 0 0,-13 5-380 0 0,10 4-263 0 0,-21 5-1241 0 0,8 5 1193 0 0,2 16-1120 0 0,-14-18-381 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 6-1 0 0,-6 13 12 0 0,3-17 57 0 0,3-3-64 0 0,2-1 61 0 0,0 0-115 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-108 0 0,-19 0-816 0 0,1 4 873 0 0,15-4-84 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-6 4 2463 0 0,26-5-2085 0 0,-4 0-264 0 0,-10-2-109 0 0,4-7-498 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33565.4">4311 827 6535 0 0,'0'0'500'0'0,"1"13"5835"0"0,11 26 4275 0 0,-9-32-10943 0 0,-2-5 780 0 0,-1 0-398 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,1 3 1 0 0,0 0 55 0 0,5 12 407 0 0,19 28 0 0 0,-24-41-417 0 0,2 2-2 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,4 5 0 0 0,-4-6-61 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,6 0 0 0 0,13 4 66 0 0,-16-3-107 0 0,0 0 48 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,10-1-1 0 0,50-4-850 0 0,-64 5 318 0 0,22-2-14945 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33566.4">4725 1020 12207 0 0,'0'0'1304'0'0,"12"15"5064"0"0,-12 1-2776 0 0,0-1-3328 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38215.48">4304 1664 10159 0 0,'0'0'7407'0'0,"-19"5"-373"0"0,17-4-6928 0 0,0 22 960 0 0,2-19-1070 0 0,1 9 24 0 0,-1-1 0 0 0,2 1-1 0 0,3 17 1 0 0,2 47-20 0 0,-6-69 6 0 0,0-4 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,4 6 0 0 0,-3-4 69 0 0,-1 5-80 0 0,0-1 549 0 0,0-6-2219 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39128.42">4208 1928 12207 0 0,'0'0'8028'0'0,"1"2"-7361"0"0,14 35 2589 0 0,-14-35-2952 0 0,-1-2-302 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,2 6 14 0 0,16 3 493 0 0,0-5-478 0 0,-2-6 22 0 0,-10 0 15 0 0,7-2 21 0 0,-10 3 21 0 0,12-4 176 0 0,-13 5-376 0 0,7 0 43 0 0,-7 0 104 0 0,12-5 140 0 0,-13 4-181 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,2 0 0 0 0,-3-2-98 0 0,4-6 86 0 0,-4 6 206 0 0,1 1-117 0 0,10-15 47 0 0,-11 15-76 0 0,-1-1-11 0 0,-1-4-31 0 0,0 4 31 0 0,2 1 0 0 0,0-4-57 0 0,-27 6 158 0 0,8 1-141 0 0,11 2-13 0 0,-9 6 0 0 0,14-9 0 0 0,-11 4 0 0 0,-27 5 168 0 0,12 2-240 0 0,26-11-16 0 0,5-2-1148 0 0,11-4-827 0 0,0-3-3450 0 0,-2-3-2243 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40105.5">4229 1962 5695 0 0,'0'0'8382'0'0,"3"-1"-7308"0"0,9-3-2 0 0,-8 3 1284 0 0,-2 1-1768 0 0,2 0 290 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,7 2 1 0 0,0 1-1152 0 0,-9-3 1171 0 0,1 2-813 0 0,5 9-57 0 0,-5-10 48 0 0,-1 1-17 0 0,2-1-50 0 0,14 18 22 0 0,-16-18 115 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41450.37">4840 1617 18543 0 0,'0'0'1991'0'0,"2"0"-2472"0"0,25 0 6 0 0,-25 0 924 0 0,1 0 266 0 0,13-3 407 0 0,0 1 0 0 0,26 0 0 0 0,-14 2-957 0 0,-27 0-172 0 0,21-3 4 0 0,-7 1 27 0 0,25-2 283 0 0,-37 3-539 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41802.98">4885 1750 13039 0 0,'0'0'1006'0'0,"0"3"-658"0"0,1 32 902 0 0,-1-26-327 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,3 14 0 0 0,-3-22-791 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,-1 6 248 0 0,2-8 229 0 0,0 1-354 0 0,1 7-150 0 0,-1-8-606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42200.71">4918 1790 13039 0 0,'0'0'1006'0'0,"2"0"-658"0"0,12-1 1543 0 0,0-1 0 0 0,26-5 0 0 0,5-2-384 0 0,-42 9-1262 0 0,4-2 27 0 0,-3 2-238 0 0,19 6 279 0 0,-14-4-198 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42201.71">4950 1906 13039 0 0,'0'0'1006'0'0,"2"1"-658"0"0,20 8-12 0 0,-20-8 1201 0 0,14 5 2655 0 0,-7-4-3346 0 0,1 1 0 0 0,1-2 0 0 0,10 2 0 0 0,-18-3-724 0 0,0-1-23 0 0,30-5-3 0 0,-30 5-499 0 0,0 0-174 0 0,2-2 353 0 0,20-9-6450 0 0,-15 4-344 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42567.99">5216 1872 17503 0 0,'0'0'1831'0'0,"-1"3"-1736"0"0,-4 9-22 0 0,3-7 268 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-7 9 0 0 0,-3 3 645 0 0,10-14-924 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,-4 3 0 0 0,7-6-148 0 0,6-13-368 0 0,-1 8 448 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1-1 0 0,7-6 1 0 0,0 1-18 0 0,-7 4 120 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,12-2 1 0 0,-15 4 102 0 0,2 1 17 0 0,25 0 218 0 0,-26 0-222 0 0,0 2-1 0 0,39 26 475 0 0,-42-27-660 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 1 0 0,1 1 63 0 0,2 5 60 0 0,-1-6-108 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-2 3 0 0 0,2 0 101 0 0,3 9-51 0 0,-3-3-67 0 0,-1-8-194 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42955.68">5651 1649 22663 0 0,'0'0'1716'0'0,"-1"2"-1165"0"0,-3 21-338 0 0,-6 40-160 0 0,-1 3 454 0 0,10-43-349 0 0,2-21-157 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 3 0 0 0,-4 8-1 0 0,7 2 0 0 0,-5-4 0 0 0,-4 7-13 0 0,6-17-111 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42956.68">5424 1821 13903 0 0,'0'0'1075'0'0,"3"-1"-703"0"0,88-18 6494 0 0,-67 18-6279 0 0,-16 1-520 0 0,1 0 0 0 0,-1 0 0 0 0,16-3 0 0 0,32-3-315 0 0,-53 6 163 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,3-3 0 0 0,8-2-401 0 0,4 3-1040 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43338.55">5812 1793 20847 0 0,'0'0'1012'0'0,"0"14"244"0"0,0-6-1078 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-7 12 0 0 0,3-6-140 0 0,-5 12 1022 0 0,13-28-1076 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,3-2-1 0 0,-3 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,2-4 0 0 0,-3 3 3 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,6-4 0 0 0,-9 7 14 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-4 3 0 0,16-8 92 0 0,-15 10 154 0 0,9 10 409 0 0,-10-7-666 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,1 0 0 0 0,1-1-162 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,3-6 0 0 0,-1 4-560 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,9-6 0 0 0,-13 10 756 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 1 1 0 0,4 2 157 0 0,-3-2 1112 0 0,15 7-61 0 0,1-3-969 0 0,-14-4-37 0 0,0-2-163 0 0,47 0-305 0 0,-35 4 177 0 0,-14-3 116 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 2 0 0 0,-7 6 167 0 0,7-9-182 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3-1 0 0,0 0 22 0 0,0 2 15 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-8 7-1 0 0,1-3 31 0 0,-23 12 0 0 0,1-1-272 0 0,-5 1-846 0 0,37-20-554 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:52:43.982"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">111 38 10159 0 0,'0'0'12815'0'0,"-5"12"-11926"0"0,-4 8-30 0 0,4-10-702 0 0,1 0 1 0 0,0 0-1 0 0,-3 12 0 0 0,-13 20 266 0 0,18-34-375 0 0,0 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,-5 10 0 0 0,-10 40 216 0 0,-2-12-220 0 0,19-43-141 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.04">332 1 6535 0 0,'0'0'13294'0'0,"-1"2"-12558"0"0,-4 15 661 0 0,2-9-980 0 0,0 0-1 0 0,0 0 0 0 0,-7 12 0 0 0,-8-3-92 0 0,16-16-300 0 0,2-1-11 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,1 0 27 0 0,-2 0-20 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-3 3 1 0 0,4-4-15 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 2 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-6 12 113 0 0,5 3-20 0 0,1 0-80 0 0,-7-1-20 0 0,-1-3-72 0 0,7-10-301 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="673.67">122 158 10999 0 0,'0'0'12071'0'0,"4"1"-11527"0"0,11 3-64 0 0,-11-3-243 0 0,1-2-108 0 0,72 0 82 0 0,-38 2-3439 0 0,-29 0-1345 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.38">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:52:57.909"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">276 678 6535 0 0,'0'0'1288'0'0,"-2"2"-628"0"0,-5 6 1033 0 0,-1 0 0 0 0,1-1 0 0 0,-18 13 1122 0 0,-3-7 1057 0 0,19-13-3296 0 0,7 0 6 0 0,-1 1-52 0 0,-4 0-460 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-8-4-1 0 0,13 6 38 0 0,-9-10-4 0 0,6 7-104 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-9 0 0 0,0 5 0 0 0,0-6 0 0 0,-2-30 0 0 0,1 5 0 0 0,4 29-87 0 0,-1 1 1 0 0,2 0-1 0 0,0 0 0 0 0,2-14 1 0 0,4 2-72 0 0,-5 20 157 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,2-5 1 0 0,-1-5 98 0 0,0 0 0 0 0,1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,10-13-1 0 0,6-8-77 0 0,-10 12 151 0 0,32-34 0 0 0,-41 51-146 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,6-2 0 0 0,-6 3 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,3-3 0 0 0,-2 0-3 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,2 0 0 0 0,-1 1-1 0 0,9-5 1 0 0,4-2-21 0 0,-11 0 20 0 0,-3 6 80 0 0,33-8 240 0 0,-2 2-280 0 0,-30 10-47 0 0,3-2 17 0 0,0 1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,13 4-1 0 0,-19-5-22 0 0,2 2 23 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,6 8 1 0 0,-8-10-29 0 0,9 12-20 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,5 18-1 0 0,11 22 154 0 0,-17-40-96 0 0,-1 0 0 0 0,4 18 0 0 0,-4-15-48 0 0,-4-15 8 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,-1 3 1 0 0,1-2 4 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 3 0 0 0,1-3 22 0 0,0 0 0 0 0,1-1 1 0 0,-2 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-4 2 0 0 0,-10 20 133 0 0,13-21-159 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-4 4 0 0 0,-10 7 16 0 0,-34 24 99 0 0,31-25-129 0 0,15-9-40 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-12 5 0 0 0,-2-2-77 0 0,-27 11-586 0 0,25-10 94 0 0,0 0 0 0 0,-1-1 0 0 0,0-2 0 0 0,0 0 0 0 0,-28 1 1 0 0,28-3-354 0 0,8 0 15 0 0,-9 0-1158 0 0,8 2-2431 0 0,5 0-1146 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:53:01.181"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">364 142 6535 0 0,'0'0'16541'0'0,"-3"-1"-16150"0"0,-2-2-525 0 0,4 3 268 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1-1-11 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-5 4-1 0 0,1-1-108 0 0,4-2-8 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-3 4-1 0 0,-1 1 8 0 0,3-4-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-2 6 0 0 0,-10 29-12 0 0,10-27-47 0 0,4-6-6 0 0,0-1 47 0 0,4 9-30 0 0,4 0 18 0 0,-8-11 90 0 0,2 0 17 0 0,14 8 133 0 0,-8-5-196 0 0,-7-3-2 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,4 0 1 0 0,47 14 21 0 0,-51-14-205 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1-1 0 0,-3-1-689 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,3-3 0 0 0,8-6-7169 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.34">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4638,6 +6926,403 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 13 12439 0 0,'0'0'5124'0'0,"2"9"-4304"0"0,-1-8-810 0 0,0 1 104 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 4 1 0 0,0 18 1032 0 0,2 29 0 0 0,0-29-748 0 0,-1-13-270 0 0,0-8-114 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2 7 0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="372.1">17 26 17135 0 0,'0'0'1784'0'0,"16"-17"906"0"0,-13 16-2524 0 0,-1 0 1 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,5 2 0 0 0,35 5 426 0 0,-41-6-561 0 0,0 0-29 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 12 0 0,0 1 8 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 3 0 0 0,-3 6-154 0 0,5-9 50 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-4 0-1 0 0,11 1 241 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,5 5 0 0 0,-7-6-5 0 0,19 17 392 0 0,-20-18-359 0 0,0 15 101 0 0,-1-13-265 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-2 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-4 3 1 0 0,-1 0-17 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-15 5 0 0 0,-5-3-554 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T09:35:18.654"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1333 958 16319 0 0,'0'0'99'0'0,"2"-1"12"0"0,7-4 21 0 0,-1 0 457 0 0,1 0 0 0 0,-1 1 0 0 0,11-4 0 0 0,-17 7-157 0 0,12 0 470 0 0,59-3 195 0 0,-42 4-94 0 0,42-7 0 0 0,-62 6-937 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,12 3 0 0 0,-21-4-60 0 0,36 4 244 0 0,0-3 0 0 0,-1 0-1 0 0,1-3 1 0 0,37-5-1 0 0,-24 2-234 0 0,8 0 25 0 0,0 3 0 0 0,82 8 0 0 0,-90-3 48 0 0,74-6 0 0 0,-21-1 344 0 0,185 10-416 0 0,-200-7-77 0 0,7 1 114 0 0,-30 1-56 0 0,-31 0 262 0 0,53 6 0 0 0,-18 3-236 0 0,40 8-25 0 0,-84-14 18 0 0,-1 0-1 0 0,1-2 1 0 0,35-1 0 0 0,75-11 108 0 0,35 1-31 0 0,-56 14-82 0 0,78 1 31 0 0,54-16 49 0 0,-245 10-91 0 0,217 10 432 0 0,-180-6-313 0 0,73 14 191 0 0,-89-14-689 0 0,0 0 1 0 0,0-1-1 0 0,0-2 0 0 0,28-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1467.17">1409 4198 12207 0 0,'0'0'943'0'0,"2"1"-618"0"0,7-1 1363 0 0,-1 1-1 0 0,1-2 0 0 0,12 0 0 0 0,51-15 290 0 0,-23 4-1364 0 0,-14 7-334 0 0,-1 1 0 0 0,1 1 0 0 0,0 2 1 0 0,55 5-1 0 0,-16-1-298 0 0,0-4 1 0 0,80-10-1 0 0,33-1 539 0 0,340-10-75 0 0,-371 14-413 0 0,-50 5 436 0 0,208 21 0 0 0,307 28 37 0 0,-473-40-115 0 0,-36-1-197 0 0,-62-4-220 0 0,1 2 0 0 0,-1 2-1 0 0,0 3 1 0 0,65 18 0 0 0,25 24 419 0 0,-138-49-317 0 0,0-1-62 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,4 2-1 0 0,18 6 244 0 0,-21-9-222 0 0,18 5 86 0 0,-20-3-124 0 0,0-2 5 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-6 4-30 0 0,4-2-38 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-13-2-6365 0 0,-4-3-2161 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49804.95">12904 392 10159 0 0,'-3'-4'8016'0'0,"-1"0"-7161"0"0,2 1-286 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-6-2 1 0 0,4 1-385 0 0,-1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,-10-1-1 0 0,1 2-254 0 0,0 1 0 0 0,1 0 0 0 0,-23 3 0 0 0,28-2 166 0 0,6-1-91 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,4-5-115 0 0,0 0 0 0 0,-2 5 75 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,3 8 0 0 0,3 7 217 0 0,1-1 0 0 0,1-1 0 0 0,21 33 0 0 0,-30-50-68 0 0,0 0 0 0 0,3 7-19 0 0,0 6-73 0 0,-5-10-24 0 0,-1 1-46 0 0,1-4 91 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-4 3 0 0 0,-50 29 285 0 0,26-17-400 0 0,23-13 26 0 0,6-3-191 0 0,-4-1-513 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50221.77">12935 429 20327 0 0,'-4'4'390'0'0,"0"0"0"0"0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-3 6 0 0 0,4-9-372 0 0,-15 42-18 0 0,12-28 317 0 0,1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,2-1-1 0 0,1 28 1 0 0,3-1-103 0 0,10 48 1 0 0,-9-72-388 0 0,-4-14 51 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0 9 1 0 0,-1 10-182 0 0,1-15-7890 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51357.63">12895 823 17191 0 0,'0'0'1719'0'0,"2"0"-1574"0"0,6 2-78 0 0,-6-2 193 0 0,1 1 79 0 0,72-1 2965 0 0,-36-1-1742 0 0,68 7 202 0 0,23-1-1452 0 0,-114-4-313 0 0,-12-2 3 0 0,11-1-15 0 0,-4-3-1228 0 0,-3-2-4963 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51965.99">11604 597 21167 0 0,'0'0'2581'0'0,"3"0"-2297"0"0,26 1 252 0 0,19 2-296 0 0,2 1 320 0 0,-26-4-276 0 0,-19 0-208 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,7 1 0 0 0,21 5 77 0 0,-1-1 1 0 0,34 1-1 0 0,-55-6-260 0 0,-9-1-289 0 0,8 0-716 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52297.44">11672 752 22231 0 0,'0'0'1688'0'0,"10"7"-936"0"0,5 1-752 0 0,-3-2 0 0 0,4 1 0 0 0,0 0 232 0 0,1-2 24 0 0,-2-1 8 0 0,4 0 0 0 0,2-2-264 0 0,0-1-176 0 0,0-2 24 0 0,2-1-6632 0 0,4 0-1320 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="475433.59">9022 3586 16471 0 0,'0'0'7720'0'0,"2"0"-7536"0"0,27-2 261 0 0,-23 1-391 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,11 1-1 0 0,7 3-29 0 0,-20-1-25 0 0,1 0 1 0 0,1-1 0 0 0,22 13 0 0 0,-22-12 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1 0 0 0,4 8 0 0 0,7 13-5 0 0,-11-22 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 9 0 0 0,19 99 192 0 0,-13-35-176 0 0,-11-74 27 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-2 3-1 0 0,0 14 138 0 0,1 3-151 0 0,-2-19-32 0 0,0-1 4 0 0,-4 19-1 0 0,7-21 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 2 0 0 0,-40 48 0 0 0,33-39 29 0 0,9-9 8 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-5 3 0 0 0,-3 0 48 0 0,0 1 1 0 0,-15 10-1 0 0,24-15-85 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-5 2 0 0 0,1-1 0 0 0,-7 6 0 0 0,9-5 11 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-10 4 1 0 0,-1 0-6 0 0,16-6-1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,2 0-11 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,20-14-286 0 0,-17 11 129 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-6 0 0 0,5-9-1740 0 0,3 1-3536 0 0,2 2-2015 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="475857.61">9537 3836 13039 0 0,'0'0'1423'0'0,"-7"6"382"0"0,4-5-1440 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-4-1-1 0 0,-4 1 1468 0 0,8 0-1670 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,1-1-113 0 0,2-2 55 0 0,0 1-115 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-3 3 1 0 0,-4 8-113 0 0,-10 35 353 0 0,16-46-213 0 0,2 1 33 0 0,-3 28-11 0 0,-8 18 314 0 0,10-43-234 0 0,1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,5 10 0 0 0,-6-13 21 0 0,2-1 33 0 0,-4-1-163 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2 1 0 0 0,8 4 10 0 0,9 1-7 0 0,-14-7 14 0 0,-1-1-4 0 0,-2 1-13 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,5-2 0 0 0,30-6 57 0 0,-24 4-55 0 0,7-3 159 0 0,-13 5-241 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,6-4 1 0 0,-9 5-117 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,6-2 0 0 0,3-1-769 0 0,-12 3-855 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="478636.87">10052 3807 20559 0 0,'0'0'3099'0'0,"2"0"-2638"0"0,1-2-353 0 0,1 0 40 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,8 1 0 0 0,-9-2-121 0 0,3 2-4 0 0,18 7 4 0 0,-13-1-27 0 0,30 8 0 0 0,-26-11 0 0 0,-2 3 0 0 0,-11-4-81 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,5 6 1 0 0,1 7-7066 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="478976.21">10022 4034 12207 0 0,'0'0'943'0'0,"3"0"-618"0"0,7 1 291 0 0,0 1-1 0 0,16 4 1 0 0,-24-6-242 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,1-1 1 0 0,11 0 1188 0 0,-5 2-979 0 0,1 0 0 0 0,-1-1 1 0 0,12-1-1 0 0,-18 1-380 0 0,1-1-79 0 0,5 1-2 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,11 3 1 0 0,7 1 114 0 0,-4-3-275 0 0,-2 3-2261 0 0,-13-3-2514 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="479370.56">10719 3776 18543 0 0,'0'0'5164'0'0,"2"0"-4843"0"0,44 6 798 0 0,-44-5-1020 0 0,0 4 31 0 0,0-4-121 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,2 4 0 0 0,18 31 6 0 0,-6-12-15 0 0,-14-18 0 0 0,-2 0 0 0 0,3 7-11 0 0,-1-11 2 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-3 3 0 0 0,-3 10-56 0 0,6-14 64 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-3 3-1 0 0,-2-1 0 0 0,2 0-36 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-5 6 0 0 0,7-8-5 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-5 0 1 0 0,-19 9-250 0 0,-30 26-25 0 0,31-30 316 0 0,15 0 1924 0 0,12-4-1535 0 0,3 3-315 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0-1 0 0,8 3 1 0 0,4 1-188 0 0,1 0 0 0 0,-1-2 0 0 0,30 4 0 0 0,-42-8 93 0 0,1-1 0 0 0,-1 0 0 0 0,14-2 0 0 0,7 0-205 0 0,-3-2-887 0 0,-6-1-5376 0 0,-1 3-1598 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="479751.95">11335 3731 17423 0 0,'-12'12'381'0'0,"0"0"0"0"0,0-1 0 0 0,-2-1-1 0 0,-21 14 1 0 0,28-18-78 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,2 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-3 15-1 0 0,5-12-153 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,1-1 1 0 0,2 14-1 0 0,1-1-28 0 0,4 10 56 0 0,29 56 300 0 0,-28-60-476 0 0,-9-24 0 0 0,5 19-40 0 0,-7-20 16 0 0,-1-1 8 0 0,0 2 3 0 0,-2 3 10 0 0,-13 12 3 0 0,10-14 8 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-2 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-17-1-1 0 0,24-1-65 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,-7-6-7166 0 0,1 0-620 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="480149.27">11251 3785 18023 0 0,'0'0'1387'0'0,"4"-1"-896"0"0,23-1 593 0 0,0 1 0 0 0,34 3 0 0 0,-48-2-331 0 0,17 1-98 0 0,-13-1-358 0 0,1 1 1 0 0,24 4 0 0 0,-39-4-177 0 0,6 0 32 0 0,18 1-111 0 0,1 4 465 0 0,-14 0-1963 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="480518.29">11869 3783 18023 0 0,'-4'5'2067'0'0,"0"-4"-1809"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 0 0 0 0,9-1-217 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 61 0 0,-12 9 133 0 0,9-7-152 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 8 0 0 0,-17 18 210 0 0,26-30-292 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,-2 0 0 0 0,4 2 66 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,5 0 1 0 0,2 0 49 0 0,-1-1 1 0 0,0-1-1 0 0,1 0 1 0 0,11-5-1 0 0,-19 7-89 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,1 0 1 0 0,1-3-1 0 0,-2 1 15 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1-7 1 0 0,-2 8 42 0 0,0 2-49 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1-3 1 0 0,-9-13 100 0 0,10 17-127 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-3-1-1 0 0,0 0-11 0 0,-17 2-57 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="480857.39">12289 3761 13039 0 0,'0'0'10855'0'0,"-2"1"-10350"0"0,-26 16 460 0 0,27-16-944 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,3-1 9 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 2-1 0 0,-1 1 41 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-7 4 0 0 0,-22 14 107 0 0,-17 16-100 0 0,-21 17 28 0 0,-6 14-73 0 0,-52 47 1 0 0,45-44 7 0 0,41-35-9 0 0,-74 48 159 0 0,109-77-166 0 0,0-2-1 0 0,-14 8 1 0 0,-29 18-3 0 0,50-30-111 0 0,5-1-523 0 0,-1-1 462 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,2-2-1 0 0,20-14-6279 0 0,5 6-1241 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="481215.21">11974 4145 13039 0 0,'0'0'1006'0'0,"-2"2"-658"0"0,-9 12-331 0 0,6-7 235 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-10 7 0 0 0,10-8 407 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-3 8 1 0 0,7-12 542 0 0,-2 4-470 0 0,3-6-695 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 7 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,2 0 0 0 0,22 5 184 0 0,-19-7-238 0 0,-1 0 19 0 0,2 0 49 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,9-10-1 0 0,-14 14 264 0 0,-1-2-156 0 0,-6-17 200 0 0,5 18-180 0 0,-2 1-31 0 0,-2-3-159 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-9 3 1 0 0,13-3-141 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="483966.33">12377 3972 12207 0 0,'0'0'6698'0'0,"3"0"-5710"0"0,92-27 3453 0 0,-83 24-4333 0 0,-9 1-69 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,6 0 1 0 0,43 5 301 0 0,-18-4-320 0 0,-20 3-9 0 0,19 17 42 0 0,-4 0-78 0 0,-26-17-114 0 0,-3-2-704 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="484347.98">12461 4165 6535 0 0,'0'0'500'0'0,"3"0"-324"0"0,25 0 726 0 0,46 11 9371 0 0,-71-11-9974 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,4 0 1 0 0,9-3 1091 0 0,-7 2-1092 0 0,-2 0-128 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,10 1-1 0 0,-4 0-106 0 0,-7 1-88 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,5-2-1 0 0,-3 2 30 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,13-8 0 0 0,-3-2-7216 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="484684.44">12662 3937 10159 0 0,'0'0'12752'0'0,"0"3"-12575"0"0,3 9 6 0 0,0 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-2 23 0 0 0,-18 79 714 0 0,7-53-862 0 0,-6 35 198 0 0,17-82-173 0 0,-1 0 0 0 0,-7 23 0 0 0,-10 38 100 0 0,15-40-247 0 0,4-26 100 0 0,1-8 20 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485031.03">12615 4236 18543 0 0,'-2'2'1428'0'0,"-5"7"-1084"0"0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-17 13 0 0 0,8-6 573 0 0,-20 13 72 0 0,-2-1 0 0 0,-82 39 0 0 0,102-52-871 0 0,17-11-113 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-5 1-1 0 0,-7-1-1109 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485032.03">12690 4295 18023 0 0,'0'0'1920'0'0,"15"15"-1856"0"0,-4 0 1320 0 0,0 0-616 0 0,4-2 168 0 0,-4-4-936 0 0,1-2 296 0 0,3-8-6520 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485458.66">12956 3999 18023 0 0,'0'0'4063'0'0,"2"-1"-2909"0"0,30 3 2110 0 0,-29-2-3108 0 0,14 2 222 0 0,-2 6-185 0 0,-3-2-101 0 0,-4-4-16 0 0,-4 1-76 0 0,9 12 53 0 0,3 7-65 0 0,-15-20-109 0 0,7 13-1060 0 0,-9-12 503 0 0,0 0 436 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-5 2 0 0 0,-13 11-1443 0 0,19-13 1310 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-4 1 0 0 0,-6 1-753 0 0,10-3 490 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-5 4 1 0 0,-3 9-3896 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485837.4">12843 4248 6447 0 0,'0'0'499'0'0,"1"2"-328"0"0,1 5-899 0 0,1 8 3915 0 0,0-2-44 0 0,-2-11-1505 0 0,0 0 55 0 0,3 5-816 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,8 6 1 0 0,-11-10-957 0 0,-2 3-1859 0 0,-3 9 544 0 0,-1 2-3679 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485838.4">12838 4428 13039 0 0,'0'0'9459'0'0,"1"2"-8846"0"0,1 2-292 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,5 6 1 0 0,-6-9-45 0 0,1 1-228 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 0-1 0 0,-10-1-50 0 0,21 3 108 0 0,-15-5-93 0 0,-1 0 1 0 0,28-9-1185 0 0,-11 1-5069 0 0,0 1-1658 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="486560.16">13089 3997 18023 0 0,'0'0'4604'0'0,"3"-1"-3968"0"0,18-1 130 0 0,7 0-306 0 0,-1-1 1 0 0,1-1-1 0 0,43-14 1 0 0,-36 10-461 0 0,-27 6 0 0 0,0 1 0 0 0,0-1 0 0 0,8-4 0 0 0,14-4-77 0 0,-24 9-91 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,7-7-1 0 0,-9 7 31 0 0,-2 2 13 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,3-5-1 0 0,-4 6-218 0 0,0-1-74 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-4 1 0 0,-1 6 364 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-2-1 1 0 0,1 1 433 0 0,-13 2 858 0 0,7-1-599 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,-11 7 0 0 0,15-7-466 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-5 8 0 0 0,-4 16-60 0 0,6-12-107 0 0,7-12-11 0 0,0-2-23 0 0,-1 1-105 0 0,20 9-1219 0 0,9-6-489 0 0,-28-6 1485 0 0,13-1-319 0 0,-10 1 629 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,7 3 2525 0 0,-15 11-2013 0 0,1-5-336 0 0,3-8-122 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-3 2 0 0 0,-18 10 126 0 0,-12 5 161 0 0,28-15-256 0 0,-8 3-215 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-20 1 0 0 0,19 0-221 0 0,11-3 315 0 0,4-1-23 0 0,2-1 96 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 1 0 0,-3 2 484 0 0,13 4-13 0 0,7 1-154 0 0,0-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,25 3 0 0 0,-35-6-285 0 0,1 1-20 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,9-2 0 0 0,-6 1 7 0 0,27-4 128 0 0,-30 4-140 0 0,-4 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-2 0 0 0,15-10-1112 0 0,-17 11 677 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="486938.14">13254 4180 5695 0 0,'0'0'443'0'0,"-1"2"-294"0"0,-36 95 15930 0 0,8-17-13702 0 0,28-76-2344 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-4 5 0 0 0,4-6-13 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2 6-1 0 0,1 5-1 0 0,1-7-18 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,-5 12 0 0 0,-2 6 11 0 0,10-22-50 0 0,2-2-1464 0 0,0-1 959 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,2-3 1 0 0,4-2-2041 0 0,3-4-3213 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="487285.91">13246 4323 12207 0 0,'0'0'943'0'0,"3"-2"-618"0"0,10-3 652 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,30-3-1 0 0,-7-2 3177 0 0,-8 2-2595 0 0,-27 6-965 0 0,1 1-367 0 0,7 3-12 0 0,-8-3-39 0 0,1 0-16 0 0,7 8-7 0 0,-1 4-13 0 0,-7-6-125 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,-2 12 0 0 0,0 1-10 0 0,2-15 22 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-4 9-1 0 0,-3 6 34 0 0,9-19-53 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,-3 3-55 0 0,3-6-787 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-6-5-6897 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="487625.99">13240 4354 18543 0 0,'0'0'1428'0'0,"2"2"-924"0"0,4 5 716 0 0,1-1-1 0 0,1 1 1 0 0,12 7 0 0 0,-18-12-820 0 0,14 7 410 0 0,-8-4-787 0 0,-8-5-50 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 1-1 0 0,-3 1-237 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-9-2-1 0 0,-24 3-2063 0 0,31-1 1530 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,-13-2 0 0 0,-2-1 8111 0 0,27 5-6874 0 0,6 2-270 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,17-2 0 0 0,64-7-15 0 0,-55 3-39 0 0,35-7-959 0 0,-26 0-944 0 0,-42 11 1457 0 0,-1 1 380 0 0,6-1-1016 0 0,-7 1 1068 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1-212 0 0,10 5-1104 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="488006.09">13669 4369 19119 0 0,'0'0'2040'0'0,"-5"12"-1976"0"0,1 1 864 0 0,-2 4 160 0 0,-3-8 1176 0 0,2 2-1320 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="489433.02">4616 16 6535 0 0,'1'-4'9218'0'0,"0"-7"-2277"0"0,17 24-6818 0 0,-14-7-129 0 0,-2-1 10 0 0,6 6 33 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,4 22 0 0 0,-8-30-37 0 0,-1-3 0 0 0,13 28 0 0 0,-5-11 21 0 0,0 0-1 0 0,-2 1 1 0 0,0 0-1 0 0,-2 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-2 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-2 1 0 0 0,-7 29-1 0 0,8-41 19 0 0,-2 8-20 0 0,-2 1 0 0 0,-11 28 0 0 0,8-20-19 0 0,8-21 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,-2 6 0 0 0,-38 51 96 0 0,39-56-72 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-10 5 0 0 0,7-5 0 0 0,0 1-1 0 0,1 0 1 0 0,-10 8-1 0 0,2 2 36 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0-1-1 0 0,-27 14 1 0 0,37-23-136 0 0,-1 0 1 0 0,0 0-1 0 0,-12 2 0 0 0,19-4-23 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-5-3-1 0 0,-2-11-13336 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="539480.44">3834 141 13039 0 0,'17'19'7250'0'0,"-14"-17"-7055"0"0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,2 4 0 0 0,0-2-179 0 0,73 69 995 0 0,-43-40-347 0 0,-31-30-558 0 0,6 8 84 0 0,2 2 250 0 0,-20-1-30 0 0,7-8-386 0 0,2-3-24 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,0 2-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-6 2 0 0 0,-36 8 0 0 0,-25 6 64 0 0,68-15-64 0 0,-21-1-11 0 0,12 1-58 0 0,43-9-16131 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="539831.54">4411 147 12207 0 0,'0'0'943'0'0,"-2"2"-618"0"0,-2 2 192 0 0,-2 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-9 3-1 0 0,-50 20 2387 0 0,58-23-2743 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-10 5-1 0 0,-13 9 252 0 0,22-14-257 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-7 8 0 0 0,-8 15 845 0 0,22-26-841 0 0,0 0-19 0 0,0-1-121 0 0,-1 1 8 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,1 1-1 0 0,12 8 81 0 0,-8-6-92 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,13 3 1 0 0,2-1 5 0 0,-12-2 32 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,13 0-1 0 0,82 4 94 0 0,-68-9-388 0 0,-21 1-1746 0 0,0 1-3288 0 0,3 2-2815 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4801.73">1471 1814 6535 0 0,'0'0'500'0'0,"3"1"-324"0"0,12 3 160 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,18-2 1 0 0,97-13 3933 0 0,-27 2 315 0 0,211-8-907 0 0,-141 11-3847 0 0,-22 3 56 0 0,-36 5 109 0 0,-57 2 42 0 0,314 22 1235 0 0,-229-15-1293 0 0,-8-3-273 0 0,101 16 1438 0 0,-150-18-940 0 0,-64-3-129 0 0,0 0 1 0 0,0 2-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 1 0 0,30 10-1 0 0,49 30 201 0 0,-17-6-25 0 0,-74-35-181 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,18 0 1 0 0,-6-2 10 0 0,40-7 1 0 0,30-11 574 0 0,-66 14-599 0 0,-7 3-67 0 0,-16 2-86 0 0,17-4-2083 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6213.05">4639 1142 12983 0 0,'0'0'1303'0'0,"3"1"-1194"0"0,31 11 2810 0 0,-32-11-2412 0 0,1 0-379 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,5 4 0 0 0,-5-4 61 0 0,16 14 181 0 0,-1 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,15 24 0 0 0,-7-11-212 0 0,-14-17-120 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 28 0 0 0,-3-33 34 0 0,0 1 1 0 0,-1-1-1 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-14 15 0 0 0,7-12 44 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0-1-1 0 0,-1-1 1 0 0,-27 14-1 0 0,31-19-119 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-17 2 0 0 0,14-1-104 0 0,1-1-634 0 0,2-2-6544 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="540673.46">4057 1207 18543 0 0,'0'0'2584'0'0,"2"3"-2294"0"0,21 37 2003 0 0,-21-38-2064 0 0,-2 1-108 0 0,7 17 258 0 0,-2 0 0 0 0,0 0-1 0 0,2 30 1 0 0,-7-17-226 0 0,-5-20-164 0 0,1-3 44 0 0,2-6 17 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-6 3 1 0 0,-4 2 64 0 0,1-1 1 0 0,-24 9-1 0 0,3-1-74 0 0,17-8-3 0 0,-1-1 0 0 0,-27 7 0 0 0,-13 5 104 0 0,54-17-130 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-7 0 0 0 0,8 0-3 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-6 1 1 0 0,8 0-36 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2-2 0 0 0,5 3 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7-8-56 0 0,-6 8-28 0 0,2-2-117 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,6-2 0 0 0,15-6-5643 0 0,4 0-1842 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="541058.3">4275 1320 10159 0 0,'27'-1'625'0'0,"-18"0"627"0"0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,18 4 2764 0 0,-30-2-3141 0 0,-5 4-58 0 0,0-1 1 0 0,-15 8-1 0 0,-4 2 127 0 0,17-10-715 0 0,-1 0 0 0 0,0 0 0 0 0,-15 3 0 0 0,-21 10 247 0 0,-5 10-124 0 0,47-24-339 0 0,-1-1 0 0 0,1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-5 5-1 0 0,6-4 85 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-3 7 0 0 0,4-11-87 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 3 0 0 0,10 21 107 0 0,-12-25-111 0 0,3 4 23 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,9 2-1 0 0,0-1-23 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,19-1 0 0 0,-8-1-113 0 0,-1-2 0 0 0,1-1 0 0 0,-1-1 0 0 0,0-1 0 0 0,40-14 0 0 0,13-14-7924 0 0,-48 19 31 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="542387.89">4136 3605 18023 0 0,'0'0'5789'0'0,"2"2"-5394"0"0,33 35 609 0 0,-33-35-847 0 0,0 2 10 0 0,19 47 278 0 0,-20-50-436 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 2-1 0 0,-1 2 22 0 0,-2 17 77 0 0,4-17-77 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 5 0 0 0,-8 12 26 0 0,12-19-53 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-5 3 0 0 0,-29 15 57 0 0,16-8 42 0 0,-41 16 0 0 0,36-21-129 0 0,23-5-73 0 0,4-4-1490 0 0,6-14 867 0 0,6-8-1184 0 0,-2 11-3863 0 0,3 3-1481 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="542719.9">4365 3699 16471 0 0,'0'0'374'0'0,"3"0"54"0"0,3-1-118 0 0,-1 2 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,11 3-1 0 0,-14-3 648 0 0,1 5 513 0 0,-3-6-1428 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,-5 16 481 0 0,6-14-452 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 2 0 0 0,-1 0 93 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-7 12 1 0 0,11-16 4 0 0,0 1 0 0 0,0-2-150 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,11 7-7 0 0,-11-9-11 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,4-1-1 0 0,10 0-17 0 0,9 0-99 0 0,-19-2 90 0 0,-2-1-2 0 0,37-16-442 0 0,50-16 0 0 0,-83 32-286 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,10-7 0 0 0,-6 5-3600 0 0,1-3-3430 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543418.67">4050 4523 18023 0 0,'0'0'2106'0'0,"3"1"-1413"0"0,9 1 218 0 0,-8-1 1550 0 0,-1-1-1980 0 0,26 3 394 0 0,-26-2-559 0 0,12 6 209 0 0,-10-2-414 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 2 1 0 0,4 6 0 0 0,-8-11-120 0 0,1 1 90 0 0,1 15 79 0 0,0 6-78 0 0,-5-16-83 0 0,-1-1 12 0 0,2 1 6 0 0,0-3-2 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-2 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,-5 7-1 0 0,-19 18 37 0 0,23-23-41 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-2 0 1 0 0,-7 5-1 0 0,-43 30-9 0 0,53-38 10 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,-3 2-1 0 0,3-2 4 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-5 3-1 0 0,0 3-15 0 0,-2 0 36 0 0,-22-1-260 0 0,31-6 100 0 0,1-4-748 0 0,1 1 791 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,4-1 0 0 0,-2 1-175 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,3-4-1 0 0,1-3-529 0 0,-5 6 37 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,6-3 0 0 0,18-5-6054 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543796.15">4215 4637 7023 0 0,'20'-4'817'0'0,"25"-4"-898"0"0,-12 8 4348 0 0,-26 1-3984 0 0,16 1 5381 0 0,-22-2-5474 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,2 17 533 0 0,-1-15-648 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-28 41 760 0 0,19-28-580 0 0,9-16-192 0 0,0 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 5 0 0 0,2-4-26 0 0,-11 39 506 0 0,13-41-503 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,2 6 1 0 0,-3-7-29 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,2 1-1 0 0,1 0 20 0 0,-1 1-18 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,6 0 1 0 0,5-6-21 0 0,-6 1 13 0 0,-8 4-4 0 0,8-2 7 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,14-12 1 0 0,-2 1-66 0 0,36-21 0 0 0,-2 0-1598 0 0,-16 9-4864 0 0,3-4-2187 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24028.94">8950 2157 18543 0 0,'0'0'5961'0'0,"-5"9"-5394"0"0,-14 35-43 0 0,3 0 0 0 0,-18 71-1 0 0,4-8-417 0 0,19-71-22 0 0,2 0 0 0 0,-5 48-1 0 0,13-76-104 0 0,1-7 2 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-11 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-2-268 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-5 0 0 0,49-52-8804 0 0,-27 32 3765 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24389.04">9097 2372 4199 0 0,'24'-17'362'0'0,"-16"11"-133"0"0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0 0 0 0,15-5-1 0 0,-23 9-5 0 0,0 0 52 0 0,-1 0-177 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 40 0 0,1 0 445 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 5 0 0 0,2 36 3548 0 0,1-31-3913 0 0,-1 0 0 0 0,10 23 0 0 0,-11-33-188 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,4 3 0 0 0,-5-4 165 0 0,10 7 288 0 0,-10-8-485 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0-25 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,4-3-1 0 0,2-2 347 0 0,0-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,8-18 1 0 0,-12 23-236 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-3-6 1 0 0,0 3-28 0 0,1-1 0 0 0,-1 2 1 0 0,0-1-1 0 0,-1 0 0 0 0,-6-9 0 0 0,7 13 22 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-6-3 0 0 0,2 5 41 0 0,-10 3-74 0 0,16-2-16 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 3 0 0 0,-4 1-2745 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24778.05">9655 2314 10159 0 0,'0'0'784'0'0,"0"2"-510"0"0,6 35 604 0 0,8 40 6141 0 0,-3-15-6286 0 0,-7-49-572 0 0,-3-8-450 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,6 7 1 0 0,-7-9 327 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,3-1 242 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,5-6 1 0 0,-6 6-141 0 0,0-1 0 0 0,1-1 0 0 0,-2 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-7-8 0 0 0,6 8-78 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-8 0-1 0 0,-7 2-129 0 0,0 1 0 0 0,0 1 0 0 0,-31 9 0 0 0,14-2-783 0 0,36-11 467 0 0,-4 0-269 0 0,0 0-1310 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26033.27">10193 2353 13039 0 0,'0'0'1594'0'0,"-20"6"9860"0"0,22-5-11409 0 0,-3 0-37 0 0,33 10 307 0 0,1-3-315 0 0,21 5 132 0 0,44 11 264 0 0,-96-23-390 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,4-2 1 0 0,13-2 96 0 0,-17 4-117 0 0,-8-18-2641 0 0,-3 7-5386 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27057.58">11039 2189 12207 0 0,'0'0'943'0'0,"2"1"-618"0"0,26 12 7160 0 0,14 4-4989 0 0,-37-15-2576 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 2 1 0 0,5 4-1 0 0,-4-2-63 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,6 14 1 0 0,-7-16 188 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 10 0 0 0,-2-12 26 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3 5 0 0 0,-5 6 13 0 0,-2-1 0 0 0,1 0 0 0 0,-2 0 0 0 0,0-2 0 0 0,-14 12-1 0 0,22-19-140 0 0,-56 39-1371 0 0,35-26 1307 0 0,20-14-186 0 0,-4 5 2466 0 0,10-7-2109 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 95 0 0,15 4 179 0 0,-7-3-297 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,12-3 1 0 0,67-2-605 0 0,-60 0-548 0 0,-14 2-5233 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27510.47">11560 2210 21855 0 0,'0'0'497'0'0,"15"15"1386"0"0,-13-15-1871 0 0,14 11-143 0 0,-2 1-49 0 0,-13-11 291 0 0,1 0 76 0 0,16 15 191 0 0,-3-2-201 0 0,-1 2-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,13 29-1 0 0,-24-42-176 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 3 0 0 0,0 2 0 0 0,1-3 53 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 0 0 0 0,-8 7 0 0 0,10-9-72 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-8 2 0 0 0,10-2-669 0 0,-7-2 1540 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27889.65">11984 2301 18543 0 0,'-2'2'1428'0'0,"-2"3"-1288"0"0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,-5 4 0 0 0,-16 11 722 0 0,18-11-666 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-11 14 0 0 0,13-14-112 0 0,0-1-1 0 0,1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-3 11-1 0 0,6-17 11 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5 3-1 0 0,-1 0-84 0 0,11 6-27 0 0,20 0-86 0 0,-34-11 60 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,3-2 0 0 0,21-20-1735 0 0,-2-3-4210 0 0,-22 24 4841 0 0,4-7-5795 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="502838.5">5517 3305 16471 0 0,'0'0'1651'0'0,"-1"1"-1510"0"0,-3 2-7 0 0,2-2 699 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-4 4 0 0 0,3-3-1387 0 0,1-2 653 0 0,0 1-19 0 0,-15 25-22 0 0,13-5 188 0 0,3-6-215 0 0,0-1-1 0 0,-5 30 1 0 0,-1-5-10 0 0,-6 94 369 0 0,0 2-741 0 0,-16 57-225 0 0,11-29-184 0 0,2-7 576 0 0,8-74 184 0 0,2-12 0 0 0,1-29 80 0 0,2-1 0 0 0,1 0 0 0 0,7 56 0 0 0,1-32-84 0 0,-4 96 0 0 0,-4-150 165 0 0,-1-1 1 0 0,-5 21-1 0 0,5-22-7 0 0,0-1 1 0 0,0 1-1 0 0,0 14 0 0 0,4-9 271 0 0,4 13 16 0 0,-5-21-464 0 0,0-1 133 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 8 0 0 0,-4-11-178 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503192.8">5223 5106 18543 0 0,'0'3'1428'0'0,"3"10"-972"0"0,-2-4-353 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,3 7 1 0 0,8 15 1418 0 0,-13-27-1254 0 0,2-1-91 0 0,13 12-16 0 0,2-3-32 0 0,-11-8-119 0 0,1 0 0 0 0,-1-1 0 0 0,9 1 0 0 0,-13-3 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,2-2 0 0 0,0 1 31 0 0,2-2 118 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6-10 0 0 0,-2 1 76 0 0,0 0-1 0 0,7-20 1 0 0,19-55-236 0 0,27-107 0 0 0,-34 72-7574 0 0,-22 82-136 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="504330.12">1603 5068 13039 0 0,'0'0'1006'0'0,"4"0"-658"0"0,68-7 1599 0 0,74-18 0 0 0,-67 9-1447 0 0,122-8 0 0 0,83 17 599 0 0,-128 8-788 0 0,127 5 7 0 0,269 47-458 0 0,-107-7-736 0 0,-323-37 620 0 0,277 17 251 0 0,-339-24-39 0 0,354 6 2088 0 0,-3-24-788 0 0,-365 11-2303 0 0,0-1-4334 0 0,-8-1-1738 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521617.05">7540 2043 9359 0 0,'0'0'13568'0'0,"0"-2"-13435"0"0,-1-8-105 0 0,0 8-28 0 0,-11-6-1 0 0,10 5 2 0 0,-13-8-106 0 0,-6-10-717 0 0,14 14 668 0 0,7 5 155 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-5 0 0 0,0 4 14 0 0,0 2-12 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1-5 0 0,1-1-23 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-2-1 0 0,-3 4 24 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 7 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 17 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,2-1-1 0 0,-2 0 463 0 0,13-3-44 0 0,-12 1-373 0 0,-3 3-43 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0-15 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,2 2-1 0 0,-1 0 25 0 0,1-1 178 0 0,3 10-121 0 0,-5-8-100 0 0,0-1-105 0 0,-3 0 102 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2-1 0 0,-1 0 4 0 0,2 9 54 0 0,-2-10-20 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,1-2 14 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-4 1 0 0 0,-14 6 63 0 0,17-7-100 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-6 1-1 0 0,-6 2 12 0 0,14-3-7 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-8-1 0 0 0,10 2 2 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1-1-1 0 0,-10-22-2 0 0,12 25-9 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 4 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-1 0 0 0,3-1 0 0 0,7-5 159 0 0,-1 1-1 0 0,0 1 0 0 0,1 0 1 0 0,26-6-1 0 0,-38 11-54 0 0,1 2 0 0 0,-2-1-68 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,2 2 0 0 0,2 5 53 0 0,-5-3-10 0 0,-19 20 17 0 0,9-14-69 0 0,4-2 31 0 0,6-7 69 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="523601.71">7547 2033 19927 0 0,'0'0'5055'0'0,"1"4"-4883"0"0,2 35 432 0 0,-3-37-446 0 0,-1-1-135 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 2 0 0 0,2-2-1 0 0,-1 1-11 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 4 0 0 0,-1-5-7 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 3 0 0 0,1-2 88 0 0,1 14 23 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-6 16-1 0 0,7-30-156 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,0-3 34 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 4-1 0 0,-1-1 4 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 7 0 0 0,-1-10 8 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 4 0 0 0,2-4 3 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 5 0 0 0,2 12 40 0 0,0-10-27 0 0,-1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 14 0 0 0,-2 89 357 0 0,1-87-267 0 0,2 1 1 0 0,3 30 0 0 0,-2-39-51 0 0,4 7 3 0 0,-4-19-67 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 4 0 0 0,0-3-4 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 6-1 0 0,-1-4 10 0 0,0 1-1 0 0,0 0 1 0 0,-1 12 0 0 0,2 15 27 0 0,-1-27 33 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-2 13 1 0 0,-1 21 150 0 0,4-38-216 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,-2 8-1 0 0,2 3-51 0 0,2-14 59 0 0,1 10 41 0 0,0 1 0 0 0,-1-1 0 0 0,0 12 0 0 0,-1-10-41 0 0,1-7 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 7 0 0 0,-17 78 0 0 0,19-57 0 0 0,0 15 115 0 0,2-46-23 0 0,-1 0-11 0 0,0 12-14 0 0,-1 3-54 0 0,0-2-13 0 0,0-4 11 0 0,2-10 15 0 0,-1-5-207 0 0,-8-36-63 0 0,0-1-1578 0 0,-1 15-4917 0 0,-2 5-1672 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524354.21">7238 3154 18543 0 0,'0'0'5056'0'0,"2"0"-4568"0"0,2 0-247 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 3-1 0 0,-5-3-130 0 0,-1 0-22 0 0,13 15 72 0 0,-13-14-87 0 0,8 7 71 0 0,3 8-42 0 0,-11-11-88 0 0,0-1 2 0 0,5 16 5 0 0,2 4 126 0 0,22 38 145 0 0,-12-32-259 0 0,-16-28 54 0 0,0-1 17 0 0,0 1-69 0 0,18 15 121 0 0,1 0-127 0 0,-9-10 32 0 0,-9-7 178 0 0,-2 0-219 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-2 1 0 0,-1 1-14 0 0,5-1 2 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,5-5 1 0 0,14-11 10 0 0,15-12-107 0 0,-29 24 19 0 0,15-5 125 0 0,3-3-44 0 0,-15 11 31 0 0,-6-8-31 0 0,-6 8-11 0 0,6-6 0 0 0,-1 3 0 0 0,2-3 0 0 0,-5 7 0 0 0,16-3 0 0 0,-8-1 0 0 0,-1-1 0 0 0,-11 9 0 0 0,12-15 3 0 0,-9 13-5 0 0,0 2-15 0 0,-3 0-15 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525059.51">7701 2483 12207 0 0,'0'0'6555'0'0,"3"2"-4830"0"0,8 4-669 0 0,-8-5 1041 0 0,0-1-1693 0 0,28-5 909 0 0,20-3 21 0 0,-48 8-1209 0 0,12 0 146 0 0,-10 1-223 0 0,-1 2-11 0 0,20 3 14 0 0,-11-4-39 0 0,7 1 95 0 0,-15-2-88 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,9 1-1 0 0,19 0-3 0 0,-29-2-1469 0 0,16-1-5895 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525987.47">7843 2612 13039 0 0,'-8'-9'12503'0'0,"6"17"-11515"0"0,-6 18-894 0 0,1-18-68 0 0,7-8-26 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1-1 0 0,-1 8 43 0 0,-5 17 49 0 0,-5 2 9 0 0,-9 43 170 0 0,17-58-255 0 0,0-3-16 0 0,2-1 11 0 0,1-9-22 0 0,21-14-2105 0 0,-17 9 1912 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="526967.65">8048 2530 18023 0 0,'0'0'7320'0'0,"0"2"-7192"0"0,8 38 199 0 0,-7-37-262 0 0,-2 0-1 0 0,-17 144 232 0 0,11-97-184 0 0,7-39-96 0 0,0-10-4 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-11-23-507 0 0,11 16 235 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1-14 1 0 0,1-6-542 0 0,7 12-20 0 0,15-40-615 0 0,-23 53 1323 0 0,0 0 174 0 0,4-7 56 0 0,7-13 86 0 0,-12 22-177 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,12-23 669 0 0,-11 24-636 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1-1 0 0 0,5-9 202 0 0,-3-2 39 0 0,-4 10 231 0 0,2 2-294 0 0,0-2-140 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,7 0 0 0 0,-10 1-62 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 35 0 0,0-1 54 0 0,13 1 21 0 0,-12 0-111 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,3 2 1 0 0,4 3 61 0 0,-4-2-27 0 0,-3-5-51 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 2 0 0 0,7 22 59 0 0,-6-22-46 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-2 2 1 0 0,-1 2 19 0 0,2-4-10 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,1 0-43 0 0,-5 2 30 0 0,0-1 1 0 0,0 0-1 0 0,-10 1 0 0 0,8-2-7 0 0,8-1-7 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-7-2 0 0 0,7 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-6 3 0 0 0,5-1 0 0 0,-2 0 0 0 0,-17-5 0 0 0,-4-1-71 0 0,11 5-592 0 0,14-1 616 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-2-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547140.82">2853 2275 13039 0 0,'0'0'6079'0'0,"3"14"-5046"0"0,-1 8-1563 0 0,0-19 288 0 0,-2-1-663 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547771.95">3158 1917 12207 0 0,'0'0'7314'0'0,"-2"-1"-6486"0"0,-4-1-233 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-9-2 1 0 0,14 3-567 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-2 1 0 0 0,-1 0 28 0 0,-62 41 208 0 0,-9 3-193 0 0,58-38-72 0 0,-5 1-56 0 0,19-5 15 0 0,2-2 13 0 0,-2 1-86 0 0,17 0-3585 0 0,5-2 1935 0 0,-16-1 670 0 0,-1-1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,6-3-1 0 0,11-4-3638 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="548108.63">3102 1936 5615 0 0,'0'0'430'0'0,"13"-2"6038"0"0,-10 3-6000 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 3 0 0 0,26 35 2535 0 0,-23-29-2773 0 0,19 34 671 0 0,-26-43-977 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="548468.69">3081 2090 10159 0 0,'0'0'784'0'0,"0"2"-510"0"0,-12 28 2984 0 0,9-24-2663 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 10 0 0 0,2-14-496 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-3 3 0 0 0,-6 15 469 0 0,4 3-8 0 0,1-1 0 0 0,0 1 0 0 0,-1 34 0 0 0,1-22-46 0 0,4-29-401 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 9 0 0 0,3 3 20 0 0,-1-2 3 0 0,1 26 0 0 0,-3-36-100 0 0,1 0 0 0 0,0 0 0 0 0,3 12 0 0 0,-3-14-9 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8 0 0 0,-1-10-16 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,4 8-1 0 0,-3-7-12 0 0,1-1-1 0 0,-1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 7 1 0 0,-3 23 0 0 0,2-21-20 0 0,2-8 58 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-3 5-1 0 0,-5 20-1704 0 0,2-19-3834 0 0,-3-1-1803 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="548469.69">2838 2824 9359 0 0,'3'1'720'0'0,"2"2"-524"0"0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,7 0 1 0 0,-1 0 884 0 0,57 13 7858 0 0,-55-13-8549 0 0,0 0 0 0 0,0-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,16-3-1 0 0,-14 2-263 0 0,-1-2-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,16-13-1 0 0,-14 10-84 0 0,-15 9-19 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-3-1 0 0,-2 4-13 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,1-1-5 0 0,18-33-9 0 0,-8 12-430 0 0,-11 18 65 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-8-1 0 0,2-7-5207 0 0,3 1-1936 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="548885.56">3478 2228 16095 0 0,'0'0'2794'0'0,"0"3"-1614"0"0,-5 6-486 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-13 15 1 0 0,2 6-295 0 0,2-3-111 0 0,-22 34 127 0 0,34-57-416 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-4 2-1 0 0,4-4 3 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-3 6 1 0 0,1 0 15 0 0,4-6 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,-3 2-1 0 0,2 0 95 0 0,0 22-198 0 0,3-22-488 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="549563.25">3490 2388 18023 0 0,'-1'2'1387'0'0,"-1"9"-1015"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,1 17 0 0 0,-1-24-117 0 0,2 0-61 0 0,3 4-46 0 0,0 1-1 0 0,1 0 0 0 0,13 12 1 0 0,-17-18 345 0 0,2-1-238 0 0,-2-1-216 0 0,0 0-6 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,0-5 167 0 0,-3 7-185 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,10 0 137 0 0,-10 1-127 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 1 205 0 0,3 1-122 0 0,1 1-92 0 0,-1-3-15 0 0,11-10 108 0 0,-3 4 6 0 0,-9 7-57 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,2-5 0 0 0,-1 3-40 0 0,-3 4-9 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-2 0 0 0,1 2-3 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-2-1 0 0,-2-1 9 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,-8-4 0 0 0,-4 2-13 0 0,12 5 0 0 0,-16-2 0 0 0,14 5 0 0 0,3-1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-2 1 0 0 0,0 1-14 0 0,3-3-93 0 0,0 0-517 0 0,1-1 584 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1 1-460 0 0,10 8-2674 0 0,11 3-913 0 0,-20-13 3038 0 0,1-1-9 0 0,22 2 354 0 0,-22-1 783 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,4 2 0 0 0,-3-2 241 0 0,-1 0 1549 0 0,0 1-914 0 0,-1 0-559 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 6-1 0 0,0-2-95 0 0,1-3-158 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,6 7 0 0 0,-6-8-15 0 0,1 1-32 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,6 4 1 0 0,3 1 101 0 0,5 3-33 0 0,-17-9-155 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,1-1 24 0 0,26-1 307 0 0,-28 2-318 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-2 0 0 0,1-1 60 0 0,-1 2-50 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,2 0-1 0 0,-3 1-14 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1-2 0 0 0,1-11 182 0 0,-3 13-187 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 21 0 0,0 1-23 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2-1 0 0,0 0 26 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-1-2 38 0 0,-1-1-1 0 0,1 2 1 0 0,-13-15 0 0 0,15 19-54 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-5-2 0 0 0,-35-7 39 0 0,-9-1-205 0 0,49 11-3 0 0,100-13-2703 0 0,-70 13 1772 0 0,-22 1 549 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,5-2 0 0 0,4 0-4415 0 0,2 2-1200 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="549939.88">4254 2279 15199 0 0,'0'0'4456'0'0,"-2"0"-2902"0"0,-33-4 1263 0 0,33 4-1832 0 0,-14 9-310 0 0,11-7-549 0 0,2-1-58 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-4 4-1 0 0,-2 4-35 0 0,-1 5-33 0 0,10-11 0 0 0,0-2 0 0 0,0 8 0 0 0,8-2-15 0 0,1-5-25 0 0,-9-4 48 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-1-1 0 0,1-1 21 0 0,11-1 40 0 0,-2-2-39 0 0,-11 4-21 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,-2-1 1 0 0,-12-6-97 0 0,14 7-5 0 0,-6 0 812 0 0,4 0-2526 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550346.09">4451 2333 13039 0 0,'0'0'10921'0'0,"-2"1"-10059"0"0,-27 27 429 0 0,15-13-1038 0 0,1 0-66 0 0,11-12-163 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-5 2 1 0 0,-1 1 9 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-12 9-1 0 0,12-8-34 0 0,-1-1 0 0 0,-16 10 0 0 0,-15 11 0 0 0,40-28 0 0 0,-7 7 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-17 7 0 0 0,15-8 0 0 0,2-1 1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-10 9 0 0 0,7-3 19 0 0,0 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-15 7 0 0 0,-21 7 59 0 0,-60 36-1 0 0,104-54-77 0 0,-19 7-17 0 0,21-11-57 0 0,6 0-743 0 0,5-1 435 0 0,0 0 0 0 0,-1-1 1 0 0,14-4-1 0 0,2-1-325 0 0,-11 3 203 0 0,0 0 0 0 0,17-10 0 0 0,6-1-1896 0 0,31-11-6640 0 0,-44 17 4120 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550705.89">4187 2597 5551 0 0,'0'0'430'0'0,"1"1"-284"0"0,0 0 290 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,1 33 1675 0 0,0 1 1969 0 0,2-27-3509 0 0,0 0 1 0 0,8 15-1 0 0,-10-22-315 0 0,9 6 19 0 0,-3 0-142 0 0,-5-7 248 0 0,0-1-174 0 0,-2-1-159 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-2 1 0 0,9-20-23 0 0,-6 11 246 0 0,-3 9-256 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-4 0 0 0,-2-2 50 0 0,0 0-1 0 0,-1 0 0 0 0,-5-8 0 0 0,-6-9 10 0 0,14 23-186 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="551058.68">4631 2489 18023 0 0,'0'0'6887'0'0,"2"2"-6638"0"0,2 2-143 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,9 3 1 0 0,-7-4-45 0 0,4 3 14 0 0,18 17 82 0 0,-29-20-153 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3 1-2 0 0,13 3-2 0 0,-15-4 0 0 0,0-3 0 0 0,14 1 0 0 0,12 3-16 0 0,-26 0-75 0 0,12-4-1006 0 0,-13 3 465 0 0,6-3-63 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="551508.35">5035 2432 18543 0 0,'0'0'1932'0'0,"3"2"-1760"0"0,32 7 3372 0 0,-23-7-3573 0 0,-9-1 302 0 0,-1 0-38 0 0,41 17 373 0 0,-40-17-180 0 0,0 1-350 0 0,5 6 2 0 0,-6-7 34 0 0,-1 1-101 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,3 3 18 0 0,5 10 106 0 0,-7-11 553 0 0,-1 0-293 0 0,10 32-208 0 0,-11-34-233 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 1-1 0 0,-1 1-50 0 0,1 0 106 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-9 4 1 0 0,-6 4 16 0 0,-30 12 104 0 0,27-13-165 0 0,13-5-49 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-12-1-1 0 0,18-1-1 0 0,-1 2-10 0 0,3-2 109 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 5 32 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,12 7 0 0 0,-12-10 32 0 0,71 10-73 0 0,-50-8-23 0 0,-21-4 17 0 0,1 0-1 0 0,16 3-1 0 0,15-1 98 0 0,-3-10 226 0 0,-35 9-311 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,3-3 39 0 0,-2 3-83 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,3 2 0 0 0,-4-1-173 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,2-1 0 0 0,6-4-5865 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="551921.19">5400 2536 18543 0 0,'0'0'3821'0'0,"3"0"-2833"0"0,3 1-478 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,7 3-1 0 0,-3-1-122 0 0,-4-1-291 0 0,12 12 98 0 0,-11-10-114 0 0,-6-1-81 0 0,11 15 81 0 0,-10-15-52 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 9 0 0 0,-1 1 48 0 0,-5 0 16 0 0,4-11-82 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-5 2 0 0 0,-16 9 71 0 0,20-10-60 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-11 2-1 0 0,-10 3 49 0 0,20-5-57 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-5-1 0 0 0,-3 2-29 0 0,3 1-110 0 0,1-6-510 0 0,14-5-844 0 0,2-1 1002 0 0,-6 9 477 0 0,9-13-1856 0 0,2 0-3888 0 0,4 5-1777 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="552291.9">5475 2640 5551 0 0,'3'0'68'0'0,"0"0"0"0"0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,3-1 1 0 0,19-2 325 0 0,25 1 11971 0 0,-35 7-8826 0 0,-14-3-3440 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,-2 25 418 0 0,2-25-337 0 0,1 15 161 0 0,-1-14-238 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,3 5-1 0 0,-1-5-70 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,5 0 1 0 0,9 0-54 0 0,-1 0 0 0 0,30-4 1 0 0,-36 1 87 0 0,0 0-1 0 0,0-1 1 0 0,21-9 0 0 0,-6 3-13 0 0,-14 3-97 0 0,0 1-1 0 0,22-15 1 0 0,4-1-211 0 0,-32 17-101 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,11-9 0 0 0,6-5-6121 0 0,-3 6-1722 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="553043">5919 2311 13039 0 0,'-5'-6'6462'0'0,"-9"2"-4488"0"0,-48-4 1189 0 0,61 8-3133 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-2 2 43 0 0,-25 8 158 0 0,17-7-156 0 0,0 0 0 0 0,1 2 0 0 0,-18 9 0 0 0,9-1-60 0 0,1 0 0 0 0,0 1 0 0 0,-27 29 0 0 0,6-3-15 0 0,19-22 0 0 0,-22 29 0 0 0,31-32 0 0 0,8-12 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 9 0 0 0,-4 27-13 0 0,7-39-53 0 0,2 0-7 0 0,0 0 23 0 0,3 4 39 0 0,1-1-1 0 0,0 1 0 0 0,13 8 1 0 0,-17-13-64 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,2 0 0 0 0,16-7-5790 0 0,3-1-2007 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="553768.79">5223 2277 10159 0 0,'0'0'784'0'0,"2"1"-510"0"0,10 2 1038 0 0,0 0 0 0 0,1-1 1 0 0,20 1-1 0 0,-17-2-195 0 0,25-2 2116 0 0,-26 0-2600 0 0,2 1 426 0 0,12 1-321 0 0,-27 0-537 0 0,26 4 267 0 0,-26-4-392 0 0,1-1-4 0 0,1 2 4 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-2-1 1 0 0,4 5-1 0 0,-3-2-51 0 0,1-1-1 0 0,-1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 9 1 0 0,1 131 524 0 0,-3-144-527 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 4 0 0 0,-5 11 113 0 0,7-13-121 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-7 3 0 0 0,-2 2 47 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-27 3 0 0 0,16-3 8 0 0,20-2-67 0 0,-1-2 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-5 0-1 0 0,0-3-1 0 0,6 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-5-1 0 0 0,-5 0 11 0 0,1-4-7 0 0,-2-10-511 0 0,13 13 167 0 0,3 0-480 0 0,3-7 392 0 0,5-8-1539 0 0,1 8-3446 0 0,8 1-2215 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">555 4000 6535 0 0,'0'0'17247'0'0,"0"0"-17991"0"0,2-5 1912 0 0,-4 0-832 0 0,1 3-188 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3-3 0 0 0,-7-2-48 0 0,10 6 436 0 0,1 3-829 0 0,-5 9 186 0 0,-3 21 84 0 0,7-28 23 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,-4 7 0 0 0,-4 11 0 0 0,2 0 0 0 0,0 0 0 0 0,-5 25 0 0 0,11-40 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 8 0 0 0,-10 23 0 0 0,-5 17 403 0 0,21-51-393 0 0,-2 14 20 0 0,3-15-108 0 0,2 0-174 0 0,0 3 179 0 0,-1-4 465 0 0,5 0-239 0 0,11 7-11 0 0,-5-6-110 0 0,-6-2 40 0 0,18 4 7 0 0,9 2 3 0 0,-27-6-69 0 0,29 9 82 0 0,65 22 40 0 0,-93-29-189 0 0,8 4 53 0 0,-8-3 60 0 0,37 13-163 0 0,-40-14-7 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">576 4740 9359 0 0,'0'0'720'0'0,"-9"3"804"0"0,2-3-721 0 0,0-1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-12-5 1 0 0,2 0 247 0 0,4 2-975 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0-1 0 0 0,-16-14-1 0 0,-47-51-56 0 0,74 73-9 0 0,-43-48-755 0 0,-1 1-5323 0 0,27 28 573 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">0 3999 10159 0 0,'5'-4'120'0'0,"-1"1"0"0"0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-2 0 0 0,-1 1 0 0 0,0 0-1 0 0,4-7 1 0 0,10-13 157 0 0,-11 16 75 0 0,5-6 911 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,25-17 1 0 0,123-62 1902 0 0,-152 87-3002 0 0,1 0-1 0 0,-1 1 1 0 0,17-4 0 0 0,15-5 210 0 0,-27 7-268 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,18-1-1 0 0,14 0-92 0 0,48-2-13 0 0,-70 6 76 0 0,0 2 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,29 21 0 0 0,-38-20 7 0 0,1 0 0 0 0,-1 0 1 0 0,17 26-1 0 0,-24-31-61 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 10 0 0 0,-1-4 25 0 0,0-1 0 0 0,-2 1 1 0 0,0 1-1 0 0,-3 22 0 0 0,1-26 37 0 0,-1 0 0 0 0,-7 19 0 0 0,0 2 30 0 0,8-24-100 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-11 13 0 0 0,-5 12 33 0 0,16-25-31 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,-6 7 0 0 0,-28 22 31 0 0,-63 45 1 0 0,80-65-27 0 0,0 0 0 0 0,-1-1 0 0 0,-1-2 0 0 0,-1 0 0 0 0,0-2 0 0 0,-54 18 0 0 0,77-29-124 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-3-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">557 662 6535 0 0,'0'0'696'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">516 525 11831 0 0,'0'0'915'0'0,"-1"3"-600"0"0,-1 7 606 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-7 12 0 0 0,-10 26 555 0 0,-39 127 2108 0 0,41-125-2989 0 0,11-32-324 0 0,-9 32 0 0 0,8-22 46 0 0,8-24-303 0 0,-8 16 31 0 0,7-18-178 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">802 569 18543 0 0,'0'0'3601'0'0,"0"2"-3055"0"0,-12 30 856 0 0,1-2-719 0 0,8-22-598 0 0,0-1 0 0 0,0 1 0 0 0,-8 12-1 0 0,-4 10 137 0 0,5-5-92 0 0,0 1 1 0 0,2 1-1 0 0,-5 29 0 0 0,11-44-118 0 0,0 0-5 0 0,-1 0 0 0 0,-1 0 0 0 0,-4 11 0 0 0,7-22 28 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-2 2 0 0 0,1-2 51 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">459 750 11831 0 0,'2'-2'10033'0'0,"5"-4"-8226"0"0,16 3-1274 0 0,34-1 0 0 0,-25 3-239 0 0,-30 0-283 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,3 2 1 0 0,1 0-8 0 0,13 2-3 0 0,-6-1 11 0 0,-13-3 22 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 2-1703 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">679 1181 18543 0 0,'20'11'1428'0'0,"-16"-9"-554"0"0,-26-7 1436 0 0,7 1-797 0 0,14 4-1286 0 0,-13-4 170 0 0,-81-9 158 0 0,69 6-494 0 0,1-1 0 0 0,0-1 0 0 0,0-1 0 0 0,1-1 0 0 0,1-2 0 0 0,0 0 0 0 0,-32-24 0 0 0,5 2-53 0 0,33 24-13 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,1-1 1 0 0,-25-28-1 0 0,11 7-277 0 0,19 23 252 0 0,0 0-1 0 0,1-1 1 0 0,-8-13 0 0 0,14 21 27 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-7 0 0 0,4-9-105 0 0,0 1 0 0 0,2 0 0 0 0,15-33 0 0 0,-10 30 77 0 0,1 2-1 0 0,1-1 1 0 0,1 2-1 0 0,28-31 1 0 0,-27 32 28 0 0,25-21 160 0 0,-9 11 6 0 0,-22 19-86 0 0,0 1 0 0 0,17-10 0 0 0,10-11 44 0 0,-19 15-122 0 0,1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0 2 0 0 0,1 0 0 0 0,1 1-1 0 0,0 1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 1-1 0 0,38-3 1 0 0,-45 7 1 0 0,-1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,19 23 0 0 0,-6 1 0 0 0,-2 0 0 0 0,0 2 0 0 0,-3 1 0 0 0,-1 0 0 0 0,19 63 0 0 0,-29-74 16 0 0,6 52 0 0 0,-12-65 20 0 0,-2-8-8 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-5 10 0 0 0,-2 3 57 0 0,-1-2-1 0 0,-16 23 1 0 0,21-34-67 0 0,1-1 9 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-11 5 0 0 0,-7 6 14 0 0,-33 18 95 0 0,27-17-80 0 0,18-10 2 0 0,-25 9 0 0 0,1 0-21 0 0,-33 11-602 0 0,41-19 169 0 0,23-6 92 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,-8 4 0 0 0,-2 1-1384 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:53:16.605"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 10 8143 0 0,'2'-9'16296'0'0,"-1"30"-16066"0"0,2 1-1 0 0,7 30 0 0 0,2 19 123 0 0,-8-46-183 0 0,13 46-1 0 0,-10-46-128 0 0,6 34-1 0 0,-11-39-48 0 0,-2-14 82 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,5 10-1 0 0,-5-15-178 0 0,15 4-274 0 0,-13-4 194 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,4-2 1 0 0,16-8-5721 0 0,-2-1-1546 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:53:29.869"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">145 445 10159 0 0,'0'0'12768'0'0,"3"0"-12616"0"0,9 0-35 0 0,-9 0 78 0 0,0-1-115 0 0,14-8-62 0 0,-14 5-13 0 0,-2 1 8 0 0,0 2 14 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1-2-1 0 0,0 1-6 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,2-5 0 0 0,-2 6-29 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0-2-1 0 0,0 1 14 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,1-2-1 0 0,2-6 92 0 0,6-18-2 0 0,-10 26-86 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,3-4 1 0 0,1-2-7 0 0,-5 5 0 0 0,1-1 0 0 0,10-8 0 0 0,-5 7-1 0 0,-4 3-5 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,4-2-1 0 0,0-2-2 0 0,19-11 69 0 0,-20 13-48 0 0,-5 3 22 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,2 0 0 0 0,-2-1 406 0 0,-1 3-409 0 0,14 17 42 0 0,-13-14-72 0 0,4 5-2 0 0,-1 1 0 0 0,-2 16 0 0 0,-2-17 0 0 0,10 28 0 0 0,-9-26 0 0 0,-2-9 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 6 0 0 0,0-1 0 0 0,14 28 0 0 0,-15-32 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 3 0 0 0,2 7 0 0 0,1-5 0 0 0,-1-4 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 6 0 0 0,1-7 0 0 0,-1 1 0 0 0,-2 16 0 0 0,0-6 0 0 0,-1-3-16 0 0,1-9-69 0 0,-4 4-772 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="555.32">242 380 10159 0 0,'0'0'13600'0'0,"0"0"-13578"0"0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 9 0 0,3-1 11 0 0,-10 6-41 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 0 0 0 0,-1 0 17 0 0,-1 0 488 0 0,0 1-430 0 0,28 5 17 0 0,-28-5 52 0 0,0-1 23 0 0,28 7 154 0 0,-26-7-301 0 0,18 6 47 0 0,-10 0-54 0 0,-11-4-10 0 0,-2 0 5 0 0,2-1 107 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1457.05">733 147 13039 0 0,'0'0'2112'0'0,"-1"2"-1324"0"0,-3 6 49 0 0,-3 19 7919 0 0,6-25-9378 0 0,1 1 1000 0 0,0 10 106 0 0,0-9-468 0 0,14 19 707 0 0,15 15-659 0 0,-27-33-64 0 0,1-1 0 0 0,16 11 0 0 0,1-1 34 0 0,26 12-1 0 0,-23-13-20 0 0,-20-11-13 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 0 0 0 0,4 2 0 0 0,31 11 0 0 0,-23-4 175 0 0,-17-10 109 0 0,-11 11-194 0 0,7-8-73 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-4 2 0 0 0,-15 13-16 0 0,-4 2 0 0 0,-37 28 64 0 0,43-36-64 0 0,-3 3 0 0 0,4 2 16 0 0,7-11 118 0 0,10-4-108 0 0,0 0 29 0 0,18 6-2202 0 0,17-3-5669 0 0,-13-4 196 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6387.7">1767 352 6535 0 0,'0'0'1915'0'0,"-3"-13"2328"0"0,3 12-3997 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-2-3 2464 0 0,-4-5-93 0 0,5 7-2313 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-6-4 0 0 0,8 6-228 0 0,-1-1-11 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 2 1 0 0,-3-1-1 0 0,-19 6 29 0 0,19-5-93 0 0,-20 9 0 0 0,2 2 0 0 0,13-6 0 0 0,9-5 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 3 0 0 0,-12 17-16 0 0,-2 7-280 0 0,13-27 288 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 3 0 0 0,0 16 25 0 0,0-17 8 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,2 4 0 0 0,-1 0 41 0 0,0-4-29 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,3 3-1 0 0,-3-4 107 0 0,11 9 132 0 0,5-1-44 0 0,0-2 0 0 0,30 11 0 0 0,-47-19-223 0 0,3 2 11 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,8 0 0 0 0,1 1 0 0 0,80 18 261 0 0,-76-17-272 0 0,15 1-47 0 0,-30-4-122 0 0,9 6-7553 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17325.22">3979 254 18543 0 0,'0'0'3454'0'0,"1"3"-3064"0"0,0-1-231 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 5 1 0 0,0-5-89 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 3 0 0 0,0-5-62 0 0,0 2 21 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 3 1 0 0,-5 15 103 0 0,2 0 0 0 0,1 1 0 0 0,1-1 0 0 0,0 24-1 0 0,2-24-107 0 0,-2-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-11 35-1 0 0,13-55-23 0 0,-3 9 28 0 0,-1 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,-1 17 0 0 0,3-21 25 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-4 8 0 0 0,5-12-63 0 0,0 2 7 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-4 4 0 0 0,2 0-170 0 0,3-5-18 0 0,4-16-1933 0 0,3-3 709 0 0,4-15-2119 0 0,-4 11-1370 0 0,3-4-1159 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17832.74">3976 380 10159 0 0,'0'0'784'0'0,"-1"-3"-510"0"0,-2-12 171 0 0,5 11-287 0 0,2-3 1531 0 0,-4 4-1209 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,3-2 0 0 0,-2 2-206 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,6-1 0 0 0,-8 2-237 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1 0 0 0,18 15 304 0 0,23 23 202 0 0,-27-22-398 0 0,-15-13-152 0 0,-1 0 10 0 0,5 10-19 0 0,-7 0-29 0 0,0-13 50 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-2 0 0 0 0,-36 16 108 0 0,21-11-129 0 0,8-3-163 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-18-1 0 0 0,29 0 190 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,10 16 92 0 0,3-8 23 0 0,-13-8-115 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 31 0 0,5 8 171 0 0,-1-1 0 0 0,12 15 0 0 0,-10-16-118 0 0,-1 0-1 0 0,-1 0 0 0 0,7 13 0 0 0,-7-8-29 0 0,-4-2 5 0 0,-2-7-2 0 0,-1 6 9 0 0,-1 3 3 0 0,-8-4-13 0 0,8-8-61 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,1 1 0 0 0,-1 0 0 0 0,-4-2 0 0 0,-16 0 89 0 0,6-2-42 0 0,11 1-150 0 0,5 2-10 0 0,-12-2-127 0 0,-1 4 809 0 0,10-1-2796 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19242.65">4474 307 8143 0 0,'0'0'3688'0'0,"3"0"-2128"0"0,10 0-102 0 0,-10 0-466 0 0,0 0-206 0 0,11 0-39 0 0,-11 0 701 0 0,1 0-743 0 0,54 15 1217 0 0,-54-14-1436 0 0,-2 1-7 0 0,64 52 1130 0 0,-15-8-858 0 0,-42-39-575 0 0,-6-2-155 0 0,16 11 108 0 0,23 16-41 0 0,-39-31 331 0 0,-2 2-355 0 0,4 5 0 0 0,-4-5 1 0 0,-2-1 6 0 0,0 1-53 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-5 2 0 0 0,-32 23-10 0 0,18-15-76 0 0,-2 3 68 0 0,9-7 0 0 0,-21 19 0 0 0,30-24 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-13 4 0 0 0,-8 6 17 0 0,-128 70 927 0 0,151-82-864 0 0,-3 1-80 0 0,4-2-80 0 0,15-1-155 0 0,7-1-962 0 0,2-3-5772 0 0,-3 0-1006 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20149.4">5278 372 18543 0 0,'0'0'5881'0'0,"2"2"-5650"0"0,20 17 202 0 0,-20-17-251 0 0,-1 1-13 0 0,4 11-23 0 0,-2-9-123 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 7 1 0 0,-1-4-21 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 12 0 0 0,-1-12 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-3 9 1 0 0,-1 4 142 0 0,-12 27 224 0 0,16-42-354 0 0,-11 18-7 0 0,-3-2-48 0 0,5-17-166 0 0,2-1-130 0 0,7-3 58 0 0,-2-1-394 0 0,3 1 614 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-2 0 0 0,0-10-959 0 0,-3-25-2728 0 0,4 12-2148 0 0,2 8 400 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20542.89">5229 507 8575 0 0,'4'-25'-1273'0'0,"3"-14"1045"0"0,-6 36 530 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,5-4 0 0 0,10-5 1477 0 0,1-1 0 0 0,1 2-1 0 0,0 0 1 0 0,21-7 0 0 0,-36 15-983 0 0,10-3 504 0 0,-9 3-1085 0 0,6-2 85 0 0,1 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 2 1 0 0,-1-1 0 0 0,15 5 0 0 0,-21-4-263 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 3 0 0 0,2 0 67 0 0,-7-5-89 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 4 33 0 0,2-1 0 0 0,0 0-8 0 0,6 18 81 0 0,-4-7-30 0 0,6 25-1 0 0,-11-36-76 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-4 10 1 0 0,-1 3 17 0 0,4-13-4 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-7 8 0 0 0,-3 4 23 0 0,11-15-48 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-2 2 0 0 0,-11 5 2 0 0,0 0-1 0 0,0-2 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-2-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 0-1 0 0,-1-2 1 0 0,0 0-1 0 0,-25-2 1 0 0,-11-6 59 0 0,36 5-2350 0 0,1 0-4056 0 0,3 0-1818 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78259.91">2769 488 11431 0 0,'0'0'1140'0'0,"0"1"-1042"0"0,-3 1 102 0 0,2-1 233 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 1 0 0 0,-20-2 607 0 0,7-1 205 0 0,11 1-1005 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-10-5 0 0 0,-33-21 749 0 0,26 14-639 0 0,-31-25 8 0 0,46 35-348 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,-5-4 0 0 0,-4-4 82 0 0,-3-1 88 0 0,1-1 0 0 0,1 0-1 0 0,-22-29 1 0 0,12 3 109 0 0,2 9 138 0 0,23 30-414 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,2-2 1 0 0,3-4-6 0 0,-1 0-1 0 0,2 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,14-9-1 0 0,7-7-13 0 0,-23 19 16 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,6-1-1 0 0,18-10 162 0 0,-22 9-119 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,9-3 0 0 0,25-11 22 0 0,-37 14-64 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,8-1 0 0 0,-3 2 2 0 0,0 0 0 0 0,0 1-1 0 0,20 2 1 0 0,-24-2-13 0 0,-4 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 1 0 0 0,5 1 0 0 0,35 14 0 0 0,-41-15 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 7 0 0 0,3 5 0 0 0,-4 1 0 0 0,-5-7 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 11 0 0 0,3-20 0 0 0,-5 23 0 0 0,2-18 0 0 0,0-1 0 0 0,2 0 5 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-5 6-1 0 0,0-1 6 0 0,7-6-10 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3 1 8 0 0,-3 2 4 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-18-1 1 0 0,3 1 12 0 0,-37 6-1 0 0,10 3-23 0 0,24-2 0 0 0,6-3 0 0 0,16-1 0 0 0,2-1 0 0 0,-2-1-17 0 0,1 1-23 0 0,-7 14 5 0 0,7-14 20 0 0,1 1-1 0 0,-4 16-25 0 0,4-15 28 0 0,0 1-6 0 0,3 19 2 0 0,-1-15 62 0 0,1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,4 12 1 0 0,-5-20 230 0 0,1 1-192 0 0,9 7 82 0 0,1-1 0 0 0,24 16 0 0 0,-33-23-70 0 0,4 0 54 0 0,-2 2-129 0 0,23 4 66 0 0,-20-6-98 0 0,-2-1-7 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,12-1-1 0 0,25 0 98 0 0,-38 0-80 0 0,24-1-109 0 0,-2 0-94 0 0,-25 1 32 0 0,14-3-234 0 0,-11 2 105 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,7-4-1 0 0,7-8-7251 0 0,-10 4 156 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79084.48">3357 436 6535 0 0,'0'0'500'0'0,"-1"2"-50"0"0,-16 16 6816 0 0,15-15-6740 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-5 2 1 0 0,3-3-187 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-9-2 0 0 0,6 0-282 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,2 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-12-14 1 0 0,-23-24-60 0 0,32 35 8 0 0,1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-10-18 0 0 0,8 8-8 0 0,6 13 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-13 0 0 0,1 2 14 0 0,0 9-25 0 0,0 0 1 0 0,1-1 0 0 0,2-17-1 0 0,-1 24 9 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,5-3-1 0 0,9-5 44 0 0,-14 10-41 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 4 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,3 0-1 0 0,71-8 773 0 0,-63 8-609 0 0,-4-1-92 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,7 2 0 0 0,-1 1-270 0 0,-7-3 102 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,9 8 0 0 0,-4-2 92 0 0,-6 3 13 0 0,-8 2 41 0 0,-2 2-41 0 0,-2-5-13 0 0,-3-2-11 0 0,1-6-76 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-16 4 0 0 0,22-6 12 0 0,-7 1-107 0 0,0 0 0 0 0,-1-1 1 0 0,-12 0-1 0 0,23-1 170 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-3 3 1 0 0,-9 2 7 0 0,-10 0-48 0 0,19-1 55 0 0,1 0-4 0 0,-10 4 2 0 0,3 4 0 0 0,1 16-140 0 0,9-27 125 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,3 9 109 0 0,-4-9-59 0 0,1 3-8 0 0,9 11 126 0 0,-8-13-109 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,5 2-1 0 0,40 6 531 0 0,-28-6-260 0 0,-15-1-235 0 0,24-2 179 0 0,-20-1-207 0 0,23 4 56 0 0,-23-2-74 0 0,14-1 78 0 0,-16-1-72 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,11 1-1 0 0,-13-1-46 0 0,3 0-31 0 0,14 9 243 0 0,-7-4 135 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81148.08">0 837 9359 0 0,'0'0'976'0'0,"3"0"-896"0"0,24 0-109 0 0,9-6-264 0 0,-11 6-113 0 0,3-1 1716 0 0,-1 2 0 0 0,43 6 0 0 0,-31 0 133 0 0,1-3 0 0 0,43 0 0 0 0,80-9-164 0 0,-114 3-991 0 0,38-3-229 0 0,-39 1 163 0 0,92 4-1 0 0,-117 2-159 0 0,163 9 268 0 0,-143-10-243 0 0,114-6 762 0 0,-73-1-629 0 0,45-4-64 0 0,162-9-156 0 0,-237 18 0 0 0,43-11 0 0 0,-26 3 0 0 0,314-6-120 0 0,-302 14 88 0 0,22 2-47 0 0,57-2 78 0 0,-1-7-110 0 0,110-6-130 0 0,64-3 491 0 0,-128 8 51 0 0,-80 5-246 0 0,271-2-309 0 0,-314 6 254 0 0,82 3 68 0 0,42 1 182 0 0,-63-4-224 0 0,274 16-124 0 0,-150-16-106 0 0,23 2 182 0 0,-111-3 415 0 0,60 5-198 0 0,163 30 181 0 0,-389-33-376 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,15-2 0 0 0,-16 1-34 0 0,0 2 0 0 0,15 0-1 0 0,-16 1-55 0 0,0-1 0 0 0,1-1-1 0 0,12-1 1 0 0,-6-2-444 0 0,35-7-44 0 0,-20-1-5659 0 0,-16 3-78 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:55:11.729"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">61 548 6535 0 0,'0'0'7040'0'0,"-1"2"-6388"0"0,-8 14 4728 0 0,4-13-5031 0 0,5-3-302 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0-43 0 0,2-5 49 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-5-1 0 0,-2 9-46 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-2-3 0 0,4-9-2 0 0,5 3 0 0 0,4-11 62 0 0,-12 16-28 0 0,27-42 446 0 0,-24 37-449 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,14-9 0 0 0,-17 13 48 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,6-9 0 0 0,-5 6-2 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,12-8 0 0 0,-18 13-34 0 0,3-6-31 0 0,4-1-11 0 0,2 4 0 0 0,-2 0 0 0 0,0-1 0 0 0,1 8 0 0 0,1 6 0 0 0,-1 0 0 0 0,0 8 0 0 0,17 46 0 0 0,-6-5 0 0 0,-15-35 0 0 0,6 13 0 0 0,-2-13 0 0 0,-9-17 0 0 0,-2-2 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 3 0 0 0,5 28 71 0 0,-9-20 100 0 0,1-8-133 0 0,1-1 185 0 0,-5 12-638 0 0,4-14 274 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="631.55">327 377 10159 0 0,'0'0'3290'0'0,"0"3"-2484"0"0,0 11 5634 0 0,-4-5-2709 0 0,3-8-3763 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0-247 0 0,-4-2-2200 0 0,2 0 2527 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-7 3 4128 0 0,11-3-4069 0 0,14-2-130 0 0,-10 3-24 0 0,4 3 2 0 0,36 14 356 0 0,-44-17-159 0 0,2 0 25 0 0,0 0-119 0 0,25 9 219 0 0,-29-10-272 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,2 0-2 0 0,41-4 12 0 0,-41 4 57 0 0,4-3 8 0 0,-4 2-8 0 0,4-3-40 0 0,-5 4-132 0 0,11-7-8224 0 0,-4 1 365 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1549.38">810 199 18543 0 0,'0'0'1428'0'0,"-1"2"-924"0"0,-13 18-416 0 0,6-8 143 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-6 17 0 0 0,7-8 207 0 0,6-18-340 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-4 7-1 0 0,3-7-23 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 7 0 0 0,-6 14 58 0 0,5-23-113 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 6 0 0 0,1-1 77 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,-1 14 0 0 0,4-4 77 0 0,4 5-136 0 0,-7-17-30 0 0,0-4-8 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 2-1 0 0,0 10-19 0 0,1-11-91 0 0,0-4-255 0 0,16-13-77 0 0,-14 13 338 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-3 0 0 0,5-14-751 0 0,-4 11-276 0 0,0 1 1 0 0,-1-1-1 0 0,-1 0 0 0 0,3-13 1 0 0,-2-6-823 0 0,0-30 1 0 0,0 38 1514 0 0,-3 18 376 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-3 0 0 0,-20-38 1605 0 0,20 35-1092 0 0,-2-9 8261 0 0,2 11-7046 0 0,1 3-741 0 0,5 0-790 0 0,-4 3-123 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,9-1 97 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 1 0 0,13 6-1 0 0,-10-3 42 0 0,-2 1 1 0 0,1-1 0 0 0,14 13-1 0 0,-7-6-122 0 0,-13-13-32 0 0,-3-2 4 0 0,1 2 2 0 0,16 13 61 0 0,-18-12-50 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,2 14 2 0 0,-6-11-18 0 0,1-5 1 0 0,2 0-43 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-3 0 0 0 0,2 2 99 0 0,-4 1-57 0 0,4 0-61 0 0,-2 3 61 0 0,4-4 318 0 0,0 2-208 0 0,-1 11-86 0 0,-4 9 30 0 0,6-18-28 0 0,3 6 184 0 0,0 7 43 0 0,8 30-1 0 0,-10-46-62 0 0,-2 0-106 0 0,-3 11 2 0 0,-5 14 78 0 0,3-19-141 0 0,1-2-12 0 0,4-5-3 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-5 0 0 0 0,-9 4 108 0 0,11-3-132 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,-7-1 0 0 0,-20-4-309 0 0,30 5 141 0 0,0-1-782 0 0,-8-3-624 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2118.09">1 1 18023 0 0,'0'0'2938'0'0,"3"1"-2418"0"0,51 7 1090 0 0,-35-6-944 0 0,31 7 0 0 0,64 17 415 0 0,-84-20-919 0 0,26 4 87 0 0,1-2 0 0 0,0-2-1 0 0,0-3 1 0 0,0-2 0 0 0,97-12 0 0 0,148-21 220 0 0,-167 21-526 0 0,-98 9 114 0 0,-1 2-186 0 0,-33 0-38 0 0,14-2-214 0 0,19-3-383 0 0,-14 0-7342 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2702.87">1496 242 19119 0 0,'0'0'2728'0'0,"1"3"-2035"0"0,27 61 2370 0 0,-17-47-2944 0 0,14 13-118 0 0,-23-27-66 0 0,1-1-17 0 0,1 2 64 0 0,-1-2 28 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 1-1 0 0,17-15-473 0 0,-3 4-152 0 0,-18 5 361 0 0,1 1 0 0 0,-1 0 0 0 0,12-2 0 0 0,8-3-614 0 0,-24 6 474 0 0,15 0-42 0 0,-5-1 214 0 0,-4 3 2651 0 0,-14 10-1380 0 0,0-4-949 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-8 6 1 0 0,-16 16-60 0 0,9-4 341 0 0,20-22-247 0 0,2-1-118 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 1 0 0 0,2-2-3 0 0,-1 2-9 0 0,-1 0 22 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,1 4 0 0 0,-1-7-23 0 0,2 8 46 0 0,1-1 0 0 0,0 0 0 0 0,6 9 0 0 0,-8-14-46 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,5 3 0 0 0,3 5 81 0 0,4 5 9 0 0,-12-13 25 0 0,1-1 7 0 0,28 0 83 0 0,-25 0-217 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-7-1 0 0,14-9-315 0 0,-21 15-254 0 0,1-1 1 0 0,-1 0-1 0 0,11-9 0 0 0,-2-1-5538 0 0,0 0-1937 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3116.1">2672 285 18543 0 0,'-28'-7'6497'0'0,"21"5"-6311"0"0,2 1 79 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,-8-1 0 0 0,-17 0 15 0 0,-9 1-32 0 0,22 1-248 0 0,13-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 2 0 0 0,-9 7-9 0 0,8-5 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-10 10-1 0 0,13-12 17 0 0,0 0 6 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-6 13-1 0 0,0-1-14 0 0,8-17 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,2 8 0 0 0,-2-14 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,5 6 0 0 0,-4-4 20 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,6 4-1 0 0,1 2 15 0 0,-5-4-72 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,8 3 0 0 0,-12-4-141 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,9-3-1 0 0,7-1-6189 0 0,3 1-1761 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3563.69">3097 373 18023 0 0,'0'0'2799'0'0,"0"3"-1888"0"0,1 2-617 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,3 6 0 0 0,-5-10-266 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 2-1 0 0,0 1 73 0 0,0 21 259 0 0,1-22-339 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-3 3 1 0 0,2-2 3 0 0,-1 1 16 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-5 3 0 0 0,-4 6 196 0 0,3-3-120 0 0,7-7-121 0 0,-1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,-7 0-1 0 0,10 0-13 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-3-1 0 0,3 3 1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-3 1 0 0,4-7 33 0 0,3-6 131 0 0,-3 14-106 0 0,-3 2-1 0 0,12-10 110 0 0,-12 9-92 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 2 0 0 0,6-4 0 0 0,6-1 142 0 0,-10 4-171 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,9 1 0 0 0,1 2 4 0 0,-10-3-24 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,7 7-1 0 0,3 0 38 0 0,-1 1-1 0 0,0 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,-1 0 1 0 0,12 17-1 0 0,-19-25-56 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 6 0 0 0,1 0-3 0 0,6 11-39 0 0,-12-14 55 0 0,1-3-4 0 0,3 23-25 0 0,-3-25-111 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4392.82">3787 334 18023 0 0,'0'0'2560'0'0,"2"0"-1917"0"0,28 11 1321 0 0,-27-9-1356 0 0,1 0-7 0 0,11 2-372 0 0,0 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,22 14-1 0 0,-34-20-226 0 0,13 8 27 0 0,15 7 23 0 0,-21-12-52 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,13 4 0 0 0,5-3 0 0 0,-20-7-1 0 0,-2 1-13 0 0,-3 1-70 0 0,4-2-443 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4761.59">3952 338 18023 0 0,'1'4'132'0'0,"0"0"-1"0"0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-3 7 0 0 0,-8 57-1471 0 0,5-31 225 0 0,7-29 842 0 0,-2 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-5 7 0 0 0,3-6-87 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-4 18-1 0 0,6-23 301 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3 3 0 0 0,2-2 91 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 5 0 0 0,4-6 75 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-3 3 0 0 0,2-2 530 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-3 5-1 0 0,4-5-433 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-6 4 3361 0 0,11-4-3280 0 0,3 2-185 0 0,0-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,10-3-1 0 0,-5 1-31 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,11-8-1 0 0,21-9-37 0 0,-33 17-406 0 0,0 0 0 0 0,1-1 0 0 0,10-8 0 0 0,2-2-5779 0 0,2 0-2084 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5100.81">4802 327 23327 0 0,'0'0'531'0'0,"-1"2"77"0"0,-4 6-469 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-13 7 0 0 0,-13 13 43 0 0,26-21-121 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-12 3 1 0 0,-19 11-74 0 0,21-10-377 0 0,0-1 0 0 0,0-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-30 2 1 0 0,35-5-377 0 0,11-1-22 0 0,-1-1-89 0 0,-18-5-1761 0 0,19 5 1204 0 0,-2-17-3804 0 0,0 17 5189 0 0,0 10 1874 0 0,-12 33 4137 0 0,11-29-5133 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-3 19 0 0 0,6-21-537 0 0,0-9-215 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 3 1 0 0,1-1 28 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,4 2 0 0 0,7 3-26 0 0,0 0-1 0 0,20 6 0 0 0,-14-5 0 0 0,-16-9-64 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,8-2 0 0 0,-6 2-30 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,8-4 1 0 0,-4 2-73 0 0,-7 2-5 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,4-4-1 0 0,-4 5-909 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,4-2 1 0 0,17-5-7107 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5479.75">5117 390 18023 0 0,'0'0'5529'0'0,"-1"3"-4374"0"0,-16 45 554 0 0,11-32-1404 0 0,-8 24 0 0 0,4-7-44 0 0,5 3-252 0 0,4-26-27 0 0,2-1-73 0 0,-1-7-34 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5819.28">5214 484 18023 0 0,'0'0'1878'0'0,"1"3"-1782"0"0,3 13 1619 0 0,-1 1 1 0 0,2 25-1 0 0,-4-35-1556 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,-4 7 0 0 0,2-4-115 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-10 11-1 0 0,5-3 28 0 0,9-12-34 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-5 5 1 0 0,7-8-208 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6224.7">5686 454 9359 0 0,'2'1'9803'0'0,"6"0"-7987"0"0,0 0-1 0 0,0 0 1 0 0,13 0 0 0 0,-11-1-1692 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 1 0 0,9 3-1 0 0,-6-1-69 0 0,0 1 1 0 0,-1 1 0 0 0,0 0 0 0 0,16 11-1 0 0,-14-4-28 0 0,-1 1 37 0 0,-11-11-55 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-5 4-1 0 0,-3 3 34 0 0,-1-1 0 0 0,0-1 0 0 0,-22 16 0 0 0,22-17-27 0 0,-4 2 24 0 0,0-1 0 0 0,-17 9 0 0 0,28-16-63 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-8 1-1 0 0,0 1-126 0 0,11-3-54 0 0,-12 0-203 0 0,-10-1-1155 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:55:29.965"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 18543 0 0,'0'0'2738'0'0,"3"0"-2356"0"0,35 4 1806 0 0,67 14-1 0 0,-81-13-2058 0 0,-8-1-25 0 0,-13-3 0 0 0,1 0 0 0 0,13 4-14 0 0,55 13 129 0 0,-32-10-92 0 0,-20-6-115 0 0,-5-3 4 0 0,-13 0 232 0 0,-3 0-242 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2-1 0 0 0,-1 2-6 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-8 2 0 0 0,-3 1 0 0 0,-29 9-56 0 0,19-4 8 0 0,19-7 28 0 0,1 1 0 0 0,0 0 0 0 0,-10 6-1 0 0,-15 6 22 0 0,26-14-1 0 0,2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 3 0 0 0,-3 5 0 0 0,5 2 0 0 0,7-1 0 0 0,5-2 11 0 0,-2-4 31 0 0,-4-2-32 0 0,30 11 64 0 0,6 2 8 0 0,-17-7 72 0 0,-21-8 76 0 0,-12 10-151 0 0,8-9-68 0 0,-8 9 49 0 0,4-4-19 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-15 10 0 0 0,15-11-84 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-6 10-1 0 0,5-4-9 0 0,0 16 53 0 0,7-12 29 0 0,-1-7-49 0 0,-1-3 2 0 0,1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,6 7-1 0 0,8 19 1 0 0,-3-11 25 0 0,-7-17 14 0 0,-1 0 12 0 0,-1 2 2 0 0,-2-4-34 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 1 0 0 0,16 9 11 0 0,-18-10 51 0 0,1-1 3 0 0,2-1-38 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,5-3-1 0 0,0-1-72 0 0,-7 4-50 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,3-2-1 0 0,2-6-1770 0 0,-3 5-177 0 0,0 0 1 0 0,0 1-1 0 0,7-9 1 0 0,5 0-3970 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368.01">817 120 20847 0 0,'0'0'2809'0'0,"3"2"-2530"0"0,2 3-93 0 0,1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,11 3 1 0 0,14 1 20 0 0,-19-7-175 0 0,28-3-28 0 0,-29 4-3 0 0,36-4 0 0 0,4-4-393 0 0,-45 2-57 0 0,-5 2-1374 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="703.32">965 116 20559 0 0,'0'0'2143'0'0,"1"2"-2034"0"0,4 12 415 0 0,0 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,2 20 0 0 0,-2-12-270 0 0,-2-22-301 0 0,-1 3-7 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 6 0 0 0,-7 5-7100 0 0,1-6-582 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="704.32">806 397 22375 0 0,'0'0'1720'0'0,"1"3"-1109"0"0,1 1-548 0 0,9 22-6 0 0,-8-21-24 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,10 2 0 0 0,-11-3-101 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,8-3 0 0 0,9-3-6359 0 0,-4-1-1597 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1085.49">1404 148 13039 0 0,'0'0'10748'0'0,"0"4"-9632"0"0,0 2-997 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-5 10-1 0 0,-4 7 418 0 0,-17 23 1 0 0,19-32-492 0 0,2-4-38 0 0,-1 0 1 0 0,-16 16-1 0 0,-9 12 44 0 0,11-15 8 0 0,16-17-35 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-3 10 1 0 0,6-15-95 0 0,2-4-65 0 0,2 0 134 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,7-1-1 0 0,23-9 5 0 0,-4 0-56 0 0,-10 4 41 0 0,-14 8 14 0 0,-3 0-3 0 0,9 3 12 0 0,-8-2 12 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,4 4 0 0 0,10 7 278 0 0,-4-4-208 0 0,1-1 1 0 0,0-1-1 0 0,21 9 0 0 0,-3-6-80 0 0,-18-11-14 0 0,-4 0 0 0 0,-3-1-25 0 0,0 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,10-11 1 0 0,1 3-289 0 0,-14 11 220 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,4-4-1 0 0,-2-2-201 0 0,12-12-7143 0 0,-2 7-687 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1518.14">1827 158 9359 0 0,'0'0'15829'0'0,"5"0"-15594"0"0,82-3 917 0 0,-75 2-1036 0 0,-1 2-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,16 6-1 0 0,-24-6 204 0 0,1-1-186 0 0,0-1-129 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,7 4-1 0 0,-5-2 9 0 0,-4-3 47 0 0,0 0-98 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,2 3 0 0 0,-2-3-297 0 0,-3 1-1069 0 0,-6 10 57 0 0,6-9 941 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-3 4 0 0 0,-5-1-894 0 0,8-4 929 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 3 0 0 0,2-2 139 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-2-1 0 0 0,4 1 209 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 2 0 0 0,-1 0 217 0 0,-15 18 3223 0 0,14-19-3064 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,5 16 2478 0 0,-2-16-2680 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,8 10-1 0 0,-11-14-57 0 0,1 1-30 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,3 2 0 0 0,6 3 94 0 0,4 4 1 0 0,-12-7-27 0 0,-1-2-9 0 0,32 10-1 0 0,-31-10-106 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,7-2 1 0 0,0 0-6 0 0,0-2 0 0 0,18-10 0 0 0,13-5-359 0 0,-36 18 80 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1-1-1 0 0,6-5 0 0 0,10-12-6974 0 0,-12 6-575 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1969.27">2582 13 18543 0 0,'0'0'7472'0'0,"3"1"-7053"0"0,10 3-47 0 0,-10-3 460 0 0,-1 2-615 0 0,12 18 5 0 0,-13-14-239 0 0,-2-3 28 0 0,1 0-34 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,-3 4-1 0 0,-4 3-456 0 0,-1-1 0 0 0,0 0-1 0 0,-16 9 1 0 0,18-12-177 0 0,7-4-190 0 0,-1 0-923 0 0,3-1 1719 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,7 19 3296 0 0,15 20-2212 0 0,-20-37-818 0 0,0 1-65 0 0,12 19 514 0 0,29 31 1 0 0,-1 0 75 0 0,-40-51-628 0 0,3 11 111 0 0,-4-11-218 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-1 12 0 0,-1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-6 2 0 0 0,-3 1 25 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,-12 3 0 0 0,-8 2-115 0 0,1-2 0 0 0,-61 9 0 0 0,48-9-183 0 0,32-5 119 0 0,-1-1-1 0 0,-13 1 1 0 0,-28 2-655 0 0,31-2-2830 0 0,11-1-837 0 0,-3-1-3328 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:55:36.132"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">520 249 6535 0 0,'-1'1'500'0'0,"1"0"-488"0"0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-2 0 144 0 0,-99 38 10694 0 0,86-31-9891 0 0,9-4-625 0 0,-1-1 53 0 0,1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-11 10 0 0 0,1 0 75 0 0,12-11-376 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-5 8 0 0 0,1 2-65 0 0,5-11-5 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 3 0 0 0,0-3 58 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,4 3 0 0 0,-3-2 29 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,14 9 0 0 0,-13-11-47 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,12-1 0 0 0,-12 1-71 0 0,0-2 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,8-5 0 0 0,10-10-7685 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="656.66">808 296 18543 0 0,'0'0'6431'0'0,"1"3"-6023"0"0,13 75 701 0 0,0 2-553 0 0,-8-54-449 0 0,-2-6-103 0 0,-3-12 5 0 0,3 7-9 0 0,2-2 11 0 0,-5-11 6 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1033.47">874 324 10159 0 0,'0'0'784'0'0,"2"-1"-510"0"0,21-13 1393 0 0,-1 0 4908 0 0,-20 13-5252 0 0,9-8 629 0 0,29-7 72 0 0,-14 8-1522 0 0,-23 7-324 0 0,-1 1-9 0 0,5-3 37 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0 0 0 0,14 0-1 0 0,-10 1-229 0 0,-9-1 31 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 1-1 0 0,2 2 13 0 0,-3-2 3 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,6 8 1 0 0,-2-3 19 0 0,-1 2 0 0 0,-1-1 1 0 0,7 17-1 0 0,-3 1 58 0 0,-8-23-88 0 0,3 14-12 0 0,-6-14 0 0 0,0 0 0 0 0,2-2 27 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-3 4 1 0 0,-2 3 36 0 0,4-6-58 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-9 3-1 0 0,-5 5 6 0 0,-28 11-8 0 0,22-11-25 0 0,16-9-45 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-10-1 0 0 0,3 1-38 0 0,-53 2-3110 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1863.09">1 56 16559 0 0,'0'0'6173'0'0,"4"0"-5542"0"0,21-2-272 0 0,1 1 1 0 0,0 1-1 0 0,-1 1 0 0 0,40 8 0 0 0,27 9 382 0 0,170 14 1 0 0,-99-17-530 0 0,-98-8-27 0 0,11 2-11 0 0,-24-2-103 0 0,-1-2 1 0 0,78-3-1 0 0,-90-3-57 0 0,-22 1-14 0 0,0-1-1 0 0,18-3 0 0 0,-9 3 156 0 0,-17 1-98 0 0,1 0 1 0 0,-1 0-1 0 0,10-2 0 0 0,-14 0-46 0 0,-5 2-7 0 0,31 6-14 0 0,-30-5-63 0 0,5 2-242 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5990.68">2047 378 18543 0 0,'0'0'5565'0'0,"0"1"-5485"0"0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 6-75 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-5 10 1 0 0,7-14-2 0 0,-6 7 52 0 0,4-6-48 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-3 1-1 0 0,-16 12-8 0 0,17-6 0 0 0,5-9 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 1 0 0 0,-38 21 0 0 0,39-21 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-3 0 0 0 0,-2-1 0 0 0,-5 2 0 0 0,-3-2-18 0 0,-1-6-60 0 0,14 5 30 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-4 0 0 0,0 3-97 0 0,13-17-28 0 0,2-4 163 0 0,29-38 10 0 0,-36 52 0 0 0,6-5 0 0 0,-10 12 1 0 0,8-5 9 0 0,-10 5 32 0 0,2-3-2 0 0,-1 4 28 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,6-1 0 0 0,-7 2 15 0 0,14-4 56 0 0,-13 3-124 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,8-1 0 0 0,-1 0 94 0 0,4 3-76 0 0,3 2-3 0 0,-11-2-29 0 0,23 6 0 0 0,18 8 176 0 0,-39-13-174 0 0,-8-2-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1 0-10 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,4 3-1 0 0,5 2-6 0 0,-6-3 27 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,4 7 0 0 0,12 12 46 0 0,-19-17-56 0 0,5 11-2 0 0,-5-12 6 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 6 0 0 0,0 2 51 0 0,-2 0 0 0 0,-4 17 0 0 0,-2 3-46 0 0,6-28-5 0 0,-2 23 57 0 0,3-24 23 0 0,-3 13-284 0 0,4-17 150 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,10-7-5927 0 0,3-3-2217 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7492.94">3011 221 12207 0 0,'0'0'8728'0'0,"-8"-15"-2431"0"0,5 8-6038 0 0,3 7-256 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-12 28-77 0 0,1-1 1 0 0,1 1-1 0 0,2 1 0 0 0,0 0 0 0 0,-6 58 0 0 0,12-72 11 0 0,1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,3 25-1 0 0,10 22 47 0 0,-9-49 2 0 0,2 4-71 0 0,-1-6 32 0 0,4-4 41 0 0,-7-6 12 0 0,3 1-1 0 0,13-7 18 0 0,-13 3 10 0 0,4-3 9 0 0,10-6-29 0 0,-13 7-7 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,4-9 0 0 0,0 4-161 0 0,2-3-942 0 0,-7 3-5850 0 0,-1-2-1037 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7874.47">2892 339 10159 0 0,'0'0'13107'0'0,"1"2"-12654"0"0,1-1-341 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,3-1 0 0 0,31-1 726 0 0,-7 1-463 0 0,-21 1-278 0 0,-6-1-67 0 0,23-5-10 0 0,-17 4-172 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,12-6-1 0 0,2-1-406 0 0,-19 9 281 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8218.7">2931 425 18023 0 0,'0'0'2642'0'0,"1"3"-1912"0"0,15 15 774 0 0,-14-16-916 0 0,1-2-68 0 0,9 3-316 0 0,-3-1 3 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,11-5 0 0 0,25-7-318 0 0,-43 13-95 0 0,-1-2-46 0 0,1 0 62 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,3-2 0 0 0,-3 2-88 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-2 0 0 0,1 0-1188 0 0,4-11-5744 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8591.27">3345 240 18543 0 0,'0'0'3868'0'0,"0"3"-2855"0"0,0 1-758 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 4 0 0 0,-3 15 284 0 0,6-21-503 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-4 3 1 0 0,5-4-20 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,-6 10 2 0 0,-9 2 62 0 0,15-11-90 0 0,1-1 4 0 0,-1-1-77 0 0,8 1-297 0 0,5 2 30 0 0,-3-4 93 0 0,1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,15-6 1 0 0,0 1 202 0 0,-22 6 61 0 0,14-3 9 0 0,-15 3 503 0 0,-4 2-407 0 0,-23 26 3 0 0,17-17-118 0 0,-4 3 3 0 0,9-10 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-5 4 0 0 0,5-5 2 0 0,2-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,-1 3-1 0 0,2-4 130 0 0,2 2-98 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,4 4-1 0 0,-2-2 21 0 0,-2-3 89 0 0,0 0 19 0 0,1 2-104 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,8 6-1 0 0,-8-8 29 0 0,-2 0-7 0 0,8 2-16 0 0,-7-1-44 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 0 0 0 0,-5 0-12 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,3-1 0 0 0,19-11 26 0 0,13-6-106 0 0,-36 19-28 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-2-1 0 0 0,2-2-1 0 0,1-1-893 0 0,5-7-5097 0 0,-1 0-1949 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8993.77">3697 285 22375 0 0,'0'0'2331'0'0,"0"2"-2187"0"0,0 4-61 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 8 0 0 0,5-11 21 0 0,-5 11-10 0 0,4-10-1676 0 0,12-10-1115 0 0,-4 3 2147 0 0,9-7-4284 0 0,24-12 0 0 0,-13 12 18434 0 0,-31 25-12863 0 0,5-11-615 0 0,-12 25 508 0 0,5-15-9018 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9405.19">3986 264 18543 0 0,'0'0'1932'0'0,"1"3"-1834"0"0,0 1 163 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 6 0 0 0,-3 11 786 0 0,-8 22 0 0 0,5-16-771 0 0,2-13 65 0 0,5-13-335 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 3-1 0 0,-4-6-310 0 0,4 2 282 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,22-11-1092 0 0,2-1-1414 0 0,-8 4-2970 0 0,-5-1-1654 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9811.95">4115 345 21855 0 0,'0'0'2199'0'0,"1"2"-2018"0"0,23 35 1224 0 0,-23-35-1154 0 0,0 2-166 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 4 1 0 0,3 6 41 0 0,3 16 42 0 0,-10-28-54 0 0,-7 14 141 0 0,4 8-147 0 0,2-21-101 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-3 4 1 0 0,-2 3 93 0 0,-1-1 0 0 0,-12 13-1 0 0,-7 10 110 0 0,22-27-210 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-7 6 0 0 0,-2 2 15 0 0,6-7 57 0 0,0 3-202 0 0,7-7 82 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 0-215 0 0,3-2-578 0 0,-3-13-90 0 0,-1-3-6251 0 0,7 7-488 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10218.18">4860 0 18543 0 0,'0'0'2998'0'0,"0"3"-1919"0"0,0 2-679 0 0,-1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-5 7 0 0 0,-5 16 404 0 0,4-13-516 0 0,-3 10 65 0 0,7-12-352 0 0,2-9 0 0 0,1-2 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-3 1 0 0 0,-17 12-460 0 0,19-13 176 0 0,0 0-41 0 0,-21 0-232 0 0,11-1-4167 0 0,8 0 1461 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10560.4">4604 193 13039 0 0,'0'0'10249'0'0,"10"-2"-9333"0"0,29 0 691 0 0,30-4-1052 0 0,-23 1-407 0 0,-39 5-100 0 0,-4 0 209 0 0,0 0 68 0 0,28 0 262 0 0,-28 0-688 0 0,10 2-443 0 0,-12-2 535 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 2 7 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-2 1-1 0 0,-26 19 47 0 0,21-15-37 0 0,-34 19-7 0 0,22-14 0 0 0,-10 0 32 0 0,26-10-30 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-3 3-1 0 0,5-4-90 0 0,1 1-70 0 0,-6 4 157 0 0,21-1 55 0 0,-5-4-16 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,10-2 1 0 0,10-2-9 0 0,-24 4 24 0 0,-4 1-28 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 1 1 0 0,-17 19 56 0 0,7-9-80 0 0,6-10-4 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3 1 0 0 0,-11 7-20 0 0,13-8 154 0 0,5 1-58 0 0,4 3-544 0 0,-12-10 686 0 0,-7-5-2194 0 0,-2 2-5075 0 0,0 2-825 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11782.99">4523 292 8143 0 0,'0'2'10598'0'0,"-6"15"-5927"0"0,4-13-4354 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 7 0 0 0,0-10 325 0 0,19 18-467 0 0,-10-12-111 0 0,-8-7-58 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 0 0 0 0,2 1 7 0 0,2 1-1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,14 0-1 0 0,-5-1-1 0 0,-13 1-10 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,6-1 0 0 0,4-2 0 0 0,4 2-23 0 0,-14 2-85 0 0,15-4-121 0 0,-11 3-13 0 0,-1-1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,6-5 1 0 0,25-12-720 0 0,-21 10 602 0 0,-13 7 303 0 0,1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,10-3-1 0 0,31-10 165 0 0,-43 13 52 0 0,12 4 2807 0 0,-18 3-2902 0 0,-1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-2-1 0 0,0 1 0 0 0,-15 7 0 0 0,19-11-63 0 0,-31 13-2 0 0,27-12 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-7 4 0 0 0,6-3-32 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-16 4 0 0 0,12-4-11 0 0,0 1 0 0 0,0 0 0 0 0,0 1-1 0 0,-10 6 1 0 0,20-10 963 0 0,-1-1-913 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-3 2 0 0 0,-8 6-81 0 0,-13 3 61 0 0,-19 5 0 0 0,30-10-53 0 0,-2-5 138 0 0,13-3 278 0 0,11 0-182 0 0,70-2-103 0 0,1 3-65 0 0,-59-1 88 0 0,25 3 0 0 0,40 2 104 0 0,-26-10-32 0 0,-47 5-145 0 0,-3 1-35 0 0,0-2 0 0 0,0 1 1 0 0,12-5-1 0 0,-1 0 19 0 0,-18 3-4 0 0,-1 1-5 0 0,1 0-41 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-3 0 0 0,-1 4-1 0 0,0 0-148 0 0,-5-14-580 0 0,1 10 375 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-9-3 0 0 0,-3-2 6151 0 0,16 9-5454 0 0,-4 2 462 0 0,4-2-485 0 0,0 1-147 0 0,-36 88 807 0 0,24-71-777 0 0,11-17-137 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 2 0 0 0,0 0-10 0 0,0-1 8 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-5 7-1 0 0,4-5 4 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,1 11 0 0 0,1 3-3 0 0,-6-16-10 0 0,-2 1 48 0 0,1 2-52 0 0,3-6-69 0 0,32-4-736 0 0,-28 2 666 0 0,1-2-3 0 0,0 2 97 0 0,2-1 8 0 0,14-12-96 0 0,-9 6 74 0 0,-5 4 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,5-6 0 0 0,-5 3-54 0 0,-3 6-423 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-2 1 0 0,11-3-7778 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14378.47">5788 289 18543 0 0,'0'0'4903'0'0,"1"2"-4711"0"0,0 1-160 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 4 0 0 0,-3 14-17 0 0,4-16-44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,-6 5 1 0 0,-10 14 55 0 0,5-6 54 0 0,2-2-9 0 0,1 1-1 0 0,-11 20 0 0 0,4-8-70 0 0,14-22 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-5 9 0 0 0,-18 51 0 0 0,24-61-37 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 9 0 0 0,-1 10-246 0 0,3-23 313 0 0,-1 1 0 0 0,2 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,2 4 1 0 0,-3-4 99 0 0,1 0-102 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,4 2 0 0 0,10 4 85 0 0,-12-6 113 0 0,0 0-131 0 0,3 0-83 0 0,10 2 52 0 0,24-7-51 0 0,5-8 157 0 0,-43 12-259 0 0,1-2-62 0 0,38-14-568 0 0,-40 16 712 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,0-2-1539 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14795.99">5557 455 18543 0 0,'0'0'2416'0'0,"1"3"-2225"0"0,0-1 74 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,3 2 1 0 0,-1-1-81 0 0,0 0-143 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,6 2-1 0 0,5 1 46 0 0,-10-2-29 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,7 1 1 0 0,38 6 108 0 0,-38-5-155 0 0,-10-2 17 0 0,2-1-427 0 0,3-1 270 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15152.06">5550 588 6535 0 0,'0'0'500'0'0,"-2"2"92"0"0,-6 12 11580 0 0,19-10-4805 0 0,1-3-6465 0 0,-2 0-3316 0 0,28 5 2599 0 0,53-2-144 0 0,-84-3-199 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,11-2 1 0 0,-1-2-6544 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15529.82">6134 399 18023 0 0,'0'0'1387'0'0,"4"0"-896"0"0,8-1 333 0 0,0-1 1 0 0,15-3 0 0 0,10-2 2039 0 0,33-4-1332 0 0,-67 11-1400 0 0,0 0-4 0 0,34 5 0 0 0,0 3-128 0 0,-23-7 0 0 0,-5-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,14 3 0 0 0,-9 0-13 0 0,-10-4-57 0 0,13 1-127 0 0,-9-1-4241 0 0,-16-2 2712 0 0,-8 2-2195 0 0,8 1-2900 0 0,8-1 5567 0 0,-16 1-338 0 0,0 0 3499 0 0,9 3 170 0 0,-1 0 4826 0 0,4 12-1989 0 0,3-9-4539 0 0,-3 10 241 0 0,4-14-336 0 0,2-1-35 0 0,4 19 82 0 0,-3-13-126 0 0,0 0 0 0 0,0 0 0 0 0,6 11 0 0 0,-3-8-93 0 0,-4-8-152 0 0,4 12-196 0 0,5 4-4017 0 0,-7-14 896 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15912.55">6239 661 18543 0 0,'0'0'2880'0'0,"2"3"-1939"0"0,41 65 2650 0 0,-41-66-3395 0 0,1 0-4 0 0,31 13 384 0 0,-5-7-506 0 0,-22-8-30 0 0,0-1-30 0 0,11 1-164 0 0,0-2 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-2 0 0 0,0 0 0 0 0,-1-2 1 0 0,0 1-1 0 0,17-10 0 0 0,-13 7-479 0 0,-17 6 247 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,7-6 1 0 0,3-3-4981 0 0,5 2-1449 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16285.35">6822 465 13039 0 0,'0'0'11952'0'0,"0"2"-11537"0"0,-1 2-278 0 0,1-2-87 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-2 3-1 0 0,-53 67 502 0 0,0-5-302 0 0,-4 4-228 0 0,61-71-24 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 5-3 0 0,-11 7-181 0 0,11-13 98 0 0,22-13 18 0 0,-14 8 11 0 0,-1 1-1 0 0,18-7 1 0 0,27-17 268 0 0,-32 21 358 0 0,-18 8-491 0 0,-1 1-119 0 0,3 3 98 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,6 6 0 0 0,-6-6-6 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,12 6 0 0 0,36 15 18 0 0,-51-24 4 0 0,0-2 9 0 0,26-1 66 0 0,-23 1-159 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,4-5-1 0 0,4-3-343 0 0,22-22 0 0 0,-30 27 258 0 0,8-6-176 0 0,-11 9 187 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,3-4 0 0 0,-1-1-170 0 0,-2 4-806 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3-3 0 0 0,11-8-6964 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16615.75">7204 373 22975 0 0,'0'0'1125'0'0,"2"0"-490"0"0,24 0-46 0 0,-9-1-207 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,17 5 0 0 0,-32-6-273 0 0,-1 1-94 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,1 2 1 0 0,2 0 21 0 0,-1-1-29 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,3 3 0 0 0,14 13-104 0 0,-17-17 118 0 0,1 3 28 0 0,5 11-31 0 0,-6-13-79 0 0,-3 0-435 0 0,0 1 349 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-4 1-1 0 0,5-2 42 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-3 3-425 0 0,-64 45-5358 0 0,65-48 5980 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-2 4 0 0 0,0 0 677 0 0,-2 6 1353 0 0,3-9-1736 0 0,1 0 1631 0 0,0-1-1070 0 0,13 27 602 0 0,-11-27 43 0 0,1 1-1318 0 0,2 0-201 0 0,33 18 344 0 0,-33-19-401 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,8 0 1 0 0,-3 1 60 0 0,-9-1-63 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,9-2 34 0 0,-8 4-50 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,5-2-1 0 0,-1 0-60 0 0,-3 2-55 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,4-4 1 0 0,5-2-6868 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16962.06">7702 322 21943 0 0,'0'0'2285'0'0,"3"0"-2167"0"0,44-7 671 0 0,-44 7-432 0 0,13-4 486 0 0,30-2 796 0 0,-45 9-1574 0 0,4 8-26 0 0,-5-9-51 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-2 1-1 0 0,-1 1-303 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,-8 5 1 0 0,10-7-73 0 0,-13 9-5924 0 0,-2-2-2080 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17300.08">7633 515 18543 0 0,'0'0'1932'0'0,"7"11"4"0"0,31 12 1519 0 0,-26-16-3116 0 0,1 0 0 0 0,-1 1 0 0 0,20 19 0 0 0,0 10-101 0 0,-21-20-166 0 0,-8 14 180 0 0,-2-31-243 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 1 21 0 0,0 2 0 0 0,-1 1-23 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,-9 6 1 0 0,-15 8 5 0 0,20-11 8 0 0,5-4-16 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-4 0 0 0 0,-22 5-112 0 0,27-6 17 0 0,-19-2-443 0 0,21 1 457 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-2 1 0 0,2-10-7919 0 0,5 2 381 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:56:46.682"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">340 10 10159 0 0,'0'0'9398'0'0,"-6"-9"-2668"0"0,5 10-6622 0 0,0 0-107 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 3 0 0 0,-2 4-1 0 0,-3 5-10 0 0,0-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-5 19 0 0 0,5-13 6 0 0,-10 24 1 0 0,9-32 29 0 0,2 1 0 0 0,0 1 1 0 0,-2 12-1 0 0,-6 22 6 0 0,-23 79 79 0 0,9-31 39 0 0,4-20-83 0 0,19-64-52 0 0,-5 15 113 0 0,6-23-235 0 0,3-4-25 0 0,2-1-9 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,3-4 0 0 0,12-20-7266 0 0,-7 11-364 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.48">520 248 13039 0 0,'0'0'12432'0'0,"1"3"-12143"0"0,21 43 415 0 0,-22-44-689 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,0 10 24 0 0,2-9-38 0 0,0-1 10 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-3 4 0 0 0,2-2 16 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,2 12 0 0 0,-1 5 27 0 0,-1 2 23 0 0,2-17-36 0 0,-2 1 0 0 0,-2 19 0 0 0,2-28-32 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 5-1 0 0,-1-1-7 0 0,-7 40 0 0 0,5-36 152 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="697.23">164 499 12207 0 0,'0'-1'943'0'0,"0"-2"-211"0"0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-4 0 0 0,3-9 2612 0 0,7 11-1378 0 0,-11 4-1870 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,3-1 0 0 0,29 4 491 0 0,-23-2-571 0 0,38 10-68 0 0,12 4 120 0 0,-57-14 7 0 0,11 0 47 0 0,15 0-135 0 0,-20-5-103 0 0,-4 1-19 0 0,-4 2-185 0 0,6-12-7367 0 0,-2 0-567 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1119.33">477 119 16239 0 0,'0'0'6452'0'0,"0"2"-6060"0"0,12 43 636 0 0,-12-44-997 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 1 1 0 0,-1 3 78 0 0,4 60 578 0 0,-5-53-663 0 0,3-9-65 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 1 0 0 0,20 0-13972 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1907.01">559 845 18023 0 0,'0'0'1387'0'0,"-2"1"-896"0"0,-24 12 95 0 0,25-12-548 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,-20 2 1662 0 0,-41-4 1 0 0,30 1-1188 0 0,20 1-342 0 0,1-1 0 0 0,0 0 0 0 0,-18-5 0 0 0,20 4-46 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-12 1 0 0 0,15 1-79 0 0,0-1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-11-4 1 0 0,-2-3 108 0 0,13 6-118 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-12-11 1 0 0,3-3-36 0 0,8 8 14 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-22 0 0 0,2 15 65 0 0,1 1 0 0 0,3-29 0 0 0,-2 11-149 0 0,0 26 62 0 0,0-1 1 0 0,2-15-1 0 0,2-6 194 0 0,-4 26-155 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,7-11 1 0 0,-5 10-15 0 0,0-1 1 0 0,-1 1-1 0 0,4-12 1 0 0,-6 14-12 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,7-6-1 0 0,78-62 61 0 0,-87 71-66 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 0 0 0 0,3 0-3 0 0,7-5 2 0 0,28-5 0 0 0,0-1 0 0 0,-20 6 0 0 0,1 1 0 0 0,0 1 0 0 0,27-1 0 0 0,-33 3 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 2 0 0 0,1 0 0 0 0,21 3 0 0 0,57 20 0 0 0,-58-16 0 0 0,-24-5 0 0 0,0-1 0 0 0,13 6 0 0 0,-15-4 0 0 0,5 3 0 0 0,0 0 0 0 0,23 15 0 0 0,-33-19 0 0 0,18 10 14 0 0,-3-1 27 0 0,0 0 0 0 0,0 2 1 0 0,24 22-1 0 0,-44-36-41 0 0,11 9-9 0 0,-2 0-1 0 0,13 13 1 0 0,-20-19 6 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 6 1 0 0,1 11 3 0 0,-1-18 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 6 0 0 0,-4 10 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-11 25 0 0 0,-11 15-27 0 0,14-28 0 0 0,0-1 1 0 0,-29 41-1 0 0,23-39 40 0 0,16-22-13 0 0,-1-1-1 0 0,0 0 1 0 0,-11 11-1 0 0,8-11-1 0 0,-5 8-28 0 0,-2-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,-34 23 0 0 0,16-14-34 0 0,26-17 93 0 0,0 0 1 0 0,0 0-1 0 0,-15 6 0 0 0,-30 15-18 0 0,35-21-7 0 0,15-6-6 0 0,1-2-19 0 0,3 2 20 0 0,-2 1-19 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-3 0 0 0,2 2-60 0 0,9-12-220 0 0,-2-1 113 0 0,0 0-1881 0 0,3 0-3590 0 0,7-2-2664 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2554.82">1170 278 18543 0 0,'0'0'6389'0'0,"3"0"-6250"0"0,175 36 1829 0 0,-161-33-1768 0 0,30 10 0 0 0,-9-2 21 0 0,-13-2-191 0 0,-22-8 34 0 0,-6 0-36 0 0,1-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-3 1-1 0 0,-13 9 112 0 0,-30 4-140 0 0,-37 16 0 0 0,82-30 2 0 0,-19 2-19 0 0,22-3 12 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,24 19-22 0 0,-22-18-45 0 0,6-1-63 0 0,19 12 92 0 0,-5-6 368 0 0,-24-3-318 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-6 4 0 0 0,-58 50 47 0 0,63-54-53 0 0,-2 4 0 0 0,-5 16 0 0 0,11-22 0 0 0,-1 1 17 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 5 0 0 0,0-4 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,6 1 0 0 0,-4-1-19 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,8 1 0 0 0,-4-1 11 0 0,-5 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,4-2 0 0 0,6-2 10 0 0,-7 3-363 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7-5 0 0 0,-2 0-1814 0 0,-1 0 0 0 0,17-18 0 0 0,-17 13-6470 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-18T22:56:50.828"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">127 152 13039 0 0,'0'0'1572'0'0,"1"-2"-405"0"0,-1-1-828 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-3-7 4071 0 0,0 2-3239 0 0,3 6-1113 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1-16 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,-1 0-42 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-2 5 1 0 0,-28 156 761 0 0,32-160-758 0 0,-6 46 13 0 0,5-32-17 0 0,-5 26-1 0 0,-6 27 95 0 0,-2 16-26 0 0,25-169-8089 0 0,-8 58 3098 0 0,2-1-1098 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="456.49">24 285 5615 0 0,'1'-3'430'0'0,"10"-44"-149"0"0,-7 23 1267 0 0,-1-3 1524 0 0,-3 22-2317 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3-5-1 0 0,0-17 2717 0 0,-3 25-1868 0 0,1 1-1533 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 74 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,24-22 1020 0 0,-23 23-862 0 0,1 0-27 0 0,3-1-204 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,0 1-29 0 0,-4-2-6 0 0,0 0 1 0 0,-1 1-1 0 0,12 9 0 0 0,-7-7-7 0 0,-2 0-10 0 0,-1 0 1 0 0,19 16-1 0 0,-22-17-18 0 0,0 0 0 0 0,0 0 0 0 0,6 9 0 0 0,-4 1 0 0 0,-8-14-1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-5 3 0 0 0,-9 11 14 0 0,15-15-15 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-4 3 0 0 0,-7 2-30 0 0,10-4-6 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-10 0-1 0 0,4-2 55 0 0,-1 1 57 0 0,10 6 70 0 0,12 11 136 0 0,-7-12-246 0 0,42 65-113 0 0,-37-55 181 0 0,14 30-1 0 0,-15-29-45 0 0,-4-6-8 0 0,0-1 9 0 0,-1 0 0 0 0,0 0 1 0 0,3 14-1 0 0,-3-13-42 0 0,-1-4-14 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 9 0 0 0,0-8 18 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-7 4 0 0 0,2-2 29 0 0,5-4-31 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4 2 0 0 0,-11 3 35 0 0,16-5-64 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-6 1 0 0 0,5-1-6 0 0,4 0 19 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1-1 0 0 0,-25-10-21 0 0,26 12-12 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 1 0 0,2 1-43 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-4-1 0 0,3-11-1601 0 0,4 2-4457 0 0,5 0-2194 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.19">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2795.33">1703 10 20847 0 0,'0'0'2091'0'0,"1"2"-1914"0"0,0 3-75 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8 0 0 0,-9 47 471 0 0,3-21-260 0 0,-23 165 487 0 0,10-78-725 0 0,13-89-27 0 0,3-27-46 0 0,1 0-1 0 0,0 19 1 0 0,-1-17-1 0 0,2-10-3 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 2 1 0 0,0-3-78 0 0,-1-5-1201 0 0,-2-8 512 0 0,-3-14-1520 0 0,3 8-2825 0 0,3 0-1922 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3209.13">1592 181 19551 0 0,'9'-24'712'0'0,"-8"19"-510"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,5-9 0 0 0,0 4 153 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,18-7 0 0 0,-21 9-193 0 0,3-1 23 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,19-3-1 0 0,51-3 264 0 0,-76 9-433 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 1 1 0 0,9 2-1 0 0,4 1 67 0 0,30 2 1 0 0,7-2 212 0 0,1 1 42 0 0,-55-5-337 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 1 0 0 0,0 1 0 0 0,11 3 0 0 0,-1 1 11 0 0,-9-4 8 0 0,-1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 6 0 0 0,3 6 108 0 0,10 24-1 0 0,-13-28-110 0 0,-1 2-16 0 0,0 0 0 0 0,5 28 0 0 0,-6-21 0 0 0,3 48 0 0 0,-3-47 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,-3 36 0 0 0,2-26 0 0 0,0-18 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 15 0 0 0,4-22 0 0 0,-5 18 0 0 0,3-20 3 0 0,1-4-4 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-86 0 0,-2-3-303 0 0,-1-1 273 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-2-6 0 0 0,-8-16-1082 0 0,2 11 336 0 0,-9-15-5921 0 0,8 8-678 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3682.75">1869 227 18023 0 0,'0'0'6535'0'0,"12"-9"-4849"0"0,13-2-1418 0 0,-22 11 171 0 0,0 0-343 0 0,30-2 64 0 0,-30 2-241 0 0,-1 1-462 0 0,-1 1 505 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 3-1 0 0,-5 8-432 0 0,1 0-1 0 0,-10 12 1 0 0,7-11 299 0 0,1 0 106 0 0,1-1-1 0 0,0 2 0 0 0,1-1 1 0 0,1 1-1 0 0,-8 27 1 0 0,8-18 49 0 0,7-17 18 0 0,0-2-3 0 0,4 13 1 0 0,-6-15 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 1-1 0 0,-4 2 151 0 0,0-4-140 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 16 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,3-1 360 0 0,24 6 382 0 0,-25-5-528 0 0,13-8 278 0 0,-14 6-492 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1-2 20 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-5-5 1 0 0,-4-6 212 0 0,11 13-247 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-2 1 1 0 0,-15-7-5 0 0,-2-1-161 0 0,14 4-3743 0 0,28-10-3576 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5304.85">2609 134 6535 0 0,'9'-11'18963'0'0,"-8"11"-18767"0"0,-3 39-149 0 0,-8 46-1 0 0,-2 25 94 0 0,12-98-109 0 0,0 0 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,11 19 0 0 0,-6-20 109 0 0,2 2-37 0 0,3-3-61 0 0,2-4-20 0 0,-15-5-19 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,2-1 1 0 0,3-1 5 0 0,1 2-9 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,6-7 1 0 0,-2-8 6 0 0,-1 1-81 0 0,-5 17-4 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0-2-1 0 0,1-14-995 0 0,0 17 804 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-4 0 0 0,-5-22-7092 0 0,7 13 1125 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5695.21">2881 55 21855 0 0,'0'0'2199'0'0,"-1"3"-1965"0"0,-22 46 1094 0 0,23-44-1208 0 0,0-2-112 0 0,0 22-216 0 0,3-18-153 0 0,0-4 345 0 0,-2-1-436 0 0,11 3-1081 0 0,-10-3 1359 0 0,1-1-360 0 0,0-1-411 0 0,7 0 195 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6046.79">3254 115 5695 0 0,'-1'3'8215'0'0,"-7"26"-750"0"0,-3 1-4008 0 0,5-18-3240 0 0,2 1 1 0 0,-1 0 0 0 0,2 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 15 1 0 0,3-23-218 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,3 7-1 0 0,-3-9-33 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 3 0 0 0,0 0-53 0 0,-2-1 39 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,8 4 1 0 0,-8-6-28 0 0,12 3-1 0 0,0-6 256 0 0,-2 0-100 0 0,-2-1-84 0 0,-9 2-89 0 0,-2 3-152 0 0,-1 0 230 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,-1 3 1 0 0,0-2-16 0 0,-4 5 4 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,-11 7-1 0 0,17-12 26 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 3 1 0 0,-17 20 1 0 0,16-22 0 0 0,3-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 4 0 0 0,0-4 30 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,7 11 110 0 0,21 12-112 0 0,-12-16-28 0 0,-12-8-4 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,7-7-1 0 0,8-4-424 0 0,-15 10 43 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,5-8 0 0 0,1-3-5247 0 0,-3 0-1707 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6576.55">3572 205 18543 0 0,'0'0'2124'0'0,"4"1"-1624"0"0,64 7 1915 0 0,-27-7-1411 0 0,-34 0-934 0 0,0 0-11 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,8-1-1 0 0,1 1 35 0 0,9 1-72 0 0,-19-5-24 0 0,-3 1 4 0 0,13-2-99 0 0,-12 4 30 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,5-5-1 0 0,-3 4 69 0 0,15-13 0 0 0,-1 2-20 0 0,-17 14-76 0 0,-2-1 89 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0 3 48 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,-2 7-1 0 0,-2 4 31 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,-14 16 0 0 0,13-18-73 0 0,-2 0 0 0 0,1-1 0 0 0,-16 9-1 0 0,22-15-88 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-8-1-1 0 0,-17 0-139 0 0,29-2 334 0 0,-6-4 105 0 0,5 3-153 0 0,2 2-21 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1 27 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,2-1-1 0 0,3 2-10 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,4 7-1 0 0,-4-5-19 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 15 1 0 0,-2-17-24 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-6 11 0 0 0,2-4-6 0 0,7-11-5 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1-87 0 0,15-12-2624 0 0,-9 9 2495 0 0,22-29-3172 0 0,-16 19-1279 0 0,2-3-2447 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7223.76">4162 158 18023 0 0,'0'0'1878'0'0,"8"-6"-964"0"0,-5 2-366 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,8-2 0 0 0,-9 4-223 0 0,0 1-65 0 0,29 1 204 0 0,-30 0-322 0 0,2-1-41 0 0,32 11 94 0 0,-33-9-86 0 0,0 0 3 0 0,0 1-76 0 0,14 18 123 0 0,-11-10-200 0 0,-5-7 30 0 0,0 9-59 0 0,-2-11 68 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2 2 0 0 0,-32 16-65 0 0,29-16-11 0 0,0-1 1 0 0,0 1-1 0 0,-1-2 0 0 0,-7 2 1 0 0,6-1-85 0 0,1 0 0 0 0,-1 0 0 0 0,-10 4 0 0 0,18-6 165 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 13 0 0,1 0 48 0 0,1 5-54 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,4 8-1 0 0,0 0 68 0 0,-4-7-56 0 0,1-1 0 0 0,0-1 1 0 0,4 9-1 0 0,0-3-4 0 0,-2 0-1 0 0,0 0 1 0 0,4 15 0 0 0,-6 19-2 0 0,-3-46-9 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,-1 1-1 0 0,-3 9 147 0 0,4-9-137 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,-3 2 0 0 0,1-1-3 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-10 2 0 0 0,10-3-32 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-5-2 0 0 0,8 3 19 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 5 0 0,-1-6 65 0 0,1 4-45 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,2-4-1 0 0,1-5-15 0 0,-3 9 114 0 0,0-1-89 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,5-4 0 0 0,-3 4-52 0 0,1-2-181 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,11-6-1 0 0,-11 7-583 0 0,-1-1 0 0 0,1-1 0 0 0,8-6-1 0 0,-5 3-4092 0 0,4-2-3289 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7749.78">4365 94 5695 0 0,'2'-1'12708'0'0,"27"-5"-6419"0"0,-3 2-4854 0 0,-14 2-1297 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 2-1 0 0,0-1 1 0 0,15 5 0 0 0,19 2 199 0 0,-39-6-299 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 1-1 0 0,7 7 1 0 0,-4-4-27 0 0,11 15 40 0 0,-1 2-41 0 0,-14-20 12 0 0,-2-4-5 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 4 0 0 0,-1 11-5 0 0,0-10-6 0 0,-1 3-22 0 0,-14 15 119 0 0,12-20-91 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-8 6 1 0 0,-34 29-41 0 0,34-29 10 0 0,10-7 32 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-6 2 1 0 0,8-3-11 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 3 0 0 0,-5 3-61 0 0,4-6 27 0 0,3 0 19 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1 0-158 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8163.65">4515 643 20559 0 0,'0'0'2143'0'0,"1"2"-2034"0"0,3 5 146 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 13 1 0 0,0-17 69 0 0,-1-1-164 0 0,-7 12 34 0 0,7-12-175 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-2 3 0 0 0,1-3 4 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-4-2 0 0 0,6 1-27 0 0,-2 1 79 0 0,-10-16-303 0 0,11 12 220 0 0,1 2 13 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-3-4 0 0 0,3 3 513 0 0,0 4-546 0 0,0 0 41 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-4 2 0 0 0,-12 5 146 0 0,6 1-12 0 0,7 0-57 0 0,3-7-82 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3 2 1 0 0,5-3-175 0 0,11-6-64 0 0,8-1 7 0 0,-16 6 79 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,4-5 1 0 0,9-10-6076 0 0,5 1-1997 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5062,13 +7747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:BJ93"/>
+  <dimension ref="B4:BJ94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" outlineLevelCol="1"/>
@@ -6870,52 +9555,96 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:62">
-      <c r="B25" s="1"/>
+    <row r="25" spans="2:62" ht="55.3">
+      <c r="B25" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:62">
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:62">
-      <c r="B27" s="1"/>
+    <row r="27" spans="2:62" ht="409.3" customHeight="1">
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:62">
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:62" ht="409.6">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="2:62">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6925,7 +9654,9 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -6935,7 +9666,6 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -7559,6 +10289,16 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:B19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A17C1-3464-45A8-8EB2-7067C3110789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC5DBA1-2279-4A27-8860-64B67C3D1662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="パターン一覧" sheetId="1" r:id="rId1"/>
     <sheet name="メソッド新規のものを追加するには" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="構造" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$4:$H$1341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$4:$H$1341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">パターン一覧!$B$6:$B$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -1358,12 +1359,487 @@
 2022.03.25 15:36:54.608	2019.12.30 23:59:59   ★結果:name=Method_B1_1 ; 数=7 ; 勝数=4 ; 負数=3 ; 勝Pips=153.2 ; 負Pips=300.9 ; 勝率=0.571 ; 期待値=-21.1 ; Pf=0.51 ; タープ期待値=-0.07012296</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>B1_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件を絞る。
+①パターンの有効期間→ADの意味座標のバーを越えたら無効とする。
+②TPとSLの比率が一以上
+サイズ。TPが５Pipsなどはやめる？ATRと相談？</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>イミザヒョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>classTradeMethodbase.mqh</t>
+  </si>
+  <si>
+    <r>
+      <t>Tick_TMBs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TMBs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hyouka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>virtual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hyouka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//　評価・状態遷移含む処理</t>
+    </r>
+  </si>
+  <si>
+    <t>各クラスで個別定義のHyouka</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コベツテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hyouka_kakuteiとhyouka_zig_kakuteiの順で呼ぶ。ベースの時間軸の確定足で呼び出す。</t>
+    <rPh sb="34" eb="35">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ジカンジク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どの時間足のZigを使用するか決めて、パターンが成立したかなど確認する。</t>
+    <rPh sb="2" eb="5">
+      <t>ジカンアシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hyouka_kakuteiは確定足毎の処理を実施。エントリーやExit処理を実施する。</t>
+    <rPh sb="15" eb="17">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内で、cn_outの配列にパターンのデータを一時的に書き込む</t>
+    <rPh sb="0" eb="1">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Addの時に、上記のcn_outから情報を取得する</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンを形づける最後のzignoが最後に登録したものを違っていたら、登録</t>
+    <rPh sb="5" eb="6">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じでないなら登録。下記の判断</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hyouka_zig_kakuteiは、中で、</t>
+    <rPh sb="20" eb="21">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン確定後Status</t>
+    <rPh sb="4" eb="6">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリー中はStatus</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無効化</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価完了</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウカカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリー処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exit処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューに入れて処理</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信側が準備できているときに、送信する。</t>
+    <rPh sb="0" eb="3">
+      <t>ジュシンガワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★Tickにsend_syori_entry_exit_sendの確認が必要（そうしないと、重複した依頼をしたとき、遅い（次の確定足を待たないと、依頼できないため、よくない）→Tickごとに依頼をずらす。</t>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>カクテイアシ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>send_ctr_tick_exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　で対応済み→クローズ</t>
+    </r>
+    <rPh sb="19" eb="22">
+      <t>タイオウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,6 +1862,52 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1407,7 +1929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1430,6 +1952,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3542,8 +4074,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>1155856</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="インク 8">
@@ -3562,7 +4094,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="インク 8">
@@ -3607,8 +4139,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>1179361</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="インク 26">
@@ -3627,7 +4159,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="インク 26">
@@ -3672,8 +4204,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>1361521</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="インク 46">
@@ -3692,7 +4224,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="インク 46">
@@ -3737,8 +4269,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>867241</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="インク 61">
@@ -3757,7 +4289,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="インク 61">
@@ -3802,8 +4334,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>2010615</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="インク 76">
@@ -3822,7 +4354,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="インク 76">
@@ -3867,8 +4399,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1134375</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="インク 82">
@@ -3887,7 +4419,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="インク 82">
@@ -3932,8 +4464,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1633695</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="インク 83">
@@ -3952,7 +4484,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="インク 83">
@@ -3997,8 +4529,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1531095</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="106" name="インク 105">
@@ -4017,7 +4549,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="106" name="インク 105">
@@ -4062,8 +4594,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>826935</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="インク 109">
@@ -4082,7 +4614,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="インク 109">
@@ -4127,8 +4659,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1139146</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="345" name="インク 344">
@@ -4147,7 +4679,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="345" name="インク 344">
@@ -4192,8 +4724,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1076866</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="366" name="インク 365">
@@ -4212,7 +4744,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="366" name="インク 365">
@@ -4257,8 +4789,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>2431186</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="427" name="インク 426">
@@ -4277,7 +4809,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="427" name="インク 426">
@@ -4322,8 +4854,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3190066</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="444" name="インク 443">
@@ -4342,7 +4874,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="444" name="インク 443">
@@ -4387,8 +4919,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>4407226</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="509" name="インク 508">
@@ -4407,7 +4939,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="509" name="インク 508">
@@ -4452,8 +4984,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3830866</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="514" name="インク 513">
@@ -4472,7 +5004,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="514" name="インク 513">
@@ -4517,8 +5049,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3889906</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="515" name="インク 514">
@@ -4537,7 +5069,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="515" name="インク 514">
@@ -4582,8 +5114,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>4410106</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="518" name="インク 517">
@@ -4602,7 +5134,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="518" name="インク 517">
@@ -4647,8 +5179,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>2421826</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="529" name="インク 528">
@@ -4667,7 +5199,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="529" name="インク 528">
@@ -4712,8 +5244,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>2142106</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="530" name="インク 529">
@@ -4732,7 +5264,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="530" name="インク 529">
@@ -4777,8 +5309,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3099346</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="549" name="インク 548">
@@ -4797,7 +5329,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="549" name="インク 548">
@@ -4842,8 +5374,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3537466</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="567" name="インク 566">
@@ -4862,7 +5394,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="567" name="インク 566">
@@ -4907,8 +5439,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3573826</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="574" name="インク 573">
@@ -4927,7 +5459,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="574" name="インク 573">
@@ -4972,8 +5504,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3999706</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="604" name="インク 603">
@@ -4992,7 +5524,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="604" name="インク 603">
@@ -5037,8 +5569,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>4464106</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="613" name="インク 612">
@@ -5057,7 +5589,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="613" name="インク 612">
@@ -5102,8 +5634,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>4417306</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="632" name="インク 631">
@@ -5122,7 +5654,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="632" name="インク 631">
@@ -5152,6 +5684,495 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33B594A-3291-4EB1-B5C3-509718158250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2153479" y="2333329"/>
+          <a:ext cx="6195391" cy="1784314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419803</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>117198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9002569C-3B0D-4E35-85A2-5910E3D96A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3478696" y="6725478"/>
+          <a:ext cx="8768672" cy="2204415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354760</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>223163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C258E702-A449-4E52-96C0-57AB9DADFE3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3478696" y="9276522"/>
+          <a:ext cx="1050499" cy="223163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9465</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>203515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>24211</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>183879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF803102-2861-48BF-A303-8091114BC00F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3488161" y="9943863"/>
+          <a:ext cx="2797702" cy="212277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75727</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>56795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411610</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>112190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F873479-171E-4AE1-AA3E-3E408551ED2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4250162" y="9565230"/>
+          <a:ext cx="3118839" cy="751134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476435</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>185062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EC051C-42C8-4D7D-A28C-C4F2C30A5148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2087217" y="15770087"/>
+          <a:ext cx="2563653" cy="185062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241149</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>200014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3476366B-741C-4B45-8C80-C409FE457605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2782957" y="16002000"/>
+          <a:ext cx="9285757" cy="1823405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415598</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>223163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAF84CF-CDDC-49E6-A038-8FFBC0EA77BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2782957" y="18089217"/>
+          <a:ext cx="1807076" cy="223163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373019</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>33622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1491C2E-08DE-4A85-A467-430268D01EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3478696" y="18321130"/>
+          <a:ext cx="2460236" cy="729362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4733</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>37863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57580</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7EECAD-DA8E-42BD-B84A-707C23BB9A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4179168" y="19054733"/>
+          <a:ext cx="2835803" cy="195948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>105693</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>17294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50CEB04-C20D-4D8F-B9BE-32FBD801BEF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4870174" y="19248783"/>
+          <a:ext cx="5671606" cy="713033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5223,7 +6244,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">416 2 10159 0 0,'0'0'1768'0'0,"2"17"2314"0"0,-4 2-2143 0 0,3-15-1755 0 0,-2 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 5 1 0 0,-1 13 410 0 0,-2 5-117 0 0,1-15-202 0 0,0 0 0 0 0,1 0 0 0 0,1 1 1 0 0,-2 13-1 0 0,3-16-133 0 0,1-10-210 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415.05">414 14 6535 0 0,'0'0'500'0'0,"15"-3"3712"0"0,-12 4-3779 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 6 0 0 0,13 16 1100 0 0,9 2 389 0 0,-25-26-1878 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-1 1 0 0,0 0 19 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-4 0 0 0,8-5 82 0 0,-12 9-129 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-2 0 0 0,-1-2-5 0 0,-4 67 896 0 0,8-25-569 0 0,-2-19-507 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="832.8">731 202 14687 0 0,'0'0'1646'0'0,"7"-12"804"0"0,-3-7-1492 0 0,2 0 0 0 0,0 1 0 0 0,1 0 0 0 0,17-31-1 0 0,-19 41-854 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,11-10 0 0 0,-14 16-106 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,-5 2 25 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 2 0 0 0,-1-2-65 0 0,0 2-55 0 0,3 7 78 0 0,1-1 0 0 0,-2 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-3 19 0 0 0,2-28 20 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-3 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 2-1 0 0,-6 8-196 0 0,4-8 69 0 0,2-1-150 0 0,-1 4 258 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.63">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.61">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.06">996 33 15199 0 0,'0'0'6352'0'0,"18"10"-4313"0"0,-7-3-1877 0 0,4 2 66 0 0,-1 1 0 0 0,0 0-1 0 0,17 17 1 0 0,-26-21-244 0 0,-4-5-63 0 0,1 4 1894 0 0,0-2-3438 0 0,22-14-18182 0 0,-23 9 20155 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1-2 0 0 0,-1 3-173 0 0,-1 0-25 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-4-3 2903 0 0,-37 9 5076 0 0,31-3-8017 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-14 11 0 0 0,8-5-67 0 0,1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-13 18-1 0 0,13-21-43 0 0,12-9-4 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 0-367 0 0,5-1 174 0 0,1-1 97 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12192.16">1415 5 6535 0 0,'-3'1'5160'0'0,"-11"3"-1348"0"0,13-3-3604 0 0,-2-1-29 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 3 0 0 0,-10 11 142 0 0,1 0-1 0 0,0 0 1 0 0,2 1 0 0 0,-18 33 0 0 0,16-21 392 0 0,1 0 0 0 0,2 1 0 0 0,-10 44 0 0 0,17-61-586 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,2 0 0 0 0,6 19 0 0 0,-6-24-76 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,12 9 0 0 0,-17-14-168 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0-324 0 0,4-4-1364 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14506.99">1537 566 11743 0 0,'0'0'1338'0'0,"22"-34"3115"0"0,-17 25-3954 0 0,0 1 0 0 0,0 0 0 0 0,11-14 0 0 0,-1 3-199 0 0,42-62 463 0 0,-45 62-287 0 0,2 2 1 0 0,0 0-1 0 0,19-18 1 0 0,-30 32-398 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,4-4-1 0 0,-3 3 8 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 0 0 0,-9 8-61 0 0,-3 3-18 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1-4 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,3 12 66 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-5 22 0 0 0,1-14-43 0 0,1-4 26 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 32 0 0 0,3-30 20 0 0,-1 0-69 0 0,1-15-2737 0 0</inkml:trace>
@@ -6221,7 +7242,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">246 6 10159 0 0,'0'0'8640'0'0,"-2"0"-8234"0"0,-49-2 412 0 0,50 2-746 0 0,-18 0-336 0 0,10-1 248 0 0,5 0-48 0 0,-2 0 36 0 0,3 1-20 0 0,-2 0 24 0 0,4 0-36 0 0,-3 1-105 0 0,-4 9 147 0 0,4-6-33 0 0,3-2 421 0 0,0-2-256 0 0,-6 5-92 0 0,-2-4-11 0 0,1-2 58 0 0,7 1 453 0 0,-21 0-540 0 0,19 0-62 0 0,-13 0 56 0 0,11-1 40 0 0,-6 4-133 0 0,-1 0 106 0 0,6 0 214 0 0,-19 2 1050 0 0,25-4-1267 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,4 15-422 0 0,3-2 396 0 0,-7-12 15 0 0,15 18 10 0 0,3 8 15 0 0,-16-23 0 0 0,7 7 0 0 0,0-1 0 0 0,13 13-16 0 0,-21-22-64 0 0,9 7-112 0 0,-8-7 157 0 0,10 12-524 0 0,-12-13 457 0 0,3 7 553 0 0,-3-2-2102 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="375.7">164 119 5695 0 0,'0'0'608'0'0,"18"-6"-4296"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="706.84">255 109 10159 0 0,'0'0'784'0'0,"3"0"-510"0"0,46 5 5187 0 0,29 12-2828 0 0,-35-7-2063 0 0,-33-9-424 0 0,-5 0-82 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,9 6 0 0 0,0-1-39 0 0,-10-6 35 0 0,0 1 46 0 0,13 13-8 0 0,-7-8-139 0 0,-7-6-240 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="706.83">255 109 10159 0 0,'0'0'784'0'0,"3"0"-510"0"0,46 5 5187 0 0,29 12-2828 0 0,-35-7-2063 0 0,-33-9-424 0 0,-5 0-82 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,9 6 0 0 0,0-1-39 0 0,-10-6 35 0 0,0 1 46 0 0,13 13-8 0 0,-7-8-139 0 0,-7-6-240 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6253,8 +7274,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">20 30 23239 0 0,'0'0'2328'0'0,"-8"17"-540"0"0,4 12-1557 0 0,1 0 0 0 0,1 33-1 0 0,0 7 26 0 0,2-68-337 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 2 1 0 0,-1-2-35 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,7-4-3112 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.81">185 99 21855 0 0,'0'0'1672'0'0,"-6"7"-903"0"0,-10 10-126 0 0,0-1-1 0 0,-27 21 0 0 0,6-6-2 0 0,36-31-640 0 0,0 1 15 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 4 1 0 0,1-5 42 0 0,15 12 281 0 0,-9-8-318 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,13 4 0 0 0,-5-7-5363 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525.81">250 191 22231 0 0,'0'0'505'0'0,"0"21"2391"0"0,-4-3-2092 0 0,-2 11 55 0 0,2-4-8441 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.79">185 99 21855 0 0,'0'0'1672'0'0,"-6"7"-903"0"0,-10 10-126 0 0,0-1-1 0 0,-27 21 0 0 0,6-6-2 0 0,36-31-640 0 0,0 1 15 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 4 1 0 0,1-5 42 0 0,15 12 281 0 0,-9-8-318 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,13 4 0 0 0,-5-7-5363 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525.79">250 191 22231 0 0,'0'0'505'0'0,"0"21"2391"0"0,-4-3-2092 0 0,-2 11 55 0 0,2-4-8441 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="875.95">272 107 23383 0 0,'0'0'2828'0'0,"6"8"-1731"0"0,3-2-2226 0 0,-3-5-3455 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1211.21">412 129 23263 0 0,'0'0'531'0'0,"-1"11"715"0"0,1 1-1051 0 0,-1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-5 12 0 0 0,4-16 53 0 0,4-14 67 0 0,5-15-146 0 0,-2 11-254 0 0,-2 7 59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,2-3 0 0 0,-3 4 42 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0-6 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,1 1 21 0 0,1 0 19 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 5 0 0 0,2-10 99 0 0,1-2-1533 0 0,1-1 1038 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,2-4 1 0 0,-1 1-673 0 0,4-4-2058 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.21">621 145 22319 0 0,'0'0'2475'0'0,"-3"2"-1309"0"0,-7 3-899 0 0,3 0-157 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-4 14 1 0 0,8-21-112 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,2 0 1 0 0,1-1-232 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,4-2 0 0 0,1-4-5954 0 0</inkml:trace>
@@ -6296,16 +7317,16 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1312.34">3337 1807 16095 0 0,'0'0'1620'0'0,"8"-2"751"0"0,27 6 1957 0 0,-27-2-3953 0 0,0 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,13-1-1 0 0,-20 1-285 0 0,14-13 291 0 0,-16 12-357 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-2 1 0 0,-1 3-17 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-3 1-7 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 4 0 0 0,1-4-3 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,4 2 0 0 0,-6-3-81 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1-2 1 0 0,0-3-835 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1733.25">3618 1755 23151 0 0,'0'0'1125'0'0,"-3"16"265"0"0,3-1-1207 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-4 16-1 0 0,2-16 118 0 0,-1 1 0 0 0,-13 25-1 0 0,18-40-222 0 0,12-15-23 0 0,10-23-362 0 0,-15 23 300 0 0,16-21 1 0 0,-20 31 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,6-3 0 0 0,-9 4 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 4-1 0 0,1 3 86 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-2 16 0 0 0,0-1 50 0 0,2-22-86 0 0,-1 0 0 0 0,-1 2-63 0 0,1-2-93 0 0,6-3-614 0 0,-4 1 166 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2776.67">4175 1933 18543 0 0,'0'0'5576'0'0,"9"-13"-3176"0"0,-6-7-2121 0 0,0-1 0 0 0,-2-35 0 0 0,5-54-268 0 0,-5 99-40 0 0,1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,2 0-1 0 0,7-16 1 0 0,2 0 116 0 0,-13 26-27 0 0,-1-3-1813 0 0,0 4 822 0 0,1 0 838 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4833.27">4880 1904 6823 0 0,'0'0'507'0'0,"-2"5"-310"0"0,-17 17 16604 0 0,17-16-14562 0 0,3-12-2142 0 0,0 3-84 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-4-1 0 0,-1-6-23 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,2-14 0 0 0,1-14 240 0 0,-3 22-202 0 0,1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,2 1-1 0 0,8-26 1 0 0,-10 37-46 0 0,-2 3 12 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-6 0 0 0,-2 8-94 0 0,-3-3 5 0 0,2 3 102 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-2 0 1 0 0,-1 0 32 0 0,1 1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 1 15 0 0,-13 9-65 0 0,13-9 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-14 5 0 0 0,15-7 57 0 0,10-5-69 0 0,27 6 205 0 0,-9-4-183 0 0,0 1-1 0 0,-1 1 1 0 0,1 1 0 0 0,-1 1 0 0 0,0 0-1 0 0,18 10 1 0 0,-30-14-17 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 0 19 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,4-4 0 0 0,-6 6 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,-8-10 10 0 0,-3 0 224 0 0,-1 1 0 0 0,-14-8 0 0 0,26 17-124 0 0,-1-2-101 0 0,2 3-76 0 0,-3-15-414 0 0,3 13 408 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,4-3 1 0 0,4-4-7978 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4833.26">4880 1904 6823 0 0,'0'0'507'0'0,"-2"5"-310"0"0,-17 17 16604 0 0,17-16-14562 0 0,3-12-2142 0 0,0 3-84 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-4-1 0 0,-1-6-23 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,2-14 0 0 0,1-14 240 0 0,-3 22-202 0 0,1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,2 1-1 0 0,8-26 1 0 0,-10 37-46 0 0,-2 3 12 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-6 0 0 0,-2 8-94 0 0,-3-3 5 0 0,2 3 102 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-2 0 1 0 0,-1 0 32 0 0,1 1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 1 15 0 0,-13 9-65 0 0,13-9 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-14 5 0 0 0,15-7 57 0 0,10-5-69 0 0,27 6 205 0 0,-9-4-183 0 0,0 1-1 0 0,-1 1 1 0 0,1 1 0 0 0,-1 1 0 0 0,0 0-1 0 0,18 10 1 0 0,-30-14-17 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 0 19 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,4-4 0 0 0,-6 6 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,-8-10 10 0 0,-3 0 224 0 0,-1 1 0 0 0,-14-8 0 0 0,26 17-124 0 0,-1-2-101 0 0,2 3-76 0 0,-3-15-414 0 0,3 13 408 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,4-3 1 0 0,4-4-7978 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-20476.66">628 1625 6535 0 0,'0'0'2911'0'0,"2"-1"-2646"0"0,4-2-65 0 0,31-17 1815 0 0,-34 18-1982 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,3-5 1 0 0,0 0 1 0 0,21-26 430 0 0,-9 10 62 0 0,5-11 447 0 0,-19 28-635 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,9-9 1 0 0,-11 13-249 0 0,12-15 16 0 0,-7 8-69 0 0,-7 7 390 0 0,0 1-182 0 0,4-6-14 0 0,-5 6-68 0 0,1-1-32 0 0,-2 1-122 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,12 0 11 0 0,0 5-21 0 0,-10-3 60 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,3 6 0 0 0,-3-7-52 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,2 2 0 0 0,10 13 68 0 0,-9-10-51 0 0,10 15 215 0 0,-1 0-1 0 0,0 1 1 0 0,16 42 0 0 0,-29-61-229 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,5 7 1 0 0,7 14 176 0 0,-11-18-149 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,9 10-1 0 0,-13-15-30 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 3 0 0 0,1 1 18 0 0,5 11 42 0 0,1 0-54 0 0,-6-11 6 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,3 3 0 0 0,2 6 90 0 0,12 22 257 0 0,-17-32-366 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 2 0 0 0,3 8 201 0 0,14 26 662 0 0,-18-39-861 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-2 5 79 0 0,9 15-46 0 0,8 12-36 0 0,-10-24 0 0 0,-2-4 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 5 0 0 0,2 5 0 0 0,2-1 0 0 0,-1-1 0 0 0,-2-2 16 0 0,-4-8 160 0 0,22 5 60 0 0,-19-6-7 0 0,-2-2-143 0 0,7-6-69 0 0,2-1-17 0 0,0-3 0 0 0,-4-1 0 0 0,0-2 0 0 0,3-6 1 0 0,-8 17-1 0 0,19-24-12 0 0,-15 17-16 0 0,7-8-98 0 0,-3 9 36 0 0,11-5 3 0 0,-16 10 94 0 0,30-37-8 0 0,-27 33 1 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,5-12 0 0 0,9-17 0 0 0,3-5 0 0 0,-7 11 0 0 0,-4 6 0 0 0,-9 21 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,5-9 0 0 0,-3 2 0 0 0,-4 8 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,3-5 0 0 0,7-17 0 0 0,7-11 0 0 0,7-17 0 0 0,-2 1-16 0 0,-16 37-60 0 0,1-1 1 0 0,1 2-1 0 0,0-1 0 0 0,21-23 0 0 0,11-17-41 0 0,-32 40 117 0 0,-9 13 1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,-2 3 3 0 0,0 1 11 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-2 1 0 0,-1 0 70 0 0,0 3-84 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,7-9 6 0 0,0-5-8 0 0,-10 10 0 0 0,1 4 0 0 0,-3-10 0 0 0,12 1 0 0 0,2 0 0 0 0,2-5-1 0 0,-8 13-6 0 0,-1 1-6 0 0,0-1-90 0 0,-1 1-85 0 0,4-7 172 0 0,3 2 37 0 0,12-6 302 0 0,-19 11 389 0 0,0 0-1359 0 0,8-3 598 0 0,-7 3-31 0 0,17 7-85 0 0,-16-6 111 0 0,5 0 57 0 0,-7 0 77 0 0,0 1 16 0 0,15 8 3 0 0,-15-7-101 0 0,9 7-22 0 0,-9-7-84 0 0,0 0 0 0 0,7 9 27 0 0,4 2 65 0 0,-1 0 16 0 0,2 0 0 0 0,2 7 0 0 0,1 2 0 0 0,2 1 0 0 0,0 2 0 0 0,26 48 0 0 0,-37-60 0 0 0,34 56-153 0 0,-35-57 234 0 0,3 0-65 0 0,-9-11-16 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,0 1 0 0 0,10 10 0 0 0,-2-6 16 0 0,-7-6 640 0 0,0-1-576 0 0,4 4-51 0 0,-5-4 301 0 0,-5-8-1565 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19103.78">2363 1466 6535 0 0,'0'0'4726'0'0,"1"-2"-4453"0"0,4-5-17 0 0,-4 5 1019 0 0,1 0-869 0 0,14-17 354 0 0,-15 18 664 0 0,5-7-648 0 0,12-6-176 0 0,-16 13-746 0 0,9-12 452 0 0,-6 5-175 0 0,-4 7-48 0 0,1-1-9 0 0,26-23 481 0 0,-26 23-338 0 0,1 1-132 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1-3 0 0 0,-1 3 6 0 0,-1 1 54 0 0,12-8 106 0 0,-2 0-223 0 0,0 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,16-23 0 0 0,27-22 561 0 0,-50 51-523 0 0,1 0 1 0 0,0 1-1 0 0,9-9 0 0 0,-9 10-10 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,6-9-1 0 0,45-58 992 0 0,-29 37-703 0 0,43-42 0 0 0,17-23 101 0 0,-77 87-405 0 0,2 1 0 0 0,-1 0 0 0 0,15-12 0 0 0,-17 15 59 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,6-10 1 0 0,6-8 67 0 0,29-40 181 0 0,28-32 275 0 0,-16 24-383 0 0,-44 58-240 0 0,-11 12 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-7 0 0 0,-5 8 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,8-4 0 0 0,-7 4-23 0 0,1 0 1 0 0,-1 0-1 0 0,9-10 1 0 0,25-29 161 0 0,-28 33-128 0 0,-7-2-12 0 0,2 4 16 0 0,-4 6 129 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19103.79">2363 1466 6535 0 0,'0'0'4726'0'0,"1"-2"-4453"0"0,4-5-17 0 0,-4 5 1019 0 0,1 0-869 0 0,14-17 354 0 0,-15 18 664 0 0,5-7-648 0 0,12-6-176 0 0,-16 13-746 0 0,9-12 452 0 0,-6 5-175 0 0,-4 7-48 0 0,1-1-9 0 0,26-23 481 0 0,-26 23-338 0 0,1 1-132 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1-3 0 0 0,-1 3 6 0 0,-1 1 54 0 0,12-8 106 0 0,-2 0-223 0 0,0 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,16-23 0 0 0,27-22 561 0 0,-50 51-523 0 0,1 0 1 0 0,0 1-1 0 0,9-9 0 0 0,-9 10-10 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,6-9-1 0 0,45-58 992 0 0,-29 37-703 0 0,43-42 0 0 0,17-23 101 0 0,-77 87-405 0 0,2 1 0 0 0,-1 0 0 0 0,15-12 0 0 0,-17 15 59 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,6-10 1 0 0,6-8 67 0 0,29-40 181 0 0,28-32 275 0 0,-16 24-383 0 0,-44 58-240 0 0,-11 12 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-7 0 0 0,-5 8 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,8-4 0 0 0,-7 4-23 0 0,1 0 1 0 0,-1 0-1 0 0,9-10 1 0 0,25-29 161 0 0,-28 33-128 0 0,-7-2-12 0 0,2 4 16 0 0,-4 6 129 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16200.05">726 1126 10159 0 0,'0'0'14719'0'0,"-2"-3"-14449"0"0,-1 0-248 0 0,3 1 6 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,2-3-1 0 0,-1-1 148 0 0,8-30-48 0 0,-7 33-128 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5-6 0 0 0,7-13 0 0 0,-5 11-9 0 0,-8 11-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,2-3 1 0 0,-2 3 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,4 0 1 0 0,3 0 12 0 0,-1 2 0 0 0,3 0 0 0 0,-3 1 0 0 0,1 3 0 0 0,-3-3-36 0 0,-4-3 57 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 2-1 0 0,18 60 321 0 0,-9-34-209 0 0,-9-26-104 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 6 1 0 0,0 0 103 0 0,-2-9-195 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16543.13">764 1045 10159 0 0,'0'0'784'0'0,"-1"0"-510"0"0,0-1 603 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-5 2 4095 0 0,6-2-4908 0 0,10 5 79 0 0,-5-4-34 0 0,1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,8-1 1 0 0,17-6-3157 0 0,-12 4-1952 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16543.12">764 1045 10159 0 0,'0'0'784'0'0,"-1"0"-510"0"0,0-1 603 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-5 2 4095 0 0,6-2-4908 0 0,10 5 79 0 0,-5-4-34 0 0,1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,8-1 1 0 0,17-6-3157 0 0,-12 4-1952 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17415.96">1259 2250 10999 0 0,'0'0'846'0'0,"-1"8"926"0"0,1 6 1276 0 0,0 0 1 0 0,-3 19-1 0 0,3-27-3059 0 0,-1 2 309 0 0,0 0 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,3 10 0 0 0,-3-16-237 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,-2 5 26 0 0,3-8-34 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17869.48">1236 2253 17191 0 0,'13'-3'388'0'0,"-10"3"523"0"0,12-15-236 0 0,-11 13-425 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,6 0 0 0 0,1 1 124 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,11 3-1 0 0,-21-5-149 0 0,-1 14 40 0 0,-1-11-224 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-5 5 0 0 0,2-3-95 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-14 9 0 0 0,19-13-57 0 0,-3 0 104 0 0,4-1 88 0 0,-2-1 439 0 0,7 2-220 0 0,5 0-101 0 0,0 1-1 0 0,15 6 0 0 0,-21-7-173 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,2 4 0 0 0,-4-4-10 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-3 2 1 0 0,-1 1-27 0 0,-2-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-9 1-1 0 0,-11 5-164 0 0,9-8 79 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18827.38">1946 735 19119 0 0,'0'0'1994'0'0,"-5"-20"1425"0"0,4 19-3361 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 1 0 0 0,-3 1-66 0 0,4-2 5 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-2 2-1 0 0,-3 7 5 0 0,4-9 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 6 0 0 0,3-6-14 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,5 6-1 0 0,-5-8 15 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 0 0 0 0,-2 1 0 0 0,4 0 11 0 0,1 0-36 0 0,0 1-1 0 0,0 0 1 0 0,11 6-1 0 0,-20-8-507 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20040.54">2636 1416 11831 0 0,'-2'4'8176'0'0,"-5"11"-3576"0"0,1 0-3767 0 0,2-9-710 0 0,2 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 10 0 0 0,-3 12 218 0 0,1-9-1747 0 0,4-19 852 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20691.65">2611 1400 9359 0 0,'0'0'11904'0'0,"26"1"-7889"0"0,21 17-3418 0 0,-45-17-561 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 5 0 0 0,-1-2-7 0 0,2-4-3 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 2 0 0 0,-13 10 123 0 0,14-11-113 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-5-1 1 0 0,7 1-133 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20691.64">2611 1400 9359 0 0,'0'0'11904'0'0,"26"1"-7889"0"0,21 17-3418 0 0,-45-17-561 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 5 0 0 0,-1-2-7 0 0,2-4-3 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 2 0 0 0,-13 10 123 0 0,14-11-113 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-5-1 1 0 0,7 1-133 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91792.05">1 0 19551 0 0,'0'0'2793'0'0,"4"10"-1662"0"0,-4-7-1464 0 0,-1 6-558 0 0,0-2-5586 0 0,0 3-322 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="92134.16">136 223 18543 0 0,'0'0'1976'0'0,"7"5"-1912"0"0,0-1 184 0 0,-2 2-120 0 0,2 1-5704 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="92469.43">227 472 18543 0 0,'0'0'1976'0'0,"-1"9"-1912"0"0,0 0-64 0 0,2 2 248 0 0,-4-2-120 0 0,0 0 0 0 0,3 1-400 0 0,-1-1-808 0 0,1 1-2472 0 0</inkml:trace>
@@ -6525,7 +7546,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.99">485 27 21943 0 0,'0'0'2365'0'0,"2"1"-2829"0"0,46 14-224 0 0,-45-14 598 0 0,0-1-9 0 0,24 7-56 0 0,-24-6 242 0 0,0 0 20 0 0,9 2-26 0 0,2 1-49 0 0,-11-4 48 0 0,0 1 16 0 0,0 0-64 0 0,23 2 100 0 0,-11-2-773 0 0,1 0-5223 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1094.91">503 182 21511 0 0,'-2'5'214'0'0,"0"0"1"0"0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,2 9 1 0 0,0 19 114 0 0,-5 185-2169 0 0,2-217 2021 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1427.15">747 1 18023 0 0,'0'0'1878'0'0,"7"4"-1730"0"0,2 0-7365 0 0,5 3 14340 0 0,-13-5-6248 0 0,3 4-402 0 0,-2-3-199 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 3 1 0 0,0-4-239 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-2 4 1 0 0,1 2-19 0 0,-3 13 15 0 0,-12 50 880 0 0,-9 28-848 0 0,1-25-128 0 0,-18 18-801 0 0,42-93 658 0 0,-4 6-97 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1823.17">809 45 12207 0 0,'0'0'943'0'0,"10"3"5373"0"0,8-1-2329 0 0,55 7-3440 0 0,-64-7-313 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 1-1 0 0,0 0 1 0 0,10 7 0 0 0,-11-5-234 0 0,2 6 0 0 0,-9-6 0 0 0,-1-3 0 0 0,1 0-24 0 0,0-2 51 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-6 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0-1 0 0,-2 2 17 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-6 1 0 0 0,-6 0-12 0 0,-28 3-1 0 0,21-3-109 0 0,11 0-518 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1823.16">809 45 12207 0 0,'0'0'943'0'0,"10"3"5373"0"0,8-1-2329 0 0,55 7-3440 0 0,-64-7-313 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 1-1 0 0,0 0 1 0 0,10 7 0 0 0,-11-5-234 0 0,2 6 0 0 0,-9-6 0 0 0,-1-3 0 0 0,1 0-24 0 0,0-2 51 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-6 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0-1 0 0,-2 2 17 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-6 1 0 0 0,-6 0-12 0 0,-28 3-1 0 0,21-3-109 0 0,11 0-518 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3105.89">301 88 12207 0 0,'0'0'943'0'0,"-17"-4"1100"0"0,14 3-1970 0 0,-13-7 667 0 0,6-1 3275 0 0,8 1-1281 0 0,2 7-2747 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,2-2-1 0 0,-2 1 12 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,3-1-1 0 0,0 1 16 0 0,-3 0 85 0 0,2-1 46 0 0,101-6 1316 0 0,-69 4-1349 0 0,-22 1-60 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 1 1 0 0,18 3-1 0 0,-25-4-24 0 0,32 11 401 0 0,-37-11-429 0 0,22 7 19 0 0,-21-6-20 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,2-1-25 0 0,-3 2-127 0 0,19-11-1103 0 0,-17 4-58 0 0,0-2-4974 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -6558,7 +7579,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 72 13039 0 0,'0'0'1006'0'0,"2"0"-658"0"0,17-1-192 0 0,-17 1 1234 0 0,0 0-570 0 0,8-1-38 0 0,-7 0-181 0 0,0 1-80 0 0,28 3 465 0 0,-28-3-641 0 0,0 2-52 0 0,13 8 119 0 0,0 1-1 0 0,0 0 1 0 0,-2 2-1 0 0,19 18 1 0 0,-29-27-390 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-2 8-1 0 0,0-8-47 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-5 4 0 0 0,-4 4 118 0 0,0 0 0 0 0,-15 11 0 0 0,-63 43-1546 0 0,59-40 989 0 0,21-20 1570 0 0,9-6-1012 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,4 1-57 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,8-1 1 0 0,-1 1 45 0 0,50 2 365 0 0,-16-1-447 0 0,-24-2-24 0 0,-19 0-93 0 0,12 0-215 0 0,-4 0-378 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,15-5 1 0 0,20-10-7251 0 0,-44 16 7827 0 0,17-6-5202 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547.81">841 0 9359 0 0,'0'0'720'0'0,"2"1"-474"0"0,5 0 893 0 0,-2 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,10 7-1 0 0,8 8-572 0 0,-17-12-573 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,5 14-1 0 0,-8-15-27 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-4 8 0 0 0,1-3 316 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-9 10 1 0 0,-61 48 2003 0 0,49-44-2280 0 0,-27 17-1695 0 0,53-38 1321 0 0,0 0-114 0 0,-2 2-224 0 0,-4 2-36 0 0,-8 0-11896 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547.79">841 0 9359 0 0,'0'0'720'0'0,"2"1"-474"0"0,5 0 893 0 0,-2 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,10 7-1 0 0,8 8-572 0 0,-17-12-573 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,5 14-1 0 0,-8-15-27 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-4 8 0 0 0,1-3 316 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-9 10 1 0 0,-61 48 2003 0 0,49-44-2280 0 0,-27 17-1695 0 0,53-38 1321 0 0,0 0-114 0 0,-2 2-224 0 0,-4 2-36 0 0,-8 0-11896 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="883.11">1190 129 13039 0 0,'0'0'1006'0'0,"-1"2"-658"0"0,-11 19-707 0 0,-40 65-532 0 0,42-71 2258 0 0,0 1 0 0 0,1 1 0 0 0,-8 22 0 0 0,16-38-1187 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,2 2 1 0 0,-2-1 45 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,4 2 0 0 0,-5-3-179 0 0,5 2-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 1 0 0,10-2-1 0 0,-10 1-302 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,12-7 0 0 0,21-21-8101 0 0,-28 22 2326 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -6665,8 +7686,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8694.75">3904 2431 18543 0 0,'0'0'2370'0'0,"2"3"-1726"0"0,0 5-472 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 14 0 0 0,-6 53 473 0 0,5-69-580 0 0,1-3 127 0 0,0 1 40 0 0,0-4-269 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,12-1-1555 0 0,2-4-3767 0 0,-5-6-1507 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9224">4140 2302 13039 0 0,'0'0'1006'0'0,"3"-1"-658"0"0,13 0 392 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 2 0 0 0,0 0 1 0 0,21 5-1 0 0,5 0-704 0 0,6 0-32 0 0,0-2 0 0 0,53-2 0 0 0,14-2 201 0 0,41-2 118 0 0,-8-4-323 0 0,-116 4 630 0 0,55 5 0 0 0,-2 1 263 0 0,25 0 58 0 0,41-2 9 0 0,-90-5-1239 0 0,-59 2 1125 0 0,13 6-597 0 0,-6-1-138 0 0,-5-3-49 0 0,2 5-51 0 0,-5 6-11 0 0,-1-8 0 0 0,-9 23 0 0 0,-2 3 0 0 0,1 1 0 0 0,1 0 0 0 0,-5 43 0 0 0,14-69 0 0 0,1-2 0 0 0,-4 18 0 0 0,-3 11 0 0 0,6-28-2 0 0,0 1 11 0 0,-9 18-143 0 0,-7 10-1832 0 0,0-27-12045 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9606.67">4236 2255 20327 0 0,'0'0'2120'0'0,"-1"3"-2012"0"0,0 4-6 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,-6 7 1 0 0,-151 181 649 0 0,137-172-1185 0 0,22-21 157 0 0,-4 5-281 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9994.8">4699 2420 18023 0 0,'-2'3'1387'0'0,"-44"70"-130"0"0,32-54-348 0 0,0-2 0 0 0,-31 29-1 0 0,13-13-367 0 0,-2-6-497 0 0,25-20-251 0 0,6-5-77 0 0,-8 9-979 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9995.8">4762 2495 5695 0 0,'0'0'443'0'0,"3"2"-294"0"0,0 1-94 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,3 7 1 0 0,-3-6 381 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-3 4 1 0 0,1-3 97 0 0,-6 16 1503 0 0,-1 0-1 0 0,-21 33 1 0 0,28-51-2180 0 0,0 1 838 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9994.79">4699 2420 18023 0 0,'-2'3'1387'0'0,"-44"70"-130"0"0,32-54-348 0 0,0-2 0 0 0,-31 29-1 0 0,13-13-367 0 0,-2-6-497 0 0,25-20-251 0 0,6-5-77 0 0,-8 9-979 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9995.79">4762 2495 5695 0 0,'0'0'443'0'0,"3"2"-294"0"0,0 1-94 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,3 7 1 0 0,-3-6 381 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-3 4 1 0 0,1-3 97 0 0,-6 16 1503 0 0,-1 0-1 0 0,-21 33 1 0 0,28-51-2180 0 0,0 1 838 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10393.24">5184 2647 20559 0 0,'0'0'2192'0'0,"-2"18"-2120"0"0,0 1-72 0 0,0-2 496 0 0,-1-2 680 0 0,-3 0-512 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11085.97">3996 839 18543 0 0,'0'0'2072'0'0,"-11"-5"-976"0"0,10 5-1173 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-2-66 0 0,-4 8 83 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-3 15 1 0 0,-4 54 3251 0 0,7-55-3057 0 0,2-20-98 0 0,-4 45-72 0 0,2 90 0 0 0,3-134-237 0 0,2 21-679 0 0,-3-22 645 0 0,2-1-301 0 0,6 3 382 0 0,-7-4 236 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,3 0 0 0 0,0 0 28 0 0,102-35 2280 0 0,-74 24-1812 0 0,-26 10-378 0 0,0 1-28 0 0,17-3-72 0 0,-16 3-28 0 0,26-3 0 0 0,-19 3 2 0 0,-6 1-4 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,9 1 1 0 0,26 2-125 0 0,47-3 1 0 0,-20-1 114 0 0,13 0-179 0 0,-17 1 140 0 0,69 8-1 0 0,-8 5 988 0 0,41 6-331 0 0,121 30-530 0 0,43 25 122 0 0,-269-66 403 0 0,25 2 300 0 0,-87-11-899 0 0,18 2 430 0 0,-18-2-379 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0-24 113 0 0,0 12-106 0 0,0 8-48 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-4-6 1 0 0,-1-8-11 0 0,2 9 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2-19 0 0 0,5 24 0 0 0,-1 0 0 0 0,-4-15 0 0 0,1 5 68 0 0,-2-27 0 0 0,6 40-68 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,1-5 1 0 0,-1-3-16 0 0,-2-25-165 0 0,6 7 3 0 0,-4 27 181 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0-6 63 0 0,2 4-72 0 0,-3-16 7 0 0,0 16-2 0 0,-3-9 0 0 0,0 3 0 0 0,3 6-4 0 0,-9-13-208 0 0,9 16 115 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-3-1 0 0 0,-10-2-7942 0 0,1 2 493 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11448.5">4255 809 20559 0 0,'0'0'2143'0'0,"-2"2"-1951"0"0,-9 9 381 0 0,0-1 1 0 0,-13 9-1 0 0,-7 6 128 0 0,-46 40-180 0 0,-1 3-414 0 0,54-47-199 0 0,21-19 8 0 0,7-3-1357 0 0,-1 0 1434 0 0,43-11-7117 0 0,-16 0-280 0 0</inkml:trace>
@@ -6708,7 +7729,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 581 13039 0 0,'0'0'2070'0'0,"2"0"-1336"0"0,5-3-280 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,6-9 0 0 0,17-14 737 0 0,-10 13-686 0 0,27-37 237 0 0,13-14-692 0 0,3 7-71 0 0,-51 49-43 0 0,-6 7 30 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,7-4-1 0 0,-9 6 34 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,4 1-1 0 0,-1 0 11 0 0,-2 0 60 0 0,15 2-49 0 0,50 27 147 0 0,-65-28-111 0 0,17 15-354 0 0,-10-6 297 0 0,-1-2 21 0 0,-7-7 82 0 0,3 0 61 0 0,-2 2-149 0 0,13 0-655 0 0,-13-2 709 0 0,0-1 39 0 0,5 0-43 0 0,0-1-196 0 0,-7 1 131 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,32-3-134 0 0,-19 2 119 0 0,-11 0-64 0 0,5 0-62 0 0,-2-1 123 0 0,17 1 16 0 0,-20 1 225 0 0,4 0-872 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="898.87">580 253 10159 0 0,'0'0'784'0'0,"2"1"-510"0"0,10 0-182 0 0,-10-1 221 0 0,3 2 248 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,5 5 0 0 0,-2 0-350 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,4 18 1 0 0,0-1-119 0 0,1-1 0 0 0,2 0 0 0 0,0-1 0 0 0,16 25 0 0 0,-10-18 664 0 0,75 132 1276 0 0,-46-59-1728 0 0,0-9-16 0 0,-28-65-289 0 0,55 89 18 0 0,-60-100 116 0 0,10 23-1 0 0,2 3 59 0 0,-5-9-41 0 0,-15-26-33 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,12 13 1 0 0,42 44 533 0 0,-29-34-983 0 0,-31-31 380 0 0,1 0 58 0 0,3 4-122 0 0,0 0 0 0 0,-1 0-1 0 0,8 9 1 0 0,-12-12-33 0 0,7 9 351 0 0,-3-3-283 0 0,1 0-44 0 0,-5-7-110 0 0,32-8-11774 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2379.45">1505 1428 18543 0 0,'0'0'4104'0'0,"2"-2"-4016"0"0,4-6-4 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,13-9 0 0 0,0 2-113 0 0,26-12 0 0 0,-39 20 87 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,8-8 1 0 0,2-2 82 0 0,158-133 434 0 0,-161 138-575 0 0,73-67 86 0 0,15-12 245 0 0,-40 38-309 0 0,9-7-25 0 0,47-34 4 0 0,-51 41 0 0 0,19-18 0 0 0,-64 50 17 0 0,128-120 426 0 0,-114 111-514 0 0,1 3 0 0 0,1 0 0 0 0,51-25 0 0 0,-12 19 255 0 0,7-5-64 0 0,47-22 604 0 0,-127 58-587 0 0,-2 1-105 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,2-2 0 0 0,1 1 329 0 0,5-6-347 0 0,-2-2-25 0 0,1-1-36 0 0,19-30 36 0 0,-12 25 12 0 0,-3 5 0 0 0,-6 6 0 0 0,-3 1 0 0 0,18-7 0 0 0,7-2-28 0 0,-8 4-35 0 0,23-14-1 0 0,-36 19 62 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,5 0 0 0 0,12-5 2 0 0,33-14 0 0 0,-34 16 3 0 0,8 2-37 0 0,-28 2-116 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10142.36">535 330 6535 0 0,'0'0'500'0'0,"3"0"-324"0"0,25-7 48 0 0,-26 7 834 0 0,2-2 360 0 0,101-43 4941 0 0,-77 35-5219 0 0,57-12 0 0 0,-51 13-585 0 0,-23 6-324 0 0,0 1-1 0 0,14-3 1 0 0,121-2 1203 0 0,-145 7-1419 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1 2 32 0 0,10 6 80 0 0,-6 0-71 0 0,-6-7 99 0 0,-2 1 35 0 0,-2 3-153 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-10-1-1 0 0,-6-3-36 0 0,19 0 0 0 0,2 1 0 0 0,-21-9-6 0 0,20 12 19 0 0,0-1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-5-3-1 0 0,3 0 38 0 0,-4-2 34 0 0,1 1 0 0 0,-1-1 0 0 0,-9-5 0 0 0,14 11 24 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3 1 0 0 0,0-1 19 0 0,5 0-123 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-9 9 78 0 0,8-9 489 0 0,1 2-505 0 0,4 12-55 0 0,6 0-11 0 0,13 8 0 0 0,-21-19 0 0 0,16 11 0 0 0,-2 0 2 0 0,-16-11 9 0 0,0-3 3 0 0,0 1 247 0 0,0 1-133 0 0,-2 9-21 0 0,-1 5-84 0 0,0-14-25 0 0,-2 2 79 0 0,-3 5-21 0 0,7-9-61 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-3 2-1 0 0,0-2-12 0 0,5-1 12 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 75 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,2-2-1 0 0,4-14-443 0 0,-8 18 336 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,2-3 1 0 0,5-3 33 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,18-5-1 0 0,-6 4 6 0 0,-15 7 0 0 0,-3-1 0 0 0,25 6 53 0 0,-9 0-40 0 0,-17-4-13 0 0,-1 0-2 0 0,8 7 2 0 0,-3 4 0 0 0,-7 2 13 0 0,-1-11 0 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-10 4-1 0 0,1 0 20 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-15-2-1 0 0,28 1-30 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3-1-1 0 0,-2-6 46 0 0,6 5-51 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,3-3 1 0 0,22-27-106 0 0,-22 27 116 0 0,8-8 11 0 0,0 1 0 0 0,26-21-1 0 0,-35 30-59 0 0,3-3 43 0 0,-4 4 99 0 0,-22 19 76 0 0,18-15-83 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-4 5 0 0 0,1 0-1987 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10142.34">535 330 6535 0 0,'0'0'500'0'0,"3"0"-324"0"0,25-7 48 0 0,-26 7 834 0 0,2-2 360 0 0,101-43 4941 0 0,-77 35-5219 0 0,57-12 0 0 0,-51 13-585 0 0,-23 6-324 0 0,0 1-1 0 0,14-3 1 0 0,121-2 1203 0 0,-145 7-1419 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1 2 32 0 0,10 6 80 0 0,-6 0-71 0 0,-6-7 99 0 0,-2 1 35 0 0,-2 3-153 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-10-1-1 0 0,-6-3-36 0 0,19 0 0 0 0,2 1 0 0 0,-21-9-6 0 0,20 12 19 0 0,0-1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-5-3-1 0 0,3 0 38 0 0,-4-2 34 0 0,1 1 0 0 0,-1-1 0 0 0,-9-5 0 0 0,14 11 24 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3 1 0 0 0,0-1 19 0 0,5 0-123 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-9 9 78 0 0,8-9 489 0 0,1 2-505 0 0,4 12-55 0 0,6 0-11 0 0,13 8 0 0 0,-21-19 0 0 0,16 11 0 0 0,-2 0 2 0 0,-16-11 9 0 0,0-3 3 0 0,0 1 247 0 0,0 1-133 0 0,-2 9-21 0 0,-1 5-84 0 0,0-14-25 0 0,-2 2 79 0 0,-3 5-21 0 0,7-9-61 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-3 2-1 0 0,0-2-12 0 0,5-1 12 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 75 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,2-2-1 0 0,4-14-443 0 0,-8 18 336 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,2-3 1 0 0,5-3 33 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,18-5-1 0 0,-6 4 6 0 0,-15 7 0 0 0,-3-1 0 0 0,25 6 53 0 0,-9 0-40 0 0,-17-4-13 0 0,-1 0-2 0 0,8 7 2 0 0,-3 4 0 0 0,-7 2 13 0 0,-1-11 0 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-10 4-1 0 0,1 0 20 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-15-2-1 0 0,28 1-30 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3-1-1 0 0,-2-6 46 0 0,6 5-51 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,3-3 1 0 0,22-27-106 0 0,-22 27 116 0 0,8-8 11 0 0,0 1 0 0 0,26-21-1 0 0,-35 30-59 0 0,3-3 43 0 0,-4 4 99 0 0,-22 19 76 0 0,18-15-83 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-4 5 0 0 0,1 0-1987 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11087.39">1497 1477 18543 0 0,'0'0'2008'0'0,"-12"4"-2517"0"0,7-1 766 0 0,0-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-7 2 0 0 0,-13 3 538 0 0,16-4-591 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-17-2-1 0 0,-1-1 26 0 0,14 3-14 0 0,-1-1-1 0 0,1-1 0 0 0,0-1 1 0 0,-16-4-1 0 0,5-2 145 0 0,-41-21 0 0 0,55 23-349 0 0,3-2-11 0 0,7-2 0 0 0,8 6 0 0 0,-6 4-19 0 0,0 1 28 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 1 0 0,2 2 108 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,7 6 1 0 0,-9-7-106 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 6 0 0 0,1-7-6 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 2 0 0 0,-1 0 12 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-5 2 0 0 0,6-3-16 0 0,2 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 2-3 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,11-17 0 0 0,6-6 23 0 0,35-37-1 0 0,-44 54-14 0 0,0-1 0 0 0,0 1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,13-6 0 0 0,-9 7 45 0 0,-10 4 12 0 0,6 3 7 0 0,-10-2-69 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 5 5 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,-4 12 1 0 0,3-10-1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-14 12 1 0 0,4-5-28 0 0,11-9 12 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-9 1-1 0 0,12-2 85 0 0,1-1-55 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,10-15-99 0 0,0 0-1 0 0,17-23 0 0 0,-18 30 76 0 0,-6 9 80 0 0,-14 1-114 0 0,0 1 0 0 0,0 1-1 0 0,-20 5 1 0 0,29-6-149 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-5-1 0 0 0,-8-5-7094 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11611.79">876 222 20559 0 0,'0'0'464'0'0,"2"-1"68"0"0,33-14 1168 0 0,-32 14-1582 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,3 2 1 0 0,41 3 215 0 0,-20-1-2857 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12503.28">1269 261 5695 0 0,'0'0'443'0'0,"4"1"-306"0"0,6 1-84 0 0,0 1 48 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,21 0-1 0 0,118-12 7383 0 0,-118 11-7431 0 0,-1 2 1 0 0,0 1-1 0 0,58 14 0 0 0,68 28-245 0 0,-130-39 268 0 0,0 0 1 0 0,0-2-1 0 0,0-1 1 0 0,51-1-1 0 0,111-16 1787 0 0,-126 7-1814 0 0,-29 4-126 0 0,196-14 118 0 0,-185 16-880 0 0,0 2 0 0 0,1 3 0 0 0,48 9 0 0 0,43 19-266 0 0,18 3 3034 0 0,-118-28-687 0 0,0-2-1 0 0,47 0 1 0 0,303-13 2558 0 0,-181 16-3774 0 0,-159-7 543 0 0,55 8-1 0 0,-41-2 74 0 0,19 4-686 0 0,-1 4 0 0 0,79 26-1 0 0,29 5-106 0 0,-48-10-1094 0 0,-22-4-3173 0 0</inkml:trace>
@@ -6746,7 +7767,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">482 257 6535 0 0,'0'0'12120'0'0,"1"3"-11906"0"0,9 29-89 0 0,-9-30-114 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-2 3 1 0 0,1 10 115 0 0,1-16-122 0 0,1 17-40 0 0,1 0-1 0 0,1 0 0 0 0,6 19 1 0 0,-8-34 52 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 3 1 0 0,2 7 15 0 0,4 28-127 0 0,-2-16 215 0 0,7 32 0 0 0,-9-54-115 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,3 4 1 0 0,0 1-33 0 0,37 94-313 0 0,-38-94 323 0 0,0 0 0 0 0,0 0 0 0 0,6 7-1 0 0,-7-9 17 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2 4 0 0 0,-2-5 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 6 0 0 0,-2-7 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 10 0 0 0,8 31 0 0 0,-2-13 0 0 0,1-2 7 0 0,-8-24 29 0 0,0 0 1 0 0,0 0-1 0 0,1 11 0 0 0,17 34 620 0 0,-2 7-97 0 0,-18-57-486 0 0,0 1-1 0 0,3 8-46 0 0,-1-3 86 0 0,1 0 1 0 0,0-1 0 0 0,8 14-1 0 0,-10-19 190 0 0,-1 1-122 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 3 0 0 0,-4-4-327 0 0,-1-1 150 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-5 7 88 0 0,4 2-64 0 0,0-7 148 0 0,2 0-80 0 0,0 9-16 0 0,-3 13 32 0 0,2-22 80 0 0,1 1-112 0 0,2 7-64 0 0,-1 1 4 0 0,-2-8 167 0 0,2-2-119 0 0,7 7-43 0 0,-7-6 6 0 0,1-3-341 0 0,11 0 313 0 0,-10 1 74 0 0,11-9 66 0 0,1 0-131 0 0,-12 7-12 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-5 0 0 0,1 0 0 0 0,-1 3 0 0 0,-5 4 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-4 0 0 0,3-1 13 0 0,0 0 1 0 0,0 1-1 0 0,13-9 0 0 0,-19 14-11 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,2-4-1 0 0,11-11 37 0 0,-7 11-52 0 0,-4 3-11 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-4-1 0 0,-1 2 10 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,6-5 0 0 0,2-1 7 0 0,24-20-41 0 0,-28 24 22 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,12-14-1 0 0,13-13-217 0 0,-5 7 28 0 0,-25 24 209 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,7-3 0 0 0,-7 5 7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-4 0 0 0,1-4-18 0 0,-3 8-5 0 0,1-3-809 0 0,16-4 721 0 0,-6 6 113 0 0,2 5 0 0 0,-1 1 21 0 0,-11-3 874 0 0,0 2-1027 0 0,7 14 46 0 0,3 0 111 0 0,-10-14 64 0 0,-1 1 2 0 0,13 29-246 0 0,-3 0-189 0 0,61 188 412 0 0,-60-186 17 0 0,-9-27-96 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 7-1 0 0,-2 1-15 0 0,1-1-1 0 0,0 1 1 0 0,2 0 0 0 0,6 22-1 0 0,18 92-118 0 0,-21-89 43 0 0,18 58 0 0 0,-13-61-7 0 0,8 46-1 0 0,-3-27 42 0 0,-11-42 67 0 0,-1 0 0 0 0,3 21-1 0 0,-3-7 2 0 0,13 53 0 0 0,-15-74 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 9 1 0 0,0-9-10 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 16 0 0 0,8 13-3 0 0,-5-15 14 0 0,5 22 0 0 0,8 38 72 0 0,12 59 249 0 0,-29-124-34 0 0,10 31 0 0 0,-9-33-201 0 0,0 1 0 0 0,3 23 0 0 0,-6-29 4 0 0,0 0-1 0 0,7 18 0 0 0,1 4 239 0 0,4 18 1066 0 0,-14-47-1245 0 0,0 0-39 0 0,1 0-66 0 0,-1-1-27 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,2 0 52 0 0,2 6-76 0 0,-3-5-89 0 0,2-8-2598 0 0,0 1 2132 0 0,7-14-12630 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1260.36">1958 2543 10159 0 0,'0'0'5450'0'0,"-6"0"-598"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1260.34">1958 2543 10159 0 0,'0'0'5450'0'0,"-6"0"-598"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1605.21">2018 2443 6535 0 0,'0'0'1296'0'0,"10"-9"-5880"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941.46">2144 2211 6535 0 0,'0'0'1296'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1942.46">2166 2138 6535 0 0,'0'0'576'0'0</inkml:trace>
@@ -6761,7 +7782,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14621.09">2801 1731 6535 0 0,'-1'4'177'0'0,"-11"12"322"0"0,-34 29 4329 0 0,6 5-797 0 0,24-31-3052 0 0,11-12-833 0 0,4-5 18 0 0,0-1-30 0 0,-3 6-882 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14998.23">2893 1763 9359 0 0,'0'25'832'0'0,"-5"-12"-672"0"0,-10-4-160 0 0,3 4 0 0 0,7 4 0 0 0,-5-2 0 0 0,-3-2 0 0 0,6-2 0 0 0,-1-1 360 0 0,3-3 504 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15867.25">2007 2805 5695 0 0,'0'0'12504'0'0,"3"0"-13218"0"0,29-5 100 0 0,12-2 516 0 0,6-4-51 0 0,-22 3 5 0 0,57-6-1 0 0,-35 10 145 0 0,-32 4 0 0 0,-7 0 0 0 0,-1 0 0 0 0,21-4 0 0 0,6 1-222 0 0,64 3-1 0 0,-34 2 27 0 0,13 1 98 0 0,33-1 960 0 0,-5 0 389 0 0,-87-2-964 0 0,-1 1 1 0 0,31 6-1 0 0,-25-3 645 0 0,-6-2-893 0 0,-17-1-56 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,6-2 0 0 0,3-1 97 0 0,59-7 604 0 0,-68 9-398 0 0,16-2 229 0 0,8-4 585 0 0,-24 6-2107 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16573.35">2198 2528 5695 0 0,'0'0'443'0'0,"3"0"-294"0"0,132-6 1883 0 0,-129 6-1834 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,9-4 0 0 0,-9 2 295 0 0,-1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,12-1 0 0 0,70 2 3594 0 0,-29 7-2503 0 0,-43-4-1247 0 0,0-1 1 0 0,0-1 0 0 0,0 0 0 0 0,26-3-1 0 0,-10-1 105 0 0,17-4 134 0 0,-21 3-324 0 0,0 0 0 0 0,45 1 0 0 0,-28 1 100 0 0,-30 3-172 0 0,1 0 0 0 0,29 6 0 0 0,-19-2-172 0 0,18 5-4 0 0,-31-7 55 0 0,-1 0-1 0 0,24 2 1 0 0,18 1 118 0 0,-36-6-176 0 0,-4-1 16 0 0,7-1 160 0 0,-1 3-119 0 0,-16 3-25 0 0,-1-2-25 0 0,8 4-7344 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16573.34">2198 2528 5695 0 0,'0'0'443'0'0,"3"0"-294"0"0,132-6 1883 0 0,-129 6-1834 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,9-4 0 0 0,-9 2 295 0 0,-1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,12-1 0 0 0,70 2 3594 0 0,-29 7-2503 0 0,-43-4-1247 0 0,0-1 1 0 0,0-1 0 0 0,0 0 0 0 0,26-3-1 0 0,-10-1 105 0 0,17-4 134 0 0,-21 3-324 0 0,0 0 0 0 0,45 1 0 0 0,-28 1 100 0 0,-30 3-172 0 0,1 0 0 0 0,29 6 0 0 0,-19-2-172 0 0,18 5-4 0 0,-31-7 55 0 0,-1 0-1 0 0,24 2 1 0 0,18 1 118 0 0,-36-6-176 0 0,-4-1 16 0 0,7-1 160 0 0,-1 3-119 0 0,-16 3-25 0 0,-1-2-25 0 0,8 4-7344 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16935.27">2449 2597 6535 0 0,'0'1'500'0'0,"-1"1"-363"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 2 0 0 0,-11 5 1211 0 0,-10 13 4347 0 0,23-18-5315 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-3 4-1 0 0,-4 7 185 0 0,7-12-540 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 2-1 0 0,0-1-73 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,2 1-649 0 0,-1 0 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,7-2 0 0 0,-3 1-1322 0 0,15-5-4169 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17279.54">2708 2606 12207 0 0,'0'0'943'0'0,"0"2"-618"0"0,0 64 5821 0 0,0-65-6218 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,2 0-1 0 0,2 1 2706 0 0,-2 0-2182 0 0,30 10 393 0 0,-30-10-593 0 0,1 0-69 0 0,20 2 5 0 0,0 0 1 0 0,0-2-1 0 0,0 0 1 0 0,24-4-1 0 0,-44 3-97 0 0,30-2 197 0 0,-31 2 384 0 0,0 1-592 0 0,10 2-100 0 0,-10-2-169 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19021.46">1 205 7343 0 0,'24'0'883'0'0,"-23"-1"-784"0"0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-2 1 0 0,0 1 215 0 0,2-3 39 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,4-5 0 0 0,4-6 734 0 0,-7 11-791 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,4-3 0 0 0,-4 3 161 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,5-6 1 0 0,-6 7-237 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,4-2-1 0 0,7-6 189 0 0,-10 6-296 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,6-2-1 0 0,2-1 272 0 0,-4 1-259 0 0,-1 1-63 0 0,5 3-40 0 0,-13 1-3 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0-15 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 4-1 0 0,2 2 53 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-2 14 1 0 0,0 3 112 0 0,5 44-1 0 0,-2-63-167 0 0,-1 21 0 0 0,0-23 25 0 0,0 1-25 0 0,5 17-198 0 0,-5-14 443 0 0</inkml:trace>
@@ -6770,20 +7791,20 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20335.96">552 1467 10159 0 0,'0'0'784'0'0,"2"0"-510"0"0,60-16 2540 0 0,-59 15-879 0 0,0 2-914 0 0,3 0-593 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,3 3 1 0 0,-8-5-406 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 42 0 0,-2 5 76 0 0,1-3-106 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-4 3 0 0 0,5-5-30 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-1-7 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-2 0 0 0 0,2 1-154 0 0,-1 1-150 0 0,2-3 315 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,57 33 691 0 0,-56-32-508 0 0,10 13 172 0 0,-3-1-268 0 0,-12-4 12 0 0,3-9-92 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1 3 40 0 0,-2 0 65 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-4 9 1 0 0,4-12-110 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,-2 2 0 0 0,-25 10 50 0 0,23-9-62 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-14 2 1 0 0,9-1 2 0 0,9-3-8 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-7 1-1 0 0,8 0-72 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-4-3 1 0 0,5 3-302 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20822.24">1387 529 13039 0 0,'-7'1'1354'0'0,"-1"0"-652"0"0,-1 0 1 0 0,1-1-1 0 0,-11-1 1 0 0,7 1 503 0 0,11 0-1015 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-2 2 0 0 0,-8 4 378 0 0,9-6-359 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-3 3 0 0 0,3-3-153 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 5-1 0 0,-1-2-97 0 0,1-5 42 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,2 0-1 0 0,0 1 1 0 0,2 5 28 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,9 4 0 0 0,-9-4 17 0 0,25 7-20 0 0,-15-6-73 0 0,31 12 0 0 0,-44-14-389 0 0,-1-1-173 0 0,13 2-1169 0 0,1 0-3758 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21553.34">1295 2818 18543 0 0,'0'0'5487'0'0,"0"3"-4990"0"0,-15 100 824 0 0,6-30-1026 0 0,8-52-145 0 0,1-13-105 0 0,-1 1-1 0 0,0-1 0 0 0,-2 12 0 0 0,0-5 10 0 0,1 0-43 0 0,0-4-26 0 0,2-9-103 0 0,31-35-5709 0 0,-23 24 1802 0 0,3-5-3102 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21918.61">1327 2910 10159 0 0,'1'-2'5955'0'0,"5"-5"-4424"0"0,0 1 0 0 0,0 0 0 0 0,9-8 0 0 0,-13 13-814 0 0,4-2-325 0 0,-5 3-346 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,39 9 648 0 0,-38-8-667 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,3 3 0 0 0,-2-1 5 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,4 3 0 0 0,-5-2 33 0 0,-3-1-44 0 0,1 1-5 0 0,5 17 75 0 0,-4-15-50 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-4 9 1 0 0,0 11 33 0 0,5-26-68 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-3 0 0 0 0,-1 3-3 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-7 2-1 0 0,-6 0-12 0 0,-28 5 0 0 0,36-8 9 0 0,6-1 0 0 0,-16 3 0 0 0,-36-6-272 0 0,55 2 79 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21918.6">1327 2910 10159 0 0,'1'-2'5955'0'0,"5"-5"-4424"0"0,0 1 0 0 0,0 0 0 0 0,9-8 0 0 0,-13 13-814 0 0,4-2-325 0 0,-5 3-346 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,39 9 648 0 0,-38-8-667 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,3 3 0 0 0,-2-1 5 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,4 3 0 0 0,-5-2 33 0 0,-3-1-44 0 0,1 1-5 0 0,5 17 75 0 0,-4-15-50 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-4 9 1 0 0,0 11 33 0 0,5-26-68 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-3 0 0 0 0,-1 3-3 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-7 2-1 0 0,-6 0-12 0 0,-28 5 0 0 0,36-8 9 0 0,6-1 0 0 0,-16 3 0 0 0,-36-6-272 0 0,55 2 79 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26159.55">3006 894 10159 0 0,'-3'1'303'0'0,"2"-1"-251"0"0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,-2 1 191 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-9 1 1 0 0,12-2-106 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-11 8 1750 0 0,-42 20 1029 0 0,52-27-2752 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-6 6 0 0 0,4-4 26 0 0,3-2 148 0 0,0 0-266 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1-1 0 0,-1 2 1 0 0,-7 8 135 0 0,-4 17-177 0 0,-16 36 363 0 0,30-64-373 0 0,-14 37-28 0 0,14-36-108 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26502.34">2672 1055 6535 0 0,'0'3'500'0'0,"-1"4"-367"0"0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-4 6 0 0 0,-8 25 1342 0 0,-12 25 4845 0 0,27-60-5307 0 0,1 5-6 0 0,-1-5-38 0 0,1-2-10 0 0,3 2-626 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,11 1-1 0 0,-14-2-34 0 0,0 0-10 0 0,60-1 340 0 0,-52-1-617 0 0,-7 1-18 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 1 0 0,6-1-1 0 0,-1 0-108 0 0,10 0-7675 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27284.4">3448 649 8143 0 0,'0'0'631'0'0,"2"-1"-414"0"0,14-3 2321 0 0,-1-3 3494 0 0,-6 5-5237 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,9 0 1 0 0,-13 0-610 0 0,-2 0 126 0 0,4-1-15 0 0,19 6-23 0 0,-8-1-347 0 0,-14-3-482 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28134.19">3639 538 5695 0 0,'0'0'5182'0'0,"-15"-11"3391"0"0,16 12-8099 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 2 0 0 0,-4 18-2617 0 0,0-9-4073 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28575.04">3391 632 13039 0 0,'0'0'6342'0'0,"3"0"-5606"0"0,91-18 2279 0 0,10 6-2052 0 0,-95 11-828 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,11 2-1 0 0,47 3 107 0 0,-59-5-234 0 0,30 5 6 0 0,-33-5 160 0 0,-1 0-47 0 0,8 1-42 0 0,-1 0-42 0 0,-1 0 0 0 0,1-1-1 0 0,12-1 1 0 0,-7 0-32 0 0,-12 0-160 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-4 1 0 0,-6 3-87 0 0,-1 1-397 0 0,0-11-6521 0 0,-2 2-98 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28914.13">3654 495 12207 0 0,'0'0'8363'0'0,"1"2"-7815"0"0,-1 2-299 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 6 0 0 0,2-8 232 0 0,1-2-455 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-10 11-330 0 0,10-7 244 0 0,0-2 9 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-4 3 0 0 0,4-4-263 0 0,0 0-96 0 0,0 1 120 0 0,-1 2-166 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28914.12">3654 495 12207 0 0,'0'0'8363'0'0,"1"2"-7815"0"0,-1 2-299 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 6 0 0 0,2-8 232 0 0,1-2-455 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-10 11-330 0 0,10-7 244 0 0,0-2 9 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-4 3 0 0 0,4-4-263 0 0,0 0-96 0 0,0 1 120 0 0,-1 2-166 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29346.1">3566 694 12207 0 0,'0'0'2711'0'0,"-4"14"1986"0"0,6 20-1529 0 0,0-35-2935 0 0,5-2-198 0 0,-5 2-58 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,12-15-599 0 0,11-10-930 0 0,-24 26 1479 0 0,2 1-86 0 0,-1-1 135 0 0,-1 1 17 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 1 0 0,0 0 25 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,4 0-1 0 0,-3 0 1926 0 0,-1 1-1685 0 0,9 10-11 0 0,-2 1-42 0 0,-9-11-189 0 0,0 4 4 0 0,-9 13-34 0 0,7-18-4 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-4 0 0 0 0,4 0-72 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,-1 2 1 0 0,-6 3-722 0 0,-25 3 1808 0 0,36-7-803 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-1 0 0 0,-3 1 32 0 0,2 0-26 0 0,6-1-165 0 0,28-7 243 0 0,-36 8-253 0 0,-7-17-14758 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29867.57">3517 888 18023 0 0,'0'3'1387'0'0,"0"40"-618"0"0,0-40-389 0 0,1 0-182 0 0,1 10 20 0 0,-1-10 510 0 0,2-4-852 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,5-3-1 0 0,-3 1 20 0 0,1 0-475 0 0,0 0 1 0 0,0 0 0 0 0,10-10-1 0 0,3-3-5829 0 0,-17 15 5912 0 0,-1 0 354 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-5 1 0 0,4-7 2852 0 0,-4 12-2574 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,8-8 2056 0 0,15-2-859 0 0,-22 11-798 0 0,0-2-50 0 0,3-1-200 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,12 0-1 0 0,-16 1 108 0 0,2 0-244 0 0,1 0 171 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,9 3 0 0 0,-10-2-152 0 0,-3-2-163 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,7 3 303 0 0,4 10-39 0 0,-9-11-260 0 0,-1-1 17 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 4 0 0 0,-2-2 17 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 8 1 0 0,0 2-42 0 0,-4-3 0 0 0,5 3 0 0 0,-1-14-10 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,1-1-120 0 0,-9 5-327 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30211.25">3635 920 10999 0 0,'0'0'846'0'0,"-1"3"-370"0"0,-12 26 5358 0 0,12-27-4962 0 0,1-1-748 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-1 0 0 0,0 1-13 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,2 0 0 0 0,1-1 43 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,6-6-1 0 0,5-2-106 0 0,-12 10-28 0 0,0 0-59 0 0,4-13 460 0 0,-7 12-302 0 0,-1 2-109 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,-4-1-17 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-7 3 0 0 0,-31 11-3494 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32104.04">4264 512 6535 0 0,'0'0'18565'0'0,"0"2"-18314"0"0,-2 3-158 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-6 5 1 0 0,-32 30 132 0 0,39-37-192 0 0,-6 4 26 0 0,0-1 1 0 0,-16 9-1 0 0,0 0 0 0 0,18-11-103 0 0,0 0-1 0 0,0 0 1 0 0,-14 4 0 0 0,-24 12-176 0 0,44-20 19 0 0,49-3-12403 0 0,-23 1 12304 0 0,1 2 3911 0 0,-22 2-2926 0 0,-1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,3 7 0 0 0,-3-4-522 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 8 0 0 0,-7 75 348 0 0,9-72-1044 0 0,1-4-7095 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32478.43">4253 664 6535 0 0,'0'0'2198'0'0,"2"-2"-508"0"0,50-27 6849 0 0,-14 15-6519 0 0,-4 3-291 0 0,42-9-2554 0 0,-70 18 765 0 0,0 0-847 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32845.89">4422 596 13039 0 0,'0'0'1006'0'0,"-1"3"-658"0"0,-38 81 7754 0 0,37-82-7957 0 0,0 1 7 0 0,1 17 143 0 0,1-8-450 0 0,0-10-740 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33199.27">4377 724 6535 0 0,'0'0'500'0'0,"-1"2"-324"0"0,-7 19 820 0 0,5-8 3259 0 0,0 0 0 0 0,0 18 0 0 0,2-13-4592 0 0,-2 3 1600 0 0,2-18-2142 0 0,3-11 386 0 0,0 3-54 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,7-7 1 0 0,-9 9 771 0 0,-1 2-188 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,11-3 354 0 0,-10 2 146 0 0,25-13 1702 0 0,-13 5-380 0 0,10 4-263 0 0,-21 5-1241 0 0,8 5 1193 0 0,2 16-1120 0 0,-14-18-381 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 6-1 0 0,-6 13 12 0 0,3-17 57 0 0,3-3-64 0 0,2-1 61 0 0,0 0-115 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-108 0 0,-19 0-816 0 0,1 4 873 0 0,15-4-84 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-6 4 2463 0 0,26-5-2085 0 0,-4 0-264 0 0,-10-2-109 0 0,4-7-498 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33199.25">4377 724 6535 0 0,'0'0'500'0'0,"-1"2"-324"0"0,-7 19 820 0 0,5-8 3259 0 0,0 0 0 0 0,0 18 0 0 0,2-13-4592 0 0,-2 3 1600 0 0,2-18-2142 0 0,3-11 386 0 0,0 3-54 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,7-7 1 0 0,-9 9 771 0 0,-1 2-188 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,11-3 354 0 0,-10 2 146 0 0,25-13 1702 0 0,-13 5-380 0 0,10 4-263 0 0,-21 5-1241 0 0,8 5 1193 0 0,2 16-1120 0 0,-14-18-381 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 6-1 0 0,-6 13 12 0 0,3-17 57 0 0,3-3-64 0 0,2-1 61 0 0,0 0-115 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-108 0 0,-19 0-816 0 0,1 4 873 0 0,15-4-84 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-6 4 2463 0 0,26-5-2085 0 0,-4 0-264 0 0,-10-2-109 0 0,4-7-498 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33565.4">4311 827 6535 0 0,'0'0'500'0'0,"1"13"5835"0"0,11 26 4275 0 0,-9-32-10943 0 0,-2-5 780 0 0,-1 0-398 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,1 3 1 0 0,0 0 55 0 0,5 12 407 0 0,19 28 0 0 0,-24-41-417 0 0,2 2-2 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,4 5 0 0 0,-4-6-61 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,6 0 0 0 0,13 4 66 0 0,-16-3-107 0 0,0 0 48 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,10-1-1 0 0,50-4-850 0 0,-64 5 318 0 0,22-2-14945 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33566.4">4725 1020 12207 0 0,'0'0'1304'0'0,"12"15"5064"0"0,-12 1-2776 0 0,0-1-3328 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38215.48">4304 1664 10159 0 0,'0'0'7407'0'0,"-19"5"-373"0"0,17-4-6928 0 0,0 22 960 0 0,2-19-1070 0 0,1 9 24 0 0,-1-1 0 0 0,2 1-1 0 0,3 17 1 0 0,2 47-20 0 0,-6-69 6 0 0,0-4 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,4 6 0 0 0,-3-4 69 0 0,-1 5-80 0 0,0-1 549 0 0,0-6-2219 0 0</inkml:trace>
@@ -6830,7 +7851,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">111 38 10159 0 0,'0'0'12815'0'0,"-5"12"-11926"0"0,-4 8-30 0 0,4-10-702 0 0,1 0 1 0 0,0 0-1 0 0,-3 12 0 0 0,-13 20 266 0 0,18-34-375 0 0,0 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,-5 10 0 0 0,-10 40 216 0 0,-2-12-220 0 0,19-43-141 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.04">332 1 6535 0 0,'0'0'13294'0'0,"-1"2"-12558"0"0,-4 15 661 0 0,2-9-980 0 0,0 0-1 0 0,0 0 0 0 0,-7 12 0 0 0,-8-3-92 0 0,16-16-300 0 0,2-1-11 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,1 0 27 0 0,-2 0-20 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-3 3 1 0 0,4-4-15 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 2 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-6 12 113 0 0,5 3-20 0 0,1 0-80 0 0,-7-1-20 0 0,-1-3-72 0 0,7-10-301 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="673.67">122 158 10999 0 0,'0'0'12071'0'0,"4"1"-11527"0"0,11 3-64 0 0,-11-3-243 0 0,1-2-108 0 0,72 0 82 0 0,-38 2-3439 0 0,-29 0-1345 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.38">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.36">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6893,7 +7914,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">364 142 6535 0 0,'0'0'16541'0'0,"-3"-1"-16150"0"0,-2-2-525 0 0,4 3 268 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1-1-11 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-5 4-1 0 0,1-1-108 0 0,4-2-8 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-3 4-1 0 0,-1 1 8 0 0,3-4-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-2 6 0 0 0,-10 29-12 0 0,10-27-47 0 0,4-6-6 0 0,0-1 47 0 0,4 9-30 0 0,4 0 18 0 0,-8-11 90 0 0,2 0 17 0 0,14 8 133 0 0,-8-5-196 0 0,-7-3-2 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,4 0 1 0 0,47 14 21 0 0,-51-14-205 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1-1 0 0,-3-1-689 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,3-3 0 0 0,8-6-7169 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.34">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.32">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6957,46 +7978,46 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1333 958 16319 0 0,'0'0'99'0'0,"2"-1"12"0"0,7-4 21 0 0,-1 0 457 0 0,1 0 0 0 0,-1 1 0 0 0,11-4 0 0 0,-17 7-157 0 0,12 0 470 0 0,59-3 195 0 0,-42 4-94 0 0,42-7 0 0 0,-62 6-937 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,12 3 0 0 0,-21-4-60 0 0,36 4 244 0 0,0-3 0 0 0,-1 0-1 0 0,1-3 1 0 0,37-5-1 0 0,-24 2-234 0 0,8 0 25 0 0,0 3 0 0 0,82 8 0 0 0,-90-3 48 0 0,74-6 0 0 0,-21-1 344 0 0,185 10-416 0 0,-200-7-77 0 0,7 1 114 0 0,-30 1-56 0 0,-31 0 262 0 0,53 6 0 0 0,-18 3-236 0 0,40 8-25 0 0,-84-14 18 0 0,-1 0-1 0 0,1-2 1 0 0,35-1 0 0 0,75-11 108 0 0,35 1-31 0 0,-56 14-82 0 0,78 1 31 0 0,54-16 49 0 0,-245 10-91 0 0,217 10 432 0 0,-180-6-313 0 0,73 14 191 0 0,-89-14-689 0 0,0 0 1 0 0,0-1-1 0 0,0-2 0 0 0,28-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1467.17">1409 4198 12207 0 0,'0'0'943'0'0,"2"1"-618"0"0,7-1 1363 0 0,-1 1-1 0 0,1-2 0 0 0,12 0 0 0 0,51-15 290 0 0,-23 4-1364 0 0,-14 7-334 0 0,-1 1 0 0 0,1 1 0 0 0,0 2 1 0 0,55 5-1 0 0,-16-1-298 0 0,0-4 1 0 0,80-10-1 0 0,33-1 539 0 0,340-10-75 0 0,-371 14-413 0 0,-50 5 436 0 0,208 21 0 0 0,307 28 37 0 0,-473-40-115 0 0,-36-1-197 0 0,-62-4-220 0 0,1 2 0 0 0,-1 2-1 0 0,0 3 1 0 0,65 18 0 0 0,25 24 419 0 0,-138-49-317 0 0,0-1-62 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,4 2-1 0 0,18 6 244 0 0,-21-9-222 0 0,18 5 86 0 0,-20-3-124 0 0,0-2 5 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-6 4-30 0 0,4-2-38 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-13-2-6365 0 0,-4-3-2161 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1467.16">1409 4198 12207 0 0,'0'0'943'0'0,"2"1"-618"0"0,7-1 1363 0 0,-1 1-1 0 0,1-2 0 0 0,12 0 0 0 0,51-15 290 0 0,-23 4-1364 0 0,-14 7-334 0 0,-1 1 0 0 0,1 1 0 0 0,0 2 1 0 0,55 5-1 0 0,-16-1-298 0 0,0-4 1 0 0,80-10-1 0 0,33-1 539 0 0,340-10-75 0 0,-371 14-413 0 0,-50 5 436 0 0,208 21 0 0 0,307 28 37 0 0,-473-40-115 0 0,-36-1-197 0 0,-62-4-220 0 0,1 2 0 0 0,-1 2-1 0 0,0 3 1 0 0,65 18 0 0 0,25 24 419 0 0,-138-49-317 0 0,0-1-62 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,4 2-1 0 0,18 6 244 0 0,-21-9-222 0 0,18 5 86 0 0,-20-3-124 0 0,0-2 5 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-6 4-30 0 0,4-2-38 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-13-2-6365 0 0,-4-3-2161 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49804.95">12904 392 10159 0 0,'-3'-4'8016'0'0,"-1"0"-7161"0"0,2 1-286 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-6-2 1 0 0,4 1-385 0 0,-1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,-10-1-1 0 0,1 2-254 0 0,0 1 0 0 0,1 0 0 0 0,-23 3 0 0 0,28-2 166 0 0,6-1-91 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,4-5-115 0 0,0 0 0 0 0,-2 5 75 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,3 8 0 0 0,3 7 217 0 0,1-1 0 0 0,1-1 0 0 0,21 33 0 0 0,-30-50-68 0 0,0 0 0 0 0,3 7-19 0 0,0 6-73 0 0,-5-10-24 0 0,-1 1-46 0 0,1-4 91 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-4 3 0 0 0,-50 29 285 0 0,26-17-400 0 0,23-13 26 0 0,6-3-191 0 0,-4-1-513 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50221.77">12935 429 20327 0 0,'-4'4'390'0'0,"0"0"0"0"0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-3 6 0 0 0,4-9-372 0 0,-15 42-18 0 0,12-28 317 0 0,1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,2-1-1 0 0,1 28 1 0 0,3-1-103 0 0,10 48 1 0 0,-9-72-388 0 0,-4-14 51 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0 9 1 0 0,-1 10-182 0 0,1-15-7890 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51357.63">12895 823 17191 0 0,'0'0'1719'0'0,"2"0"-1574"0"0,6 2-78 0 0,-6-2 193 0 0,1 1 79 0 0,72-1 2965 0 0,-36-1-1742 0 0,68 7 202 0 0,23-1-1452 0 0,-114-4-313 0 0,-12-2 3 0 0,11-1-15 0 0,-4-3-1228 0 0,-3-2-4963 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51965.99">11604 597 21167 0 0,'0'0'2581'0'0,"3"0"-2297"0"0,26 1 252 0 0,19 2-296 0 0,2 1 320 0 0,-26-4-276 0 0,-19 0-208 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,7 1 0 0 0,21 5 77 0 0,-1-1 1 0 0,34 1-1 0 0,-55-6-260 0 0,-9-1-289 0 0,8 0-716 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52297.44">11672 752 22231 0 0,'0'0'1688'0'0,"10"7"-936"0"0,5 1-752 0 0,-3-2 0 0 0,4 1 0 0 0,0 0 232 0 0,1-2 24 0 0,-2-1 8 0 0,4 0 0 0 0,2-2-264 0 0,0-1-176 0 0,0-2 24 0 0,2-1-6632 0 0,4 0-1320 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="475433.59">9022 3586 16471 0 0,'0'0'7720'0'0,"2"0"-7536"0"0,27-2 261 0 0,-23 1-391 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,11 1-1 0 0,7 3-29 0 0,-20-1-25 0 0,1 0 1 0 0,1-1 0 0 0,22 13 0 0 0,-22-12 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1 0 0 0,4 8 0 0 0,7 13-5 0 0,-11-22 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 9 0 0 0,19 99 192 0 0,-13-35-176 0 0,-11-74 27 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-2 3-1 0 0,0 14 138 0 0,1 3-151 0 0,-2-19-32 0 0,0-1 4 0 0,-4 19-1 0 0,7-21 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 2 0 0 0,-40 48 0 0 0,33-39 29 0 0,9-9 8 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-5 3 0 0 0,-3 0 48 0 0,0 1 1 0 0,-15 10-1 0 0,24-15-85 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-5 2 0 0 0,1-1 0 0 0,-7 6 0 0 0,9-5 11 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-10 4 1 0 0,-1 0-6 0 0,16-6-1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,2 0-11 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,20-14-286 0 0,-17 11 129 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-6 0 0 0,5-9-1740 0 0,3 1-3536 0 0,2 2-2015 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="475857.61">9537 3836 13039 0 0,'0'0'1423'0'0,"-7"6"382"0"0,4-5-1440 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-4-1-1 0 0,-4 1 1468 0 0,8 0-1670 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,1-1-113 0 0,2-2 55 0 0,0 1-115 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-3 3 1 0 0,-4 8-113 0 0,-10 35 353 0 0,16-46-213 0 0,2 1 33 0 0,-3 28-11 0 0,-8 18 314 0 0,10-43-234 0 0,1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,5 10 0 0 0,-6-13 21 0 0,2-1 33 0 0,-4-1-163 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2 1 0 0 0,8 4 10 0 0,9 1-7 0 0,-14-7 14 0 0,-1-1-4 0 0,-2 1-13 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,5-2 0 0 0,30-6 57 0 0,-24 4-55 0 0,7-3 159 0 0,-13 5-241 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,6-4 1 0 0,-9 5-117 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,6-2 0 0 0,3-1-769 0 0,-12 3-855 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="478636.87">10052 3807 20559 0 0,'0'0'3099'0'0,"2"0"-2638"0"0,1-2-353 0 0,1 0 40 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,8 1 0 0 0,-9-2-121 0 0,3 2-4 0 0,18 7 4 0 0,-13-1-27 0 0,30 8 0 0 0,-26-11 0 0 0,-2 3 0 0 0,-11-4-81 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,5 6 1 0 0,1 7-7066 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="478976.21">10022 4034 12207 0 0,'0'0'943'0'0,"3"0"-618"0"0,7 1 291 0 0,0 1-1 0 0,16 4 1 0 0,-24-6-242 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,1-1 1 0 0,11 0 1188 0 0,-5 2-979 0 0,1 0 0 0 0,-1-1 1 0 0,12-1-1 0 0,-18 1-380 0 0,1-1-79 0 0,5 1-2 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,11 3 1 0 0,7 1 114 0 0,-4-3-275 0 0,-2 3-2261 0 0,-13-3-2514 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="479370.56">10719 3776 18543 0 0,'0'0'5164'0'0,"2"0"-4843"0"0,44 6 798 0 0,-44-5-1020 0 0,0 4 31 0 0,0-4-121 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,2 4 0 0 0,18 31 6 0 0,-6-12-15 0 0,-14-18 0 0 0,-2 0 0 0 0,3 7-11 0 0,-1-11 2 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-3 3 0 0 0,-3 10-56 0 0,6-14 64 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-3 3-1 0 0,-2-1 0 0 0,2 0-36 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-5 6 0 0 0,7-8-5 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-5 0 1 0 0,-19 9-250 0 0,-30 26-25 0 0,31-30 316 0 0,15 0 1924 0 0,12-4-1535 0 0,3 3-315 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0-1 0 0,8 3 1 0 0,4 1-188 0 0,1 0 0 0 0,-1-2 0 0 0,30 4 0 0 0,-42-8 93 0 0,1-1 0 0 0,-1 0 0 0 0,14-2 0 0 0,7 0-205 0 0,-3-2-887 0 0,-6-1-5376 0 0,-1 3-1598 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="479751.95">11335 3731 17423 0 0,'-12'12'381'0'0,"0"0"0"0"0,0-1 0 0 0,-2-1-1 0 0,-21 14 1 0 0,28-18-78 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,2 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-3 15-1 0 0,5-12-153 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,1-1 1 0 0,2 14-1 0 0,1-1-28 0 0,4 10 56 0 0,29 56 300 0 0,-28-60-476 0 0,-9-24 0 0 0,5 19-40 0 0,-7-20 16 0 0,-1-1 8 0 0,0 2 3 0 0,-2 3 10 0 0,-13 12 3 0 0,10-14 8 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-2 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-17-1-1 0 0,24-1-65 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,-7-6-7166 0 0,1 0-620 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="480149.27">11251 3785 18023 0 0,'0'0'1387'0'0,"4"-1"-896"0"0,23-1 593 0 0,0 1 0 0 0,34 3 0 0 0,-48-2-331 0 0,17 1-98 0 0,-13-1-358 0 0,1 1 1 0 0,24 4 0 0 0,-39-4-177 0 0,6 0 32 0 0,18 1-111 0 0,1 4 465 0 0,-14 0-1963 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="480518.29">11869 3783 18023 0 0,'-4'5'2067'0'0,"0"-4"-1809"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 0 0 0 0,9-1-217 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 61 0 0,-12 9 133 0 0,9-7-152 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 8 0 0 0,-17 18 210 0 0,26-30-292 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,-2 0 0 0 0,4 2 66 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,5 0 1 0 0,2 0 49 0 0,-1-1 1 0 0,0-1-1 0 0,1 0 1 0 0,11-5-1 0 0,-19 7-89 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,1 0 1 0 0,1-3-1 0 0,-2 1 15 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1-7 1 0 0,-2 8 42 0 0,0 2-49 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1-3 1 0 0,-9-13 100 0 0,10 17-127 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-3-1-1 0 0,0 0-11 0 0,-17 2-57 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="480857.39">12289 3761 13039 0 0,'0'0'10855'0'0,"-2"1"-10350"0"0,-26 16 460 0 0,27-16-944 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,3-1 9 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 2-1 0 0,-1 1 41 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-7 4 0 0 0,-22 14 107 0 0,-17 16-100 0 0,-21 17 28 0 0,-6 14-73 0 0,-52 47 1 0 0,45-44 7 0 0,41-35-9 0 0,-74 48 159 0 0,109-77-166 0 0,0-2-1 0 0,-14 8 1 0 0,-29 18-3 0 0,50-30-111 0 0,5-1-523 0 0,-1-1 462 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,2-2-1 0 0,20-14-6279 0 0,5 6-1241 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="481215.21">11974 4145 13039 0 0,'0'0'1006'0'0,"-2"2"-658"0"0,-9 12-331 0 0,6-7 235 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-10 7 0 0 0,10-8 407 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-3 8 1 0 0,7-12 542 0 0,-2 4-470 0 0,3-6-695 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 7 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,2 0 0 0 0,22 5 184 0 0,-19-7-238 0 0,-1 0 19 0 0,2 0 49 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,9-10-1 0 0,-14 14 264 0 0,-1-2-156 0 0,-6-17 200 0 0,5 18-180 0 0,-2 1-31 0 0,-2-3-159 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-9 3 1 0 0,13-3-141 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="483966.33">12377 3972 12207 0 0,'0'0'6698'0'0,"3"0"-5710"0"0,92-27 3453 0 0,-83 24-4333 0 0,-9 1-69 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,6 0 1 0 0,43 5 301 0 0,-18-4-320 0 0,-20 3-9 0 0,19 17 42 0 0,-4 0-78 0 0,-26-17-114 0 0,-3-2-704 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="484347.98">12461 4165 6535 0 0,'0'0'500'0'0,"3"0"-324"0"0,25 0 726 0 0,46 11 9371 0 0,-71-11-9974 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,4 0 1 0 0,9-3 1091 0 0,-7 2-1092 0 0,-2 0-128 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,10 1-1 0 0,-4 0-106 0 0,-7 1-88 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,5-2-1 0 0,-3 2 30 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,13-8 0 0 0,-3-2-7216 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="484684.44">12662 3937 10159 0 0,'0'0'12752'0'0,"0"3"-12575"0"0,3 9 6 0 0,0 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-2 23 0 0 0,-18 79 714 0 0,7-53-862 0 0,-6 35 198 0 0,17-82-173 0 0,-1 0 0 0 0,-7 23 0 0 0,-10 38 100 0 0,15-40-247 0 0,4-26 100 0 0,1-8 20 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485031.03">12615 4236 18543 0 0,'-2'2'1428'0'0,"-5"7"-1084"0"0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-17 13 0 0 0,8-6 573 0 0,-20 13 72 0 0,-2-1 0 0 0,-82 39 0 0 0,102-52-871 0 0,17-11-113 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-5 1-1 0 0,-7-1-1109 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485032.03">12690 4295 18023 0 0,'0'0'1920'0'0,"15"15"-1856"0"0,-4 0 1320 0 0,0 0-616 0 0,4-2 168 0 0,-4-4-936 0 0,1-2 296 0 0,3-8-6520 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485458.66">12956 3999 18023 0 0,'0'0'4063'0'0,"2"-1"-2909"0"0,30 3 2110 0 0,-29-2-3108 0 0,14 2 222 0 0,-2 6-185 0 0,-3-2-101 0 0,-4-4-16 0 0,-4 1-76 0 0,9 12 53 0 0,3 7-65 0 0,-15-20-109 0 0,7 13-1060 0 0,-9-12 503 0 0,0 0 436 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-5 2 0 0 0,-13 11-1443 0 0,19-13 1310 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-4 1 0 0 0,-6 1-753 0 0,10-3 490 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-5 4 1 0 0,-3 9-3896 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485837.4">12843 4248 6447 0 0,'0'0'499'0'0,"1"2"-328"0"0,1 5-899 0 0,1 8 3915 0 0,0-2-44 0 0,-2-11-1505 0 0,0 0 55 0 0,3 5-816 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,8 6 1 0 0,-11-10-957 0 0,-2 3-1859 0 0,-3 9 544 0 0,-1 2-3679 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="485838.4">12838 4428 13039 0 0,'0'0'9459'0'0,"1"2"-8846"0"0,1 2-292 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,5 6 1 0 0,-6-9-45 0 0,1 1-228 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 0-1 0 0,-10-1-50 0 0,21 3 108 0 0,-15-5-93 0 0,-1 0 1 0 0,28-9-1185 0 0,-11 1-5069 0 0,0 1-1658 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="486560.16">13089 3997 18023 0 0,'0'0'4604'0'0,"3"-1"-3968"0"0,18-1 130 0 0,7 0-306 0 0,-1-1 1 0 0,1-1-1 0 0,43-14 1 0 0,-36 10-461 0 0,-27 6 0 0 0,0 1 0 0 0,0-1 0 0 0,8-4 0 0 0,14-4-77 0 0,-24 9-91 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,7-7-1 0 0,-9 7 31 0 0,-2 2 13 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,3-5-1 0 0,-4 6-218 0 0,0-1-74 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-4 1 0 0,-1 6 364 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-2-1 1 0 0,1 1 433 0 0,-13 2 858 0 0,7-1-599 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,-11 7 0 0 0,15-7-466 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-5 8 0 0 0,-4 16-60 0 0,6-12-107 0 0,7-12-11 0 0,0-2-23 0 0,-1 1-105 0 0,20 9-1219 0 0,9-6-489 0 0,-28-6 1485 0 0,13-1-319 0 0,-10 1 629 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,7 3 2525 0 0,-15 11-2013 0 0,1-5-336 0 0,3-8-122 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-3 2 0 0 0,-18 10 126 0 0,-12 5 161 0 0,28-15-256 0 0,-8 3-215 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-20 1 0 0 0,19 0-221 0 0,11-3 315 0 0,4-1-23 0 0,2-1 96 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 1 0 0,-3 2 484 0 0,13 4-13 0 0,7 1-154 0 0,0-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,25 3 0 0 0,-35-6-285 0 0,1 1-20 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,9-2 0 0 0,-6 1 7 0 0,27-4 128 0 0,-30 4-140 0 0,-4 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-2 0 0 0,15-10-1112 0 0,-17 11 677 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="486938.14">13254 4180 5695 0 0,'0'0'443'0'0,"-1"2"-294"0"0,-36 95 15930 0 0,8-17-13702 0 0,28-76-2344 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-4 5 0 0 0,4-6-13 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2 6-1 0 0,1 5-1 0 0,1-7-18 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,-5 12 0 0 0,-2 6 11 0 0,10-22-50 0 0,2-2-1464 0 0,0-1 959 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,2-3 1 0 0,4-2-2041 0 0,3-4-3213 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="487285.91">13246 4323 12207 0 0,'0'0'943'0'0,"3"-2"-618"0"0,10-3 652 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,30-3-1 0 0,-7-2 3177 0 0,-8 2-2595 0 0,-27 6-965 0 0,1 1-367 0 0,7 3-12 0 0,-8-3-39 0 0,1 0-16 0 0,7 8-7 0 0,-1 4-13 0 0,-7-6-125 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,-2 12 0 0 0,0 1-10 0 0,2-15 22 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-4 9-1 0 0,-3 6 34 0 0,9-19-53 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,-3 3-55 0 0,3-6-787 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-6-5-6897 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="487625.99">13240 4354 18543 0 0,'0'0'1428'0'0,"2"2"-924"0"0,4 5 716 0 0,1-1-1 0 0,1 1 1 0 0,12 7 0 0 0,-18-12-820 0 0,14 7 410 0 0,-8-4-787 0 0,-8-5-50 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 1-1 0 0,-3 1-237 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-9-2-1 0 0,-24 3-2063 0 0,31-1 1530 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,-13-2 0 0 0,-2-1 8111 0 0,27 5-6874 0 0,6 2-270 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,17-2 0 0 0,64-7-15 0 0,-55 3-39 0 0,35-7-959 0 0,-26 0-944 0 0,-42 11 1457 0 0,-1 1 380 0 0,6-1-1016 0 0,-7 1 1068 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1-212 0 0,10 5-1104 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="488006.09">13669 4369 19119 0 0,'0'0'2040'0'0,"-5"12"-1976"0"0,1 1 864 0 0,-2 4 160 0 0,-3-8 1176 0 0,2 2-1320 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="489433.02">4616 16 6535 0 0,'1'-4'9218'0'0,"0"-7"-2277"0"0,17 24-6818 0 0,-14-7-129 0 0,-2-1 10 0 0,6 6 33 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,4 22 0 0 0,-8-30-37 0 0,-1-3 0 0 0,13 28 0 0 0,-5-11 21 0 0,0 0-1 0 0,-2 1 1 0 0,0 0-1 0 0,-2 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-2 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-2 1 0 0 0,-7 29-1 0 0,8-41 19 0 0,-2 8-20 0 0,-2 1 0 0 0,-11 28 0 0 0,8-20-19 0 0,8-21 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,-2 6 0 0 0,-38 51 96 0 0,39-56-72 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-10 5 0 0 0,7-5 0 0 0,0 1-1 0 0,1 0 1 0 0,-10 8-1 0 0,2 2 36 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0-1-1 0 0,-27 14 1 0 0,37-23-136 0 0,-1 0 1 0 0,0 0-1 0 0,-12 2 0 0 0,19-4-23 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-5-3-1 0 0,-2-11-13336 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="539480.44">3834 141 13039 0 0,'17'19'7250'0'0,"-14"-17"-7055"0"0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,2 4 0 0 0,0-2-179 0 0,73 69 995 0 0,-43-40-347 0 0,-31-30-558 0 0,6 8 84 0 0,2 2 250 0 0,-20-1-30 0 0,7-8-386 0 0,2-3-24 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,0 2-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-6 2 0 0 0,-36 8 0 0 0,-25 6 64 0 0,68-15-64 0 0,-21-1-11 0 0,12 1-58 0 0,43-9-16131 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="539831.54">4411 147 12207 0 0,'0'0'943'0'0,"-2"2"-618"0"0,-2 2 192 0 0,-2 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-9 3-1 0 0,-50 20 2387 0 0,58-23-2743 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-10 5-1 0 0,-13 9 252 0 0,22-14-257 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-7 8 0 0 0,-8 15 845 0 0,22-26-841 0 0,0 0-19 0 0,0-1-121 0 0,-1 1 8 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,1 1-1 0 0,12 8 81 0 0,-8-6-92 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,13 3 1 0 0,2-1 5 0 0,-12-2 32 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,13 0-1 0 0,82 4 94 0 0,-68-9-388 0 0,-21 1-1746 0 0,0 1-3288 0 0,3 2-2815 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4801.73">1471 1814 6535 0 0,'0'0'500'0'0,"3"1"-324"0"0,12 3 160 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,18-2 1 0 0,97-13 3933 0 0,-27 2 315 0 0,211-8-907 0 0,-141 11-3847 0 0,-22 3 56 0 0,-36 5 109 0 0,-57 2 42 0 0,314 22 1235 0 0,-229-15-1293 0 0,-8-3-273 0 0,101 16 1438 0 0,-150-18-940 0 0,-64-3-129 0 0,0 0 1 0 0,0 2-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 1 0 0,30 10-1 0 0,49 30 201 0 0,-17-6-25 0 0,-74-35-181 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,18 0 1 0 0,-6-2 10 0 0,40-7 1 0 0,30-11 574 0 0,-66 14-599 0 0,-7 3-67 0 0,-16 2-86 0 0,17-4-2083 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45936.86">9022 3586 16471 0 0,'0'0'7720'0'0,"2"0"-7536"0"0,27-2 261 0 0,-23 1-391 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,11 1-1 0 0,7 3-29 0 0,-20-1-25 0 0,1 0 1 0 0,1-1 0 0 0,22 13 0 0 0,-22-12 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1 0 0 0,4 8 0 0 0,7 13-5 0 0,-11-22 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 9 0 0 0,19 99 192 0 0,-13-35-176 0 0,-11-74 27 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-2 3-1 0 0,0 14 138 0 0,1 3-151 0 0,-2-19-32 0 0,0-1 4 0 0,-4 19-1 0 0,7-21 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 2 0 0 0,-40 48 0 0 0,33-39 29 0 0,9-9 8 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-5 3 0 0 0,-3 0 48 0 0,0 1 1 0 0,-15 10-1 0 0,24-15-85 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-5 2 0 0 0,1-1 0 0 0,-7 6 0 0 0,9-5 11 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-10 4 1 0 0,-1 0-6 0 0,16-6-1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,2 0-11 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,20-14-286 0 0,-17 11 129 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-6 0 0 0,5-9-1740 0 0,3 1-3536 0 0,2 2-2015 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46360.88">9537 3836 13039 0 0,'0'0'1423'0'0,"-7"6"382"0"0,4-5-1440 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-4-1-1 0 0,-4 1 1468 0 0,8 0-1670 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,1-1-113 0 0,2-2 55 0 0,0 1-115 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-3 3 1 0 0,-4 8-113 0 0,-10 35 353 0 0,16-46-213 0 0,2 1 33 0 0,-3 28-11 0 0,-8 18 314 0 0,10-43-234 0 0,1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,5 10 0 0 0,-6-13 21 0 0,2-1 33 0 0,-4-1-163 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2 1 0 0 0,8 4 10 0 0,9 1-7 0 0,-14-7 14 0 0,-1-1-4 0 0,-2 1-13 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,5-2 0 0 0,30-6 57 0 0,-24 4-55 0 0,7-3 159 0 0,-13 5-241 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,6-4 1 0 0,-9 5-117 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,6-2 0 0 0,3-1-769 0 0,-12 3-855 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49140.14">10052 3807 20559 0 0,'0'0'3099'0'0,"2"0"-2638"0"0,1-2-353 0 0,1 0 40 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,8 1 0 0 0,-9-2-121 0 0,3 2-4 0 0,18 7 4 0 0,-13-1-27 0 0,30 8 0 0 0,-26-11 0 0 0,-2 3 0 0 0,-11-4-81 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,5 6 1 0 0,1 7-7066 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49479.48">10022 4034 12207 0 0,'0'0'943'0'0,"3"0"-618"0"0,7 1 291 0 0,0 1-1 0 0,16 4 1 0 0,-24-6-242 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,1-1 1 0 0,11 0 1188 0 0,-5 2-979 0 0,1 0 0 0 0,-1-1 1 0 0,12-1-1 0 0,-18 1-380 0 0,1-1-79 0 0,5 1-2 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,11 3 1 0 0,7 1 114 0 0,-4-3-275 0 0,-2 3-2261 0 0,-13-3-2514 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49873.83">10719 3776 18543 0 0,'0'0'5164'0'0,"2"0"-4843"0"0,44 6 798 0 0,-44-5-1020 0 0,0 4 31 0 0,0-4-121 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,2 4 0 0 0,18 31 6 0 0,-6-12-15 0 0,-14-18 0 0 0,-2 0 0 0 0,3 7-11 0 0,-1-11 2 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-3 3 0 0 0,-3 10-56 0 0,6-14 64 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-3 3-1 0 0,-2-1 0 0 0,2 0-36 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-5 6 0 0 0,7-8-5 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-5 0 1 0 0,-19 9-250 0 0,-30 26-25 0 0,31-30 316 0 0,15 0 1924 0 0,12-4-1535 0 0,3 3-315 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0-1 0 0,8 3 1 0 0,4 1-188 0 0,1 0 0 0 0,-1-2 0 0 0,30 4 0 0 0,-42-8 93 0 0,1-1 0 0 0,-1 0 0 0 0,14-2 0 0 0,7 0-205 0 0,-3-2-887 0 0,-6-1-5376 0 0,-1 3-1598 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50255.21">11335 3731 17423 0 0,'-12'12'381'0'0,"0"0"0"0"0,0-1 0 0 0,-2-1-1 0 0,-21 14 1 0 0,28-18-78 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,2 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-3 15-1 0 0,5-12-153 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,1-1 1 0 0,2 14-1 0 0,1-1-28 0 0,4 10 56 0 0,29 56 300 0 0,-28-60-476 0 0,-9-24 0 0 0,5 19-40 0 0,-7-20 16 0 0,-1-1 8 0 0,0 2 3 0 0,-2 3 10 0 0,-13 12 3 0 0,10-14 8 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-2 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-17-1-1 0 0,24-1-65 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1 0 0 0,-7-6-7166 0 0,1 0-620 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50652.54">11251 3785 18023 0 0,'0'0'1387'0'0,"4"-1"-896"0"0,23-1 593 0 0,0 1 0 0 0,34 3 0 0 0,-48-2-331 0 0,17 1-98 0 0,-13-1-358 0 0,1 1 1 0 0,24 4 0 0 0,-39-4-177 0 0,6 0 32 0 0,18 1-111 0 0,1 4 465 0 0,-14 0-1963 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51021.56">11869 3783 18023 0 0,'-4'5'2067'0'0,"0"-4"-1809"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 0 0 0 0,9-1-217 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 61 0 0,-12 9 133 0 0,9-7-152 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 8 0 0 0,-17 18 210 0 0,26-30-292 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,-2 0 0 0 0,4 2 66 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,5 0 1 0 0,2 0 49 0 0,-1-1 1 0 0,0-1-1 0 0,1 0 1 0 0,11-5-1 0 0,-19 7-89 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,1 0 1 0 0,1-3-1 0 0,-2 1 15 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1-7 1 0 0,-2 8 42 0 0,0 2-49 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1-3 1 0 0,-9-13 100 0 0,10 17-127 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-3-1-1 0 0,0 0-11 0 0,-17 2-57 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51360.66">12289 3761 13039 0 0,'0'0'10855'0'0,"-2"1"-10350"0"0,-26 16 460 0 0,27-16-944 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,3-1 9 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 2-1 0 0,-1 1 41 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-7 4 0 0 0,-22 14 107 0 0,-17 16-100 0 0,-21 17 28 0 0,-6 14-73 0 0,-52 47 1 0 0,45-44 7 0 0,41-35-9 0 0,-74 48 159 0 0,109-77-166 0 0,0-2-1 0 0,-14 8 1 0 0,-29 18-3 0 0,50-30-111 0 0,5-1-523 0 0,-1-1 462 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,2-2-1 0 0,20-14-6279 0 0,5 6-1241 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51718.48">11974 4145 13039 0 0,'0'0'1006'0'0,"-2"2"-658"0"0,-9 12-331 0 0,6-7 235 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-10 7 0 0 0,10-8 407 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-3 8 1 0 0,7-12 542 0 0,-2 4-470 0 0,3-6-695 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 7 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,2 0 0 0 0,22 5 184 0 0,-19-7-238 0 0,-1 0 19 0 0,2 0 49 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,9-10-1 0 0,-14 14 264 0 0,-1-2-156 0 0,-6-17 200 0 0,5 18-180 0 0,-2 1-31 0 0,-2-3-159 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-9 3 1 0 0,13-3-141 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54469.6">12377 3972 12207 0 0,'0'0'6698'0'0,"3"0"-5710"0"0,92-27 3453 0 0,-83 24-4333 0 0,-9 1-69 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,6 0 1 0 0,43 5 301 0 0,-18-4-320 0 0,-20 3-9 0 0,19 17 42 0 0,-4 0-78 0 0,-26-17-114 0 0,-3-2-704 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54851.25">12461 4165 6535 0 0,'0'0'500'0'0,"3"0"-324"0"0,25 0 726 0 0,46 11 9371 0 0,-71-11-9974 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,4 0 1 0 0,9-3 1091 0 0,-7 2-1092 0 0,-2 0-128 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,10 1-1 0 0,-4 0-106 0 0,-7 1-88 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,5-2-1 0 0,-3 2 30 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,13-8 0 0 0,-3-2-7216 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55187.71">12662 3937 10159 0 0,'0'0'12752'0'0,"0"3"-12575"0"0,3 9 6 0 0,0 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-2 23 0 0 0,-18 79 714 0 0,7-53-862 0 0,-6 35 198 0 0,17-82-173 0 0,-1 0 0 0 0,-7 23 0 0 0,-10 38 100 0 0,15-40-247 0 0,4-26 100 0 0,1-8 20 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55534.3">12615 4236 18543 0 0,'-2'2'1428'0'0,"-5"7"-1084"0"0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-17 13 0 0 0,8-6 573 0 0,-20 13 72 0 0,-2-1 0 0 0,-82 39 0 0 0,102-52-871 0 0,17-11-113 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-5 1-1 0 0,-7-1-1109 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55535.3">12690 4295 18023 0 0,'0'0'1920'0'0,"15"15"-1856"0"0,-4 0 1320 0 0,0 0-616 0 0,4-2 168 0 0,-4-4-936 0 0,1-2 296 0 0,3-8-6520 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55961.93">12956 3999 18023 0 0,'0'0'4063'0'0,"2"-1"-2909"0"0,30 3 2110 0 0,-29-2-3108 0 0,14 2 222 0 0,-2 6-185 0 0,-3-2-101 0 0,-4-4-16 0 0,-4 1-76 0 0,9 12 53 0 0,3 7-65 0 0,-15-20-109 0 0,7 13-1060 0 0,-9-12 503 0 0,0 0 436 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-5 2 0 0 0,-13 11-1443 0 0,19-13 1310 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-4 1 0 0 0,-6 1-753 0 0,10-3 490 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-5 4 1 0 0,-3 9-3896 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56340.67">12843 4248 6447 0 0,'0'0'499'0'0,"1"2"-328"0"0,1 5-899 0 0,1 8 3915 0 0,0-2-44 0 0,-2-11-1505 0 0,0 0 55 0 0,3 5-816 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,8 6 1 0 0,-11-10-957 0 0,-2 3-1859 0 0,-3 9 544 0 0,-1 2-3679 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56341.67">12838 4428 13039 0 0,'0'0'9459'0'0,"1"2"-8846"0"0,1 2-292 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,5 6 1 0 0,-6-9-45 0 0,1 1-228 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 0-1 0 0,-10-1-50 0 0,21 3 108 0 0,-15-5-93 0 0,-1 0 1 0 0,28-9-1185 0 0,-11 1-5069 0 0,0 1-1658 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57063.43">13089 3997 18023 0 0,'0'0'4604'0'0,"3"-1"-3968"0"0,18-1 130 0 0,7 0-306 0 0,-1-1 1 0 0,1-1-1 0 0,43-14 1 0 0,-36 10-461 0 0,-27 6 0 0 0,0 1 0 0 0,0-1 0 0 0,8-4 0 0 0,14-4-77 0 0,-24 9-91 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,7-7-1 0 0,-9 7 31 0 0,-2 2 13 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,3-5-1 0 0,-4 6-218 0 0,0-1-74 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-4 1 0 0,-1 6 364 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-2-1 1 0 0,1 1 433 0 0,-13 2 858 0 0,7-1-599 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,-11 7 0 0 0,15-7-466 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-5 8 0 0 0,-4 16-60 0 0,6-12-107 0 0,7-12-11 0 0,0-2-23 0 0,-1 1-105 0 0,20 9-1219 0 0,9-6-489 0 0,-28-6 1485 0 0,13-1-319 0 0,-10 1 629 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,7 3 2525 0 0,-15 11-2013 0 0,1-5-336 0 0,3-8-122 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-3 2 0 0 0,-18 10 126 0 0,-12 5 161 0 0,28-15-256 0 0,-8 3-215 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-20 1 0 0 0,19 0-221 0 0,11-3 315 0 0,4-1-23 0 0,2-1 96 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 1 0 0,-3 2 484 0 0,13 4-13 0 0,7 1-154 0 0,0-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,25 3 0 0 0,-35-6-285 0 0,1 1-20 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,9-2 0 0 0,-6 1 7 0 0,27-4 128 0 0,-30 4-140 0 0,-4 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-2 0 0 0,15-10-1112 0 0,-17 11 677 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57441.4">13254 4180 5695 0 0,'0'0'443'0'0,"-1"2"-294"0"0,-36 95 15930 0 0,8-17-13702 0 0,28-76-2344 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-4 5 0 0 0,4-6-13 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2 6-1 0 0,1 5-1 0 0,1-7-18 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,-5 12 0 0 0,-2 6 11 0 0,10-22-50 0 0,2-2-1464 0 0,0-1 959 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,2-3 1 0 0,4-2-2041 0 0,3-4-3213 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57789.18">13246 4323 12207 0 0,'0'0'943'0'0,"3"-2"-618"0"0,10-3 652 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,30-3-1 0 0,-7-2 3177 0 0,-8 2-2595 0 0,-27 6-965 0 0,1 1-367 0 0,7 3-12 0 0,-8-3-39 0 0,1 0-16 0 0,7 8-7 0 0,-1 4-13 0 0,-7-6-125 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,-2 12 0 0 0,0 1-10 0 0,2-15 22 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-4 9-1 0 0,-3 6 34 0 0,9-19-53 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,-3 3-55 0 0,3-6-787 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-6-5-6897 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58129.25">13240 4354 18543 0 0,'0'0'1428'0'0,"2"2"-924"0"0,4 5 716 0 0,1-1-1 0 0,1 1 1 0 0,12 7 0 0 0,-18-12-820 0 0,14 7 410 0 0,-8-4-787 0 0,-8-5-50 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 1-1 0 0,-3 1-237 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-9-2-1 0 0,-24 3-2063 0 0,31-1 1530 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,-13-2 0 0 0,-2-1 8111 0 0,27 5-6874 0 0,6 2-270 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,17-2 0 0 0,64-7-15 0 0,-55 3-39 0 0,35-7-959 0 0,-26 0-944 0 0,-42 11 1457 0 0,-1 1 380 0 0,6-1-1016 0 0,-7 1 1068 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1-212 0 0,10 5-1104 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58509.36">13669 4369 19119 0 0,'0'0'2040'0'0,"-5"12"-1976"0"0,1 1 864 0 0,-2 4 160 0 0,-3-8 1176 0 0,2 2-1320 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59936.28">4616 16 6535 0 0,'1'-4'9218'0'0,"0"-7"-2277"0"0,17 24-6818 0 0,-14-7-129 0 0,-2-1 10 0 0,6 6 33 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,4 22 0 0 0,-8-30-37 0 0,-1-3 0 0 0,13 28 0 0 0,-5-11 21 0 0,0 0-1 0 0,-2 1 1 0 0,0 0-1 0 0,-2 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-2 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-2 1 0 0 0,-7 29-1 0 0,8-41 19 0 0,-2 8-20 0 0,-2 1 0 0 0,-11 28 0 0 0,8-20-19 0 0,8-21 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,-2 6 0 0 0,-38 51 96 0 0,39-56-72 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-10 5 0 0 0,7-5 0 0 0,0 1-1 0 0,1 0 1 0 0,-10 8-1 0 0,2 2 36 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0-1-1 0 0,-27 14 1 0 0,37-23-136 0 0,-1 0 1 0 0,0 0-1 0 0,-12 2 0 0 0,19-4-23 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-5-3-1 0 0,-2-11-13336 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="109983.71">3834 141 13039 0 0,'17'19'7250'0'0,"-14"-17"-7055"0"0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,2 4 0 0 0,0-2-179 0 0,73 69 995 0 0,-43-40-347 0 0,-31-30-558 0 0,6 8 84 0 0,2 2 250 0 0,-20-1-30 0 0,7-8-386 0 0,2-3-24 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,0 2-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-6 2 0 0 0,-36 8 0 0 0,-25 6 64 0 0,68-15-64 0 0,-21-1-11 0 0,12 1-58 0 0,43-9-16131 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110334.81">4411 147 12207 0 0,'0'0'943'0'0,"-2"2"-618"0"0,-2 2 192 0 0,-2 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-9 3-1 0 0,-50 20 2387 0 0,58-23-2743 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-10 5-1 0 0,-13 9 252 0 0,22-14-257 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-7 8 0 0 0,-8 15 845 0 0,22-26-841 0 0,0 0-19 0 0,0-1-121 0 0,-1 1 8 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,1 1-1 0 0,12 8 81 0 0,-8-6-92 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,13 3 1 0 0,2-1 5 0 0,-12-2 32 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,13 0-1 0 0,82 4 94 0 0,-68-9-388 0 0,-21 1-1746 0 0,0 1-3288 0 0,3 2-2815 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4801.72">1471 1814 6535 0 0,'0'0'500'0'0,"3"1"-324"0"0,12 3 160 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,18-2 1 0 0,97-13 3933 0 0,-27 2 315 0 0,211-8-907 0 0,-141 11-3847 0 0,-22 3 56 0 0,-36 5 109 0 0,-57 2 42 0 0,314 22 1235 0 0,-229-15-1293 0 0,-8-3-273 0 0,101 16 1438 0 0,-150-18-940 0 0,-64-3-129 0 0,0 0 1 0 0,0 2-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 1 0 0,30 10-1 0 0,49 30 201 0 0,-17-6-25 0 0,-74-35-181 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,18 0 1 0 0,-6-2 10 0 0,40-7 1 0 0,30-11 574 0 0,-66 14-599 0 0,-7 3-67 0 0,-16 2-86 0 0,17-4-2083 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6213.05">4639 1142 12983 0 0,'0'0'1303'0'0,"3"1"-1194"0"0,31 11 2810 0 0,-32-11-2412 0 0,1 0-379 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,5 4 0 0 0,-5-4 61 0 0,16 14 181 0 0,-1 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,15 24 0 0 0,-7-11-212 0 0,-14-17-120 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 28 0 0 0,-3-33 34 0 0,0 1 1 0 0,-1-1-1 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-14 15 0 0 0,7-12 44 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0-1-1 0 0,-1-1 1 0 0,-27 14-1 0 0,31-19-119 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-17 2 0 0 0,14-1-104 0 0,1-1-634 0 0,2-2-6544 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="540673.46">4057 1207 18543 0 0,'0'0'2584'0'0,"2"3"-2294"0"0,21 37 2003 0 0,-21-38-2064 0 0,-2 1-108 0 0,7 17 258 0 0,-2 0 0 0 0,0 0-1 0 0,2 30 1 0 0,-7-17-226 0 0,-5-20-164 0 0,1-3 44 0 0,2-6 17 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-6 3 1 0 0,-4 2 64 0 0,1-1 1 0 0,-24 9-1 0 0,3-1-74 0 0,17-8-3 0 0,-1-1 0 0 0,-27 7 0 0 0,-13 5 104 0 0,54-17-130 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-7 0 0 0 0,8 0-3 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-6 1 1 0 0,8 0-36 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2-2 0 0 0,5 3 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7-8-56 0 0,-6 8-28 0 0,2-2-117 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,6-2 0 0 0,15-6-5643 0 0,4 0-1842 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="541058.3">4275 1320 10159 0 0,'27'-1'625'0'0,"-18"0"627"0"0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,18 4 2764 0 0,-30-2-3141 0 0,-5 4-58 0 0,0-1 1 0 0,-15 8-1 0 0,-4 2 127 0 0,17-10-715 0 0,-1 0 0 0 0,0 0 0 0 0,-15 3 0 0 0,-21 10 247 0 0,-5 10-124 0 0,47-24-339 0 0,-1-1 0 0 0,1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-5 5-1 0 0,6-4 85 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-3 7 0 0 0,4-11-87 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 3 0 0 0,10 21 107 0 0,-12-25-111 0 0,3 4 23 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,9 2-1 0 0,0-1-23 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,19-1 0 0 0,-8-1-113 0 0,-1-2 0 0 0,1-1 0 0 0,-1-1 0 0 0,0-1 0 0 0,40-14 0 0 0,13-14-7924 0 0,-48 19 31 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="542387.89">4136 3605 18023 0 0,'0'0'5789'0'0,"2"2"-5394"0"0,33 35 609 0 0,-33-35-847 0 0,0 2 10 0 0,19 47 278 0 0,-20-50-436 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 2-1 0 0,-1 2 22 0 0,-2 17 77 0 0,4-17-77 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 5 0 0 0,-8 12 26 0 0,12-19-53 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-5 3 0 0 0,-29 15 57 0 0,16-8 42 0 0,-41 16 0 0 0,36-21-129 0 0,23-5-73 0 0,4-4-1490 0 0,6-14 867 0 0,6-8-1184 0 0,-2 11-3863 0 0,3 3-1481 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="542719.9">4365 3699 16471 0 0,'0'0'374'0'0,"3"0"54"0"0,3-1-118 0 0,-1 2 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,11 3-1 0 0,-14-3 648 0 0,1 5 513 0 0,-3-6-1428 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,-5 16 481 0 0,6-14-452 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 2 0 0 0,-1 0 93 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-7 12 1 0 0,11-16 4 0 0,0 1 0 0 0,0-2-150 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,11 7-7 0 0,-11-9-11 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,4-1-1 0 0,10 0-17 0 0,9 0-99 0 0,-19-2 90 0 0,-2-1-2 0 0,37-16-442 0 0,50-16 0 0 0,-83 32-286 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,10-7 0 0 0,-6 5-3600 0 0,1-3-3430 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543418.67">4050 4523 18023 0 0,'0'0'2106'0'0,"3"1"-1413"0"0,9 1 218 0 0,-8-1 1550 0 0,-1-1-1980 0 0,26 3 394 0 0,-26-2-559 0 0,12 6 209 0 0,-10-2-414 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 2 1 0 0,4 6 0 0 0,-8-11-120 0 0,1 1 90 0 0,1 15 79 0 0,0 6-78 0 0,-5-16-83 0 0,-1-1 12 0 0,2 1 6 0 0,0-3-2 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-2 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,-5 7-1 0 0,-19 18 37 0 0,23-23-41 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-2 0 1 0 0,-7 5-1 0 0,-43 30-9 0 0,53-38 10 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,-3 2-1 0 0,3-2 4 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-5 3-1 0 0,0 3-15 0 0,-2 0 36 0 0,-22-1-260 0 0,31-6 100 0 0,1-4-748 0 0,1 1 791 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,4-1 0 0 0,-2 1-175 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,3-4-1 0 0,1-3-529 0 0,-5 6 37 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,6-3 0 0 0,18-5-6054 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543796.15">4215 4637 7023 0 0,'20'-4'817'0'0,"25"-4"-898"0"0,-12 8 4348 0 0,-26 1-3984 0 0,16 1 5381 0 0,-22-2-5474 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,2 17 533 0 0,-1-15-648 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-28 41 760 0 0,19-28-580 0 0,9-16-192 0 0,0 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 5 0 0 0,2-4-26 0 0,-11 39 506 0 0,13-41-503 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,2 6 1 0 0,-3-7-29 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,2 1-1 0 0,1 0 20 0 0,-1 1-18 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,6 0 1 0 0,5-6-21 0 0,-6 1 13 0 0,-8 4-4 0 0,8-2 7 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,14-12 1 0 0,-2 1-66 0 0,36-21 0 0 0,-2 0-1598 0 0,-16 9-4864 0 0,3-4-2187 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111176.73">4057 1207 18543 0 0,'0'0'2584'0'0,"2"3"-2294"0"0,21 37 2003 0 0,-21-38-2064 0 0,-2 1-108 0 0,7 17 258 0 0,-2 0 0 0 0,0 0-1 0 0,2 30 1 0 0,-7-17-226 0 0,-5-20-164 0 0,1-3 44 0 0,2-6 17 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-6 3 1 0 0,-4 2 64 0 0,1-1 1 0 0,-24 9-1 0 0,3-1-74 0 0,17-8-3 0 0,-1-1 0 0 0,-27 7 0 0 0,-13 5 104 0 0,54-17-130 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-7 0 0 0 0,8 0-3 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-6 1 1 0 0,8 0-36 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2-2 0 0 0,5 3 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7-8-56 0 0,-6 8-28 0 0,2-2-117 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,6-2 0 0 0,15-6-5643 0 0,4 0-1842 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111561.57">4275 1320 10159 0 0,'27'-1'625'0'0,"-18"0"627"0"0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,18 4 2764 0 0,-30-2-3141 0 0,-5 4-58 0 0,0-1 1 0 0,-15 8-1 0 0,-4 2 127 0 0,17-10-715 0 0,-1 0 0 0 0,0 0 0 0 0,-15 3 0 0 0,-21 10 247 0 0,-5 10-124 0 0,47-24-339 0 0,-1-1 0 0 0,1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-5 5-1 0 0,6-4 85 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-3 7 0 0 0,4-11-87 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 3 0 0 0,10 21 107 0 0,-12-25-111 0 0,3 4 23 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,9 2-1 0 0,0-1-23 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,19-1 0 0 0,-8-1-113 0 0,-1-2 0 0 0,1-1 0 0 0,-1-1 0 0 0,0-1 0 0 0,40-14 0 0 0,13-14-7924 0 0,-48 19 31 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112891.16">4136 3605 18023 0 0,'0'0'5789'0'0,"2"2"-5394"0"0,33 35 609 0 0,-33-35-847 0 0,0 2 10 0 0,19 47 278 0 0,-20-50-436 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 2-1 0 0,-1 2 22 0 0,-2 17 77 0 0,4-17-77 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 5 0 0 0,-8 12 26 0 0,12-19-53 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-5 3 0 0 0,-29 15 57 0 0,16-8 42 0 0,-41 16 0 0 0,36-21-129 0 0,23-5-73 0 0,4-4-1490 0 0,6-14 867 0 0,6-8-1184 0 0,-2 11-3863 0 0,3 3-1481 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="113223.17">4365 3699 16471 0 0,'0'0'374'0'0,"3"0"54"0"0,3-1-118 0 0,-1 2 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,11 3-1 0 0,-14-3 648 0 0,1 5 513 0 0,-3-6-1428 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,-5 16 481 0 0,6-14-452 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 2 0 0 0,-1 0 93 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-7 12 1 0 0,11-16 4 0 0,0 1 0 0 0,0-2-150 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,11 7-7 0 0,-11-9-11 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,4-1-1 0 0,10 0-17 0 0,9 0-99 0 0,-19-2 90 0 0,-2-1-2 0 0,37-16-442 0 0,50-16 0 0 0,-83 32-286 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,10-7 0 0 0,-6 5-3600 0 0,1-3-3430 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="113921.93">4050 4523 18023 0 0,'0'0'2106'0'0,"3"1"-1413"0"0,9 1 218 0 0,-8-1 1550 0 0,-1-1-1980 0 0,26 3 394 0 0,-26-2-559 0 0,12 6 209 0 0,-10-2-414 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 2 1 0 0,4 6 0 0 0,-8-11-120 0 0,1 1 90 0 0,1 15 79 0 0,0 6-78 0 0,-5-16-83 0 0,-1-1 12 0 0,2 1 6 0 0,0-3-2 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-2 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,-5 7-1 0 0,-19 18 37 0 0,23-23-41 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-2 0 1 0 0,-7 5-1 0 0,-43 30-9 0 0,53-38 10 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,-3 2-1 0 0,3-2 4 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-5 3-1 0 0,0 3-15 0 0,-2 0 36 0 0,-22-1-260 0 0,31-6 100 0 0,1-4-748 0 0,1 1 791 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,4-1 0 0 0,-2 1-175 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,3-4-1 0 0,1-3-529 0 0,-5 6 37 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,6-3 0 0 0,18-5-6054 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="114299.42">4215 4637 7023 0 0,'20'-4'817'0'0,"25"-4"-898"0"0,-12 8 4348 0 0,-26 1-3984 0 0,16 1 5381 0 0,-22-2-5474 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,2 17 533 0 0,-1-15-648 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-28 41 760 0 0,19-28-580 0 0,9-16-192 0 0,0 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 5 0 0 0,2-4-26 0 0,-11 39 506 0 0,13-41-503 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,2 6 1 0 0,-3-7-29 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,2 1-1 0 0,1 0 20 0 0,-1 1-18 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,6 0 1 0 0,5-6-21 0 0,-6 1 13 0 0,-8 4-4 0 0,8-2 7 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,14-12 1 0 0,-2 1-66 0 0,36-21 0 0 0,-2 0-1598 0 0,-16 9-4864 0 0,3-4-2187 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24028.94">8950 2157 18543 0 0,'0'0'5961'0'0,"-5"9"-5394"0"0,-14 35-43 0 0,3 0 0 0 0,-18 71-1 0 0,4-8-417 0 0,19-71-22 0 0,2 0 0 0 0,-5 48-1 0 0,13-76-104 0 0,1-7 2 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-11 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-2-268 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-5 0 0 0,49-52-8804 0 0,-27 32 3765 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24389.04">9097 2372 4199 0 0,'24'-17'362'0'0,"-16"11"-133"0"0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0 0 0 0,15-5-1 0 0,-23 9-5 0 0,0 0 52 0 0,-1 0-177 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 40 0 0,1 0 445 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 5 0 0 0,2 36 3548 0 0,1-31-3913 0 0,-1 0 0 0 0,10 23 0 0 0,-11-33-188 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,4 3 0 0 0,-5-4 165 0 0,10 7 288 0 0,-10-8-485 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0-25 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,4-3-1 0 0,2-2 347 0 0,0-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,8-18 1 0 0,-12 23-236 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-3-6 1 0 0,0 3-28 0 0,1-1 0 0 0,-1 2 1 0 0,0-1-1 0 0,-1 0 0 0 0,-6-9 0 0 0,7 13 22 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-6-3 0 0 0,2 5 41 0 0,-10 3-74 0 0,16-2-16 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 3 0 0 0,-4 1-2745 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24778.05">9655 2314 10159 0 0,'0'0'784'0'0,"0"2"-510"0"0,6 35 604 0 0,8 40 6141 0 0,-3-15-6286 0 0,-7-49-572 0 0,-3-8-450 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,6 7 1 0 0,-7-9 327 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,3-1 242 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,5-6 1 0 0,-6 6-141 0 0,0-1 0 0 0,1-1 0 0 0,-2 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-7-8 0 0 0,6 8-78 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-8 0-1 0 0,-7 2-129 0 0,0 1 0 0 0,0 1 0 0 0,-31 9 0 0 0,14-2-783 0 0,36-11 467 0 0,-4 0-269 0 0,0 0-1310 0 0</inkml:trace>
@@ -7004,39 +8025,39 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27057.58">11039 2189 12207 0 0,'0'0'943'0'0,"2"1"-618"0"0,26 12 7160 0 0,14 4-4989 0 0,-37-15-2576 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 2 1 0 0,5 4-1 0 0,-4-2-63 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,6 14 1 0 0,-7-16 188 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 10 0 0 0,-2-12 26 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3 5 0 0 0,-5 6 13 0 0,-2-1 0 0 0,1 0 0 0 0,-2 0 0 0 0,0-2 0 0 0,-14 12-1 0 0,22-19-140 0 0,-56 39-1371 0 0,35-26 1307 0 0,20-14-186 0 0,-4 5 2466 0 0,10-7-2109 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 95 0 0,15 4 179 0 0,-7-3-297 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,12-3 1 0 0,67-2-605 0 0,-60 0-548 0 0,-14 2-5233 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27510.47">11560 2210 21855 0 0,'0'0'497'0'0,"15"15"1386"0"0,-13-15-1871 0 0,14 11-143 0 0,-2 1-49 0 0,-13-11 291 0 0,1 0 76 0 0,16 15 191 0 0,-3-2-201 0 0,-1 2-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,13 29-1 0 0,-24-42-176 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 3 0 0 0,0 2 0 0 0,1-3 53 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 0 0 0 0,-8 7 0 0 0,10-9-72 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-8 2 0 0 0,10-2-669 0 0,-7-2 1540 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27889.65">11984 2301 18543 0 0,'-2'2'1428'0'0,"-2"3"-1288"0"0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,-5 4 0 0 0,-16 11 722 0 0,18-11-666 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-11 14 0 0 0,13-14-112 0 0,0-1-1 0 0,1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-3 11-1 0 0,6-17 11 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5 3-1 0 0,-1 0-84 0 0,11 6-27 0 0,20 0-86 0 0,-34-11 60 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,3-2 0 0 0,21-20-1735 0 0,-2-3-4210 0 0,-22 24 4841 0 0,4-7-5795 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="502838.5">5517 3305 16471 0 0,'0'0'1651'0'0,"-1"1"-1510"0"0,-3 2-7 0 0,2-2 699 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-4 4 0 0 0,3-3-1387 0 0,1-2 653 0 0,0 1-19 0 0,-15 25-22 0 0,13-5 188 0 0,3-6-215 0 0,0-1-1 0 0,-5 30 1 0 0,-1-5-10 0 0,-6 94 369 0 0,0 2-741 0 0,-16 57-225 0 0,11-29-184 0 0,2-7 576 0 0,8-74 184 0 0,2-12 0 0 0,1-29 80 0 0,2-1 0 0 0,1 0 0 0 0,7 56 0 0 0,1-32-84 0 0,-4 96 0 0 0,-4-150 165 0 0,-1-1 1 0 0,-5 21-1 0 0,5-22-7 0 0,0-1 1 0 0,0 1-1 0 0,0 14 0 0 0,4-9 271 0 0,4 13 16 0 0,-5-21-464 0 0,0-1 133 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 8 0 0 0,-4-11-178 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503192.8">5223 5106 18543 0 0,'0'3'1428'0'0,"3"10"-972"0"0,-2-4-353 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,3 7 1 0 0,8 15 1418 0 0,-13-27-1254 0 0,2-1-91 0 0,13 12-16 0 0,2-3-32 0 0,-11-8-119 0 0,1 0 0 0 0,-1-1 0 0 0,9 1 0 0 0,-13-3 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,2-2 0 0 0,0 1 31 0 0,2-2 118 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6-10 0 0 0,-2 1 76 0 0,0 0-1 0 0,7-20 1 0 0,19-55-236 0 0,27-107 0 0 0,-34 72-7574 0 0,-22 82-136 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="504330.12">1603 5068 13039 0 0,'0'0'1006'0'0,"4"0"-658"0"0,68-7 1599 0 0,74-18 0 0 0,-67 9-1447 0 0,122-8 0 0 0,83 17 599 0 0,-128 8-788 0 0,127 5 7 0 0,269 47-458 0 0,-107-7-736 0 0,-323-37 620 0 0,277 17 251 0 0,-339-24-39 0 0,354 6 2088 0 0,-3-24-788 0 0,-365 11-2303 0 0,0-1-4334 0 0,-8-1-1738 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521617.05">7540 2043 9359 0 0,'0'0'13568'0'0,"0"-2"-13435"0"0,-1-8-105 0 0,0 8-28 0 0,-11-6-1 0 0,10 5 2 0 0,-13-8-106 0 0,-6-10-717 0 0,14 14 668 0 0,7 5 155 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-5 0 0 0,0 4 14 0 0,0 2-12 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1-5 0 0,1-1-23 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-2-1 0 0,-3 4 24 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 7 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 17 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,2-1-1 0 0,-2 0 463 0 0,13-3-44 0 0,-12 1-373 0 0,-3 3-43 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0-15 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,2 2-1 0 0,-1 0 25 0 0,1-1 178 0 0,3 10-121 0 0,-5-8-100 0 0,0-1-105 0 0,-3 0 102 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2-1 0 0,-1 0 4 0 0,2 9 54 0 0,-2-10-20 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,1-2 14 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-4 1 0 0 0,-14 6 63 0 0,17-7-100 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-6 1-1 0 0,-6 2 12 0 0,14-3-7 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-8-1 0 0 0,10 2 2 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1-1-1 0 0,-10-22-2 0 0,12 25-9 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 4 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-1 0 0 0,3-1 0 0 0,7-5 159 0 0,-1 1-1 0 0,0 1 0 0 0,1 0 1 0 0,26-6-1 0 0,-38 11-54 0 0,1 2 0 0 0,-2-1-68 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,2 2 0 0 0,2 5 53 0 0,-5-3-10 0 0,-19 20 17 0 0,9-14-69 0 0,4-2 31 0 0,6-7 69 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="523601.71">7547 2033 19927 0 0,'0'0'5055'0'0,"1"4"-4883"0"0,2 35 432 0 0,-3-37-446 0 0,-1-1-135 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 2 0 0 0,2-2-1 0 0,-1 1-11 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 4 0 0 0,-1-5-7 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 3 0 0 0,1-2 88 0 0,1 14 23 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-6 16-1 0 0,7-30-156 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,0-3 34 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 4-1 0 0,-1-1 4 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 7 0 0 0,-1-10 8 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 4 0 0 0,2-4 3 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 5 0 0 0,2 12 40 0 0,0-10-27 0 0,-1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 14 0 0 0,-2 89 357 0 0,1-87-267 0 0,2 1 1 0 0,3 30 0 0 0,-2-39-51 0 0,4 7 3 0 0,-4-19-67 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 4 0 0 0,0-3-4 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 6-1 0 0,-1-4 10 0 0,0 1-1 0 0,0 0 1 0 0,-1 12 0 0 0,2 15 27 0 0,-1-27 33 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-2 13 1 0 0,-1 21 150 0 0,4-38-216 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,-2 8-1 0 0,2 3-51 0 0,2-14 59 0 0,1 10 41 0 0,0 1 0 0 0,-1-1 0 0 0,0 12 0 0 0,-1-10-41 0 0,1-7 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 7 0 0 0,-17 78 0 0 0,19-57 0 0 0,0 15 115 0 0,2-46-23 0 0,-1 0-11 0 0,0 12-14 0 0,-1 3-54 0 0,0-2-13 0 0,0-4 11 0 0,2-10 15 0 0,-1-5-207 0 0,-8-36-63 0 0,0-1-1578 0 0,-1 15-4917 0 0,-2 5-1672 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524354.21">7238 3154 18543 0 0,'0'0'5056'0'0,"2"0"-4568"0"0,2 0-247 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 3-1 0 0,-5-3-130 0 0,-1 0-22 0 0,13 15 72 0 0,-13-14-87 0 0,8 7 71 0 0,3 8-42 0 0,-11-11-88 0 0,0-1 2 0 0,5 16 5 0 0,2 4 126 0 0,22 38 145 0 0,-12-32-259 0 0,-16-28 54 0 0,0-1 17 0 0,0 1-69 0 0,18 15 121 0 0,1 0-127 0 0,-9-10 32 0 0,-9-7 178 0 0,-2 0-219 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-2 1 0 0,-1 1-14 0 0,5-1 2 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,5-5 1 0 0,14-11 10 0 0,15-12-107 0 0,-29 24 19 0 0,15-5 125 0 0,3-3-44 0 0,-15 11 31 0 0,-6-8-31 0 0,-6 8-11 0 0,6-6 0 0 0,-1 3 0 0 0,2-3 0 0 0,-5 7 0 0 0,16-3 0 0 0,-8-1 0 0 0,-1-1 0 0 0,-11 9 0 0 0,12-15 3 0 0,-9 13-5 0 0,0 2-15 0 0,-3 0-15 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525059.51">7701 2483 12207 0 0,'0'0'6555'0'0,"3"2"-4830"0"0,8 4-669 0 0,-8-5 1041 0 0,0-1-1693 0 0,28-5 909 0 0,20-3 21 0 0,-48 8-1209 0 0,12 0 146 0 0,-10 1-223 0 0,-1 2-11 0 0,20 3 14 0 0,-11-4-39 0 0,7 1 95 0 0,-15-2-88 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,9 1-1 0 0,19 0-3 0 0,-29-2-1469 0 0,16-1-5895 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525987.47">7843 2612 13039 0 0,'-8'-9'12503'0'0,"6"17"-11515"0"0,-6 18-894 0 0,1-18-68 0 0,7-8-26 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1-1 0 0,-1 8 43 0 0,-5 17 49 0 0,-5 2 9 0 0,-9 43 170 0 0,17-58-255 0 0,0-3-16 0 0,2-1 11 0 0,1-9-22 0 0,21-14-2105 0 0,-17 9 1912 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="526967.65">8048 2530 18023 0 0,'0'0'7320'0'0,"0"2"-7192"0"0,8 38 199 0 0,-7-37-262 0 0,-2 0-1 0 0,-17 144 232 0 0,11-97-184 0 0,7-39-96 0 0,0-10-4 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-11-23-507 0 0,11 16 235 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1-14 1 0 0,1-6-542 0 0,7 12-20 0 0,15-40-615 0 0,-23 53 1323 0 0,0 0 174 0 0,4-7 56 0 0,7-13 86 0 0,-12 22-177 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,12-23 669 0 0,-11 24-636 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1-1 0 0 0,5-9 202 0 0,-3-2 39 0 0,-4 10 231 0 0,2 2-294 0 0,0-2-140 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,7 0 0 0 0,-10 1-62 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 35 0 0,0-1 54 0 0,13 1 21 0 0,-12 0-111 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,3 2 1 0 0,4 3 61 0 0,-4-2-27 0 0,-3-5-51 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 2 0 0 0,7 22 59 0 0,-6-22-46 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-2 2 1 0 0,-1 2 19 0 0,2-4-10 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,1 0-43 0 0,-5 2 30 0 0,0-1 1 0 0,0 0-1 0 0,-10 1 0 0 0,8-2-7 0 0,8-1-7 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-7-2 0 0 0,7 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-6 3 0 0 0,5-1 0 0 0,-2 0 0 0 0,-17-5 0 0 0,-4-1-71 0 0,11 5-592 0 0,14-1 616 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-2-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547140.82">2853 2275 13039 0 0,'0'0'6079'0'0,"3"14"-5046"0"0,-1 8-1563 0 0,0-19 288 0 0,-2-1-663 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547771.95">3158 1917 12207 0 0,'0'0'7314'0'0,"-2"-1"-6486"0"0,-4-1-233 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-9-2 1 0 0,14 3-567 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-2 1 0 0 0,-1 0 28 0 0,-62 41 208 0 0,-9 3-193 0 0,58-38-72 0 0,-5 1-56 0 0,19-5 15 0 0,2-2 13 0 0,-2 1-86 0 0,17 0-3585 0 0,5-2 1935 0 0,-16-1 670 0 0,-1-1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,6-3-1 0 0,11-4-3638 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="548108.63">3102 1936 5615 0 0,'0'0'430'0'0,"13"-2"6038"0"0,-10 3-6000 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 3 0 0 0,26 35 2535 0 0,-23-29-2773 0 0,19 34 671 0 0,-26-43-977 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="548468.69">3081 2090 10159 0 0,'0'0'784'0'0,"0"2"-510"0"0,-12 28 2984 0 0,9-24-2663 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 10 0 0 0,2-14-496 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-3 3 0 0 0,-6 15 469 0 0,4 3-8 0 0,1-1 0 0 0,0 1 0 0 0,-1 34 0 0 0,1-22-46 0 0,4-29-401 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 9 0 0 0,3 3 20 0 0,-1-2 3 0 0,1 26 0 0 0,-3-36-100 0 0,1 0 0 0 0,0 0 0 0 0,3 12 0 0 0,-3-14-9 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8 0 0 0,-1-10-16 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,4 8-1 0 0,-3-7-12 0 0,1-1-1 0 0,-1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 7 1 0 0,-3 23 0 0 0,2-21-20 0 0,2-8 58 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-3 5-1 0 0,-5 20-1704 0 0,2-19-3834 0 0,-3-1-1803 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="548469.69">2838 2824 9359 0 0,'3'1'720'0'0,"2"2"-524"0"0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,7 0 1 0 0,-1 0 884 0 0,57 13 7858 0 0,-55-13-8549 0 0,0 0 0 0 0,0-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,16-3-1 0 0,-14 2-263 0 0,-1-2-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,16-13-1 0 0,-14 10-84 0 0,-15 9-19 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-3-1 0 0,-2 4-13 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,1-1-5 0 0,18-33-9 0 0,-8 12-430 0 0,-11 18 65 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-8-1 0 0,2-7-5207 0 0,3 1-1936 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="548885.56">3478 2228 16095 0 0,'0'0'2794'0'0,"0"3"-1614"0"0,-5 6-486 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-13 15 1 0 0,2 6-295 0 0,2-3-111 0 0,-22 34 127 0 0,34-57-416 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-4 2-1 0 0,4-4 3 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-3 6 1 0 0,1 0 15 0 0,4-6 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,-3 2-1 0 0,2 0 95 0 0,0 22-198 0 0,3-22-488 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="549563.25">3490 2388 18023 0 0,'-1'2'1387'0'0,"-1"9"-1015"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,1 17 0 0 0,-1-24-117 0 0,2 0-61 0 0,3 4-46 0 0,0 1-1 0 0,1 0 0 0 0,13 12 1 0 0,-17-18 345 0 0,2-1-238 0 0,-2-1-216 0 0,0 0-6 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,0-5 167 0 0,-3 7-185 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,10 0 137 0 0,-10 1-127 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 1 205 0 0,3 1-122 0 0,1 1-92 0 0,-1-3-15 0 0,11-10 108 0 0,-3 4 6 0 0,-9 7-57 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,2-5 0 0 0,-1 3-40 0 0,-3 4-9 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-2 0 0 0,1 2-3 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-2-1 0 0,-2-1 9 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,-8-4 0 0 0,-4 2-13 0 0,12 5 0 0 0,-16-2 0 0 0,14 5 0 0 0,3-1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-2 1 0 0 0,0 1-14 0 0,3-3-93 0 0,0 0-517 0 0,1-1 584 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1 1-460 0 0,10 8-2674 0 0,11 3-913 0 0,-20-13 3038 0 0,1-1-9 0 0,22 2 354 0 0,-22-1 783 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,4 2 0 0 0,-3-2 241 0 0,-1 0 1549 0 0,0 1-914 0 0,-1 0-559 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 6-1 0 0,0-2-95 0 0,1-3-158 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,6 7 0 0 0,-6-8-15 0 0,1 1-32 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,6 4 1 0 0,3 1 101 0 0,5 3-33 0 0,-17-9-155 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,1-1 24 0 0,26-1 307 0 0,-28 2-318 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-2 0 0 0,1-1 60 0 0,-1 2-50 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,2 0-1 0 0,-3 1-14 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1-2 0 0 0,1-11 182 0 0,-3 13-187 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 21 0 0,0 1-23 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2-1 0 0,0 0 26 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-1-2 38 0 0,-1-1-1 0 0,1 2 1 0 0,-13-15 0 0 0,15 19-54 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-5-2 0 0 0,-35-7 39 0 0,-9-1-205 0 0,49 11-3 0 0,100-13-2703 0 0,-70 13 1772 0 0,-22 1 549 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,5-2 0 0 0,4 0-4415 0 0,2 2-1200 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="549939.88">4254 2279 15199 0 0,'0'0'4456'0'0,"-2"0"-2902"0"0,-33-4 1263 0 0,33 4-1832 0 0,-14 9-310 0 0,11-7-549 0 0,2-1-58 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-4 4-1 0 0,-2 4-35 0 0,-1 5-33 0 0,10-11 0 0 0,0-2 0 0 0,0 8 0 0 0,8-2-15 0 0,1-5-25 0 0,-9-4 48 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-1-1 0 0,1-1 21 0 0,11-1 40 0 0,-2-2-39 0 0,-11 4-21 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,-2-1 1 0 0,-12-6-97 0 0,14 7-5 0 0,-6 0 812 0 0,4 0-2526 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550346.09">4451 2333 13039 0 0,'0'0'10921'0'0,"-2"1"-10059"0"0,-27 27 429 0 0,15-13-1038 0 0,1 0-66 0 0,11-12-163 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-5 2 1 0 0,-1 1 9 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-12 9-1 0 0,12-8-34 0 0,-1-1 0 0 0,-16 10 0 0 0,-15 11 0 0 0,40-28 0 0 0,-7 7 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-17 7 0 0 0,15-8 0 0 0,2-1 1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-10 9 0 0 0,7-3 19 0 0,0 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-15 7 0 0 0,-21 7 59 0 0,-60 36-1 0 0,104-54-77 0 0,-19 7-17 0 0,21-11-57 0 0,6 0-743 0 0,5-1 435 0 0,0 0 0 0 0,-1-1 1 0 0,14-4-1 0 0,2-1-325 0 0,-11 3 203 0 0,0 0 0 0 0,17-10 0 0 0,6-1-1896 0 0,31-11-6640 0 0,-44 17 4120 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550705.89">4187 2597 5551 0 0,'0'0'430'0'0,"1"1"-284"0"0,0 0 290 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,1 33 1675 0 0,0 1 1969 0 0,2-27-3509 0 0,0 0 1 0 0,8 15-1 0 0,-10-22-315 0 0,9 6 19 0 0,-3 0-142 0 0,-5-7 248 0 0,0-1-174 0 0,-2-1-159 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-2 1 0 0,9-20-23 0 0,-6 11 246 0 0,-3 9-256 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-4 0 0 0,-2-2 50 0 0,0 0-1 0 0,-1 0 0 0 0,-5-8 0 0 0,-6-9 10 0 0,14 23-186 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="551058.68">4631 2489 18023 0 0,'0'0'6887'0'0,"2"2"-6638"0"0,2 2-143 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,9 3 1 0 0,-7-4-45 0 0,4 3 14 0 0,18 17 82 0 0,-29-20-153 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3 1-2 0 0,13 3-2 0 0,-15-4 0 0 0,0-3 0 0 0,14 1 0 0 0,12 3-16 0 0,-26 0-75 0 0,12-4-1006 0 0,-13 3 465 0 0,6-3-63 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="551508.35">5035 2432 18543 0 0,'0'0'1932'0'0,"3"2"-1760"0"0,32 7 3372 0 0,-23-7-3573 0 0,-9-1 302 0 0,-1 0-38 0 0,41 17 373 0 0,-40-17-180 0 0,0 1-350 0 0,5 6 2 0 0,-6-7 34 0 0,-1 1-101 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,3 3 18 0 0,5 10 106 0 0,-7-11 553 0 0,-1 0-293 0 0,10 32-208 0 0,-11-34-233 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 1-1 0 0,-1 1-50 0 0,1 0 106 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-9 4 1 0 0,-6 4 16 0 0,-30 12 104 0 0,27-13-165 0 0,13-5-49 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-12-1-1 0 0,18-1-1 0 0,-1 2-10 0 0,3-2 109 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 5 32 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,12 7 0 0 0,-12-10 32 0 0,71 10-73 0 0,-50-8-23 0 0,-21-4 17 0 0,1 0-1 0 0,16 3-1 0 0,15-1 98 0 0,-3-10 226 0 0,-35 9-311 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,3-3 39 0 0,-2 3-83 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,3 2 0 0 0,-4-1-173 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,2-1 0 0 0,6-4-5865 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="551921.19">5400 2536 18543 0 0,'0'0'3821'0'0,"3"0"-2833"0"0,3 1-478 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,7 3-1 0 0,-3-1-122 0 0,-4-1-291 0 0,12 12 98 0 0,-11-10-114 0 0,-6-1-81 0 0,11 15 81 0 0,-10-15-52 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 9 0 0 0,-1 1 48 0 0,-5 0 16 0 0,4-11-82 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-5 2 0 0 0,-16 9 71 0 0,20-10-60 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-11 2-1 0 0,-10 3 49 0 0,20-5-57 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-5-1 0 0 0,-3 2-29 0 0,3 1-110 0 0,1-6-510 0 0,14-5-844 0 0,2-1 1002 0 0,-6 9 477 0 0,9-13-1856 0 0,2 0-3888 0 0,4 5-1777 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="552291.9">5475 2640 5551 0 0,'3'0'68'0'0,"0"0"0"0"0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,3-1 1 0 0,19-2 325 0 0,25 1 11971 0 0,-35 7-8826 0 0,-14-3-3440 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,-2 25 418 0 0,2-25-337 0 0,1 15 161 0 0,-1-14-238 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,3 5-1 0 0,-1-5-70 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,5 0 1 0 0,9 0-54 0 0,-1 0 0 0 0,30-4 1 0 0,-36 1 87 0 0,0 0-1 0 0,0-1 1 0 0,21-9 0 0 0,-6 3-13 0 0,-14 3-97 0 0,0 1-1 0 0,22-15 1 0 0,4-1-211 0 0,-32 17-101 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,11-9 0 0 0,6-5-6121 0 0,-3 6-1722 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="553043">5919 2311 13039 0 0,'-5'-6'6462'0'0,"-9"2"-4488"0"0,-48-4 1189 0 0,61 8-3133 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-2 2 43 0 0,-25 8 158 0 0,17-7-156 0 0,0 0 0 0 0,1 2 0 0 0,-18 9 0 0 0,9-1-60 0 0,1 0 0 0 0,0 1 0 0 0,-27 29 0 0 0,6-3-15 0 0,19-22 0 0 0,-22 29 0 0 0,31-32 0 0 0,8-12 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 9 0 0 0,-4 27-13 0 0,7-39-53 0 0,2 0-7 0 0,0 0 23 0 0,3 4 39 0 0,1-1-1 0 0,0 1 0 0 0,13 8 1 0 0,-17-13-64 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,2 0 0 0 0,16-7-5790 0 0,3-1-2007 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="553768.79">5223 2277 10159 0 0,'0'0'784'0'0,"2"1"-510"0"0,10 2 1038 0 0,0 0 0 0 0,1-1 1 0 0,20 1-1 0 0,-17-2-195 0 0,25-2 2116 0 0,-26 0-2600 0 0,2 1 426 0 0,12 1-321 0 0,-27 0-537 0 0,26 4 267 0 0,-26-4-392 0 0,1-1-4 0 0,1 2 4 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-2-1 1 0 0,4 5-1 0 0,-3-2-51 0 0,1-1-1 0 0,-1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 9 1 0 0,1 131 524 0 0,-3-144-527 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 4 0 0 0,-5 11 113 0 0,7-13-121 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-7 3 0 0 0,-2 2 47 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-27 3 0 0 0,16-3 8 0 0,20-2-67 0 0,-1-2 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-5 0-1 0 0,0-3-1 0 0,6 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-5-1 0 0 0,-5 0 11 0 0,1-4-7 0 0,-2-10-511 0 0,13 13 167 0 0,3 0-480 0 0,3-7 392 0 0,5-8-1539 0 0,1 8-3446 0 0,8 1-2215 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">555 4000 6535 0 0,'0'0'17247'0'0,"0"0"-17991"0"0,2-5 1912 0 0,-4 0-832 0 0,1 3-188 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3-3 0 0 0,-7-2-48 0 0,10 6 436 0 0,1 3-829 0 0,-5 9 186 0 0,-3 21 84 0 0,7-28 23 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,-4 7 0 0 0,-4 11 0 0 0,2 0 0 0 0,0 0 0 0 0,-5 25 0 0 0,11-40 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 8 0 0 0,-10 23 0 0 0,-5 17 403 0 0,21-51-393 0 0,-2 14 20 0 0,3-15-108 0 0,2 0-174 0 0,0 3 179 0 0,-1-4 465 0 0,5 0-239 0 0,11 7-11 0 0,-5-6-110 0 0,-6-2 40 0 0,18 4 7 0 0,9 2 3 0 0,-27-6-69 0 0,29 9 82 0 0,65 22 40 0 0,-93-29-189 0 0,8 4 53 0 0,-8-3 60 0 0,37 13-163 0 0,-40-14-7 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">576 4740 9359 0 0,'0'0'720'0'0,"-9"3"804"0"0,2-3-721 0 0,0-1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-12-5 1 0 0,2 0 247 0 0,4 2-975 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0-1 0 0 0,-16-14-1 0 0,-47-51-56 0 0,74 73-9 0 0,-43-48-755 0 0,-1 1-5323 0 0,27 28 573 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">0 3999 10159 0 0,'5'-4'120'0'0,"-1"1"0"0"0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-2 0 0 0,-1 1 0 0 0,0 0-1 0 0,4-7 1 0 0,10-13 157 0 0,-11 16 75 0 0,5-6 911 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,25-17 1 0 0,123-62 1902 0 0,-152 87-3002 0 0,1 0-1 0 0,-1 1 1 0 0,17-4 0 0 0,15-5 210 0 0,-27 7-268 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,18-1-1 0 0,14 0-92 0 0,48-2-13 0 0,-70 6 76 0 0,0 2 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,29 21 0 0 0,-38-20 7 0 0,1 0 0 0 0,-1 0 1 0 0,17 26-1 0 0,-24-31-61 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 10 0 0 0,-1-4 25 0 0,0-1 0 0 0,-2 1 1 0 0,0 1-1 0 0,-3 22 0 0 0,1-26 37 0 0,-1 0 0 0 0,-7 19 0 0 0,0 2 30 0 0,8-24-100 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-11 13 0 0 0,-5 12 33 0 0,16-25-31 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,-6 7 0 0 0,-28 22 31 0 0,-63 45 1 0 0,80-65-27 0 0,0 0 0 0 0,-1-1 0 0 0,-1-2 0 0 0,-1 0 0 0 0,0-2 0 0 0,-54 18 0 0 0,77-29-124 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-3-2 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">557 662 6535 0 0,'0'0'696'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">516 525 11831 0 0,'0'0'915'0'0,"-1"3"-600"0"0,-1 7 606 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-7 12 0 0 0,-10 26 555 0 0,-39 127 2108 0 0,41-125-2989 0 0,11-32-324 0 0,-9 32 0 0 0,8-22 46 0 0,8-24-303 0 0,-8 16 31 0 0,7-18-178 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">802 569 18543 0 0,'0'0'3601'0'0,"0"2"-3055"0"0,-12 30 856 0 0,1-2-719 0 0,8-22-598 0 0,0-1 0 0 0,0 1 0 0 0,-8 12-1 0 0,-4 10 137 0 0,5-5-92 0 0,0 1 1 0 0,2 1-1 0 0,-5 29 0 0 0,11-44-118 0 0,0 0-5 0 0,-1 0 0 0 0,-1 0 0 0 0,-4 11 0 0 0,7-22 28 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-2 2 0 0 0,1-2 51 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">459 750 11831 0 0,'2'-2'10033'0'0,"5"-4"-8226"0"0,16 3-1274 0 0,34-1 0 0 0,-25 3-239 0 0,-30 0-283 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,3 2 1 0 0,1 0-8 0 0,13 2-3 0 0,-6-1 11 0 0,-13-3 22 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 2-1703 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">679 1181 18543 0 0,'20'11'1428'0'0,"-16"-9"-554"0"0,-26-7 1436 0 0,7 1-797 0 0,14 4-1286 0 0,-13-4 170 0 0,-81-9 158 0 0,69 6-494 0 0,1-1 0 0 0,0-1 0 0 0,0-1 0 0 0,1-1 0 0 0,1-2 0 0 0,0 0 0 0 0,-32-24 0 0 0,5 2-53 0 0,33 24-13 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,1-1 1 0 0,-25-28-1 0 0,11 7-277 0 0,19 23 252 0 0,0 0-1 0 0,1-1 1 0 0,-8-13 0 0 0,14 21 27 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-7 0 0 0,4-9-105 0 0,0 1 0 0 0,2 0 0 0 0,15-33 0 0 0,-10 30 77 0 0,1 2-1 0 0,1-1 1 0 0,1 2-1 0 0,28-31 1 0 0,-27 32 28 0 0,25-21 160 0 0,-9 11 6 0 0,-22 19-86 0 0,0 1 0 0 0,17-10 0 0 0,10-11 44 0 0,-19 15-122 0 0,1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0 2 0 0 0,1 0 0 0 0,1 1-1 0 0,0 1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 1-1 0 0,38-3 1 0 0,-45 7 1 0 0,-1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,19 23 0 0 0,-6 1 0 0 0,-2 0 0 0 0,0 2 0 0 0,-3 1 0 0 0,-1 0 0 0 0,19 63 0 0 0,-29-74 16 0 0,6 52 0 0 0,-12-65 20 0 0,-2-8-8 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-5 10 0 0 0,-2 3 57 0 0,-1-2-1 0 0,-16 23 1 0 0,21-34-67 0 0,1-1 9 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-11 5 0 0 0,-7 6 14 0 0,-33 18 95 0 0,27-17-80 0 0,18-10 2 0 0,-25 9 0 0 0,1 0-21 0 0,-33 11-602 0 0,41-19 169 0 0,23-6 92 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,-8 4 0 0 0,-2 1-1384 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="73341.77">5517 3305 16471 0 0,'0'0'1651'0'0,"-1"1"-1510"0"0,-3 2-7 0 0,2-2 699 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-4 4 0 0 0,3-3-1387 0 0,1-2 653 0 0,0 1-19 0 0,-15 25-22 0 0,13-5 188 0 0,3-6-215 0 0,0-1-1 0 0,-5 30 1 0 0,-1-5-10 0 0,-6 94 369 0 0,0 2-741 0 0,-16 57-225 0 0,11-29-184 0 0,2-7 576 0 0,8-74 184 0 0,2-12 0 0 0,1-29 80 0 0,2-1 0 0 0,1 0 0 0 0,7 56 0 0 0,1-32-84 0 0,-4 96 0 0 0,-4-150 165 0 0,-1-1 1 0 0,-5 21-1 0 0,5-22-7 0 0,0-1 1 0 0,0 1-1 0 0,0 14 0 0 0,4-9 271 0 0,4 13 16 0 0,-5-21-464 0 0,0-1 133 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 8 0 0 0,-4-11-178 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="73696.07">5223 5106 18543 0 0,'0'3'1428'0'0,"3"10"-972"0"0,-2-4-353 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,3 7 1 0 0,8 15 1418 0 0,-13-27-1254 0 0,2-1-91 0 0,13 12-16 0 0,2-3-32 0 0,-11-8-119 0 0,1 0 0 0 0,-1-1 0 0 0,9 1 0 0 0,-13-3 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,2-2 0 0 0,0 1 31 0 0,2-2 118 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6-10 0 0 0,-2 1 76 0 0,0 0-1 0 0,7-20 1 0 0,19-55-236 0 0,27-107 0 0 0,-34 72-7574 0 0,-22 82-136 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="74833.39">1603 5068 13039 0 0,'0'0'1006'0'0,"4"0"-658"0"0,68-7 1599 0 0,74-18 0 0 0,-67 9-1447 0 0,122-8 0 0 0,83 17 599 0 0,-128 8-788 0 0,127 5 7 0 0,269 47-458 0 0,-107-7-736 0 0,-323-37 620 0 0,277 17 251 0 0,-339-24-39 0 0,354 6 2088 0 0,-3-24-788 0 0,-365 11-2303 0 0,0-1-4334 0 0,-8-1-1738 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="92120.32">7540 2043 9359 0 0,'0'0'13568'0'0,"0"-2"-13435"0"0,-1-8-105 0 0,0 8-28 0 0,-11-6-1 0 0,10 5 2 0 0,-13-8-106 0 0,-6-10-717 0 0,14 14 668 0 0,7 5 155 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-5 0 0 0,0 4 14 0 0,0 2-12 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1-5 0 0,1-1-23 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-2-1 0 0,-3 4 24 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 7 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 17 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,2-1-1 0 0,-2 0 463 0 0,13-3-44 0 0,-12 1-373 0 0,-3 3-43 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0-15 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,2 2-1 0 0,-1 0 25 0 0,1-1 178 0 0,3 10-121 0 0,-5-8-100 0 0,0-1-105 0 0,-3 0 102 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2-1 0 0,-1 0 4 0 0,2 9 54 0 0,-2-10-20 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,1-2 14 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-4 1 0 0 0,-14 6 63 0 0,17-7-100 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-6 1-1 0 0,-6 2 12 0 0,14-3-7 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-8-1 0 0 0,10 2 2 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1-1-1 0 0,-10-22-2 0 0,12 25-9 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 4 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-1 0 0 0,3-1 0 0 0,7-5 159 0 0,-1 1-1 0 0,0 1 0 0 0,1 0 1 0 0,26-6-1 0 0,-38 11-54 0 0,1 2 0 0 0,-2-1-68 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,2 2 0 0 0,2 5 53 0 0,-5-3-10 0 0,-19 20 17 0 0,9-14-69 0 0,4-2 31 0 0,6-7 69 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="94104.98">7547 2033 19927 0 0,'0'0'5055'0'0,"1"4"-4883"0"0,2 35 432 0 0,-3-37-446 0 0,-1-1-135 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 2 0 0 0,2-2-1 0 0,-1 1-11 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 4 0 0 0,-1-5-7 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 3 0 0 0,1-2 88 0 0,1 14 23 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-6 16-1 0 0,7-30-156 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,0-3 34 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 4-1 0 0,-1-1 4 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 7 0 0 0,-1-10 8 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 4 0 0 0,2-4 3 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 5 0 0 0,2 12 40 0 0,0-10-27 0 0,-1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 14 0 0 0,-2 89 357 0 0,1-87-267 0 0,2 1 1 0 0,3 30 0 0 0,-2-39-51 0 0,4 7 3 0 0,-4-19-67 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 4 0 0 0,0-3-4 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 6-1 0 0,-1-4 10 0 0,0 1-1 0 0,0 0 1 0 0,-1 12 0 0 0,2 15 27 0 0,-1-27 33 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-2 13 1 0 0,-1 21 150 0 0,4-38-216 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,-2 8-1 0 0,2 3-51 0 0,2-14 59 0 0,1 10 41 0 0,0 1 0 0 0,-1-1 0 0 0,0 12 0 0 0,-1-10-41 0 0,1-7 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 7 0 0 0,-17 78 0 0 0,19-57 0 0 0,0 15 115 0 0,2-46-23 0 0,-1 0-11 0 0,0 12-14 0 0,-1 3-54 0 0,0-2-13 0 0,0-4 11 0 0,2-10 15 0 0,-1-5-207 0 0,-8-36-63 0 0,0-1-1578 0 0,-1 15-4917 0 0,-2 5-1672 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="94857.48">7238 3154 18543 0 0,'0'0'5056'0'0,"2"0"-4568"0"0,2 0-247 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 3-1 0 0,-5-3-130 0 0,-1 0-22 0 0,13 15 72 0 0,-13-14-87 0 0,8 7 71 0 0,3 8-42 0 0,-11-11-88 0 0,0-1 2 0 0,5 16 5 0 0,2 4 126 0 0,22 38 145 0 0,-12-32-259 0 0,-16-28 54 0 0,0-1 17 0 0,0 1-69 0 0,18 15 121 0 0,1 0-127 0 0,-9-10 32 0 0,-9-7 178 0 0,-2 0-219 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-2 1 0 0,-1 1-14 0 0,5-1 2 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,5-5 1 0 0,14-11 10 0 0,15-12-107 0 0,-29 24 19 0 0,15-5 125 0 0,3-3-44 0 0,-15 11 31 0 0,-6-8-31 0 0,-6 8-11 0 0,6-6 0 0 0,-1 3 0 0 0,2-3 0 0 0,-5 7 0 0 0,16-3 0 0 0,-8-1 0 0 0,-1-1 0 0 0,-11 9 0 0 0,12-15 3 0 0,-9 13-5 0 0,0 2-15 0 0,-3 0-15 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95562.78">7701 2483 12207 0 0,'0'0'6555'0'0,"3"2"-4830"0"0,8 4-669 0 0,-8-5 1041 0 0,0-1-1693 0 0,28-5 909 0 0,20-3 21 0 0,-48 8-1209 0 0,12 0 146 0 0,-10 1-223 0 0,-1 2-11 0 0,20 3 14 0 0,-11-4-39 0 0,7 1 95 0 0,-15-2-88 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,9 1-1 0 0,19 0-3 0 0,-29-2-1469 0 0,16-1-5895 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96490.74">7843 2612 13039 0 0,'-8'-9'12503'0'0,"6"17"-11515"0"0,-6 18-894 0 0,1-18-68 0 0,7-8-26 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1-1 0 0,-1 8 43 0 0,-5 17 49 0 0,-5 2 9 0 0,-9 43 170 0 0,17-58-255 0 0,0-3-16 0 0,2-1 11 0 0,1-9-22 0 0,21-14-2105 0 0,-17 9 1912 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="97470.92">8048 2530 18023 0 0,'0'0'7320'0'0,"0"2"-7192"0"0,8 38 199 0 0,-7-37-262 0 0,-2 0-1 0 0,-17 144 232 0 0,11-97-184 0 0,7-39-96 0 0,0-10-4 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-11-23-507 0 0,11 16 235 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1-14 1 0 0,1-6-542 0 0,7 12-20 0 0,15-40-615 0 0,-23 53 1323 0 0,0 0 174 0 0,4-7 56 0 0,7-13 86 0 0,-12 22-177 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,12-23 669 0 0,-11 24-636 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1-1 0 0 0,5-9 202 0 0,-3-2 39 0 0,-4 10 231 0 0,2 2-294 0 0,0-2-140 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,7 0 0 0 0,-10 1-62 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 35 0 0,0-1 54 0 0,13 1 21 0 0,-12 0-111 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,3 2 1 0 0,4 3 61 0 0,-4-2-27 0 0,-3-5-51 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 2 0 0 0,7 22 59 0 0,-6-22-46 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-2 2 1 0 0,-1 2 19 0 0,2-4-10 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,1 0-43 0 0,-5 2 30 0 0,0-1 1 0 0,0 0-1 0 0,-10 1 0 0 0,8-2-7 0 0,8-1-7 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-7-2 0 0 0,7 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-6 3 0 0 0,5-1 0 0 0,-2 0 0 0 0,-17-5 0 0 0,-4-1-71 0 0,11 5-592 0 0,14-1 616 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-2-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="117644.09">2853 2275 13039 0 0,'0'0'6079'0'0,"3"14"-5046"0"0,-1 8-1563 0 0,0-19 288 0 0,-2-1-663 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="118275.22">3158 1917 12207 0 0,'0'0'7314'0'0,"-2"-1"-6486"0"0,-4-1-233 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-9-2 1 0 0,14 3-567 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-2 1 0 0 0,-1 0 28 0 0,-62 41 208 0 0,-9 3-193 0 0,58-38-72 0 0,-5 1-56 0 0,19-5 15 0 0,2-2 13 0 0,-2 1-86 0 0,17 0-3585 0 0,5-2 1935 0 0,-16-1 670 0 0,-1-1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,6-3-1 0 0,11-4-3638 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="118611.9">3102 1936 5615 0 0,'0'0'430'0'0,"13"-2"6038"0"0,-10 3-6000 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 3 0 0 0,26 35 2535 0 0,-23-29-2773 0 0,19 34 671 0 0,-26-43-977 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="118971.95">3081 2090 10159 0 0,'0'0'784'0'0,"0"2"-510"0"0,-12 28 2984 0 0,9-24-2663 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 10 0 0 0,2-14-496 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-3 3 0 0 0,-6 15 469 0 0,4 3-8 0 0,1-1 0 0 0,0 1 0 0 0,-1 34 0 0 0,1-22-46 0 0,4-29-401 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 9 0 0 0,3 3 20 0 0,-1-2 3 0 0,1 26 0 0 0,-3-36-100 0 0,1 0 0 0 0,0 0 0 0 0,3 12 0 0 0,-3-14-9 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8 0 0 0,-1-10-16 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,4 8-1 0 0,-3-7-12 0 0,1-1-1 0 0,-1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 7 1 0 0,-3 23 0 0 0,2-21-20 0 0,2-8 58 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-3 5-1 0 0,-5 20-1704 0 0,2-19-3834 0 0,-3-1-1803 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="118972.95">2838 2824 9359 0 0,'3'1'720'0'0,"2"2"-524"0"0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,7 0 1 0 0,-1 0 884 0 0,57 13 7858 0 0,-55-13-8549 0 0,0 0 0 0 0,0-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,16-3-1 0 0,-14 2-263 0 0,-1-2-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,16-13-1 0 0,-14 10-84 0 0,-15 9-19 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-3-1 0 0,-2 4-13 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,1-1-5 0 0,18-33-9 0 0,-8 12-430 0 0,-11 18 65 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-8-1 0 0,2-7-5207 0 0,3 1-1936 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="119388.83">3478 2228 16095 0 0,'0'0'2794'0'0,"0"3"-1614"0"0,-5 6-486 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-13 15 1 0 0,2 6-295 0 0,2-3-111 0 0,-22 34 127 0 0,34-57-416 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-4 2-1 0 0,4-4 3 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-3 6 1 0 0,1 0 15 0 0,4-6 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,-3 2-1 0 0,2 0 95 0 0,0 22-198 0 0,3-22-488 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="120066.52">3490 2388 18023 0 0,'-1'2'1387'0'0,"-1"9"-1015"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,1 17 0 0 0,-1-24-117 0 0,2 0-61 0 0,3 4-46 0 0,0 1-1 0 0,1 0 0 0 0,13 12 1 0 0,-17-18 345 0 0,2-1-238 0 0,-2-1-216 0 0,0 0-6 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,0-5 167 0 0,-3 7-185 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,10 0 137 0 0,-10 1-127 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 1 205 0 0,3 1-122 0 0,1 1-92 0 0,-1-3-15 0 0,11-10 108 0 0,-3 4 6 0 0,-9 7-57 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,2-5 0 0 0,-1 3-40 0 0,-3 4-9 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-2 0 0 0,1 2-3 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-2-1 0 0,-2-1 9 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,-8-4 0 0 0,-4 2-13 0 0,12 5 0 0 0,-16-2 0 0 0,14 5 0 0 0,3-1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-2 1 0 0 0,0 1-14 0 0,3-3-93 0 0,0 0-517 0 0,1-1 584 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1 1-460 0 0,10 8-2674 0 0,11 3-913 0 0,-20-13 3038 0 0,1-1-9 0 0,22 2 354 0 0,-22-1 783 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,4 2 0 0 0,-3-2 241 0 0,-1 0 1549 0 0,0 1-914 0 0,-1 0-559 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 6-1 0 0,0-2-95 0 0,1-3-158 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,6 7 0 0 0,-6-8-15 0 0,1 1-32 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,6 4 1 0 0,3 1 101 0 0,5 3-33 0 0,-17-9-155 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,1-1 24 0 0,26-1 307 0 0,-28 2-318 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-2 0 0 0,1-1 60 0 0,-1 2-50 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,2 0-1 0 0,-3 1-14 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1-2 0 0 0,1-11 182 0 0,-3 13-187 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 21 0 0,0 1-23 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2-1 0 0,0 0 26 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-1-2 38 0 0,-1-1-1 0 0,1 2 1 0 0,-13-15 0 0 0,15 19-54 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-5-2 0 0 0,-35-7 39 0 0,-9-1-205 0 0,49 11-3 0 0,100-13-2703 0 0,-70 13 1772 0 0,-22 1 549 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,5-2 0 0 0,4 0-4415 0 0,2 2-1200 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="120443.15">4254 2279 15199 0 0,'0'0'4456'0'0,"-2"0"-2902"0"0,-33-4 1263 0 0,33 4-1832 0 0,-14 9-310 0 0,11-7-549 0 0,2-1-58 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-4 4-1 0 0,-2 4-35 0 0,-1 5-33 0 0,10-11 0 0 0,0-2 0 0 0,0 8 0 0 0,8-2-15 0 0,1-5-25 0 0,-9-4 48 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-1-1 0 0,1-1 21 0 0,11-1 40 0 0,-2-2-39 0 0,-11 4-21 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,-2-1 1 0 0,-12-6-97 0 0,14 7-5 0 0,-6 0 812 0 0,4 0-2526 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="120849.36">4451 2333 13039 0 0,'0'0'10921'0'0,"-2"1"-10059"0"0,-27 27 429 0 0,15-13-1038 0 0,1 0-66 0 0,11-12-163 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-5 2 1 0 0,-1 1 9 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-12 9-1 0 0,12-8-34 0 0,-1-1 0 0 0,-16 10 0 0 0,-15 11 0 0 0,40-28 0 0 0,-7 7 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-17 7 0 0 0,15-8 0 0 0,2-1 1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-10 9 0 0 0,7-3 19 0 0,0 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-15 7 0 0 0,-21 7 59 0 0,-60 36-1 0 0,104-54-77 0 0,-19 7-17 0 0,21-11-57 0 0,6 0-743 0 0,5-1 435 0 0,0 0 0 0 0,-1-1 1 0 0,14-4-1 0 0,2-1-325 0 0,-11 3 203 0 0,0 0 0 0 0,17-10 0 0 0,6-1-1896 0 0,31-11-6640 0 0,-44 17 4120 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="121209.16">4187 2597 5551 0 0,'0'0'430'0'0,"1"1"-284"0"0,0 0 290 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,1 33 1675 0 0,0 1 1969 0 0,2-27-3509 0 0,0 0 1 0 0,8 15-1 0 0,-10-22-315 0 0,9 6 19 0 0,-3 0-142 0 0,-5-7 248 0 0,0-1-174 0 0,-2-1-159 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-2 1 0 0,9-20-23 0 0,-6 11 246 0 0,-3 9-256 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-4 0 0 0,-2-2 50 0 0,0 0-1 0 0,-1 0 0 0 0,-5-8 0 0 0,-6-9 10 0 0,14 23-186 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="121561.93">4631 2489 18023 0 0,'0'0'6887'0'0,"2"2"-6638"0"0,2 2-143 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,9 3 1 0 0,-7-4-45 0 0,4 3 14 0 0,18 17 82 0 0,-29-20-153 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3 1-2 0 0,13 3-2 0 0,-15-4 0 0 0,0-3 0 0 0,14 1 0 0 0,12 3-16 0 0,-26 0-75 0 0,12-4-1006 0 0,-13 3 465 0 0,6-3-63 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="122011.62">5035 2432 18543 0 0,'0'0'1932'0'0,"3"2"-1760"0"0,32 7 3372 0 0,-23-7-3573 0 0,-9-1 302 0 0,-1 0-38 0 0,41 17 373 0 0,-40-17-180 0 0,0 1-350 0 0,5 6 2 0 0,-6-7 34 0 0,-1 1-101 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,3 3 18 0 0,5 10 106 0 0,-7-11 553 0 0,-1 0-293 0 0,10 32-208 0 0,-11-34-233 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 1-1 0 0,-1 1-50 0 0,1 0 106 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-9 4 1 0 0,-6 4 16 0 0,-30 12 104 0 0,27-13-165 0 0,13-5-49 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-12-1-1 0 0,18-1-1 0 0,-1 2-10 0 0,3-2 109 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 5 32 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,12 7 0 0 0,-12-10 32 0 0,71 10-73 0 0,-50-8-23 0 0,-21-4 17 0 0,1 0-1 0 0,16 3-1 0 0,15-1 98 0 0,-3-10 226 0 0,-35 9-311 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,3-3 39 0 0,-2 3-83 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,3 2 0 0 0,-4-1-173 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,2-1 0 0 0,6-4-5865 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="122424.45">5400 2536 18543 0 0,'0'0'3821'0'0,"3"0"-2833"0"0,3 1-478 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,7 3-1 0 0,-3-1-122 0 0,-4-1-291 0 0,12 12 98 0 0,-11-10-114 0 0,-6-1-81 0 0,11 15 81 0 0,-10-15-52 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 9 0 0 0,-1 1 48 0 0,-5 0 16 0 0,4-11-82 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-5 2 0 0 0,-16 9 71 0 0,20-10-60 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-11 2-1 0 0,-10 3 49 0 0,20-5-57 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-5-1 0 0 0,-3 2-29 0 0,3 1-110 0 0,1-6-510 0 0,14-5-844 0 0,2-1 1002 0 0,-6 9 477 0 0,9-13-1856 0 0,2 0-3888 0 0,4 5-1777 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="122795.17">5475 2640 5551 0 0,'3'0'68'0'0,"0"0"0"0"0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,3-1 1 0 0,19-2 325 0 0,25 1 11971 0 0,-35 7-8826 0 0,-14-3-3440 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,-2 25 418 0 0,2-25-337 0 0,1 15 161 0 0,-1-14-238 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,3 5-1 0 0,-1-5-70 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,5 0 1 0 0,9 0-54 0 0,-1 0 0 0 0,30-4 1 0 0,-36 1 87 0 0,0 0-1 0 0,0-1 1 0 0,21-9 0 0 0,-6 3-13 0 0,-14 3-97 0 0,0 1-1 0 0,22-15 1 0 0,4-1-211 0 0,-32 17-101 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,11-9 0 0 0,6-5-6121 0 0,-3 6-1722 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="123546.27">5919 2311 13039 0 0,'-5'-6'6462'0'0,"-9"2"-4488"0"0,-48-4 1189 0 0,61 8-3133 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-2 2 43 0 0,-25 8 158 0 0,17-7-156 0 0,0 0 0 0 0,1 2 0 0 0,-18 9 0 0 0,9-1-60 0 0,1 0 0 0 0,0 1 0 0 0,-27 29 0 0 0,6-3-15 0 0,19-22 0 0 0,-22 29 0 0 0,31-32 0 0 0,8-12 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 9 0 0 0,-4 27-13 0 0,7-39-53 0 0,2 0-7 0 0,0 0 23 0 0,3 4 39 0 0,1-1-1 0 0,0 1 0 0 0,13 8 1 0 0,-17-13-64 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,2 0 0 0 0,16-7-5790 0 0,3-1-2007 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="124272.05">5223 2277 10159 0 0,'0'0'784'0'0,"2"1"-510"0"0,10 2 1038 0 0,0 0 0 0 0,1-1 1 0 0,20 1-1 0 0,-17-2-195 0 0,25-2 2116 0 0,-26 0-2600 0 0,2 1 426 0 0,12 1-321 0 0,-27 0-537 0 0,26 4 267 0 0,-26-4-392 0 0,1-1-4 0 0,1 2 4 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-2-1 1 0 0,4 5-1 0 0,-3-2-51 0 0,1-1-1 0 0,-1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 9 1 0 0,1 131 524 0 0,-3-144-527 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 4 0 0 0,-5 11 113 0 0,7-13-121 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-7 3 0 0 0,-2 2 47 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-27 3 0 0 0,16-3 8 0 0,20-2-67 0 0,-1-2 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-5 0-1 0 0,0-3-1 0 0,6 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-5-1 0 0 0,-5 0 11 0 0,1-4-7 0 0,-2-10-511 0 0,13 13 167 0 0,3 0-480 0 0,3-7 392 0 0,5-8-1539 0 0,1 8-3446 0 0,8 1-2215 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">555 4000 6535 0 0,'0'0'17247'0'0,"0"0"-17991"0"0,2-5 1912 0 0,-4 0-832 0 0,1 3-188 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3-3 0 0 0,-7-2-48 0 0,10 6 436 0 0,1 3-829 0 0,-5 9 186 0 0,-3 21 84 0 0,7-28 23 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,-4 7 0 0 0,-4 11 0 0 0,2 0 0 0 0,0 0 0 0 0,-5 25 0 0 0,11-40 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 8 0 0 0,-10 23 0 0 0,-5 17 403 0 0,21-51-393 0 0,-2 14 20 0 0,3-15-108 0 0,2 0-174 0 0,0 3 179 0 0,-1-4 465 0 0,5 0-239 0 0,11 7-11 0 0,-5-6-110 0 0,-6-2 40 0 0,18 4 7 0 0,9 2 3 0 0,-27-6-69 0 0,29 9 82 0 0,65 22 40 0 0,-93-29-189 0 0,8 4 53 0 0,-8-3 60 0 0,37 13-163 0 0,-40-14-7 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">576 4740 9359 0 0,'0'0'720'0'0,"-9"3"804"0"0,2-3-721 0 0,0-1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-12-5 1 0 0,2 0 247 0 0,4 2-975 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0-1 0 0 0,-16-14-1 0 0,-47-51-56 0 0,74 73-9 0 0,-43-48-755 0 0,-1 1-5323 0 0,27 28 573 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">0 3999 10159 0 0,'5'-4'120'0'0,"-1"1"0"0"0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-2 0 0 0,-1 1 0 0 0,0 0-1 0 0,4-7 1 0 0,10-13 157 0 0,-11 16 75 0 0,5-6 911 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,25-17 1 0 0,123-62 1902 0 0,-152 87-3002 0 0,1 0-1 0 0,-1 1 1 0 0,17-4 0 0 0,15-5 210 0 0,-27 7-268 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,18-1-1 0 0,14 0-92 0 0,48-2-13 0 0,-70 6 76 0 0,0 2 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,29 21 0 0 0,-38-20 7 0 0,1 0 0 0 0,-1 0 1 0 0,17 26-1 0 0,-24-31-61 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 10 0 0 0,-1-4 25 0 0,0-1 0 0 0,-2 1 1 0 0,0 1-1 0 0,-3 22 0 0 0,1-26 37 0 0,-1 0 0 0 0,-7 19 0 0 0,0 2 30 0 0,8-24-100 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-11 13 0 0 0,-5 12 33 0 0,16-25-31 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,-6 7 0 0 0,-28 22 31 0 0,-63 45 1 0 0,80-65-27 0 0,0 0 0 0 0,-1-1 0 0 0,-1-2 0 0 0,-1 0 0 0 0,0-2 0 0 0,-54 18 0 0 0,77-29-124 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-3-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">557 662 6535 0 0,'0'0'696'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">516 525 11831 0 0,'0'0'915'0'0,"-1"3"-600"0"0,-1 7 606 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-7 12 0 0 0,-10 26 555 0 0,-39 127 2108 0 0,41-125-2989 0 0,11-32-324 0 0,-9 32 0 0 0,8-22 46 0 0,8-24-303 0 0,-8 16 31 0 0,7-18-178 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">802 569 18543 0 0,'0'0'3601'0'0,"0"2"-3055"0"0,-12 30 856 0 0,1-2-719 0 0,8-22-598 0 0,0-1 0 0 0,0 1 0 0 0,-8 12-1 0 0,-4 10 137 0 0,5-5-92 0 0,0 1 1 0 0,2 1-1 0 0,-5 29 0 0 0,11-44-118 0 0,0 0-5 0 0,-1 0 0 0 0,-1 0 0 0 0,-4 11 0 0 0,7-22 28 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-2 2 0 0 0,1-2 51 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">459 750 11831 0 0,'2'-2'10033'0'0,"5"-4"-8226"0"0,16 3-1274 0 0,34-1 0 0 0,-25 3-239 0 0,-30 0-283 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,3 2 1 0 0,1 0-8 0 0,13 2-3 0 0,-6-1 11 0 0,-13-3 22 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 2-1703 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">679 1181 18543 0 0,'20'11'1428'0'0,"-16"-9"-554"0"0,-26-7 1436 0 0,7 1-797 0 0,14 4-1286 0 0,-13-4 170 0 0,-81-9 158 0 0,69 6-494 0 0,1-1 0 0 0,0-1 0 0 0,0-1 0 0 0,1-1 0 0 0,1-2 0 0 0,0 0 0 0 0,-32-24 0 0 0,5 2-53 0 0,33 24-13 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,1-1 1 0 0,-25-28-1 0 0,11 7-277 0 0,19 23 252 0 0,0 0-1 0 0,1-1 1 0 0,-8-13 0 0 0,14 21 27 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-7 0 0 0,4-9-105 0 0,0 1 0 0 0,2 0 0 0 0,15-33 0 0 0,-10 30 77 0 0,1 2-1 0 0,1-1 1 0 0,1 2-1 0 0,28-31 1 0 0,-27 32 28 0 0,25-21 160 0 0,-9 11 6 0 0,-22 19-86 0 0,0 1 0 0 0,17-10 0 0 0,10-11 44 0 0,-19 15-122 0 0,1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0 2 0 0 0,1 0 0 0 0,1 1-1 0 0,0 1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 1-1 0 0,38-3 1 0 0,-45 7 1 0 0,-1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,19 23 0 0 0,-6 1 0 0 0,-2 0 0 0 0,0 2 0 0 0,-3 1 0 0 0,-1 0 0 0 0,19 63 0 0 0,-29-74 16 0 0,6 52 0 0 0,-12-65 20 0 0,-2-8-8 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-5 10 0 0 0,-2 3 57 0 0,-1-2-1 0 0,-16 23 1 0 0,21-34-67 0 0,1-1 9 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-11 5 0 0 0,-7 6 14 0 0,-33 18 95 0 0,27-17-80 0 0,18-10 2 0 0,-25 9 0 0 0,1 0-21 0 0,-33 11-602 0 0,41-19 169 0 0,23-6 92 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,-8 4 0 0 0,-2 1-1384 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7099,15 +8120,15 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">145 445 10159 0 0,'0'0'12768'0'0,"3"0"-12616"0"0,9 0-35 0 0,-9 0 78 0 0,0-1-115 0 0,14-8-62 0 0,-14 5-13 0 0,-2 1 8 0 0,0 2 14 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1-2-1 0 0,0 1-6 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,2-5 0 0 0,-2 6-29 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0-2-1 0 0,0 1 14 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,1-2-1 0 0,2-6 92 0 0,6-18-2 0 0,-10 26-86 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,3-4 1 0 0,1-2-7 0 0,-5 5 0 0 0,1-1 0 0 0,10-8 0 0 0,-5 7-1 0 0,-4 3-5 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,4-2-1 0 0,0-2-2 0 0,19-11 69 0 0,-20 13-48 0 0,-5 3 22 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,2 0 0 0 0,-2-1 406 0 0,-1 3-409 0 0,14 17 42 0 0,-13-14-72 0 0,4 5-2 0 0,-1 1 0 0 0,-2 16 0 0 0,-2-17 0 0 0,10 28 0 0 0,-9-26 0 0 0,-2-9 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 6 0 0 0,0-1 0 0 0,14 28 0 0 0,-15-32 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 3 0 0 0,2 7 0 0 0,1-5 0 0 0,-1-4 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 6 0 0 0,1-7 0 0 0,-1 1 0 0 0,-2 16 0 0 0,0-6 0 0 0,-1-3-16 0 0,1-9-69 0 0,-4 4-772 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="555.32">242 380 10159 0 0,'0'0'13600'0'0,"0"0"-13578"0"0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 9 0 0,3-1 11 0 0,-10 6-41 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 0 0 0 0,-1 0 17 0 0,-1 0 488 0 0,0 1-430 0 0,28 5 17 0 0,-28-5 52 0 0,0-1 23 0 0,28 7 154 0 0,-26-7-301 0 0,18 6 47 0 0,-10 0-54 0 0,-11-4-10 0 0,-2 0 5 0 0,2-1 107 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="555.3">242 380 10159 0 0,'0'0'13600'0'0,"0"0"-13578"0"0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 9 0 0,3-1 11 0 0,-10 6-41 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 0 0 0 0,-1 0 17 0 0,-1 0 488 0 0,0 1-430 0 0,28 5 17 0 0,-28-5 52 0 0,0-1 23 0 0,28 7 154 0 0,-26-7-301 0 0,18 6 47 0 0,-10 0-54 0 0,-11-4-10 0 0,-2 0 5 0 0,2-1 107 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1457.05">733 147 13039 0 0,'0'0'2112'0'0,"-1"2"-1324"0"0,-3 6 49 0 0,-3 19 7919 0 0,6-25-9378 0 0,1 1 1000 0 0,0 10 106 0 0,0-9-468 0 0,14 19 707 0 0,15 15-659 0 0,-27-33-64 0 0,1-1 0 0 0,16 11 0 0 0,1-1 34 0 0,26 12-1 0 0,-23-13-20 0 0,-20-11-13 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 0 0 0 0,4 2 0 0 0,31 11 0 0 0,-23-4 175 0 0,-17-10 109 0 0,-11 11-194 0 0,7-8-73 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-4 2 0 0 0,-15 13-16 0 0,-4 2 0 0 0,-37 28 64 0 0,43-36-64 0 0,-3 3 0 0 0,4 2 16 0 0,7-11 118 0 0,10-4-108 0 0,0 0 29 0 0,18 6-2202 0 0,17-3-5669 0 0,-13-4 196 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6387.7">1767 352 6535 0 0,'0'0'1915'0'0,"-3"-13"2328"0"0,3 12-3997 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-2-3 2464 0 0,-4-5-93 0 0,5 7-2313 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-6-4 0 0 0,8 6-228 0 0,-1-1-11 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 2 1 0 0,-3-1-1 0 0,-19 6 29 0 0,19-5-93 0 0,-20 9 0 0 0,2 2 0 0 0,13-6 0 0 0,9-5 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 3 0 0 0,-12 17-16 0 0,-2 7-280 0 0,13-27 288 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 3 0 0 0,0 16 25 0 0,0-17 8 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,2 4 0 0 0,-1 0 41 0 0,0-4-29 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,3 3-1 0 0,-3-4 107 0 0,11 9 132 0 0,5-1-44 0 0,0-2 0 0 0,30 11 0 0 0,-47-19-223 0 0,3 2 11 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,8 0 0 0 0,1 1 0 0 0,80 18 261 0 0,-76-17-272 0 0,15 1-47 0 0,-30-4-122 0 0,9 6-7553 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17325.22">3979 254 18543 0 0,'0'0'3454'0'0,"1"3"-3064"0"0,0-1-231 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 5 1 0 0,0-5-89 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 3 0 0 0,0-5-62 0 0,0 2 21 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 3 1 0 0,-5 15 103 0 0,2 0 0 0 0,1 1 0 0 0,1-1 0 0 0,0 24-1 0 0,2-24-107 0 0,-2-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-11 35-1 0 0,13-55-23 0 0,-3 9 28 0 0,-1 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,-1 17 0 0 0,3-21 25 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-4 8 0 0 0,5-12-63 0 0,0 2 7 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-4 4 0 0 0,2 0-170 0 0,3-5-18 0 0,4-16-1933 0 0,3-3 709 0 0,4-15-2119 0 0,-4 11-1370 0 0,3-4-1159 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17832.74">3976 380 10159 0 0,'0'0'784'0'0,"-1"-3"-510"0"0,-2-12 171 0 0,5 11-287 0 0,2-3 1531 0 0,-4 4-1209 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,3-2 0 0 0,-2 2-206 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,6-1 0 0 0,-8 2-237 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1 0 0 0,18 15 304 0 0,23 23 202 0 0,-27-22-398 0 0,-15-13-152 0 0,-1 0 10 0 0,5 10-19 0 0,-7 0-29 0 0,0-13 50 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-2 0 0 0 0,-36 16 108 0 0,21-11-129 0 0,8-3-163 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-18-1 0 0 0,29 0 190 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,10 16 92 0 0,3-8 23 0 0,-13-8-115 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 31 0 0,5 8 171 0 0,-1-1 0 0 0,12 15 0 0 0,-10-16-118 0 0,-1 0-1 0 0,-1 0 0 0 0,7 13 0 0 0,-7-8-29 0 0,-4-2 5 0 0,-2-7-2 0 0,-1 6 9 0 0,-1 3 3 0 0,-8-4-13 0 0,8-8-61 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,1 1 0 0 0,-1 0 0 0 0,-4-2 0 0 0,-16 0 89 0 0,6-2-42 0 0,11 1-150 0 0,5 2-10 0 0,-12-2-127 0 0,-1 4 809 0 0,10-1-2796 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19242.65">4474 307 8143 0 0,'0'0'3688'0'0,"3"0"-2128"0"0,10 0-102 0 0,-10 0-466 0 0,0 0-206 0 0,11 0-39 0 0,-11 0 701 0 0,1 0-743 0 0,54 15 1217 0 0,-54-14-1436 0 0,-2 1-7 0 0,64 52 1130 0 0,-15-8-858 0 0,-42-39-575 0 0,-6-2-155 0 0,16 11 108 0 0,23 16-41 0 0,-39-31 331 0 0,-2 2-355 0 0,4 5 0 0 0,-4-5 1 0 0,-2-1 6 0 0,0 1-53 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-5 2 0 0 0,-32 23-10 0 0,18-15-76 0 0,-2 3 68 0 0,9-7 0 0 0,-21 19 0 0 0,30-24 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-13 4 0 0 0,-8 6 17 0 0,-128 70 927 0 0,151-82-864 0 0,-3 1-80 0 0,4-2-80 0 0,15-1-155 0 0,7-1-962 0 0,2-3-5772 0 0,-3 0-1006 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19242.64">4474 307 8143 0 0,'0'0'3688'0'0,"3"0"-2128"0"0,10 0-102 0 0,-10 0-466 0 0,0 0-206 0 0,11 0-39 0 0,-11 0 701 0 0,1 0-743 0 0,54 15 1217 0 0,-54-14-1436 0 0,-2 1-7 0 0,64 52 1130 0 0,-15-8-858 0 0,-42-39-575 0 0,-6-2-155 0 0,16 11 108 0 0,23 16-41 0 0,-39-31 331 0 0,-2 2-355 0 0,4 5 0 0 0,-4-5 1 0 0,-2-1 6 0 0,0 1-53 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-5 2 0 0 0,-32 23-10 0 0,18-15-76 0 0,-2 3 68 0 0,9-7 0 0 0,-21 19 0 0 0,30-24 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-13 4 0 0 0,-8 6 17 0 0,-128 70 927 0 0,151-82-864 0 0,-3 1-80 0 0,4-2-80 0 0,15-1-155 0 0,7-1-962 0 0,2-3-5772 0 0,-3 0-1006 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20149.4">5278 372 18543 0 0,'0'0'5881'0'0,"2"2"-5650"0"0,20 17 202 0 0,-20-17-251 0 0,-1 1-13 0 0,4 11-23 0 0,-2-9-123 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 7 1 0 0,-1-4-21 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 12 0 0 0,-1-12 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-3 9 1 0 0,-1 4 142 0 0,-12 27 224 0 0,16-42-354 0 0,-11 18-7 0 0,-3-2-48 0 0,5-17-166 0 0,2-1-130 0 0,7-3 58 0 0,-2-1-394 0 0,3 1 614 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-2 0 0 0,0-10-959 0 0,-3-25-2728 0 0,4 12-2148 0 0,2 8 400 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20542.89">5229 507 8575 0 0,'4'-25'-1273'0'0,"3"-14"1045"0"0,-6 36 530 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,5-4 0 0 0,10-5 1477 0 0,1-1 0 0 0,1 2-1 0 0,0 0 1 0 0,21-7 0 0 0,-36 15-983 0 0,10-3 504 0 0,-9 3-1085 0 0,6-2 85 0 0,1 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 2 1 0 0,-1-1 0 0 0,15 5 0 0 0,-21-4-263 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 3 0 0 0,2 0 67 0 0,-7-5-89 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 4 33 0 0,2-1 0 0 0,0 0-8 0 0,6 18 81 0 0,-4-7-30 0 0,6 25-1 0 0,-11-36-76 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-4 10 1 0 0,-1 3 17 0 0,4-13-4 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-7 8 0 0 0,-3 4 23 0 0,11-15-48 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-2 2 0 0 0,-11 5 2 0 0,0 0-1 0 0,0-2 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-2-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 0-1 0 0,-1-2 1 0 0,0 0-1 0 0,-25-2 1 0 0,-11-6 59 0 0,36 5-2350 0 0,1 0-4056 0 0,3 0-1818 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78259.91">2769 488 11431 0 0,'0'0'1140'0'0,"0"1"-1042"0"0,-3 1 102 0 0,2-1 233 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 1 0 0 0,-20-2 607 0 0,7-1 205 0 0,11 1-1005 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-10-5 0 0 0,-33-21 749 0 0,26 14-639 0 0,-31-25 8 0 0,46 35-348 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,-5-4 0 0 0,-4-4 82 0 0,-3-1 88 0 0,1-1 0 0 0,1 0-1 0 0,-22-29 1 0 0,12 3 109 0 0,2 9 138 0 0,23 30-414 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,2-2 1 0 0,3-4-6 0 0,-1 0-1 0 0,2 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,14-9-1 0 0,7-7-13 0 0,-23 19 16 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,6-1-1 0 0,18-10 162 0 0,-22 9-119 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,9-3 0 0 0,25-11 22 0 0,-37 14-64 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,8-1 0 0 0,-3 2 2 0 0,0 0 0 0 0,0 1-1 0 0,20 2 1 0 0,-24-2-13 0 0,-4 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 1 0 0 0,5 1 0 0 0,35 14 0 0 0,-41-15 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 7 0 0 0,3 5 0 0 0,-4 1 0 0 0,-5-7 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 11 0 0 0,3-20 0 0 0,-5 23 0 0 0,2-18 0 0 0,0-1 0 0 0,2 0 5 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-5 6-1 0 0,0-1 6 0 0,7-6-10 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3 1 8 0 0,-3 2 4 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-18-1 1 0 0,3 1 12 0 0,-37 6-1 0 0,10 3-23 0 0,24-2 0 0 0,6-3 0 0 0,16-1 0 0 0,2-1 0 0 0,-2-1-17 0 0,1 1-23 0 0,-7 14 5 0 0,7-14 20 0 0,1 1-1 0 0,-4 16-25 0 0,4-15 28 0 0,0 1-6 0 0,3 19 2 0 0,-1-15 62 0 0,1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,4 12 1 0 0,-5-20 230 0 0,1 1-192 0 0,9 7 82 0 0,1-1 0 0 0,24 16 0 0 0,-33-23-70 0 0,4 0 54 0 0,-2 2-129 0 0,23 4 66 0 0,-20-6-98 0 0,-2-1-7 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,12-1-1 0 0,25 0 98 0 0,-38 0-80 0 0,24-1-109 0 0,-2 0-94 0 0,-25 1 32 0 0,14-3-234 0 0,-11 2 105 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,7-4-1 0 0,7-8-7251 0 0,-10 4 156 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78259.89">2769 488 11431 0 0,'0'0'1140'0'0,"0"1"-1042"0"0,-3 1 102 0 0,2-1 233 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 1 0 0 0,-20-2 607 0 0,7-1 205 0 0,11 1-1005 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-10-5 0 0 0,-33-21 749 0 0,26 14-639 0 0,-31-25 8 0 0,46 35-348 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,-5-4 0 0 0,-4-4 82 0 0,-3-1 88 0 0,1-1 0 0 0,1 0-1 0 0,-22-29 1 0 0,12 3 109 0 0,2 9 138 0 0,23 30-414 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,2-2 1 0 0,3-4-6 0 0,-1 0-1 0 0,2 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,14-9-1 0 0,7-7-13 0 0,-23 19 16 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,6-1-1 0 0,18-10 162 0 0,-22 9-119 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,9-3 0 0 0,25-11 22 0 0,-37 14-64 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,8-1 0 0 0,-3 2 2 0 0,0 0 0 0 0,0 1-1 0 0,20 2 1 0 0,-24-2-13 0 0,-4 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 1 0 0 0,5 1 0 0 0,35 14 0 0 0,-41-15 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 7 0 0 0,3 5 0 0 0,-4 1 0 0 0,-5-7 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 11 0 0 0,3-20 0 0 0,-5 23 0 0 0,2-18 0 0 0,0-1 0 0 0,2 0 5 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-5 6-1 0 0,0-1 6 0 0,7-6-10 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3 1 8 0 0,-3 2 4 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-18-1 1 0 0,3 1 12 0 0,-37 6-1 0 0,10 3-23 0 0,24-2 0 0 0,6-3 0 0 0,16-1 0 0 0,2-1 0 0 0,-2-1-17 0 0,1 1-23 0 0,-7 14 5 0 0,7-14 20 0 0,1 1-1 0 0,-4 16-25 0 0,4-15 28 0 0,0 1-6 0 0,3 19 2 0 0,-1-15 62 0 0,1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,4 12 1 0 0,-5-20 230 0 0,1 1-192 0 0,9 7 82 0 0,1-1 0 0 0,24 16 0 0 0,-33-23-70 0 0,4 0 54 0 0,-2 2-129 0 0,23 4 66 0 0,-20-6-98 0 0,-2-1-7 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,12-1-1 0 0,25 0 98 0 0,-38 0-80 0 0,24-1-109 0 0,-2 0-94 0 0,-25 1 32 0 0,14-3-234 0 0,-11 2 105 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,7-4-1 0 0,7-8-7251 0 0,-10 4 156 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79084.48">3357 436 6535 0 0,'0'0'500'0'0,"-1"2"-50"0"0,-16 16 6816 0 0,15-15-6740 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-5 2 1 0 0,3-3-187 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-9-2 0 0 0,6 0-282 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,2 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-12-14 1 0 0,-23-24-60 0 0,32 35 8 0 0,1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-10-18 0 0 0,8 8-8 0 0,6 13 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-13 0 0 0,1 2 14 0 0,0 9-25 0 0,0 0 1 0 0,1-1 0 0 0,2-17-1 0 0,-1 24 9 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,5-3-1 0 0,9-5 44 0 0,-14 10-41 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 4 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,3 0-1 0 0,71-8 773 0 0,-63 8-609 0 0,-4-1-92 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,7 2 0 0 0,-1 1-270 0 0,-7-3 102 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,9 8 0 0 0,-4-2 92 0 0,-6 3 13 0 0,-8 2 41 0 0,-2 2-41 0 0,-2-5-13 0 0,-3-2-11 0 0,1-6-76 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-16 4 0 0 0,22-6 12 0 0,-7 1-107 0 0,0 0 0 0 0,-1-1 1 0 0,-12 0-1 0 0,23-1 170 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-3 3 1 0 0,-9 2 7 0 0,-10 0-48 0 0,19-1 55 0 0,1 0-4 0 0,-10 4 2 0 0,3 4 0 0 0,1 16-140 0 0,9-27 125 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,3 9 109 0 0,-4-9-59 0 0,1 3-8 0 0,9 11 126 0 0,-8-13-109 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,5 2-1 0 0,40 6 531 0 0,-28-6-260 0 0,-15-1-235 0 0,24-2 179 0 0,-20-1-207 0 0,23 4 56 0 0,-23-2-74 0 0,14-1 78 0 0,-16-1-72 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,11 1-1 0 0,-13-1-46 0 0,3 0-31 0 0,14 9 243 0 0,-7-4 135 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81148.08">0 837 9359 0 0,'0'0'976'0'0,"3"0"-896"0"0,24 0-109 0 0,9-6-264 0 0,-11 6-113 0 0,3-1 1716 0 0,-1 2 0 0 0,43 6 0 0 0,-31 0 133 0 0,1-3 0 0 0,43 0 0 0 0,80-9-164 0 0,-114 3-991 0 0,38-3-229 0 0,-39 1 163 0 0,92 4-1 0 0,-117 2-159 0 0,163 9 268 0 0,-143-10-243 0 0,114-6 762 0 0,-73-1-629 0 0,45-4-64 0 0,162-9-156 0 0,-237 18 0 0 0,43-11 0 0 0,-26 3 0 0 0,314-6-120 0 0,-302 14 88 0 0,22 2-47 0 0,57-2 78 0 0,-1-7-110 0 0,110-6-130 0 0,64-3 491 0 0,-128 8 51 0 0,-80 5-246 0 0,271-2-309 0 0,-314 6 254 0 0,82 3 68 0 0,42 1 182 0 0,-63-4-224 0 0,274 16-124 0 0,-150-16-106 0 0,23 2 182 0 0,-111-3 415 0 0,60 5-198 0 0,163 30 181 0 0,-389-33-376 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,15-2 0 0 0,-16 1-34 0 0,0 2 0 0 0,15 0-1 0 0,-16 1-55 0 0,0-1 0 0 0,1-1-1 0 0,12-1 1 0 0,-6-2-444 0 0,35-7-44 0 0,-20-1-5659 0 0,-16 3-78 0 0</inkml:trace>
 </inkml:ink>
@@ -7141,7 +8162,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">61 548 6535 0 0,'0'0'7040'0'0,"-1"2"-6388"0"0,-8 14 4728 0 0,4-13-5031 0 0,5-3-302 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0-43 0 0,2-5 49 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-5-1 0 0,-2 9-46 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-2-3 0 0,4-9-2 0 0,5 3 0 0 0,4-11 62 0 0,-12 16-28 0 0,27-42 446 0 0,-24 37-449 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,14-9 0 0 0,-17 13 48 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,6-9 0 0 0,-5 6-2 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,12-8 0 0 0,-18 13-34 0 0,3-6-31 0 0,4-1-11 0 0,2 4 0 0 0,-2 0 0 0 0,0-1 0 0 0,1 8 0 0 0,1 6 0 0 0,-1 0 0 0 0,0 8 0 0 0,17 46 0 0 0,-6-5 0 0 0,-15-35 0 0 0,6 13 0 0 0,-2-13 0 0 0,-9-17 0 0 0,-2-2 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 3 0 0 0,5 28 71 0 0,-9-20 100 0 0,1-8-133 0 0,1-1 185 0 0,-5 12-638 0 0,4-14 274 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="631.55">327 377 10159 0 0,'0'0'3290'0'0,"0"3"-2484"0"0,0 11 5634 0 0,-4-5-2709 0 0,3-8-3763 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0-247 0 0,-4-2-2200 0 0,2 0 2527 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-7 3 4128 0 0,11-3-4069 0 0,14-2-130 0 0,-10 3-24 0 0,4 3 2 0 0,36 14 356 0 0,-44-17-159 0 0,2 0 25 0 0,0 0-119 0 0,25 9 219 0 0,-29-10-272 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,2 0-2 0 0,41-4 12 0 0,-41 4 57 0 0,4-3 8 0 0,-4 2-8 0 0,4-3-40 0 0,-5 4-132 0 0,11-7-8224 0 0,-4 1 365 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="631.54">327 377 10159 0 0,'0'0'3290'0'0,"0"3"-2484"0"0,0 11 5634 0 0,-4-5-2709 0 0,3-8-3763 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0-247 0 0,-4-2-2200 0 0,2 0 2527 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-7 3 4128 0 0,11-3-4069 0 0,14-2-130 0 0,-10 3-24 0 0,4 3 2 0 0,36 14 356 0 0,-44-17-159 0 0,2 0 25 0 0,0 0-119 0 0,25 9 219 0 0,-29-10-272 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,2 0-2 0 0,41-4 12 0 0,-41 4 57 0 0,4-3 8 0 0,-4 2-8 0 0,4-3-40 0 0,-5 4-132 0 0,11-7-8224 0 0,-4 1 365 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1549.38">810 199 18543 0 0,'0'0'1428'0'0,"-1"2"-924"0"0,-13 18-416 0 0,6-8 143 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-6 17 0 0 0,7-8 207 0 0,6-18-340 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-4 7-1 0 0,3-7-23 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 7 0 0 0,-6 14 58 0 0,5-23-113 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 6 0 0 0,1-1 77 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,-1 14 0 0 0,4-4 77 0 0,4 5-136 0 0,-7-17-30 0 0,0-4-8 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 2-1 0 0,0 10-19 0 0,1-11-91 0 0,0-4-255 0 0,16-13-77 0 0,-14 13 338 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-3 0 0 0,5-14-751 0 0,-4 11-276 0 0,0 1 1 0 0,-1-1-1 0 0,-1 0 0 0 0,3-13 1 0 0,-2-6-823 0 0,0-30 1 0 0,0 38 1514 0 0,-3 18 376 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-3 0 0 0,-20-38 1605 0 0,20 35-1092 0 0,-2-9 8261 0 0,2 11-7046 0 0,1 3-741 0 0,5 0-790 0 0,-4 3-123 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,9-1 97 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 1 0 0,13 6-1 0 0,-10-3 42 0 0,-2 1 1 0 0,1-1 0 0 0,14 13-1 0 0,-7-6-122 0 0,-13-13-32 0 0,-3-2 4 0 0,1 2 2 0 0,16 13 61 0 0,-18-12-50 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,2 14 2 0 0,-6-11-18 0 0,1-5 1 0 0,2 0-43 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-3 0 0 0 0,2 2 99 0 0,-4 1-57 0 0,4 0-61 0 0,-2 3 61 0 0,4-4 318 0 0,0 2-208 0 0,-1 11-86 0 0,-4 9 30 0 0,6-18-28 0 0,3 6 184 0 0,0 7 43 0 0,8 30-1 0 0,-10-46-62 0 0,-2 0-106 0 0,-3 11 2 0 0,-5 14 78 0 0,3-19-141 0 0,1-2-12 0 0,4-5-3 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-5 0 0 0 0,-9 4 108 0 0,11-3-132 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,-7-1 0 0 0,-20-4-309 0 0,30 5 141 0 0,0-1-782 0 0,-8-3-624 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2118.09">1 1 18023 0 0,'0'0'2938'0'0,"3"1"-2418"0"0,51 7 1090 0 0,-35-6-944 0 0,31 7 0 0 0,64 17 415 0 0,-84-20-919 0 0,26 4 87 0 0,1-2 0 0 0,0-2-1 0 0,0-3 1 0 0,0-2 0 0 0,97-12 0 0 0,148-21 220 0 0,-167 21-526 0 0,-98 9 114 0 0,-1 2-186 0 0,-33 0-38 0 0,14-2-214 0 0,19-3-383 0 0,-14 0-7342 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2702.87">1496 242 19119 0 0,'0'0'2728'0'0,"1"3"-2035"0"0,27 61 2370 0 0,-17-47-2944 0 0,14 13-118 0 0,-23-27-66 0 0,1-1-17 0 0,1 2 64 0 0,-1-2 28 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 1-1 0 0,17-15-473 0 0,-3 4-152 0 0,-18 5 361 0 0,1 1 0 0 0,-1 0 0 0 0,12-2 0 0 0,8-3-614 0 0,-24 6 474 0 0,15 0-42 0 0,-5-1 214 0 0,-4 3 2651 0 0,-14 10-1380 0 0,0-4-949 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-8 6 1 0 0,-16 16-60 0 0,9-4 341 0 0,20-22-247 0 0,2-1-118 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 1 0 0 0,2-2-3 0 0,-1 2-9 0 0,-1 0 22 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,1 4 0 0 0,-1-7-23 0 0,2 8 46 0 0,1-1 0 0 0,0 0 0 0 0,6 9 0 0 0,-8-14-46 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,5 3 0 0 0,3 5 81 0 0,4 5 9 0 0,-12-13 25 0 0,1-1 7 0 0,28 0 83 0 0,-25 0-217 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-7-1 0 0,14-9-315 0 0,-21 15-254 0 0,1-1 1 0 0,-1 0-1 0 0,11-9 0 0 0,-2-1-5538 0 0,0 0-1937 0 0</inkml:trace>
@@ -7226,12 +8247,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1863.09">1 56 16559 0 0,'0'0'6173'0'0,"4"0"-5542"0"0,21-2-272 0 0,1 1 1 0 0,0 1-1 0 0,-1 1 0 0 0,40 8 0 0 0,27 9 382 0 0,170 14 1 0 0,-99-17-530 0 0,-98-8-27 0 0,11 2-11 0 0,-24-2-103 0 0,-1-2 1 0 0,78-3-1 0 0,-90-3-57 0 0,-22 1-14 0 0,0-1-1 0 0,18-3 0 0 0,-9 3 156 0 0,-17 1-98 0 0,1 0 1 0 0,-1 0-1 0 0,10-2 0 0 0,-14 0-46 0 0,-5 2-7 0 0,31 6-14 0 0,-30-5-63 0 0,5 2-242 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5990.68">2047 378 18543 0 0,'0'0'5565'0'0,"0"1"-5485"0"0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 6-75 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-5 10 1 0 0,7-14-2 0 0,-6 7 52 0 0,4-6-48 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-3 1-1 0 0,-16 12-8 0 0,17-6 0 0 0,5-9 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 1 0 0 0,-38 21 0 0 0,39-21 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-3 0 0 0 0,-2-1 0 0 0,-5 2 0 0 0,-3-2-18 0 0,-1-6-60 0 0,14 5 30 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-4 0 0 0,0 3-97 0 0,13-17-28 0 0,2-4 163 0 0,29-38 10 0 0,-36 52 0 0 0,6-5 0 0 0,-10 12 1 0 0,8-5 9 0 0,-10 5 32 0 0,2-3-2 0 0,-1 4 28 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,6-1 0 0 0,-7 2 15 0 0,14-4 56 0 0,-13 3-124 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,8-1 0 0 0,-1 0 94 0 0,4 3-76 0 0,3 2-3 0 0,-11-2-29 0 0,23 6 0 0 0,18 8 176 0 0,-39-13-174 0 0,-8-2-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1 0-10 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,4 3-1 0 0,5 2-6 0 0,-6-3 27 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,4 7 0 0 0,12 12 46 0 0,-19-17-56 0 0,5 11-2 0 0,-5-12 6 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 6 0 0 0,0 2 51 0 0,-2 0 0 0 0,-4 17 0 0 0,-2 3-46 0 0,6-28-5 0 0,-2 23 57 0 0,3-24 23 0 0,-3 13-284 0 0,4-17 150 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,10-7-5927 0 0,3-3-2217 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7492.94">3011 221 12207 0 0,'0'0'8728'0'0,"-8"-15"-2431"0"0,5 8-6038 0 0,3 7-256 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-12 28-77 0 0,1-1 1 0 0,1 1-1 0 0,2 1 0 0 0,0 0 0 0 0,-6 58 0 0 0,12-72 11 0 0,1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,3 25-1 0 0,10 22 47 0 0,-9-49 2 0 0,2 4-71 0 0,-1-6 32 0 0,4-4 41 0 0,-7-6 12 0 0,3 1-1 0 0,13-7 18 0 0,-13 3 10 0 0,4-3 9 0 0,10-6-29 0 0,-13 7-7 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,4-9 0 0 0,0 4-161 0 0,2-3-942 0 0,-7 3-5850 0 0,-1-2-1037 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7874.47">2892 339 10159 0 0,'0'0'13107'0'0,"1"2"-12654"0"0,1-1-341 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,3-1 0 0 0,31-1 726 0 0,-7 1-463 0 0,-21 1-278 0 0,-6-1-67 0 0,23-5-10 0 0,-17 4-172 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,12-6-1 0 0,2-1-406 0 0,-19 9 281 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7874.46">2892 339 10159 0 0,'0'0'13107'0'0,"1"2"-12654"0"0,1-1-341 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,3-1 0 0 0,31-1 726 0 0,-7 1-463 0 0,-21 1-278 0 0,-6-1-67 0 0,23-5-10 0 0,-17 4-172 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,12-6-1 0 0,2-1-406 0 0,-19 9 281 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8218.7">2931 425 18023 0 0,'0'0'2642'0'0,"1"3"-1912"0"0,15 15 774 0 0,-14-16-916 0 0,1-2-68 0 0,9 3-316 0 0,-3-1 3 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,11-5 0 0 0,25-7-318 0 0,-43 13-95 0 0,-1-2-46 0 0,1 0 62 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,3-2 0 0 0,-3 2-88 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-2 0 0 0,1 0-1188 0 0,4-11-5744 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8591.27">3345 240 18543 0 0,'0'0'3868'0'0,"0"3"-2855"0"0,0 1-758 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 4 0 0 0,-3 15 284 0 0,6-21-503 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-4 3 1 0 0,5-4-20 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,-6 10 2 0 0,-9 2 62 0 0,15-11-90 0 0,1-1 4 0 0,-1-1-77 0 0,8 1-297 0 0,5 2 30 0 0,-3-4 93 0 0,1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,15-6 1 0 0,0 1 202 0 0,-22 6 61 0 0,14-3 9 0 0,-15 3 503 0 0,-4 2-407 0 0,-23 26 3 0 0,17-17-118 0 0,-4 3 3 0 0,9-10 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-5 4 0 0 0,5-5 2 0 0,2-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,-1 3-1 0 0,2-4 130 0 0,2 2-98 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,4 4-1 0 0,-2-2 21 0 0,-2-3 89 0 0,0 0 19 0 0,1 2-104 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,8 6-1 0 0,-8-8 29 0 0,-2 0-7 0 0,8 2-16 0 0,-7-1-44 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 0 0 0 0,-5 0-12 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,3-1 0 0 0,19-11 26 0 0,13-6-106 0 0,-36 19-28 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-2-1 0 0 0,2-2-1 0 0,1-1-893 0 0,5-7-5097 0 0,-1 0-1949 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8993.77">3697 285 22375 0 0,'0'0'2331'0'0,"0"2"-2187"0"0,0 4-61 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 8 0 0 0,5-11 21 0 0,-5 11-10 0 0,4-10-1676 0 0,12-10-1115 0 0,-4 3 2147 0 0,9-7-4284 0 0,24-12 0 0 0,-13 12 18434 0 0,-31 25-12863 0 0,5-11-615 0 0,-12 25 508 0 0,5-15-9018 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9405.19">3986 264 18543 0 0,'0'0'1932'0'0,"1"3"-1834"0"0,0 1 163 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 6 0 0 0,-3 11 786 0 0,-8 22 0 0 0,5-16-771 0 0,2-13 65 0 0,5-13-335 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 3-1 0 0,-4-6-310 0 0,4 2 282 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,22-11-1092 0 0,2-1-1414 0 0,-8 4-2970 0 0,-5-1-1654 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9811.95">4115 345 21855 0 0,'0'0'2199'0'0,"1"2"-2018"0"0,23 35 1224 0 0,-23-35-1154 0 0,0 2-166 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 4 1 0 0,3 6 41 0 0,3 16 42 0 0,-10-28-54 0 0,-7 14 141 0 0,4 8-147 0 0,2-21-101 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-3 4 1 0 0,-2 3 93 0 0,-1-1 0 0 0,-12 13-1 0 0,-7 10 110 0 0,22-27-210 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-7 6 0 0 0,-2 2 15 0 0,6-7 57 0 0,0 3-202 0 0,7-7 82 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 0-215 0 0,3-2-578 0 0,-3-13-90 0 0,-1-3-6251 0 0,7 7-488 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9811.94">4115 345 21855 0 0,'0'0'2199'0'0,"1"2"-2018"0"0,23 35 1224 0 0,-23-35-1154 0 0,0 2-166 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 4 1 0 0,3 6 41 0 0,3 16 42 0 0,-10-28-54 0 0,-7 14 141 0 0,4 8-147 0 0,2-21-101 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-3 4 1 0 0,-2 3 93 0 0,-1-1 0 0 0,-12 13-1 0 0,-7 10 110 0 0,22-27-210 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-7 6 0 0 0,-2 2 15 0 0,6-7 57 0 0,0 3-202 0 0,7-7 82 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 0-215 0 0,3-2-578 0 0,-3-13-90 0 0,-1-3-6251 0 0,7 7-488 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10218.18">4860 0 18543 0 0,'0'0'2998'0'0,"0"3"-1919"0"0,0 2-679 0 0,-1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-5 7 0 0 0,-5 16 404 0 0,4-13-516 0 0,-3 10 65 0 0,7-12-352 0 0,2-9 0 0 0,1-2 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-3 1 0 0 0,-17 12-460 0 0,19-13 176 0 0,0 0-41 0 0,-21 0-232 0 0,11-1-4167 0 0,8 0 1461 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10560.4">4604 193 13039 0 0,'0'0'10249'0'0,"10"-2"-9333"0"0,29 0 691 0 0,30-4-1052 0 0,-23 1-407 0 0,-39 5-100 0 0,-4 0 209 0 0,0 0 68 0 0,28 0 262 0 0,-28 0-688 0 0,10 2-443 0 0,-12-2 535 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 2 7 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-2 1-1 0 0,-26 19 47 0 0,21-15-37 0 0,-34 19-7 0 0,22-14 0 0 0,-10 0 32 0 0,26-10-30 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-3 3-1 0 0,5-4-90 0 0,1 1-70 0 0,-6 4 157 0 0,21-1 55 0 0,-5-4-16 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,10-2 1 0 0,10-2-9 0 0,-24 4 24 0 0,-4 1-28 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 1 1 0 0,-17 19 56 0 0,7-9-80 0 0,6-10-4 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3 1 0 0 0,-11 7-20 0 0,13-8 154 0 0,5 1-58 0 0,4 3-544 0 0,-12-10 686 0 0,-7-5-2194 0 0,-2 2-5075 0 0,0 2-825 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11782.99">4523 292 8143 0 0,'0'2'10598'0'0,"-6"15"-5927"0"0,4-13-4354 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 7 0 0 0,0-10 325 0 0,19 18-467 0 0,-10-12-111 0 0,-8-7-58 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 0 0 0 0,2 1 7 0 0,2 1-1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,14 0-1 0 0,-5-1-1 0 0,-13 1-10 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,6-1 0 0 0,4-2 0 0 0,4 2-23 0 0,-14 2-85 0 0,15-4-121 0 0,-11 3-13 0 0,-1-1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,6-5 1 0 0,25-12-720 0 0,-21 10 602 0 0,-13 7 303 0 0,1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,10-3-1 0 0,31-10 165 0 0,-43 13 52 0 0,12 4 2807 0 0,-18 3-2902 0 0,-1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-2-1 0 0,0 1 0 0 0,-15 7 0 0 0,19-11-63 0 0,-31 13-2 0 0,27-12 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-7 4 0 0 0,6-3-32 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-16 4 0 0 0,12-4-11 0 0,0 1 0 0 0,0 0 0 0 0,0 1-1 0 0,-10 6 1 0 0,20-10 963 0 0,-1-1-913 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-3 2 0 0 0,-8 6-81 0 0,-13 3 61 0 0,-19 5 0 0 0,30-10-53 0 0,-2-5 138 0 0,13-3 278 0 0,11 0-182 0 0,70-2-103 0 0,1 3-65 0 0,-59-1 88 0 0,25 3 0 0 0,40 2 104 0 0,-26-10-32 0 0,-47 5-145 0 0,-3 1-35 0 0,0-2 0 0 0,0 1 1 0 0,12-5-1 0 0,-1 0 19 0 0,-18 3-4 0 0,-1 1-5 0 0,1 0-41 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-3 0 0 0,-1 4-1 0 0,0 0-148 0 0,-5-14-580 0 0,1 10 375 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-9-3 0 0 0,-3-2 6151 0 0,16 9-5454 0 0,-4 2 462 0 0,4-2-485 0 0,0 1-147 0 0,-36 88 807 0 0,24-71-777 0 0,11-17-137 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 2 0 0 0,0 0-10 0 0,0-1 8 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-5 7-1 0 0,4-5 4 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,1 11 0 0 0,1 3-3 0 0,-6-16-10 0 0,-2 1 48 0 0,1 2-52 0 0,3-6-69 0 0,32-4-736 0 0,-28 2 666 0 0,1-2-3 0 0,0 2 97 0 0,2-1 8 0 0,14-12-96 0 0,-9 6 74 0 0,-5 4 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,5-6 0 0 0,-5 3-54 0 0,-3 6-423 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-2 1 0 0,11-3-7778 0 0</inkml:trace>
@@ -7240,7 +8261,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15152.06">5550 588 6535 0 0,'0'0'500'0'0,"-2"2"92"0"0,-6 12 11580 0 0,19-10-4805 0 0,1-3-6465 0 0,-2 0-3316 0 0,28 5 2599 0 0,53-2-144 0 0,-84-3-199 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,11-2 1 0 0,-1-2-6544 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15529.82">6134 399 18023 0 0,'0'0'1387'0'0,"4"0"-896"0"0,8-1 333 0 0,0-1 1 0 0,15-3 0 0 0,10-2 2039 0 0,33-4-1332 0 0,-67 11-1400 0 0,0 0-4 0 0,34 5 0 0 0,0 3-128 0 0,-23-7 0 0 0,-5-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,14 3 0 0 0,-9 0-13 0 0,-10-4-57 0 0,13 1-127 0 0,-9-1-4241 0 0,-16-2 2712 0 0,-8 2-2195 0 0,8 1-2900 0 0,8-1 5567 0 0,-16 1-338 0 0,0 0 3499 0 0,9 3 170 0 0,-1 0 4826 0 0,4 12-1989 0 0,3-9-4539 0 0,-3 10 241 0 0,4-14-336 0 0,2-1-35 0 0,4 19 82 0 0,-3-13-126 0 0,0 0 0 0 0,0 0 0 0 0,6 11 0 0 0,-3-8-93 0 0,-4-8-152 0 0,4 12-196 0 0,5 4-4017 0 0,-7-14 896 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15912.55">6239 661 18543 0 0,'0'0'2880'0'0,"2"3"-1939"0"0,41 65 2650 0 0,-41-66-3395 0 0,1 0-4 0 0,31 13 384 0 0,-5-7-506 0 0,-22-8-30 0 0,0-1-30 0 0,11 1-164 0 0,0-2 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-2 0 0 0,0 0 0 0 0,-1-2 1 0 0,0 1-1 0 0,17-10 0 0 0,-13 7-479 0 0,-17 6 247 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,7-6 1 0 0,3-3-4981 0 0,5 2-1449 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16285.35">6822 465 13039 0 0,'0'0'11952'0'0,"0"2"-11537"0"0,-1 2-278 0 0,1-2-87 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-2 3-1 0 0,-53 67 502 0 0,0-5-302 0 0,-4 4-228 0 0,61-71-24 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 5-3 0 0,-11 7-181 0 0,11-13 98 0 0,22-13 18 0 0,-14 8 11 0 0,-1 1-1 0 0,18-7 1 0 0,27-17 268 0 0,-32 21 358 0 0,-18 8-491 0 0,-1 1-119 0 0,3 3 98 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,6 6 0 0 0,-6-6-6 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,12 6 0 0 0,36 15 18 0 0,-51-24 4 0 0,0-2 9 0 0,26-1 66 0 0,-23 1-159 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,4-5-1 0 0,4-3-343 0 0,22-22 0 0 0,-30 27 258 0 0,8-6-176 0 0,-11 9 187 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,3-4 0 0 0,-1-1-170 0 0,-2 4-806 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3-3 0 0 0,11-8-6964 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16285.34">6822 465 13039 0 0,'0'0'11952'0'0,"0"2"-11537"0"0,-1 2-278 0 0,1-2-87 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-2 3-1 0 0,-53 67 502 0 0,0-5-302 0 0,-4 4-228 0 0,61-71-24 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 5-3 0 0,-11 7-181 0 0,11-13 98 0 0,22-13 18 0 0,-14 8 11 0 0,-1 1-1 0 0,18-7 1 0 0,27-17 268 0 0,-32 21 358 0 0,-18 8-491 0 0,-1 1-119 0 0,3 3 98 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,6 6 0 0 0,-6-6-6 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,12 6 0 0 0,36 15 18 0 0,-51-24 4 0 0,0-2 9 0 0,26-1 66 0 0,-23 1-159 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,4-5-1 0 0,4-3-343 0 0,22-22 0 0 0,-30 27 258 0 0,8-6-176 0 0,-11 9 187 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,3-4 0 0 0,-1-1-170 0 0,-2 4-806 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3-3 0 0 0,11-8-6964 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16615.75">7204 373 22975 0 0,'0'0'1125'0'0,"2"0"-490"0"0,24 0-46 0 0,-9-1-207 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,17 5 0 0 0,-32-6-273 0 0,-1 1-94 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,1 2 1 0 0,2 0 21 0 0,-1-1-29 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,3 3 0 0 0,14 13-104 0 0,-17-17 118 0 0,1 3 28 0 0,5 11-31 0 0,-6-13-79 0 0,-3 0-435 0 0,0 1 349 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-4 1-1 0 0,5-2 42 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-3 3-425 0 0,-64 45-5358 0 0,65-48 5980 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-2 4 0 0 0,0 0 677 0 0,-2 6 1353 0 0,3-9-1736 0 0,1 0 1631 0 0,0-1-1070 0 0,13 27 602 0 0,-11-27 43 0 0,1 1-1318 0 0,2 0-201 0 0,33 18 344 0 0,-33-19-401 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,8 0 1 0 0,-3 1 60 0 0,-9-1-63 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,9-2 34 0 0,-8 4-50 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,5-2-1 0 0,-1 0-60 0 0,-3 2-55 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,4-4 1 0 0,5-2-6868 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16962.06">7702 322 21943 0 0,'0'0'2285'0'0,"3"0"-2167"0"0,44-7 671 0 0,-44 7-432 0 0,13-4 486 0 0,30-2 796 0 0,-45 9-1574 0 0,4 8-26 0 0,-5-9-51 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-2 1-1 0 0,-1 1-303 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,-8 5 1 0 0,10-7-73 0 0,-13 9-5924 0 0,-2-2-2080 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17300.08">7633 515 18543 0 0,'0'0'1932'0'0,"7"11"4"0"0,31 12 1519 0 0,-26-16-3116 0 0,1 0 0 0 0,-1 1 0 0 0,20 19 0 0 0,0 10-101 0 0,-21-20-166 0 0,-8 14 180 0 0,-2-31-243 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 1 21 0 0,0 2 0 0 0,-1 1-23 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,-9 6 1 0 0,-15 8 5 0 0,20-11 8 0 0,5-4-16 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-4 0 0 0 0,-22 5-112 0 0,27-6 17 0 0,-19-2-443 0 0,21 1 457 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-2 1 0 0,2-10-7919 0 0,5 2 381 0 0</inkml:trace>
@@ -7275,7 +8296,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">340 10 10159 0 0,'0'0'9398'0'0,"-6"-9"-2668"0"0,5 10-6622 0 0,0 0-107 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 3 0 0 0,-2 4-1 0 0,-3 5-10 0 0,0-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-5 19 0 0 0,5-13 6 0 0,-10 24 1 0 0,9-32 29 0 0,2 1 0 0 0,0 1 1 0 0,-2 12-1 0 0,-6 22 6 0 0,-23 79 79 0 0,9-31 39 0 0,4-20-83 0 0,19-64-52 0 0,-5 15 113 0 0,6-23-235 0 0,3-4-25 0 0,2-1-9 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,3-4 0 0 0,12-20-7266 0 0,-7 11-364 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.48">520 248 13039 0 0,'0'0'12432'0'0,"1"3"-12143"0"0,21 43 415 0 0,-22-44-689 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,0 10 24 0 0,2-9-38 0 0,0-1 10 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-3 4 0 0 0,2-2 16 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,2 12 0 0 0,-1 5 27 0 0,-1 2 23 0 0,2-17-36 0 0,-2 1 0 0 0,-2 19 0 0 0,2-28-32 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 5-1 0 0,-1-1-7 0 0,-7 40 0 0 0,5-36 152 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.47">520 248 13039 0 0,'0'0'12432'0'0,"1"3"-12143"0"0,21 43 415 0 0,-22-44-689 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,0 10 24 0 0,2-9-38 0 0,0-1 10 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-3 4 0 0 0,2-2 16 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,2 12 0 0 0,-1 5 27 0 0,-1 2 23 0 0,2-17-36 0 0,-2 1 0 0 0,-2 19 0 0 0,2-28-32 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 5-1 0 0,-1-1-7 0 0,-7 40 0 0 0,5-36 152 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="697.23">164 499 12207 0 0,'0'-1'943'0'0,"0"-2"-211"0"0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-4 0 0 0,3-9 2612 0 0,7 11-1378 0 0,-11 4-1870 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,3-1 0 0 0,29 4 491 0 0,-23-2-571 0 0,38 10-68 0 0,12 4 120 0 0,-57-14 7 0 0,11 0 47 0 0,15 0-135 0 0,-20-5-103 0 0,-4 1-19 0 0,-4 2-185 0 0,6-12-7367 0 0,-2 0-567 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1119.33">477 119 16239 0 0,'0'0'6452'0'0,"0"2"-6060"0"0,12 43 636 0 0,-12-44-997 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 1 1 0 0,-1 3 78 0 0,4 60 578 0 0,-5-53-663 0 0,3-9-65 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 1 0 0 0,20 0-13972 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1907.01">559 845 18023 0 0,'0'0'1387'0'0,"-2"1"-896"0"0,-24 12 95 0 0,25-12-548 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,-20 2 1662 0 0,-41-4 1 0 0,30 1-1188 0 0,20 1-342 0 0,1-1 0 0 0,0 0 0 0 0,-18-5 0 0 0,20 4-46 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-12 1 0 0 0,15 1-79 0 0,0-1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-11-4 1 0 0,-2-3 108 0 0,13 6-118 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-12-11 1 0 0,3-3-36 0 0,8 8 14 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-22 0 0 0,2 15 65 0 0,1 1 0 0 0,3-29 0 0 0,-2 11-149 0 0,0 26 62 0 0,0-1 1 0 0,2-15-1 0 0,2-6 194 0 0,-4 26-155 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,7-11 1 0 0,-5 10-15 0 0,0-1 1 0 0,-1 1-1 0 0,4-12 1 0 0,-6 14-12 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,7-6-1 0 0,78-62 61 0 0,-87 71-66 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 0 0 0 0,3 0-3 0 0,7-5 2 0 0,28-5 0 0 0,0-1 0 0 0,-20 6 0 0 0,1 1 0 0 0,0 1 0 0 0,27-1 0 0 0,-33 3 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 2 0 0 0,1 0 0 0 0,21 3 0 0 0,57 20 0 0 0,-58-16 0 0 0,-24-5 0 0 0,0-1 0 0 0,13 6 0 0 0,-15-4 0 0 0,5 3 0 0 0,0 0 0 0 0,23 15 0 0 0,-33-19 0 0 0,18 10 14 0 0,-3-1 27 0 0,0 0 0 0 0,0 2 1 0 0,24 22-1 0 0,-44-36-41 0 0,11 9-9 0 0,-2 0-1 0 0,13 13 1 0 0,-20-19 6 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 6 1 0 0,1 11 3 0 0,-1-18 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 6 0 0 0,-4 10 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-11 25 0 0 0,-11 15-27 0 0,14-28 0 0 0,0-1 1 0 0,-29 41-1 0 0,23-39 40 0 0,16-22-13 0 0,-1-1-1 0 0,0 0 1 0 0,-11 11-1 0 0,8-11-1 0 0,-5 8-28 0 0,-2-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,-34 23 0 0 0,16-14-34 0 0,26-17 93 0 0,0 0 1 0 0,0 0-1 0 0,-15 6 0 0 0,-30 15-18 0 0,35-21-7 0 0,15-6-6 0 0,1-2-19 0 0,3 2 20 0 0,-2 1-19 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-3 0 0 0,2 2-60 0 0,9-12-220 0 0,-2-1 113 0 0,0 0-1881 0 0,3 0-3590 0 0,7-2-2664 0 0</inkml:trace>
@@ -7311,8 +8332,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">127 152 13039 0 0,'0'0'1572'0'0,"1"-2"-405"0"0,-1-1-828 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-3-7 4071 0 0,0 2-3239 0 0,3 6-1113 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1-16 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,-1 0-42 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-2 5 1 0 0,-28 156 761 0 0,32-160-758 0 0,-6 46 13 0 0,5-32-17 0 0,-5 26-1 0 0,-6 27 95 0 0,-2 16-26 0 0,25-169-8089 0 0,-8 58 3098 0 0,2-1-1098 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="456.49">24 285 5615 0 0,'1'-3'430'0'0,"10"-44"-149"0"0,-7 23 1267 0 0,-1-3 1524 0 0,-3 22-2317 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3-5-1 0 0,0-17 2717 0 0,-3 25-1868 0 0,1 1-1533 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 74 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,24-22 1020 0 0,-23 23-862 0 0,1 0-27 0 0,3-1-204 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,0 1-29 0 0,-4-2-6 0 0,0 0 1 0 0,-1 1-1 0 0,12 9 0 0 0,-7-7-7 0 0,-2 0-10 0 0,-1 0 1 0 0,19 16-1 0 0,-22-17-18 0 0,0 0 0 0 0,0 0 0 0 0,6 9 0 0 0,-4 1 0 0 0,-8-14-1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-5 3 0 0 0,-9 11 14 0 0,15-15-15 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-4 3 0 0 0,-7 2-30 0 0,10-4-6 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-10 0-1 0 0,4-2 55 0 0,-1 1 57 0 0,10 6 70 0 0,12 11 136 0 0,-7-12-246 0 0,42 65-113 0 0,-37-55 181 0 0,14 30-1 0 0,-15-29-45 0 0,-4-6-8 0 0,0-1 9 0 0,-1 0 0 0 0,0 0 1 0 0,3 14-1 0 0,-3-13-42 0 0,-1-4-14 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 9 0 0 0,0-8 18 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-7 4 0 0 0,2-2 29 0 0,5-4-31 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4 2 0 0 0,-11 3 35 0 0,16-5-64 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-6 1 0 0 0,5-1-6 0 0,4 0 19 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1-1 0 0 0,-25-10-21 0 0,26 12-12 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 1 0 0,2 1-43 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-4-1 0 0,3-11-1601 0 0,4 2-4457 0 0,5 0-2194 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.19">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="456.47">24 285 5615 0 0,'1'-3'430'0'0,"10"-44"-149"0"0,-7 23 1267 0 0,-1-3 1524 0 0,-3 22-2317 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3-5-1 0 0,0-17 2717 0 0,-3 25-1868 0 0,1 1-1533 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 74 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,24-22 1020 0 0,-23 23-862 0 0,1 0-27 0 0,3-1-204 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,0 1-29 0 0,-4-2-6 0 0,0 0 1 0 0,-1 1-1 0 0,12 9 0 0 0,-7-7-7 0 0,-2 0-10 0 0,-1 0 1 0 0,19 16-1 0 0,-22-17-18 0 0,0 0 0 0 0,0 0 0 0 0,6 9 0 0 0,-4 1 0 0 0,-8-14-1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-5 3 0 0 0,-9 11 14 0 0,15-15-15 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-4 3 0 0 0,-7 2-30 0 0,10-4-6 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-10 0-1 0 0,4-2 55 0 0,-1 1 57 0 0,10 6 70 0 0,12 11 136 0 0,-7-12-246 0 0,42 65-113 0 0,-37-55 181 0 0,14 30-1 0 0,-15-29-45 0 0,-4-6-8 0 0,0-1 9 0 0,-1 0 0 0 0,0 0 1 0 0,3 14-1 0 0,-3-13-42 0 0,-1-4-14 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 9 0 0 0,0-8 18 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-7 4 0 0 0,2-2 29 0 0,5-4-31 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4 2 0 0 0,-11 3 35 0 0,16-5-64 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-6 1 0 0 0,5-1-6 0 0,4 0 19 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1-1 0 0 0,-25-10-21 0 0,26 12-12 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 1 0 0,2 1-43 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-4-1 0 0,3-11-1601 0 0,4 2-4457 0 0,5 0-2194 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.17">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2795.33">1703 10 20847 0 0,'0'0'2091'0'0,"1"2"-1914"0"0,0 3-75 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8 0 0 0,-9 47 471 0 0,3-21-260 0 0,-23 165 487 0 0,10-78-725 0 0,13-89-27 0 0,3-27-46 0 0,1 0-1 0 0,0 19 1 0 0,-1-17-1 0 0,2-10-3 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 2 1 0 0,0-3-78 0 0,-1-5-1201 0 0,-2-8 512 0 0,-3-14-1520 0 0,3 8-2825 0 0,3 0-1922 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3209.13">1592 181 19551 0 0,'9'-24'712'0'0,"-8"19"-510"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,5-9 0 0 0,0 4 153 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,18-7 0 0 0,-21 9-193 0 0,3-1 23 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,19-3-1 0 0,51-3 264 0 0,-76 9-433 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 1 1 0 0,9 2-1 0 0,4 1 67 0 0,30 2 1 0 0,7-2 212 0 0,1 1 42 0 0,-55-5-337 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 1 0 0 0,0 1 0 0 0,11 3 0 0 0,-1 1 11 0 0,-9-4 8 0 0,-1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 6 0 0 0,3 6 108 0 0,10 24-1 0 0,-13-28-110 0 0,-1 2-16 0 0,0 0 0 0 0,5 28 0 0 0,-6-21 0 0 0,3 48 0 0 0,-3-47 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,-3 36 0 0 0,2-26 0 0 0,0-18 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 15 0 0 0,4-22 0 0 0,-5 18 0 0 0,3-20 3 0 0,1-4-4 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-86 0 0,-2-3-303 0 0,-1-1 273 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-2-6 0 0 0,-8-16-1082 0 0,2 11 336 0 0,-9-15-5921 0 0,8 8-678 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3682.75">1869 227 18023 0 0,'0'0'6535'0'0,"12"-9"-4849"0"0,13-2-1418 0 0,-22 11 171 0 0,0 0-343 0 0,30-2 64 0 0,-30 2-241 0 0,-1 1-462 0 0,-1 1 505 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 3-1 0 0,-5 8-432 0 0,1 0-1 0 0,-10 12 1 0 0,7-11 299 0 0,1 0 106 0 0,1-1-1 0 0,0 2 0 0 0,1-1 1 0 0,1 1-1 0 0,-8 27 1 0 0,8-18 49 0 0,7-17 18 0 0,0-2-3 0 0,4 13 1 0 0,-6-15 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 1-1 0 0,-4 2 151 0 0,0-4-140 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 16 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,3-1 360 0 0,24 6 382 0 0,-25-5-528 0 0,13-8 278 0 0,-14 6-492 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1-2 20 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-5-5 1 0 0,-4-6 212 0 0,11 13-247 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-2 1 1 0 0,-15-7-5 0 0,-2-1-161 0 0,14 4-3743 0 0,28-10-3576 0 0</inkml:trace>
@@ -7747,13 +8768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:BJ94"/>
+  <dimension ref="B4:BJ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" outlineLevelCol="1"/>
@@ -9617,7 +10638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:62" ht="409.6">
+    <row r="28" spans="2:62" ht="145.75" customHeight="1">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2" t="s">
@@ -9635,27 +10656,31 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:62">
-      <c r="B29" s="1"/>
+    <row r="29" spans="2:62" ht="136.75" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:62">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -9666,6 +10691,9 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -9675,7 +10703,6 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10299,6 +11326,16 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:B19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -10314,7 +11351,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -10373,11 +11410,161 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A7B3DF-C52A-49FD-9AAA-2DCDF0D1ED16}">
+  <dimension ref="B4:K92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="D6" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="E7" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="F8" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8">
+      <c r="E26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11">
+      <c r="H49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="7:11">
+      <c r="K56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="7:11">
+      <c r="G57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="7:11">
+      <c r="H58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11">
+      <c r="I87" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11">
+      <c r="I88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11">
+      <c r="J89" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11">
+      <c r="K90" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11">
+      <c r="C92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF195E-0E20-4F6D-AE9C-F4A9266904D0}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M1347"/>
   <sheetViews>
-    <sheetView topLeftCell="A417" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G514" sqref="G514"/>
     </sheetView>
   </sheetViews>

--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC5DBA1-2279-4A27-8860-64B67C3D1662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A56B9D-1BA4-4085-AF81-F24CB69B55A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="パターン一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="153">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -1360,10 +1360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B1_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>条件を絞る。
 ①パターンの有効期間→ADの意味座標のバーを越えたら無効とする。
 ②TPとSLの比率が一以上
@@ -1831,6 +1827,113 @@
     </r>
     <rPh sb="19" eb="22">
       <t>タイオウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンサイズ分の時間たってもエントリーできないならキャンセル</t>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B1_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B1_2</t>
+  </si>
+  <si>
+    <t>上位足が続伸しているとき、CD間の上X％とCの間で、目線が下になった場合（ベース足）エントリー。
+利確：①Dまで行くと仮定する。
+利確：②D起点で、BCD分下まで行くと仮定する。
+Cより上でキャンセル。
+ABCDの倍の時間でキャンセル（エントリー町をキャンセル）</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウイアシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>メセン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>キテン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンはABCD4つで続伸の形</t>
+    <rPh sb="12" eb="14">
+      <t>ゾクシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6244,7 +6347,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">416 2 10159 0 0,'0'0'1768'0'0,"2"17"2314"0"0,-4 2-2143 0 0,3-15-1755 0 0,-2 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 5 1 0 0,-1 13 410 0 0,-2 5-117 0 0,1-15-202 0 0,0 0 0 0 0,1 0 0 0 0,1 1 1 0 0,-2 13-1 0 0,3-16-133 0 0,1-10-210 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415.05">414 14 6535 0 0,'0'0'500'0'0,"15"-3"3712"0"0,-12 4-3779 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 6 0 0 0,13 16 1100 0 0,9 2 389 0 0,-25-26-1878 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-1 1 0 0,0 0 19 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-4 0 0 0,8-5 82 0 0,-12 9-129 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-2 0 0 0,-1-2-5 0 0,-4 67 896 0 0,8-25-569 0 0,-2-19-507 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="832.8">731 202 14687 0 0,'0'0'1646'0'0,"7"-12"804"0"0,-3-7-1492 0 0,2 0 0 0 0,0 1 0 0 0,1 0 0 0 0,17-31-1 0 0,-19 41-854 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,11-10 0 0 0,-14 16-106 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,-5 2 25 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 2 0 0 0,-1-2-65 0 0,0 2-55 0 0,3 7 78 0 0,1-1 0 0 0,-2 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-3 19 0 0 0,2-28 20 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-3 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 2-1 0 0,-6 8-196 0 0,4-8 69 0 0,2-1-150 0 0,-1 4 258 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.61">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.6">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.06">996 33 15199 0 0,'0'0'6352'0'0,"18"10"-4313"0"0,-7-3-1877 0 0,4 2 66 0 0,-1 1 0 0 0,0 0-1 0 0,17 17 1 0 0,-26-21-244 0 0,-4-5-63 0 0,1 4 1894 0 0,0-2-3438 0 0,22-14-18182 0 0,-23 9 20155 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1-2 0 0 0,-1 3-173 0 0,-1 0-25 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-4-3 2903 0 0,-37 9 5076 0 0,31-3-8017 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-14 11 0 0 0,8-5-67 0 0,1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-13 18-1 0 0,13-21-43 0 0,12-9-4 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 0-367 0 0,5-1 174 0 0,1-1 97 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12192.16">1415 5 6535 0 0,'-3'1'5160'0'0,"-11"3"-1348"0"0,13-3-3604 0 0,-2-1-29 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 3 0 0 0,-10 11 142 0 0,1 0-1 0 0,0 0 1 0 0,2 1 0 0 0,-18 33 0 0 0,16-21 392 0 0,1 0 0 0 0,2 1 0 0 0,-10 44 0 0 0,17-61-586 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,2 0 0 0 0,6 19 0 0 0,-6-24-76 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,12 9 0 0 0,-17-14-168 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0-324 0 0,4-4-1364 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14506.99">1537 566 11743 0 0,'0'0'1338'0'0,"22"-34"3115"0"0,-17 25-3954 0 0,0 1 0 0 0,0 0 0 0 0,11-14 0 0 0,-1 3-199 0 0,42-62 463 0 0,-45 62-287 0 0,2 2 1 0 0,0 0-1 0 0,19-18 1 0 0,-30 32-398 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,4-4-1 0 0,-3 3 8 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 0 0 0,-9 8-61 0 0,-3 3-18 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1-4 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,3 12 66 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-5 22 0 0 0,1-14-43 0 0,1-4 26 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 32 0 0 0,3-30 20 0 0,-1 0-69 0 0,1-15-2737 0 0</inkml:trace>
@@ -7767,7 +7870,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">482 257 6535 0 0,'0'0'12120'0'0,"1"3"-11906"0"0,9 29-89 0 0,-9-30-114 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-2 3 1 0 0,1 10 115 0 0,1-16-122 0 0,1 17-40 0 0,1 0-1 0 0,1 0 0 0 0,6 19 1 0 0,-8-34 52 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 3 1 0 0,2 7 15 0 0,4 28-127 0 0,-2-16 215 0 0,7 32 0 0 0,-9-54-115 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,3 4 1 0 0,0 1-33 0 0,37 94-313 0 0,-38-94 323 0 0,0 0 0 0 0,0 0 0 0 0,6 7-1 0 0,-7-9 17 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2 4 0 0 0,-2-5 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 6 0 0 0,-2-7 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 10 0 0 0,8 31 0 0 0,-2-13 0 0 0,1-2 7 0 0,-8-24 29 0 0,0 0 1 0 0,0 0-1 0 0,1 11 0 0 0,17 34 620 0 0,-2 7-97 0 0,-18-57-486 0 0,0 1-1 0 0,3 8-46 0 0,-1-3 86 0 0,1 0 1 0 0,0-1 0 0 0,8 14-1 0 0,-10-19 190 0 0,-1 1-122 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 3 0 0 0,-4-4-327 0 0,-1-1 150 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-5 7 88 0 0,4 2-64 0 0,0-7 148 0 0,2 0-80 0 0,0 9-16 0 0,-3 13 32 0 0,2-22 80 0 0,1 1-112 0 0,2 7-64 0 0,-1 1 4 0 0,-2-8 167 0 0,2-2-119 0 0,7 7-43 0 0,-7-6 6 0 0,1-3-341 0 0,11 0 313 0 0,-10 1 74 0 0,11-9 66 0 0,1 0-131 0 0,-12 7-12 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-5 0 0 0,1 0 0 0 0,-1 3 0 0 0,-5 4 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-4 0 0 0,3-1 13 0 0,0 0 1 0 0,0 1-1 0 0,13-9 0 0 0,-19 14-11 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,2-4-1 0 0,11-11 37 0 0,-7 11-52 0 0,-4 3-11 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-4-1 0 0,-1 2 10 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,6-5 0 0 0,2-1 7 0 0,24-20-41 0 0,-28 24 22 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,12-14-1 0 0,13-13-217 0 0,-5 7 28 0 0,-25 24 209 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,7-3 0 0 0,-7 5 7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-4 0 0 0,1-4-18 0 0,-3 8-5 0 0,1-3-809 0 0,16-4 721 0 0,-6 6 113 0 0,2 5 0 0 0,-1 1 21 0 0,-11-3 874 0 0,0 2-1027 0 0,7 14 46 0 0,3 0 111 0 0,-10-14 64 0 0,-1 1 2 0 0,13 29-246 0 0,-3 0-189 0 0,61 188 412 0 0,-60-186 17 0 0,-9-27-96 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 7-1 0 0,-2 1-15 0 0,1-1-1 0 0,0 1 1 0 0,2 0 0 0 0,6 22-1 0 0,18 92-118 0 0,-21-89 43 0 0,18 58 0 0 0,-13-61-7 0 0,8 46-1 0 0,-3-27 42 0 0,-11-42 67 0 0,-1 0 0 0 0,3 21-1 0 0,-3-7 2 0 0,13 53 0 0 0,-15-74 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 9 1 0 0,0-9-10 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 16 0 0 0,8 13-3 0 0,-5-15 14 0 0,5 22 0 0 0,8 38 72 0 0,12 59 249 0 0,-29-124-34 0 0,10 31 0 0 0,-9-33-201 0 0,0 1 0 0 0,3 23 0 0 0,-6-29 4 0 0,0 0-1 0 0,7 18 0 0 0,1 4 239 0 0,4 18 1066 0 0,-14-47-1245 0 0,0 0-39 0 0,1 0-66 0 0,-1-1-27 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,2 0 52 0 0,2 6-76 0 0,-3-5-89 0 0,2-8-2598 0 0,0 1 2132 0 0,7-14-12630 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1260.34">1958 2543 10159 0 0,'0'0'5450'0'0,"-6"0"-598"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1260.33">1958 2543 10159 0 0,'0'0'5450'0'0,"-6"0"-598"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1605.21">2018 2443 6535 0 0,'0'0'1296'0'0,"10"-9"-5880"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941.46">2144 2211 6535 0 0,'0'0'1296'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1942.46">2166 2138 6535 0 0,'0'0'576'0'0</inkml:trace>
@@ -7851,7 +7954,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">111 38 10159 0 0,'0'0'12815'0'0,"-5"12"-11926"0"0,-4 8-30 0 0,4-10-702 0 0,1 0 1 0 0,0 0-1 0 0,-3 12 0 0 0,-13 20 266 0 0,18-34-375 0 0,0 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,-5 10 0 0 0,-10 40 216 0 0,-2-12-220 0 0,19-43-141 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.04">332 1 6535 0 0,'0'0'13294'0'0,"-1"2"-12558"0"0,-4 15 661 0 0,2-9-980 0 0,0 0-1 0 0,0 0 0 0 0,-7 12 0 0 0,-8-3-92 0 0,16-16-300 0 0,2-1-11 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,1 0 27 0 0,-2 0-20 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-3 3 1 0 0,4-4-15 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 2 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-6 12 113 0 0,5 3-20 0 0,1 0-80 0 0,-7-1-20 0 0,-1-3-72 0 0,7-10-301 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="673.67">122 158 10999 0 0,'0'0'12071'0'0,"4"1"-11527"0"0,11 3-64 0 0,-11-3-243 0 0,1-2-108 0 0,72 0 82 0 0,-38 2-3439 0 0,-29 0-1345 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.36">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.35">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7914,7 +8017,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">364 142 6535 0 0,'0'0'16541'0'0,"-3"-1"-16150"0"0,-2-2-525 0 0,4 3 268 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1-1-11 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-5 4-1 0 0,1-1-108 0 0,4-2-8 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-3 4-1 0 0,-1 1 8 0 0,3-4-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-2 6 0 0 0,-10 29-12 0 0,10-27-47 0 0,4-6-6 0 0,0-1 47 0 0,4 9-30 0 0,4 0 18 0 0,-8-11 90 0 0,2 0 17 0 0,14 8 133 0 0,-8-5-196 0 0,-7-3-2 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,4 0 1 0 0,47 14 21 0 0,-51-14-205 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1-1 0 0,-3-1-689 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,3-3 0 0 0,8-6-7169 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.32">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.31">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8120,7 +8223,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">145 445 10159 0 0,'0'0'12768'0'0,"3"0"-12616"0"0,9 0-35 0 0,-9 0 78 0 0,0-1-115 0 0,14-8-62 0 0,-14 5-13 0 0,-2 1 8 0 0,0 2 14 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1-2-1 0 0,0 1-6 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,2-5 0 0 0,-2 6-29 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0-2-1 0 0,0 1 14 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,1-2-1 0 0,2-6 92 0 0,6-18-2 0 0,-10 26-86 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,3-4 1 0 0,1-2-7 0 0,-5 5 0 0 0,1-1 0 0 0,10-8 0 0 0,-5 7-1 0 0,-4 3-5 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,4-2-1 0 0,0-2-2 0 0,19-11 69 0 0,-20 13-48 0 0,-5 3 22 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,2 0 0 0 0,-2-1 406 0 0,-1 3-409 0 0,14 17 42 0 0,-13-14-72 0 0,4 5-2 0 0,-1 1 0 0 0,-2 16 0 0 0,-2-17 0 0 0,10 28 0 0 0,-9-26 0 0 0,-2-9 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 6 0 0 0,0-1 0 0 0,14 28 0 0 0,-15-32 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 3 0 0 0,2 7 0 0 0,1-5 0 0 0,-1-4 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 6 0 0 0,1-7 0 0 0,-1 1 0 0 0,-2 16 0 0 0,0-6 0 0 0,-1-3-16 0 0,1-9-69 0 0,-4 4-772 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="555.3">242 380 10159 0 0,'0'0'13600'0'0,"0"0"-13578"0"0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 9 0 0,3-1 11 0 0,-10 6-41 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 0 0 0 0,-1 0 17 0 0,-1 0 488 0 0,0 1-430 0 0,28 5 17 0 0,-28-5 52 0 0,0-1 23 0 0,28 7 154 0 0,-26-7-301 0 0,18 6 47 0 0,-10 0-54 0 0,-11-4-10 0 0,-2 0 5 0 0,2-1 107 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="555.29">242 380 10159 0 0,'0'0'13600'0'0,"0"0"-13578"0"0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 9 0 0,3-1 11 0 0,-10 6-41 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 0 0 0 0,-1 0 17 0 0,-1 0 488 0 0,0 1-430 0 0,28 5 17 0 0,-28-5 52 0 0,0-1 23 0 0,28 7 154 0 0,-26-7-301 0 0,18 6 47 0 0,-10 0-54 0 0,-11-4-10 0 0,-2 0 5 0 0,2-1 107 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1457.05">733 147 13039 0 0,'0'0'2112'0'0,"-1"2"-1324"0"0,-3 6 49 0 0,-3 19 7919 0 0,6-25-9378 0 0,1 1 1000 0 0,0 10 106 0 0,0-9-468 0 0,14 19 707 0 0,15 15-659 0 0,-27-33-64 0 0,1-1 0 0 0,16 11 0 0 0,1-1 34 0 0,26 12-1 0 0,-23-13-20 0 0,-20-11-13 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 0 0 0 0,4 2 0 0 0,31 11 0 0 0,-23-4 175 0 0,-17-10 109 0 0,-11 11-194 0 0,7-8-73 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-4 2 0 0 0,-15 13-16 0 0,-4 2 0 0 0,-37 28 64 0 0,43-36-64 0 0,-3 3 0 0 0,4 2 16 0 0,7-11 118 0 0,10-4-108 0 0,0 0 29 0 0,18 6-2202 0 0,17-3-5669 0 0,-13-4 196 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6387.7">1767 352 6535 0 0,'0'0'1915'0'0,"-3"-13"2328"0"0,3 12-3997 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-2-3 2464 0 0,-4-5-93 0 0,5 7-2313 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-6-4 0 0 0,8 6-228 0 0,-1-1-11 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 2 1 0 0,-3-1-1 0 0,-19 6 29 0 0,19-5-93 0 0,-20 9 0 0 0,2 2 0 0 0,13-6 0 0 0,9-5 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 3 0 0 0,-12 17-16 0 0,-2 7-280 0 0,13-27 288 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 3 0 0 0,0 16 25 0 0,0-17 8 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,2 4 0 0 0,-1 0 41 0 0,0-4-29 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,3 3-1 0 0,-3-4 107 0 0,11 9 132 0 0,5-1-44 0 0,0-2 0 0 0,30 11 0 0 0,-47-19-223 0 0,3 2 11 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,8 0 0 0 0,1 1 0 0 0,80 18 261 0 0,-76-17-272 0 0,15 1-47 0 0,-30-4-122 0 0,9 6-7553 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17325.22">3979 254 18543 0 0,'0'0'3454'0'0,"1"3"-3064"0"0,0-1-231 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 5 1 0 0,0-5-89 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 3 0 0 0,0-5-62 0 0,0 2 21 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 3 1 0 0,-5 15 103 0 0,2 0 0 0 0,1 1 0 0 0,1-1 0 0 0,0 24-1 0 0,2-24-107 0 0,-2-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-11 35-1 0 0,13-55-23 0 0,-3 9 28 0 0,-1 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,-1 17 0 0 0,3-21 25 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-4 8 0 0 0,5-12-63 0 0,0 2 7 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-4 4 0 0 0,2 0-170 0 0,3-5-18 0 0,4-16-1933 0 0,3-3 709 0 0,4-15-2119 0 0,-4 11-1370 0 0,3-4-1159 0 0</inkml:trace>
@@ -8333,7 +8436,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">127 152 13039 0 0,'0'0'1572'0'0,"1"-2"-405"0"0,-1-1-828 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-3-7 4071 0 0,0 2-3239 0 0,3 6-1113 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1-16 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,-1 0-42 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-2 5 1 0 0,-28 156 761 0 0,32-160-758 0 0,-6 46 13 0 0,5-32-17 0 0,-5 26-1 0 0,-6 27 95 0 0,-2 16-26 0 0,25-169-8089 0 0,-8 58 3098 0 0,2-1-1098 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="456.47">24 285 5615 0 0,'1'-3'430'0'0,"10"-44"-149"0"0,-7 23 1267 0 0,-1-3 1524 0 0,-3 22-2317 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3-5-1 0 0,0-17 2717 0 0,-3 25-1868 0 0,1 1-1533 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 74 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,24-22 1020 0 0,-23 23-862 0 0,1 0-27 0 0,3-1-204 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,0 1-29 0 0,-4-2-6 0 0,0 0 1 0 0,-1 1-1 0 0,12 9 0 0 0,-7-7-7 0 0,-2 0-10 0 0,-1 0 1 0 0,19 16-1 0 0,-22-17-18 0 0,0 0 0 0 0,0 0 0 0 0,6 9 0 0 0,-4 1 0 0 0,-8-14-1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-5 3 0 0 0,-9 11 14 0 0,15-15-15 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-4 3 0 0 0,-7 2-30 0 0,10-4-6 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-10 0-1 0 0,4-2 55 0 0,-1 1 57 0 0,10 6 70 0 0,12 11 136 0 0,-7-12-246 0 0,42 65-113 0 0,-37-55 181 0 0,14 30-1 0 0,-15-29-45 0 0,-4-6-8 0 0,0-1 9 0 0,-1 0 0 0 0,0 0 1 0 0,3 14-1 0 0,-3-13-42 0 0,-1-4-14 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 9 0 0 0,0-8 18 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-7 4 0 0 0,2-2 29 0 0,5-4-31 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4 2 0 0 0,-11 3 35 0 0,16-5-64 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-6 1 0 0 0,5-1-6 0 0,4 0 19 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1-1 0 0 0,-25-10-21 0 0,26 12-12 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 1 0 0,2 1-43 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-4-1 0 0,3-11-1601 0 0,4 2-4457 0 0,5 0-2194 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.17">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.16">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2795.33">1703 10 20847 0 0,'0'0'2091'0'0,"1"2"-1914"0"0,0 3-75 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8 0 0 0,-9 47 471 0 0,3-21-260 0 0,-23 165 487 0 0,10-78-725 0 0,13-89-27 0 0,3-27-46 0 0,1 0-1 0 0,0 19 1 0 0,-1-17-1 0 0,2-10-3 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 2 1 0 0,0-3-78 0 0,-1-5-1201 0 0,-2-8 512 0 0,-3-14-1520 0 0,3 8-2825 0 0,3 0-1922 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3209.13">1592 181 19551 0 0,'9'-24'712'0'0,"-8"19"-510"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,5-9 0 0 0,0 4 153 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,18-7 0 0 0,-21 9-193 0 0,3-1 23 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,19-3-1 0 0,51-3 264 0 0,-76 9-433 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 1 1 0 0,9 2-1 0 0,4 1 67 0 0,30 2 1 0 0,7-2 212 0 0,1 1 42 0 0,-55-5-337 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 1 0 0 0,0 1 0 0 0,11 3 0 0 0,-1 1 11 0 0,-9-4 8 0 0,-1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 6 0 0 0,3 6 108 0 0,10 24-1 0 0,-13-28-110 0 0,-1 2-16 0 0,0 0 0 0 0,5 28 0 0 0,-6-21 0 0 0,3 48 0 0 0,-3-47 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,-3 36 0 0 0,2-26 0 0 0,0-18 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 15 0 0 0,4-22 0 0 0,-5 18 0 0 0,3-20 3 0 0,1-4-4 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-86 0 0,-2-3-303 0 0,-1-1 273 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-2-6 0 0 0,-8-16-1082 0 0,2 11 336 0 0,-9-15-5921 0 0,8 8-678 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3682.75">1869 227 18023 0 0,'0'0'6535'0'0,"12"-9"-4849"0"0,13-2-1418 0 0,-22 11 171 0 0,0 0-343 0 0,30-2 64 0 0,-30 2-241 0 0,-1 1-462 0 0,-1 1 505 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 3-1 0 0,-5 8-432 0 0,1 0-1 0 0,-10 12 1 0 0,7-11 299 0 0,1 0 106 0 0,1-1-1 0 0,0 2 0 0 0,1-1 1 0 0,1 1-1 0 0,-8 27 1 0 0,8-18 49 0 0,7-17 18 0 0,0-2-3 0 0,4 13 1 0 0,-6-15 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 1-1 0 0,-4 2 151 0 0,0-4-140 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 16 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,3-1 360 0 0,24 6 382 0 0,-25-5-528 0 0,13-8 278 0 0,-14 6-492 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1-2 20 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-5-5 1 0 0,-4-6 212 0 0,11 13-247 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-2 1 1 0 0,-15-7-5 0 0,-2-1-161 0 0,14 4-3743 0 0,28-10-3576 0 0</inkml:trace>
@@ -8768,13 +8871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:BJ95"/>
+  <dimension ref="B4:BJ96"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" outlineLevelCol="1"/>
@@ -10648,7 +10751,9 @@
         <v>120</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="L28" s="3"/>
@@ -10656,14 +10761,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:62" ht="136.75" customHeight="1">
+    <row r="29" spans="2:62" ht="196.3" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -10672,27 +10779,31 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="2:62">
-      <c r="B30" s="1"/>
+    <row r="30" spans="2:62" ht="136.75" customHeight="1">
+      <c r="B30" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="2:62">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -10703,6 +10814,9 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10712,7 +10826,6 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -11336,6 +11449,16 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:B19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -11413,7 +11536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A7B3DF-C52A-49FD-9AAA-2DCDF0D1ED16}">
   <dimension ref="B4:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
@@ -11421,47 +11544,47 @@
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="D6" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="E7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="F8" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="4:8">
       <c r="D20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="4:8">
       <c r="E21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -11469,7 +11592,7 @@
     </row>
     <row r="23" spans="4:8">
       <c r="E23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -11477,7 +11600,7 @@
     </row>
     <row r="25" spans="4:8">
       <c r="E25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -11485,7 +11608,7 @@
     </row>
     <row r="26" spans="4:8">
       <c r="E26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26">
         <v>999</v>
@@ -11493,62 +11616,62 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="E37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="7:11">
       <c r="H49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="7:11">
       <c r="K56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="7:11">
       <c r="G57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="7:11">
       <c r="H58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="3:11">
       <c r="I87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="3:11">
       <c r="I88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="3:11">
       <c r="J89" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="3:11">
       <c r="K90" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="3:11">
       <c r="C92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A56B9D-1BA4-4085-AF81-F24CB69B55A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9CE0D-E05E-46A9-944F-7F23CDD469E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -1935,6 +1935,14 @@
     <rPh sb="15" eb="16">
       <t>カタチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/1/1-20220401 PARA0.1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/1/1-20220401 PARA0.2,2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5789,6 +5797,270 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>295470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>458754</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>870358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCBD4BE-D612-47EB-9010-3DA653BA6C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22409020" y="31070940"/>
+          <a:ext cx="7977673" cy="574888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>914422</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>282255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BD90D8-434B-4869-9C44-ADC97F7C7620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21973591" y="30899878"/>
+          <a:ext cx="859994" cy="157847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482081</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1765042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>672072</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2505290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C726A656-5E65-4DA1-86F5-AFDF83BE5686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22401244" y="32540512"/>
+          <a:ext cx="10298155" cy="740248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15551</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1601754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1789969</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1830360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57192EC0-5E17-4811-8766-1E2FF564C22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21934714" y="32377224"/>
+          <a:ext cx="1774418" cy="228606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513183</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1003042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>338493</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1552785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3805E65E-F92E-468A-9A24-63AB2B0F6639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22432346" y="31778512"/>
+          <a:ext cx="9933474" cy="549743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1329612</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>831979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1561364</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>995269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715977B2-A3FA-4EB8-907C-16897F57E704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21880285" y="31607449"/>
+          <a:ext cx="1600242" cy="163290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8874,10 +9146,10 @@
   <dimension ref="B4:BJ96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" outlineLevelCol="1"/>
@@ -10761,7 +11033,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:62" ht="196.3" customHeight="1">
+    <row r="29" spans="2:62" ht="320.60000000000002" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>150</v>
       </c>
@@ -10793,7 +11065,9 @@
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="31" spans="2:62">
       <c r="B31" s="1"/>
@@ -10820,6 +11094,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="M32" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1"/>

--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9CE0D-E05E-46A9-944F-7F23CDD469E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DDD7C6-2A50-43C7-B2DC-FE2822ACCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="156">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -1942,7 +1942,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2019/1/1-20220401 PARA0.2,2</t>
+    <t>2019/1/1-20191231 PARA1.0,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b1_21,2は下目線になったばかりという条件があったが、常に下Nの形の時のパターンのときとしたらどうなるか？</t>
+    <rPh sb="8" eb="11">
+      <t>シタメセン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6061,6 +6083,446 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38877</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2760306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>256083</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3124987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664F7E5B-87C2-47E4-A268-DE745E4FC5B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId121"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21958040" y="33535776"/>
+          <a:ext cx="10325370" cy="364681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1267408</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2558143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1526375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2781306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DA2367-1924-4E1D-9F3F-06983F6D2F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21818081" y="33333613"/>
+          <a:ext cx="1627457" cy="223163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1353854</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3130786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>273941</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3495467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E4D88F-104D-46B9-8C4B-B5B946287595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId123"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21908643" y="33969374"/>
+          <a:ext cx="7583836" cy="364681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1320464</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3471078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>116232</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3813987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABAFD45-2E22-4504-BE2E-1095C11F876C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21875253" y="34309666"/>
+          <a:ext cx="7459517" cy="342909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>399076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>375567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9D0D48-A7E5-475D-A62B-5B15ED1DA8A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26428959" y="23723081"/>
+          <a:ext cx="7397036" cy="375567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1325496</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3801310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49635</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4176877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949A40F9-D638-46B5-A0CB-B2E99C4E803C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21880285" y="34639898"/>
+          <a:ext cx="7387888" cy="375567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31102</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4191000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>211689</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4484922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02C4528-A220-4F10-AE86-AAAC6D8530F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21950265" y="34966470"/>
+          <a:ext cx="7489567" cy="293922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352939</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4517570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>126935</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4767948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3A8749-C991-42DE-90B7-6E8E1EFD31BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId127"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21903612" y="35293040"/>
+          <a:ext cx="7451466" cy="250378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>64033</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>433780</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>201710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C685E0A4-3BB7-430F-BBEA-0673DA504E28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21982739" y="38285698"/>
+          <a:ext cx="10461445" cy="163290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1319094</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4789712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>416218</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5122989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C21BA9-AB33-429E-A05E-22291F2DDD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId129"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21873883" y="35628300"/>
+          <a:ext cx="7062907" cy="333277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9143,13 +9605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:BJ96"/>
+  <dimension ref="B4:BJ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" outlineLevelCol="1"/>
@@ -11033,7 +11495,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:62" ht="320.60000000000002" customHeight="1">
+    <row r="29" spans="2:62" ht="409.3" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>150</v>
       </c>
@@ -11051,73 +11513,76 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="2:62" ht="136.75" customHeight="1">
+    <row r="30" spans="2:62" ht="409.3" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="2:62" ht="136.75" customHeight="1">
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="31" spans="2:62">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:62">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="M32" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="M33" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:13">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -11127,7 +11592,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:13">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -11137,7 +11602,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:13">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -11147,7 +11612,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:13">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -11157,7 +11622,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:13">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -11167,7 +11632,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:13">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -11177,7 +11642,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:13">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -11187,7 +11652,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:13">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -11197,7 +11662,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:13">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -11207,7 +11672,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:13">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -11217,7 +11682,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:13">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -11227,7 +11692,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:13">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -11237,7 +11702,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:13">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -11247,7 +11712,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:13">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -11736,6 +12201,16 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:B19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DDD7C6-2A50-43C7-B2DC-FE2822ACCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DAB5D1-7D49-4C76-B042-DD0F12B738B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -1963,6 +1963,23 @@
       <t>カタチ</t>
     </rPh>
     <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B1_3_PO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下方向向けのトレードなので、パーフェクトオーダーが下の時のみトレードする。</t>
+    <rPh sb="0" eb="4">
+      <t>シタホウコウム</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
       <t>トキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -6439,13 +6456,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>64033</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>433780</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>201710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7081,7 +7098,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">416 2 10159 0 0,'0'0'1768'0'0,"2"17"2314"0"0,-4 2-2143 0 0,3-15-1755 0 0,-2 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 5 1 0 0,-1 13 410 0 0,-2 5-117 0 0,1-15-202 0 0,0 0 0 0 0,1 0 0 0 0,1 1 1 0 0,-2 13-1 0 0,3-16-133 0 0,1-10-210 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415.05">414 14 6535 0 0,'0'0'500'0'0,"15"-3"3712"0"0,-12 4-3779 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 6 0 0 0,13 16 1100 0 0,9 2 389 0 0,-25-26-1878 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-1 1 0 0,0 0 19 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-4 0 0 0,8-5 82 0 0,-12 9-129 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-2 0 0 0,-1-2-5 0 0,-4 67 896 0 0,8-25-569 0 0,-2-19-507 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="832.8">731 202 14687 0 0,'0'0'1646'0'0,"7"-12"804"0"0,-3-7-1492 0 0,2 0 0 0 0,0 1 0 0 0,1 0 0 0 0,17-31-1 0 0,-19 41-854 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,11-10 0 0 0,-14 16-106 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,-5 2 25 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 2 0 0 0,-1-2-65 0 0,0 2-55 0 0,3 7 78 0 0,1-1 0 0 0,-2 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-3 19 0 0 0,2-28 20 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-3 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 2-1 0 0,-6 8-196 0 0,4-8 69 0 0,2-1-150 0 0,-1 4 258 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.6">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.59">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.06">996 33 15199 0 0,'0'0'6352'0'0,"18"10"-4313"0"0,-7-3-1877 0 0,4 2 66 0 0,-1 1 0 0 0,0 0-1 0 0,17 17 1 0 0,-26-21-244 0 0,-4-5-63 0 0,1 4 1894 0 0,0-2-3438 0 0,22-14-18182 0 0,-23 9 20155 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1-2 0 0 0,-1 3-173 0 0,-1 0-25 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-4-3 2903 0 0,-37 9 5076 0 0,31-3-8017 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-14 11 0 0 0,8-5-67 0 0,1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-13 18-1 0 0,13-21-43 0 0,12-9-4 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 0-367 0 0,5-1 174 0 0,1-1 97 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12192.16">1415 5 6535 0 0,'-3'1'5160'0'0,"-11"3"-1348"0"0,13-3-3604 0 0,-2-1-29 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 3 0 0 0,-10 11 142 0 0,1 0-1 0 0,0 0 1 0 0,2 1 0 0 0,-18 33 0 0 0,16-21 392 0 0,1 0 0 0 0,2 1 0 0 0,-10 44 0 0 0,17-61-586 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,2 0 0 0 0,6 19 0 0 0,-6-24-76 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,12 9 0 0 0,-17-14-168 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0-324 0 0,4-4-1364 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14506.99">1537 566 11743 0 0,'0'0'1338'0'0,"22"-34"3115"0"0,-17 25-3954 0 0,0 1 0 0 0,0 0 0 0 0,11-14 0 0 0,-1 3-199 0 0,42-62 463 0 0,-45 62-287 0 0,2 2 1 0 0,0 0-1 0 0,19-18 1 0 0,-30 32-398 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,4-4-1 0 0,-3 3 8 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 0 0 0,-9 8-61 0 0,-3 3-18 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1-4 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,3 12 66 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-5 22 0 0 0,1-14-43 0 0,1-4 26 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 32 0 0 0,3-30 20 0 0,-1 0-69 0 0,1-15-2737 0 0</inkml:trace>
@@ -8688,7 +8705,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">111 38 10159 0 0,'0'0'12815'0'0,"-5"12"-11926"0"0,-4 8-30 0 0,4-10-702 0 0,1 0 1 0 0,0 0-1 0 0,-3 12 0 0 0,-13 20 266 0 0,18-34-375 0 0,0 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,-5 10 0 0 0,-10 40 216 0 0,-2-12-220 0 0,19-43-141 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.04">332 1 6535 0 0,'0'0'13294'0'0,"-1"2"-12558"0"0,-4 15 661 0 0,2-9-980 0 0,0 0-1 0 0,0 0 0 0 0,-7 12 0 0 0,-8-3-92 0 0,16-16-300 0 0,2-1-11 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,1 0 27 0 0,-2 0-20 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-3 3 1 0 0,4-4-15 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 2 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-6 12 113 0 0,5 3-20 0 0,1 0-80 0 0,-7-1-20 0 0,-1-3-72 0 0,7-10-301 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="673.67">122 158 10999 0 0,'0'0'12071'0'0,"4"1"-11527"0"0,11 3-64 0 0,-11-3-243 0 0,1-2-108 0 0,72 0 82 0 0,-38 2-3439 0 0,-29 0-1345 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.35">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.34">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8751,7 +8768,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">364 142 6535 0 0,'0'0'16541'0'0,"-3"-1"-16150"0"0,-2-2-525 0 0,4 3 268 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1-1-11 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-5 4-1 0 0,1-1-108 0 0,4-2-8 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-3 4-1 0 0,-1 1 8 0 0,3-4-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-2 6 0 0 0,-10 29-12 0 0,10-27-47 0 0,4-6-6 0 0,0-1 47 0 0,4 9-30 0 0,4 0 18 0 0,-8-11 90 0 0,2 0 17 0 0,14 8 133 0 0,-8-5-196 0 0,-7-3-2 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,4 0 1 0 0,47 14 21 0 0,-51-14-205 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1-1 0 0,-3-1-689 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,3-3 0 0 0,8-6-7169 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.31">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.3">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9170,7 +9187,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">127 152 13039 0 0,'0'0'1572'0'0,"1"-2"-405"0"0,-1-1-828 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-3-7 4071 0 0,0 2-3239 0 0,3 6-1113 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1-16 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,-1 0-42 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-2 5 1 0 0,-28 156 761 0 0,32-160-758 0 0,-6 46 13 0 0,5-32-17 0 0,-5 26-1 0 0,-6 27 95 0 0,-2 16-26 0 0,25-169-8089 0 0,-8 58 3098 0 0,2-1-1098 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="456.47">24 285 5615 0 0,'1'-3'430'0'0,"10"-44"-149"0"0,-7 23 1267 0 0,-1-3 1524 0 0,-3 22-2317 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3-5-1 0 0,0-17 2717 0 0,-3 25-1868 0 0,1 1-1533 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 74 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,24-22 1020 0 0,-23 23-862 0 0,1 0-27 0 0,3-1-204 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,0 1-29 0 0,-4-2-6 0 0,0 0 1 0 0,-1 1-1 0 0,12 9 0 0 0,-7-7-7 0 0,-2 0-10 0 0,-1 0 1 0 0,19 16-1 0 0,-22-17-18 0 0,0 0 0 0 0,0 0 0 0 0,6 9 0 0 0,-4 1 0 0 0,-8-14-1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-5 3 0 0 0,-9 11 14 0 0,15-15-15 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-4 3 0 0 0,-7 2-30 0 0,10-4-6 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-10 0-1 0 0,4-2 55 0 0,-1 1 57 0 0,10 6 70 0 0,12 11 136 0 0,-7-12-246 0 0,42 65-113 0 0,-37-55 181 0 0,14 30-1 0 0,-15-29-45 0 0,-4-6-8 0 0,0-1 9 0 0,-1 0 0 0 0,0 0 1 0 0,3 14-1 0 0,-3-13-42 0 0,-1-4-14 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 9 0 0 0,0-8 18 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-7 4 0 0 0,2-2 29 0 0,5-4-31 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4 2 0 0 0,-11 3 35 0 0,16-5-64 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-6 1 0 0 0,5-1-6 0 0,4 0 19 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1-1 0 0 0,-25-10-21 0 0,26 12-12 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 1 0 0,2 1-43 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-4-1 0 0,3-11-1601 0 0,4 2-4457 0 0,5 0-2194 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.16">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.15">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2795.33">1703 10 20847 0 0,'0'0'2091'0'0,"1"2"-1914"0"0,0 3-75 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8 0 0 0,-9 47 471 0 0,3-21-260 0 0,-23 165 487 0 0,10-78-725 0 0,13-89-27 0 0,3-27-46 0 0,1 0-1 0 0,0 19 1 0 0,-1-17-1 0 0,2-10-3 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 2 1 0 0,0-3-78 0 0,-1-5-1201 0 0,-2-8 512 0 0,-3-14-1520 0 0,3 8-2825 0 0,3 0-1922 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3209.13">1592 181 19551 0 0,'9'-24'712'0'0,"-8"19"-510"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,5-9 0 0 0,0 4 153 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,18-7 0 0 0,-21 9-193 0 0,3-1 23 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,19-3-1 0 0,51-3 264 0 0,-76 9-433 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 1 1 0 0,9 2-1 0 0,4 1 67 0 0,30 2 1 0 0,7-2 212 0 0,1 1 42 0 0,-55-5-337 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 1 0 0 0,0 1 0 0 0,11 3 0 0 0,-1 1 11 0 0,-9-4 8 0 0,-1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 6 0 0 0,3 6 108 0 0,10 24-1 0 0,-13-28-110 0 0,-1 2-16 0 0,0 0 0 0 0,5 28 0 0 0,-6-21 0 0 0,3 48 0 0 0,-3-47 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,-3 36 0 0 0,2-26 0 0 0,0-18 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 15 0 0 0,4-22 0 0 0,-5 18 0 0 0,3-20 3 0 0,1-4-4 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-86 0 0,-2-3-303 0 0,-1-1 273 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-2-6 0 0 0,-8-16-1082 0 0,2 11 336 0 0,-9-15-5921 0 0,8 8-678 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3682.75">1869 227 18023 0 0,'0'0'6535'0'0,"12"-9"-4849"0"0,13-2-1418 0 0,-22 11 171 0 0,0 0-343 0 0,30-2 64 0 0,-30 2-241 0 0,-1 1-462 0 0,-1 1 505 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 3-1 0 0,-5 8-432 0 0,1 0-1 0 0,-10 12 1 0 0,7-11 299 0 0,1 0 106 0 0,1-1-1 0 0,0 2 0 0 0,1-1 1 0 0,1 1-1 0 0,-8 27 1 0 0,8-18 49 0 0,7-17 18 0 0,0-2-3 0 0,4 13 1 0 0,-6-15 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 1-1 0 0,-4 2 151 0 0,0-4-140 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 16 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,3-1 360 0 0,24 6 382 0 0,-25-5-528 0 0,13-8 278 0 0,-14 6-492 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1-2 20 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-5-5 1 0 0,-4-6 212 0 0,11 13-247 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-2 1 1 0 0,-15-7-5 0 0,-2-1-161 0 0,14 4-3743 0 0,28-10-3576 0 0</inkml:trace>
@@ -9605,10 +9622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:BJ97"/>
+  <dimension ref="B4:BJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
@@ -11529,65 +11546,71 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:62" ht="136.75" customHeight="1">
+    <row r="31" spans="2:62" ht="409.3" customHeight="1">
+      <c r="B31" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="2:62" ht="136.75" customHeight="1">
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="2:62">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="M33" s="3" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+      <c r="M34" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -12211,6 +12234,16 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:B19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ind1/TradeMethodFW/classTradeMethod_A.xlsx
+++ b/ind1/TradeMethodFW/classTradeMethod_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\TradeMethodFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DAB5D1-7D49-4C76-B042-DD0F12B738B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F574A-1C48-4B9F-B73D-F98C369A038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7098,7 +7098,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">416 2 10159 0 0,'0'0'1768'0'0,"2"17"2314"0"0,-4 2-2143 0 0,3-15-1755 0 0,-2 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 5 1 0 0,-1 13 410 0 0,-2 5-117 0 0,1-15-202 0 0,0 0 0 0 0,1 0 0 0 0,1 1 1 0 0,-2 13-1 0 0,3-16-133 0 0,1-10-210 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415.05">414 14 6535 0 0,'0'0'500'0'0,"15"-3"3712"0"0,-12 4-3779 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 6 0 0 0,13 16 1100 0 0,9 2 389 0 0,-25-26-1878 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-1 1 0 0,0 0 19 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-4 0 0 0,8-5 82 0 0,-12 9-129 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-2 0 0 0,-1-2-5 0 0,-4 67 896 0 0,8-25-569 0 0,-2-19-507 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="832.8">731 202 14687 0 0,'0'0'1646'0'0,"7"-12"804"0"0,-3-7-1492 0 0,2 0 0 0 0,0 1 0 0 0,1 0 0 0 0,17-31-1 0 0,-19 41-854 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,11-10 0 0 0,-14 16-106 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,-5 2 25 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 2 0 0 0,-1-2-65 0 0,0 2-55 0 0,3 7 78 0 0,1-1 0 0 0,-2 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-3 19 0 0 0,2-28 20 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-3 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 2-1 0 0,-6 8-196 0 0,4-8 69 0 0,2-1-150 0 0,-1 4 258 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.59">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1200.58">790 112 20127 0 0,'0'0'2097'0'0,"14"-11"-299"0"0,-1 12-1575 0 0,-1 1 1 0 0,23 6-1 0 0,2 0-441 0 0,-35-8 162 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 0 0 0 0,-3 0-698 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.06">996 33 15199 0 0,'0'0'6352'0'0,"18"10"-4313"0"0,-7-3-1877 0 0,4 2 66 0 0,-1 1 0 0 0,0 0-1 0 0,17 17 1 0 0,-26-21-244 0 0,-4-5-63 0 0,1 4 1894 0 0,0-2-3438 0 0,22-14-18182 0 0,-23 9 20155 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1-2 0 0 0,-1 3-173 0 0,-1 0-25 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-4-3 2903 0 0,-37 9 5076 0 0,31-3-8017 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-14 11 0 0 0,8-5-67 0 0,1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-13 18-1 0 0,13-21-43 0 0,12-9-4 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 0-367 0 0,5-1 174 0 0,1-1 97 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12192.16">1415 5 6535 0 0,'-3'1'5160'0'0,"-11"3"-1348"0"0,13-3-3604 0 0,-2-1-29 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 3 0 0 0,-10 11 142 0 0,1 0-1 0 0,0 0 1 0 0,2 1 0 0 0,-18 33 0 0 0,16-21 392 0 0,1 0 0 0 0,2 1 0 0 0,-10 44 0 0 0,17-61-586 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,2 0 0 0 0,6 19 0 0 0,-6-24-76 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,12 9 0 0 0,-17-14-168 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0-324 0 0,4-4-1364 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14506.99">1537 566 11743 0 0,'0'0'1338'0'0,"22"-34"3115"0"0,-17 25-3954 0 0,0 1 0 0 0,0 0 0 0 0,11-14 0 0 0,-1 3-199 0 0,42-62 463 0 0,-45 62-287 0 0,2 2 1 0 0,0 0-1 0 0,19-18 1 0 0,-30 32-398 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,4-4-1 0 0,-3 3 8 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 0 0 0,-9 8-61 0 0,-3 3-18 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1-4 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,3 12 66 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-5 22 0 0 0,1-14-43 0 0,1-4 26 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 32 0 0 0,3-30 20 0 0,-1 0-69 0 0,1-15-2737 0 0</inkml:trace>
@@ -8705,7 +8705,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">111 38 10159 0 0,'0'0'12815'0'0,"-5"12"-11926"0"0,-4 8-30 0 0,4-10-702 0 0,1 0 1 0 0,0 0-1 0 0,-3 12 0 0 0,-13 20 266 0 0,18-34-375 0 0,0 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,-5 10 0 0 0,-10 40 216 0 0,-2-12-220 0 0,19-43-141 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.04">332 1 6535 0 0,'0'0'13294'0'0,"-1"2"-12558"0"0,-4 15 661 0 0,2-9-980 0 0,0 0-1 0 0,0 0 0 0 0,-7 12 0 0 0,-8-3-92 0 0,16-16-300 0 0,2-1-11 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,1 0 27 0 0,-2 0-20 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-3 3 1 0 0,4-4-15 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 2 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-6 12 113 0 0,5 3-20 0 0,1 0-80 0 0,-7-1-20 0 0,-1-3-72 0 0,7-10-301 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="673.67">122 158 10999 0 0,'0'0'12071'0'0,"4"1"-11527"0"0,11 3-64 0 0,-11-3-243 0 0,1-2-108 0 0,72 0 82 0 0,-38 2-3439 0 0,-29 0-1345 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.34">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251.33">281 70 5695 0 0,'0'0'6847'0'0,"-2"1"-5315"0"0,1-1-1015 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-373 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1-139 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-6 17 136 0 0,6-17-110 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,4-8-11 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-2 7 58 0 0,1-8-46 0 0,1-2-13 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,1 23 387 0 0,0-15-486 0 0,25-12-14683 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8768,7 +8768,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">364 142 6535 0 0,'0'0'16541'0'0,"-3"-1"-16150"0"0,-2-2-525 0 0,4 3 268 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1-1-11 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-5 4-1 0 0,1-1-108 0 0,4-2-8 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-3 4-1 0 0,-1 1 8 0 0,3-4-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-2 6 0 0 0,-10 29-12 0 0,10-27-47 0 0,4-6-6 0 0,0-1 47 0 0,4 9-30 0 0,4 0 18 0 0,-8-11 90 0 0,2 0 17 0 0,14 8 133 0 0,-8-5-196 0 0,-7-3-2 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,4 0 1 0 0,47 14 21 0 0,-51-14-205 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1-1 0 0,-3-1-689 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,3-3 0 0 0,8-6-7169 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.3">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="571.29">523 504 6535 0 0,'0'0'500'0'0,"-5"8"1344"0"0,2-6-1349 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-8 1 1 0 0,-2 2 717 0 0,-8 0-596 0 0,0-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-37-9 1 0 0,33 4-555 0 0,0-1 1 0 0,1-1 0 0 0,0-1 0 0 0,-28-16 0 0 0,43 20-120 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-9-17-1 0 0,13 22 44 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1-4-1 0 0,1 1 213 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,6-14 0 0 0,-1 7 62 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,29-14 1 0 0,-28 16-173 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,19-2-1 0 0,-27 4-45 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,8 7 0 0 0,1 3-14 0 0,-11-11 14 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,3 6 1 0 0,2 8 95 0 0,-6-14-125 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 6 0 0 0,-1 2 7 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-15 11 0 0 0,11-9-8 0 0,7-5-71 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,-13 6 1 0 0,-50 18-2699 0 0,51-20-3163 0 0,4-1-1851 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9187,7 +9187,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">127 152 13039 0 0,'0'0'1572'0'0,"1"-2"-405"0"0,-1-1-828 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-3-7 4071 0 0,0 2-3239 0 0,3 6-1113 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1-16 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,-1 0-42 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-2 5 1 0 0,-28 156 761 0 0,32-160-758 0 0,-6 46 13 0 0,5-32-17 0 0,-5 26-1 0 0,-6 27 95 0 0,-2 16-26 0 0,25-169-8089 0 0,-8 58 3098 0 0,2-1-1098 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="456.47">24 285 5615 0 0,'1'-3'430'0'0,"10"-44"-149"0"0,-7 23 1267 0 0,-1-3 1524 0 0,-3 22-2317 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3-5-1 0 0,0-17 2717 0 0,-3 25-1868 0 0,1 1-1533 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 74 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,24-22 1020 0 0,-23 23-862 0 0,1 0-27 0 0,3-1-204 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 3 0 0 0,0 1-29 0 0,-4-2-6 0 0,0 0 1 0 0,-1 1-1 0 0,12 9 0 0 0,-7-7-7 0 0,-2 0-10 0 0,-1 0 1 0 0,19 16-1 0 0,-22-17-18 0 0,0 0 0 0 0,0 0 0 0 0,6 9 0 0 0,-4 1 0 0 0,-8-14-1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-5 3 0 0 0,-9 11 14 0 0,15-15-15 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-4 3 0 0 0,-7 2-30 0 0,10-4-6 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-10 0-1 0 0,4-2 55 0 0,-1 1 57 0 0,10 6 70 0 0,12 11 136 0 0,-7-12-246 0 0,42 65-113 0 0,-37-55 181 0 0,14 30-1 0 0,-15-29-45 0 0,-4-6-8 0 0,0-1 9 0 0,-1 0 0 0 0,0 0 1 0 0,3 14-1 0 0,-3-13-42 0 0,-1-4-14 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 9 0 0 0,0-8 18 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-7 4 0 0 0,2-2 29 0 0,5-4-31 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4 2 0 0 0,-11 3 35 0 0,16-5-64 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-6 1 0 0 0,5-1-6 0 0,4 0 19 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1-1 0 0 0,-25-10-21 0 0,26 12-12 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 1 0 0,2 1-43 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-4-1 0 0,3-11-1601 0 0,4 2-4457 0 0,5 0-2194 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.15">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.14">927 194 5695 0 0,'-3'1'18578'0'0,"-12"9"-16672"0"0,10-5-1756 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-3 9 0 0 0,-15 51-180 0 0,20-63 25 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,2 6 0 0 0,3 14 62 0 0,-2-17 2 0 0,13 10-47 0 0,5-3-24 0 0,-16-10-14 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,7-3 14 0 0,-18 0 9 0 0,-3 1 4 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,3-1 41 0 0,3-3-47 0 0,-6 3-70 0 0,-12 12-266 0 0,-47 30 101 0 0,3 12 240 0 0,44-42 15 0 0,5-7 11 0 0,1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 10 0 0 0,2-6 117 0 0,6-9-138 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,3 11 91 0 0,3 5-3 0 0,-5-14-78 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,0-1-2 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10 3-1 0 0,-11-2-8 0 0,1-1-3 0 0,16 0-19 0 0,-15-2-318 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7-2 0 0 0,10-5-6362 0 0,-6 0-1493 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2795.33">1703 10 20847 0 0,'0'0'2091'0'0,"1"2"-1914"0"0,0 3-75 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8 0 0 0,-9 47 471 0 0,3-21-260 0 0,-23 165 487 0 0,10-78-725 0 0,13-89-27 0 0,3-27-46 0 0,1 0-1 0 0,0 19 1 0 0,-1-17-1 0 0,2-10-3 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 2 1 0 0,0-3-78 0 0,-1-5-1201 0 0,-2-8 512 0 0,-3-14-1520 0 0,3 8-2825 0 0,3 0-1922 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3209.13">1592 181 19551 0 0,'9'-24'712'0'0,"-8"19"-510"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,5-9 0 0 0,0 4 153 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,18-7 0 0 0,-21 9-193 0 0,3-1 23 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,19-3-1 0 0,51-3 264 0 0,-76 9-433 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 1 1 0 0,9 2-1 0 0,4 1 67 0 0,30 2 1 0 0,7-2 212 0 0,1 1 42 0 0,-55-5-337 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 1 0 0 0,0 1 0 0 0,11 3 0 0 0,-1 1 11 0 0,-9-4 8 0 0,-1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 6 0 0 0,3 6 108 0 0,10 24-1 0 0,-13-28-110 0 0,-1 2-16 0 0,0 0 0 0 0,5 28 0 0 0,-6-21 0 0 0,3 48 0 0 0,-3-47 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,-3 36 0 0 0,2-26 0 0 0,0-18 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3 15 0 0 0,4-22 0 0 0,-5 18 0 0 0,3-20 3 0 0,1-4-4 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-86 0 0,-2-3-303 0 0,-1-1 273 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-2-6 0 0 0,-8-16-1082 0 0,2 11 336 0 0,-9-15-5921 0 0,8 8-678 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3682.75">1869 227 18023 0 0,'0'0'6535'0'0,"12"-9"-4849"0"0,13-2-1418 0 0,-22 11 171 0 0,0 0-343 0 0,30-2 64 0 0,-30 2-241 0 0,-1 1-462 0 0,-1 1 505 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 3-1 0 0,-5 8-432 0 0,1 0-1 0 0,-10 12 1 0 0,7-11 299 0 0,1 0 106 0 0,1-1-1 0 0,0 2 0 0 0,1-1 1 0 0,1 1-1 0 0,-8 27 1 0 0,8-18 49 0 0,7-17 18 0 0,0-2-3 0 0,4 13 1 0 0,-6-15 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 1-1 0 0,-4 2 151 0 0,0-4-140 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 16 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,3-1 360 0 0,24 6 382 0 0,-25-5-528 0 0,13-8 278 0 0,-14 6-492 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1-2 20 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-5-5 1 0 0,-4-6 212 0 0,11 13-247 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-2 1 1 0 0,-15-7-5 0 0,-2-1-161 0 0,14 4-3743 0 0,28-10-3576 0 0</inkml:trace>
@@ -9625,10 +9625,10 @@
   <dimension ref="B4:BJ98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" outlineLevelCol="1"/>
